--- a/RCM- پیشرفت کار کارشناسان- تکسونامی تجهیزات گندله سازی.xlsx
+++ b/RCM- پیشرفت کار کارشناسان- تکسونامی تجهیزات گندله سازی.xlsx
@@ -8297,10 +8297,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:AF596"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+    <sheetView tabSelected="1" topLeftCell="A93" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="G99" sqref="G99"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.125" defaultRowHeight="15"/>
@@ -8415,7 +8416,7 @@
       </c>
       <c r="D2" s="56">
         <f>AVERAGEIF($B$8:$B$595,"vital",$M$8:$M$595)</f>
-        <v>0.78682051282051269</v>
+        <v>0.79066666666666641</v>
       </c>
       <c r="E2" s="62"/>
       <c r="F2" s="70" t="s">
@@ -8517,7 +8518,7 @@
       </c>
       <c r="D3" s="56">
         <f>AVERAGEIF($B$8:$B$595,"ESSENTIAL",$M$8:$M$595)</f>
-        <v>0.47994680851063892</v>
+        <v>0.49622340425531963</v>
       </c>
       <c r="E3" s="62"/>
       <c r="F3" s="70" t="s">
@@ -8585,7 +8586,7 @@
       </c>
       <c r="D4" s="56">
         <f>AVERAGEIF($B$8:$B$595,"IMPORTANT",$M$8:$M$595)</f>
-        <v>0.35746341463414655</v>
+        <v>0.36478048780487832</v>
       </c>
       <c r="E4" s="62"/>
       <c r="F4" s="70" t="s">
@@ -8601,7 +8602,7 @@
       </c>
       <c r="I4" s="56">
         <f>SUMIF($A$8:$A$1048576,"300",$M$8:$M$1048576)/I2</f>
-        <v>0.04</v>
+        <v>0.33400000000000002</v>
       </c>
       <c r="J4" s="56">
         <f>SUMIF($A$8:$A$1048576,"500",$M$8:$M$1048576)/J2</f>
@@ -8683,7 +8684,7 @@
       </c>
       <c r="I5" s="56">
         <f t="shared" si="1"/>
-        <v>1.0755813953488372E-3</v>
+        <v>8.9811046511627905E-3</v>
       </c>
       <c r="J5" s="56">
         <f t="shared" si="1"/>
@@ -8726,7 +8727,7 @@
       <c r="U5" s="56"/>
       <c r="V5" s="56">
         <f>SUBTOTAL(9,G5:U5)</f>
-        <v>0.44563955596061533</v>
+        <v>0.45354507921642928</v>
       </c>
     </row>
     <row r="6" spans="1:32" ht="15" customHeight="1">
@@ -8789,7 +8790,7 @@
         <v>1377</v>
       </c>
     </row>
-    <row r="8" spans="1:32" ht="15.75">
+    <row r="8" spans="1:32" ht="15.75" hidden="1">
       <c r="A8" s="30">
         <v>100</v>
       </c>
@@ -8832,7 +8833,7 @@
         <v>0.88</v>
       </c>
     </row>
-    <row r="9" spans="1:32" customFormat="1" ht="15.75">
+    <row r="9" spans="1:32" customFormat="1" ht="15.75" hidden="1">
       <c r="A9" s="2">
         <v>100</v>
       </c>
@@ -8875,7 +8876,7 @@
       <c r="P9" s="38"/>
       <c r="Q9" s="27"/>
     </row>
-    <row r="10" spans="1:32" customFormat="1" ht="15.75">
+    <row r="10" spans="1:32" customFormat="1" ht="15.75" hidden="1">
       <c r="A10" s="2">
         <v>100</v>
       </c>
@@ -8918,7 +8919,7 @@
       <c r="P10" s="38"/>
       <c r="Q10" s="27"/>
     </row>
-    <row r="11" spans="1:32" ht="15.75">
+    <row r="11" spans="1:32" ht="15.75" hidden="1">
       <c r="A11" s="30">
         <v>100</v>
       </c>
@@ -8957,7 +8958,7 @@
         <v>0.85200000000000009</v>
       </c>
     </row>
-    <row r="12" spans="1:32" customFormat="1" ht="15.75">
+    <row r="12" spans="1:32" customFormat="1" ht="15.75" hidden="1">
       <c r="A12" s="2">
         <v>100</v>
       </c>
@@ -9000,7 +9001,7 @@
       <c r="P12" s="38"/>
       <c r="Q12" s="27"/>
     </row>
-    <row r="13" spans="1:32" customFormat="1" ht="15.75">
+    <row r="13" spans="1:32" customFormat="1" ht="15.75" hidden="1">
       <c r="A13" s="2">
         <v>100</v>
       </c>
@@ -9043,7 +9044,7 @@
       <c r="P13" s="38"/>
       <c r="Q13" s="27"/>
     </row>
-    <row r="14" spans="1:32" customFormat="1" ht="15.75">
+    <row r="14" spans="1:32" customFormat="1" ht="15.75" hidden="1">
       <c r="A14" s="2">
         <v>100</v>
       </c>
@@ -9086,7 +9087,7 @@
       <c r="P14" s="38"/>
       <c r="Q14" s="27"/>
     </row>
-    <row r="15" spans="1:32" customFormat="1" ht="15.75">
+    <row r="15" spans="1:32" customFormat="1" ht="15.75" hidden="1">
       <c r="A15" s="2">
         <v>100</v>
       </c>
@@ -9129,7 +9130,7 @@
       <c r="P15" s="38"/>
       <c r="Q15" s="27"/>
     </row>
-    <row r="16" spans="1:32" customFormat="1" ht="15.75">
+    <row r="16" spans="1:32" customFormat="1" ht="15.75" hidden="1">
       <c r="A16" s="2">
         <v>100</v>
       </c>
@@ -9172,7 +9173,7 @@
       <c r="P16" s="38"/>
       <c r="Q16" s="27"/>
     </row>
-    <row r="17" spans="1:17" customFormat="1" ht="15.75">
+    <row r="17" spans="1:17" customFormat="1" ht="15.75" hidden="1">
       <c r="A17" s="2">
         <v>100</v>
       </c>
@@ -9215,7 +9216,7 @@
       <c r="P17" s="38"/>
       <c r="Q17" s="27"/>
     </row>
-    <row r="18" spans="1:17" customFormat="1" ht="15.75">
+    <row r="18" spans="1:17" customFormat="1" ht="15.75" hidden="1">
       <c r="A18" s="2">
         <v>100</v>
       </c>
@@ -9258,7 +9259,7 @@
       <c r="P18" s="38"/>
       <c r="Q18" s="27"/>
     </row>
-    <row r="19" spans="1:17" customFormat="1" ht="15.75">
+    <row r="19" spans="1:17" customFormat="1" ht="15.75" hidden="1">
       <c r="A19" s="2">
         <v>100</v>
       </c>
@@ -9301,7 +9302,7 @@
       <c r="P19" s="38"/>
       <c r="Q19" s="27"/>
     </row>
-    <row r="20" spans="1:17" customFormat="1" ht="15.75">
+    <row r="20" spans="1:17" customFormat="1" ht="15.75" hidden="1">
       <c r="A20" s="2">
         <v>100</v>
       </c>
@@ -9342,7 +9343,7 @@
       <c r="P20" s="38"/>
       <c r="Q20" s="27"/>
     </row>
-    <row r="21" spans="1:17" customFormat="1" ht="15.75">
+    <row r="21" spans="1:17" customFormat="1" ht="15.75" hidden="1">
       <c r="A21" s="2">
         <v>100</v>
       </c>
@@ -9385,7 +9386,7 @@
       <c r="P21" s="38"/>
       <c r="Q21" s="27"/>
     </row>
-    <row r="22" spans="1:17" customFormat="1" ht="15.75">
+    <row r="22" spans="1:17" customFormat="1" ht="15.75" hidden="1">
       <c r="A22" s="2">
         <v>100</v>
       </c>
@@ -9428,7 +9429,7 @@
       <c r="P22" s="38"/>
       <c r="Q22" s="27"/>
     </row>
-    <row r="23" spans="1:17" customFormat="1" ht="15.75">
+    <row r="23" spans="1:17" customFormat="1" ht="15.75" hidden="1">
       <c r="A23" s="2">
         <v>100</v>
       </c>
@@ -9471,7 +9472,7 @@
       <c r="P23" s="38"/>
       <c r="Q23" s="27"/>
     </row>
-    <row r="24" spans="1:17" customFormat="1" ht="15.75">
+    <row r="24" spans="1:17" customFormat="1" ht="15.75" hidden="1">
       <c r="A24" s="2">
         <v>100</v>
       </c>
@@ -9514,7 +9515,7 @@
       <c r="P24" s="38"/>
       <c r="Q24" s="27"/>
     </row>
-    <row r="25" spans="1:17" customFormat="1" ht="15.75">
+    <row r="25" spans="1:17" customFormat="1" ht="15.75" hidden="1">
       <c r="A25" s="2">
         <v>100</v>
       </c>
@@ -9557,7 +9558,7 @@
       <c r="P25" s="38"/>
       <c r="Q25" s="27"/>
     </row>
-    <row r="26" spans="1:17" ht="15.75">
+    <row r="26" spans="1:17" ht="15.75" hidden="1">
       <c r="A26" s="30">
         <v>100</v>
       </c>
@@ -9596,7 +9597,7 @@
         <v>0.76800000000000002</v>
       </c>
     </row>
-    <row r="27" spans="1:17" customFormat="1" ht="15.75">
+    <row r="27" spans="1:17" customFormat="1" ht="15.75" hidden="1">
       <c r="A27" s="2">
         <v>100</v>
       </c>
@@ -9639,7 +9640,7 @@
       <c r="P27" s="38"/>
       <c r="Q27" s="27"/>
     </row>
-    <row r="28" spans="1:17" ht="15.75">
+    <row r="28" spans="1:17" ht="15.75" hidden="1">
       <c r="A28" s="30">
         <v>100</v>
       </c>
@@ -9678,7 +9679,7 @@
         <v>0.88</v>
       </c>
     </row>
-    <row r="29" spans="1:17" ht="15.75">
+    <row r="29" spans="1:17" ht="15.75" hidden="1">
       <c r="A29" s="30">
         <v>100</v>
       </c>
@@ -9717,7 +9718,7 @@
         <v>0.88</v>
       </c>
     </row>
-    <row r="30" spans="1:17" ht="15.75">
+    <row r="30" spans="1:17" ht="15.75" hidden="1">
       <c r="A30" s="30">
         <v>100</v>
       </c>
@@ -9756,7 +9757,7 @@
         <v>0.88</v>
       </c>
     </row>
-    <row r="31" spans="1:17" ht="15.75">
+    <row r="31" spans="1:17" ht="15.75" hidden="1">
       <c r="A31" s="30">
         <v>100</v>
       </c>
@@ -9795,7 +9796,7 @@
         <v>0.88</v>
       </c>
     </row>
-    <row r="32" spans="1:17" ht="15.75">
+    <row r="32" spans="1:17" ht="15.75" hidden="1">
       <c r="A32" s="30">
         <v>100</v>
       </c>
@@ -9834,7 +9835,7 @@
         <v>0.88</v>
       </c>
     </row>
-    <row r="33" spans="1:17" ht="15.75">
+    <row r="33" spans="1:17" ht="15.75" hidden="1">
       <c r="A33" s="30">
         <v>100</v>
       </c>
@@ -9873,7 +9874,7 @@
         <v>0.88</v>
       </c>
     </row>
-    <row r="34" spans="1:17" customFormat="1" ht="15.75">
+    <row r="34" spans="1:17" customFormat="1" ht="15.75" hidden="1">
       <c r="A34" s="2">
         <v>100</v>
       </c>
@@ -9916,7 +9917,7 @@
       <c r="P34" s="38"/>
       <c r="Q34" s="27"/>
     </row>
-    <row r="35" spans="1:17" customFormat="1" ht="15.75">
+    <row r="35" spans="1:17" customFormat="1" ht="15.75" hidden="1">
       <c r="A35" s="2">
         <v>100</v>
       </c>
@@ -9959,7 +9960,7 @@
       <c r="P35" s="38"/>
       <c r="Q35" s="27"/>
     </row>
-    <row r="36" spans="1:17" customFormat="1" ht="15.75">
+    <row r="36" spans="1:17" customFormat="1" ht="15.75" hidden="1">
       <c r="A36" s="2">
         <v>100</v>
       </c>
@@ -10000,7 +10001,7 @@
       <c r="P36" s="38"/>
       <c r="Q36" s="27"/>
     </row>
-    <row r="37" spans="1:17" ht="15.75">
+    <row r="37" spans="1:17" ht="15.75" hidden="1">
       <c r="A37" s="30">
         <v>100</v>
       </c>
@@ -10039,7 +10040,7 @@
         <v>0.74</v>
       </c>
     </row>
-    <row r="38" spans="1:17" customFormat="1" ht="15.75">
+    <row r="38" spans="1:17" customFormat="1" ht="15.75" hidden="1">
       <c r="A38" s="2">
         <v>100</v>
       </c>
@@ -10082,7 +10083,7 @@
       <c r="P38" s="38"/>
       <c r="Q38" s="27"/>
     </row>
-    <row r="39" spans="1:17" customFormat="1" ht="15.75">
+    <row r="39" spans="1:17" customFormat="1" ht="15.75" hidden="1">
       <c r="A39" s="2">
         <v>100</v>
       </c>
@@ -10125,7 +10126,7 @@
       <c r="P39" s="38"/>
       <c r="Q39" s="27"/>
     </row>
-    <row r="40" spans="1:17" customFormat="1" ht="15.75">
+    <row r="40" spans="1:17" customFormat="1" ht="15.75" hidden="1">
       <c r="A40" s="2">
         <v>100</v>
       </c>
@@ -10168,7 +10169,7 @@
       <c r="P40" s="38"/>
       <c r="Q40" s="27"/>
     </row>
-    <row r="41" spans="1:17" customFormat="1" ht="15.75">
+    <row r="41" spans="1:17" customFormat="1" ht="15.75" hidden="1">
       <c r="A41" s="2">
         <v>100</v>
       </c>
@@ -10211,7 +10212,7 @@
       <c r="P41" s="38"/>
       <c r="Q41" s="27"/>
     </row>
-    <row r="42" spans="1:17" customFormat="1" ht="15.75">
+    <row r="42" spans="1:17" customFormat="1" ht="15.75" hidden="1">
       <c r="A42" s="2">
         <v>100</v>
       </c>
@@ -10254,7 +10255,7 @@
       <c r="P42" s="38"/>
       <c r="Q42" s="27"/>
     </row>
-    <row r="43" spans="1:17" customFormat="1" ht="15.75">
+    <row r="43" spans="1:17" customFormat="1" ht="15.75" hidden="1">
       <c r="A43" s="2">
         <v>100</v>
       </c>
@@ -10295,7 +10296,7 @@
       <c r="P43" s="38"/>
       <c r="Q43" s="27"/>
     </row>
-    <row r="44" spans="1:17" customFormat="1" ht="15.75">
+    <row r="44" spans="1:17" customFormat="1" ht="15.75" hidden="1">
       <c r="A44" s="2">
         <v>100</v>
       </c>
@@ -10336,7 +10337,7 @@
       <c r="P44" s="38"/>
       <c r="Q44" s="27"/>
     </row>
-    <row r="45" spans="1:17" customFormat="1" ht="15.75">
+    <row r="45" spans="1:17" customFormat="1" ht="15.75" hidden="1">
       <c r="A45" s="2">
         <v>100</v>
       </c>
@@ -10377,7 +10378,7 @@
       <c r="P45" s="38"/>
       <c r="Q45" s="27"/>
     </row>
-    <row r="46" spans="1:17" customFormat="1" ht="15.75">
+    <row r="46" spans="1:17" customFormat="1" ht="15.75" hidden="1">
       <c r="A46" s="2">
         <v>100</v>
       </c>
@@ -10418,7 +10419,7 @@
       <c r="P46" s="38"/>
       <c r="Q46" s="27"/>
     </row>
-    <row r="47" spans="1:17" customFormat="1" ht="15.75">
+    <row r="47" spans="1:17" customFormat="1" ht="15.75" hidden="1">
       <c r="A47" s="2">
         <v>100</v>
       </c>
@@ -10459,7 +10460,7 @@
       <c r="P47" s="38"/>
       <c r="Q47" s="27"/>
     </row>
-    <row r="48" spans="1:17" ht="15.75">
+    <row r="48" spans="1:17" ht="15.75" hidden="1">
       <c r="A48" s="30">
         <v>100</v>
       </c>
@@ -10498,7 +10499,7 @@
         <v>0.88</v>
       </c>
     </row>
-    <row r="49" spans="1:17" ht="15.75">
+    <row r="49" spans="1:17" ht="15.75" hidden="1">
       <c r="A49" s="30">
         <v>100</v>
       </c>
@@ -10537,7 +10538,7 @@
         <v>0.88</v>
       </c>
     </row>
-    <row r="50" spans="1:17" ht="15.75">
+    <row r="50" spans="1:17" ht="15.75" hidden="1">
       <c r="A50" s="30">
         <v>100</v>
       </c>
@@ -10576,7 +10577,7 @@
         <v>0.88</v>
       </c>
     </row>
-    <row r="51" spans="1:17" customFormat="1" ht="15.75">
+    <row r="51" spans="1:17" customFormat="1" ht="15.75" hidden="1">
       <c r="A51" s="2">
         <v>100</v>
       </c>
@@ -10619,7 +10620,7 @@
       <c r="P51" s="38"/>
       <c r="Q51" s="27"/>
     </row>
-    <row r="52" spans="1:17" customFormat="1" ht="15.75">
+    <row r="52" spans="1:17" customFormat="1" ht="15.75" hidden="1">
       <c r="A52" s="2">
         <v>100</v>
       </c>
@@ -10660,7 +10661,7 @@
       <c r="P52" s="38"/>
       <c r="Q52" s="27"/>
     </row>
-    <row r="53" spans="1:17" customFormat="1" ht="15.75">
+    <row r="53" spans="1:17" customFormat="1" ht="15.75" hidden="1">
       <c r="A53" s="2">
         <v>100</v>
       </c>
@@ -10703,7 +10704,7 @@
       <c r="P53" s="38"/>
       <c r="Q53" s="27"/>
     </row>
-    <row r="54" spans="1:17" customFormat="1" ht="15.75">
+    <row r="54" spans="1:17" customFormat="1" ht="15.75" hidden="1">
       <c r="A54" s="2">
         <v>100</v>
       </c>
@@ -10744,7 +10745,7 @@
       <c r="P54" s="38"/>
       <c r="Q54" s="27"/>
     </row>
-    <row r="55" spans="1:17" customFormat="1" ht="15.75">
+    <row r="55" spans="1:17" customFormat="1" ht="15.75" hidden="1">
       <c r="A55" s="2">
         <v>100</v>
       </c>
@@ -10781,7 +10782,7 @@
       <c r="P55" s="38"/>
       <c r="Q55" s="27"/>
     </row>
-    <row r="56" spans="1:17" ht="15.75">
+    <row r="56" spans="1:17" ht="15.75" hidden="1">
       <c r="A56" s="30">
         <v>100</v>
       </c>
@@ -10820,7 +10821,7 @@
         <v>0.88</v>
       </c>
     </row>
-    <row r="57" spans="1:17" customFormat="1" ht="15.75">
+    <row r="57" spans="1:17" customFormat="1" ht="15.75" hidden="1">
       <c r="A57" s="2">
         <v>100</v>
       </c>
@@ -10863,7 +10864,7 @@
       <c r="P57" s="38"/>
       <c r="Q57" s="27"/>
     </row>
-    <row r="58" spans="1:17" customFormat="1" ht="15.75">
+    <row r="58" spans="1:17" customFormat="1" ht="15.75" hidden="1">
       <c r="A58" s="2">
         <v>100</v>
       </c>
@@ -10906,7 +10907,7 @@
       <c r="P58" s="38"/>
       <c r="Q58" s="27"/>
     </row>
-    <row r="59" spans="1:17" customFormat="1" ht="15.75">
+    <row r="59" spans="1:17" customFormat="1" ht="15.75" hidden="1">
       <c r="A59" s="2">
         <v>100</v>
       </c>
@@ -10949,7 +10950,7 @@
       <c r="P59" s="38"/>
       <c r="Q59" s="27"/>
     </row>
-    <row r="60" spans="1:17" customFormat="1" ht="15.75">
+    <row r="60" spans="1:17" customFormat="1" ht="15.75" hidden="1">
       <c r="A60" s="2">
         <v>100</v>
       </c>
@@ -10992,7 +10993,7 @@
       <c r="P60" s="38"/>
       <c r="Q60" s="27"/>
     </row>
-    <row r="61" spans="1:17" customFormat="1" ht="15.75">
+    <row r="61" spans="1:17" customFormat="1" ht="15.75" hidden="1">
       <c r="A61" s="2">
         <v>100</v>
       </c>
@@ -11035,7 +11036,7 @@
       <c r="P61" s="38"/>
       <c r="Q61" s="27"/>
     </row>
-    <row r="62" spans="1:17" customFormat="1" ht="15.75">
+    <row r="62" spans="1:17" customFormat="1" ht="15.75" hidden="1">
       <c r="A62" s="2">
         <v>100</v>
       </c>
@@ -11078,7 +11079,7 @@
       <c r="P62" s="38"/>
       <c r="Q62" s="27"/>
     </row>
-    <row r="63" spans="1:17" customFormat="1" ht="15.75">
+    <row r="63" spans="1:17" customFormat="1" ht="15.75" hidden="1">
       <c r="A63" s="2">
         <v>100</v>
       </c>
@@ -11121,7 +11122,7 @@
       <c r="P63" s="38"/>
       <c r="Q63" s="27"/>
     </row>
-    <row r="64" spans="1:17" customFormat="1" ht="15.75">
+    <row r="64" spans="1:17" customFormat="1" ht="15.75" hidden="1">
       <c r="A64" s="2">
         <v>100</v>
       </c>
@@ -11164,7 +11165,7 @@
       <c r="P64" s="38"/>
       <c r="Q64" s="27"/>
     </row>
-    <row r="65" spans="1:17" customFormat="1" ht="15.75">
+    <row r="65" spans="1:17" customFormat="1" ht="15.75" hidden="1">
       <c r="A65" s="2">
         <v>100</v>
       </c>
@@ -11207,7 +11208,7 @@
       <c r="P65" s="38"/>
       <c r="Q65" s="27"/>
     </row>
-    <row r="66" spans="1:17" customFormat="1" ht="15.75">
+    <row r="66" spans="1:17" customFormat="1" ht="15.75" hidden="1">
       <c r="A66" s="2">
         <v>100</v>
       </c>
@@ -11250,7 +11251,7 @@
       <c r="P66" s="38"/>
       <c r="Q66" s="27"/>
     </row>
-    <row r="67" spans="1:17" customFormat="1" ht="15.75">
+    <row r="67" spans="1:17" customFormat="1" ht="15.75" hidden="1">
       <c r="A67" s="2">
         <v>100</v>
       </c>
@@ -11293,7 +11294,7 @@
       <c r="P67" s="38"/>
       <c r="Q67" s="27"/>
     </row>
-    <row r="68" spans="1:17" customFormat="1" ht="15.75">
+    <row r="68" spans="1:17" customFormat="1" ht="15.75" hidden="1">
       <c r="A68" s="2">
         <v>100</v>
       </c>
@@ -11336,7 +11337,7 @@
       <c r="P68" s="38"/>
       <c r="Q68" s="27"/>
     </row>
-    <row r="69" spans="1:17" customFormat="1" ht="15.75">
+    <row r="69" spans="1:17" customFormat="1" ht="15.75" hidden="1">
       <c r="A69" s="2">
         <v>100</v>
       </c>
@@ -11373,7 +11374,7 @@
       <c r="P69" s="38"/>
       <c r="Q69" s="27"/>
     </row>
-    <row r="70" spans="1:17" customFormat="1" ht="15.75">
+    <row r="70" spans="1:17" customFormat="1" ht="15.75" hidden="1">
       <c r="A70" s="2">
         <v>100</v>
       </c>
@@ -11412,7 +11413,7 @@
       <c r="P70" s="38"/>
       <c r="Q70" s="27"/>
     </row>
-    <row r="71" spans="1:17" customFormat="1" ht="15.75">
+    <row r="71" spans="1:17" customFormat="1" ht="15.75" hidden="1">
       <c r="A71" s="2">
         <v>100</v>
       </c>
@@ -11451,7 +11452,7 @@
       <c r="P71" s="38"/>
       <c r="Q71" s="27"/>
     </row>
-    <row r="72" spans="1:17" customFormat="1" ht="15.75">
+    <row r="72" spans="1:17" customFormat="1" ht="15.75" hidden="1">
       <c r="A72" s="2">
         <v>100</v>
       </c>
@@ -11492,7 +11493,7 @@
       <c r="P72" s="38"/>
       <c r="Q72" s="27"/>
     </row>
-    <row r="73" spans="1:17" customFormat="1" ht="15.75">
+    <row r="73" spans="1:17" customFormat="1" ht="15.75" hidden="1">
       <c r="A73" s="2">
         <v>100</v>
       </c>
@@ -11533,7 +11534,7 @@
       <c r="P73" s="38"/>
       <c r="Q73" s="27"/>
     </row>
-    <row r="74" spans="1:17" customFormat="1" ht="15.75">
+    <row r="74" spans="1:17" customFormat="1" ht="15.75" hidden="1">
       <c r="A74" s="2">
         <v>100</v>
       </c>
@@ -11576,7 +11577,7 @@
       <c r="P74" s="38"/>
       <c r="Q74" s="27"/>
     </row>
-    <row r="75" spans="1:17" customFormat="1" ht="15.75">
+    <row r="75" spans="1:17" customFormat="1" ht="15.75" hidden="1">
       <c r="A75" s="2">
         <v>200</v>
       </c>
@@ -11613,7 +11614,7 @@
       <c r="P75" s="38"/>
       <c r="Q75" s="27"/>
     </row>
-    <row r="76" spans="1:17" customFormat="1" ht="15.75">
+    <row r="76" spans="1:17" customFormat="1" ht="15.75" hidden="1">
       <c r="A76" s="2">
         <v>200</v>
       </c>
@@ -11650,7 +11651,7 @@
       <c r="P76" s="38"/>
       <c r="Q76" s="27"/>
     </row>
-    <row r="77" spans="1:17" customFormat="1" ht="15.75">
+    <row r="77" spans="1:17" customFormat="1" ht="15.75" hidden="1">
       <c r="A77" s="2">
         <v>200</v>
       </c>
@@ -11691,7 +11692,7 @@
       <c r="P77" s="38"/>
       <c r="Q77" s="27"/>
     </row>
-    <row r="78" spans="1:17" customFormat="1" ht="15.75">
+    <row r="78" spans="1:17" customFormat="1" ht="15.75" hidden="1">
       <c r="A78" s="2">
         <v>200</v>
       </c>
@@ -11728,7 +11729,7 @@
       <c r="P78" s="38"/>
       <c r="Q78" s="27"/>
     </row>
-    <row r="79" spans="1:17" customFormat="1" ht="15.75">
+    <row r="79" spans="1:17" customFormat="1" ht="15.75" hidden="1">
       <c r="A79" s="2">
         <v>200</v>
       </c>
@@ -11765,7 +11766,7 @@
       <c r="P79" s="38"/>
       <c r="Q79" s="27"/>
     </row>
-    <row r="80" spans="1:17" customFormat="1" ht="15.75">
+    <row r="80" spans="1:17" customFormat="1" ht="15.75" hidden="1">
       <c r="A80" s="2">
         <v>200</v>
       </c>
@@ -11802,7 +11803,7 @@
       <c r="P80" s="38"/>
       <c r="Q80" s="27"/>
     </row>
-    <row r="81" spans="1:17" customFormat="1" ht="15.75">
+    <row r="81" spans="1:17" customFormat="1" ht="15.75" hidden="1">
       <c r="A81" s="2">
         <v>200</v>
       </c>
@@ -11843,7 +11844,7 @@
       <c r="P81" s="38"/>
       <c r="Q81" s="27"/>
     </row>
-    <row r="82" spans="1:17" customFormat="1" ht="15.75">
+    <row r="82" spans="1:17" customFormat="1" ht="15.75" hidden="1">
       <c r="A82" s="2">
         <v>200</v>
       </c>
@@ -11880,7 +11881,7 @@
       <c r="P82" s="38"/>
       <c r="Q82" s="27"/>
     </row>
-    <row r="83" spans="1:17" customFormat="1" ht="15.75">
+    <row r="83" spans="1:17" customFormat="1" ht="15.75" hidden="1">
       <c r="A83" s="2">
         <v>200</v>
       </c>
@@ -11921,7 +11922,7 @@
       <c r="P83" s="38"/>
       <c r="Q83" s="27"/>
     </row>
-    <row r="84" spans="1:17" customFormat="1" ht="15.75">
+    <row r="84" spans="1:17" customFormat="1" ht="15.75" hidden="1">
       <c r="A84" s="2">
         <v>200</v>
       </c>
@@ -11962,7 +11963,7 @@
       <c r="P84" s="38"/>
       <c r="Q84" s="27"/>
     </row>
-    <row r="85" spans="1:17" customFormat="1" ht="15.75">
+    <row r="85" spans="1:17" customFormat="1" ht="15.75" hidden="1">
       <c r="A85" s="2">
         <v>200</v>
       </c>
@@ -12003,7 +12004,7 @@
       <c r="P85" s="38"/>
       <c r="Q85" s="27"/>
     </row>
-    <row r="86" spans="1:17" customFormat="1" ht="15.75">
+    <row r="86" spans="1:17" customFormat="1" ht="15.75" hidden="1">
       <c r="A86" s="2">
         <v>200</v>
       </c>
@@ -12044,7 +12045,7 @@
       <c r="P86" s="38"/>
       <c r="Q86" s="27"/>
     </row>
-    <row r="87" spans="1:17" customFormat="1" ht="15.75">
+    <row r="87" spans="1:17" customFormat="1" ht="15.75" hidden="1">
       <c r="A87" s="2">
         <v>200</v>
       </c>
@@ -12085,7 +12086,7 @@
       <c r="P87" s="38"/>
       <c r="Q87" s="27"/>
     </row>
-    <row r="88" spans="1:17" customFormat="1" ht="15.75">
+    <row r="88" spans="1:17" customFormat="1" ht="15.75" hidden="1">
       <c r="A88" s="2">
         <v>200</v>
       </c>
@@ -12122,7 +12123,7 @@
       <c r="P88" s="38"/>
       <c r="Q88" s="27"/>
     </row>
-    <row r="89" spans="1:17" customFormat="1" ht="15.75">
+    <row r="89" spans="1:17" customFormat="1" ht="15.75" hidden="1">
       <c r="A89" s="2">
         <v>200</v>
       </c>
@@ -12159,7 +12160,7 @@
       <c r="P89" s="38"/>
       <c r="Q89" s="27"/>
     </row>
-    <row r="90" spans="1:17" customFormat="1" ht="15.75">
+    <row r="90" spans="1:17" customFormat="1" ht="15.75" hidden="1">
       <c r="A90" s="2">
         <v>200</v>
       </c>
@@ -12196,7 +12197,7 @@
       <c r="P90" s="38"/>
       <c r="Q90" s="27"/>
     </row>
-    <row r="91" spans="1:17" customFormat="1" ht="15.75">
+    <row r="91" spans="1:17" customFormat="1" ht="15.75" hidden="1">
       <c r="A91" s="2">
         <v>200</v>
       </c>
@@ -12233,7 +12234,7 @@
       <c r="P91" s="38"/>
       <c r="Q91" s="27"/>
     </row>
-    <row r="92" spans="1:17" customFormat="1" ht="15.75">
+    <row r="92" spans="1:17" customFormat="1" ht="15.75" hidden="1">
       <c r="A92" s="2">
         <v>200</v>
       </c>
@@ -12298,13 +12299,15 @@
         <v>1367</v>
       </c>
       <c r="H93" s="10"/>
-      <c r="I93" s="10"/>
+      <c r="I93" s="10">
+        <v>0.8</v>
+      </c>
       <c r="J93" s="10"/>
       <c r="K93" s="10"/>
       <c r="L93" s="10"/>
       <c r="M93" s="10">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>0.36000000000000004</v>
       </c>
       <c r="N93" s="38"/>
       <c r="O93" s="38"/>
@@ -12335,13 +12338,15 @@
         <v>1367</v>
       </c>
       <c r="H94" s="10"/>
-      <c r="I94" s="10"/>
+      <c r="I94" s="10">
+        <v>1</v>
+      </c>
       <c r="J94" s="10"/>
       <c r="K94" s="10"/>
       <c r="L94" s="10"/>
       <c r="M94" s="10">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>0.45</v>
       </c>
       <c r="N94" s="38"/>
       <c r="O94" s="38"/>
@@ -12372,13 +12377,15 @@
         <v>1367</v>
       </c>
       <c r="H95" s="10"/>
-      <c r="I95" s="10"/>
+      <c r="I95" s="10">
+        <v>1</v>
+      </c>
       <c r="J95" s="10"/>
       <c r="K95" s="10"/>
       <c r="L95" s="10"/>
       <c r="M95" s="10">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>0.45</v>
       </c>
       <c r="N95" s="38"/>
       <c r="O95" s="38"/>
@@ -12409,13 +12416,15 @@
         <v>1367</v>
       </c>
       <c r="H96" s="10"/>
-      <c r="I96" s="10"/>
+      <c r="I96" s="10">
+        <v>1</v>
+      </c>
       <c r="J96" s="10"/>
       <c r="K96" s="10"/>
       <c r="L96" s="10"/>
       <c r="M96" s="10">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>0.45</v>
       </c>
       <c r="N96" s="38"/>
       <c r="O96" s="38"/>
@@ -12520,13 +12529,15 @@
         <v>1367</v>
       </c>
       <c r="H99" s="10"/>
-      <c r="I99" s="10"/>
+      <c r="I99" s="10">
+        <v>1</v>
+      </c>
       <c r="J99" s="10"/>
       <c r="K99" s="10"/>
       <c r="L99" s="10"/>
       <c r="M99" s="10">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>0.45</v>
       </c>
       <c r="N99" s="38"/>
       <c r="O99" s="38"/>
@@ -12557,20 +12568,22 @@
         <v>1367</v>
       </c>
       <c r="H100" s="10"/>
-      <c r="I100" s="10"/>
+      <c r="I100" s="10">
+        <v>1</v>
+      </c>
       <c r="J100" s="10"/>
       <c r="K100" s="10"/>
       <c r="L100" s="10"/>
       <c r="M100" s="10">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>0.45</v>
       </c>
       <c r="N100" s="38"/>
       <c r="O100" s="38"/>
       <c r="P100" s="38"/>
       <c r="Q100" s="27"/>
     </row>
-    <row r="101" spans="1:17" customFormat="1" ht="15.75">
+    <row r="101" spans="1:17" customFormat="1" ht="15.75" hidden="1">
       <c r="A101" s="2">
         <v>300</v>
       </c>
@@ -12635,13 +12648,15 @@
         <v>1367</v>
       </c>
       <c r="H102" s="10"/>
-      <c r="I102" s="10"/>
+      <c r="I102" s="10">
+        <v>1</v>
+      </c>
       <c r="J102" s="10"/>
       <c r="K102" s="10"/>
       <c r="L102" s="10"/>
       <c r="M102" s="10">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>0.45</v>
       </c>
       <c r="N102" s="38"/>
       <c r="O102" s="38"/>
@@ -12672,13 +12687,15 @@
         <v>1367</v>
       </c>
       <c r="H103" s="10"/>
-      <c r="I103" s="10"/>
+      <c r="I103" s="10">
+        <v>1</v>
+      </c>
       <c r="J103" s="10"/>
       <c r="K103" s="10"/>
       <c r="L103" s="10"/>
       <c r="M103" s="10">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>0.45</v>
       </c>
       <c r="N103" s="38"/>
       <c r="O103" s="38"/>
@@ -12709,13 +12726,15 @@
         <v>1367</v>
       </c>
       <c r="H104" s="10"/>
-      <c r="I104" s="10"/>
+      <c r="I104" s="10">
+        <v>1</v>
+      </c>
       <c r="J104" s="10"/>
       <c r="K104" s="10"/>
       <c r="L104" s="10"/>
       <c r="M104" s="10">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>0.45</v>
       </c>
       <c r="N104" s="38"/>
       <c r="O104" s="38"/>
@@ -12746,13 +12765,15 @@
         <v>1367</v>
       </c>
       <c r="H105" s="10"/>
-      <c r="I105" s="10"/>
+      <c r="I105" s="10">
+        <v>1</v>
+      </c>
       <c r="J105" s="10"/>
       <c r="K105" s="10"/>
       <c r="L105" s="10"/>
       <c r="M105" s="10">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>0.45</v>
       </c>
       <c r="N105" s="38"/>
       <c r="O105" s="38"/>
@@ -12833,7 +12854,7 @@
       <c r="P107" s="38"/>
       <c r="Q107" s="27"/>
     </row>
-    <row r="108" spans="1:17" ht="15.75">
+    <row r="108" spans="1:17" ht="15.75" hidden="1">
       <c r="A108" s="30">
         <v>500</v>
       </c>
@@ -12872,7 +12893,7 @@
         <v>0.68399999999999994</v>
       </c>
     </row>
-    <row r="109" spans="1:17" ht="15.75">
+    <row r="109" spans="1:17" ht="15.75" hidden="1">
       <c r="A109" s="30">
         <v>500</v>
       </c>
@@ -12911,7 +12932,7 @@
         <v>0.68399999999999994</v>
       </c>
     </row>
-    <row r="110" spans="1:17" customFormat="1" ht="15.75">
+    <row r="110" spans="1:17" customFormat="1" ht="15.75" hidden="1">
       <c r="A110" s="2">
         <v>500</v>
       </c>
@@ -12952,7 +12973,7 @@
       <c r="P110" s="38"/>
       <c r="Q110" s="27"/>
     </row>
-    <row r="111" spans="1:17" customFormat="1" ht="15.75">
+    <row r="111" spans="1:17" customFormat="1" ht="15.75" hidden="1">
       <c r="A111" s="2">
         <v>500</v>
       </c>
@@ -12993,7 +13014,7 @@
       <c r="P111" s="38"/>
       <c r="Q111" s="27"/>
     </row>
-    <row r="112" spans="1:17" customFormat="1" ht="15.75">
+    <row r="112" spans="1:17" customFormat="1" ht="15.75" hidden="1">
       <c r="A112" s="2">
         <v>500</v>
       </c>
@@ -13036,7 +13057,7 @@
       <c r="P112" s="38"/>
       <c r="Q112" s="27"/>
     </row>
-    <row r="113" spans="1:17" customFormat="1" ht="15.75">
+    <row r="113" spans="1:17" customFormat="1" ht="15.75" hidden="1">
       <c r="A113" s="2">
         <v>500</v>
       </c>
@@ -13079,7 +13100,7 @@
       <c r="P113" s="38"/>
       <c r="Q113" s="27"/>
     </row>
-    <row r="114" spans="1:17" customFormat="1" ht="15.75">
+    <row r="114" spans="1:17" customFormat="1" ht="15.75" hidden="1">
       <c r="A114" s="2">
         <v>500</v>
       </c>
@@ -13122,7 +13143,7 @@
       <c r="P114" s="38"/>
       <c r="Q114" s="27"/>
     </row>
-    <row r="115" spans="1:17" customFormat="1" ht="15.75">
+    <row r="115" spans="1:17" customFormat="1" ht="15.75" hidden="1">
       <c r="A115" s="2">
         <v>500</v>
       </c>
@@ -13165,7 +13186,7 @@
       <c r="P115" s="38"/>
       <c r="Q115" s="27"/>
     </row>
-    <row r="116" spans="1:17" customFormat="1" ht="15.75">
+    <row r="116" spans="1:17" customFormat="1" ht="15.75" hidden="1">
       <c r="A116" s="2">
         <v>500</v>
       </c>
@@ -13202,7 +13223,7 @@
       <c r="P116" s="38"/>
       <c r="Q116" s="27"/>
     </row>
-    <row r="117" spans="1:17" customFormat="1" ht="15.75">
+    <row r="117" spans="1:17" customFormat="1" ht="15.75" hidden="1">
       <c r="A117" s="2">
         <v>500</v>
       </c>
@@ -13239,7 +13260,7 @@
       <c r="P117" s="38"/>
       <c r="Q117" s="27"/>
     </row>
-    <row r="118" spans="1:17" customFormat="1" ht="15.75">
+    <row r="118" spans="1:17" customFormat="1" ht="15.75" hidden="1">
       <c r="A118" s="2">
         <v>500</v>
       </c>
@@ -13276,7 +13297,7 @@
       <c r="P118" s="38"/>
       <c r="Q118" s="27"/>
     </row>
-    <row r="119" spans="1:17" customFormat="1" ht="15.75">
+    <row r="119" spans="1:17" customFormat="1" ht="15.75" hidden="1">
       <c r="A119" s="2">
         <v>500</v>
       </c>
@@ -13313,7 +13334,7 @@
       <c r="P119" s="38"/>
       <c r="Q119" s="27"/>
     </row>
-    <row r="120" spans="1:17" customFormat="1" ht="15.75">
+    <row r="120" spans="1:17" customFormat="1" ht="15.75" hidden="1">
       <c r="A120" s="2">
         <v>500</v>
       </c>
@@ -13350,7 +13371,7 @@
       <c r="P120" s="38"/>
       <c r="Q120" s="27"/>
     </row>
-    <row r="121" spans="1:17" customFormat="1" ht="15.75">
+    <row r="121" spans="1:17" customFormat="1" ht="15.75" hidden="1">
       <c r="A121" s="2">
         <v>500</v>
       </c>
@@ -13387,7 +13408,7 @@
       <c r="P121" s="38"/>
       <c r="Q121" s="27"/>
     </row>
-    <row r="122" spans="1:17" customFormat="1" ht="15.75">
+    <row r="122" spans="1:17" customFormat="1" ht="15.75" hidden="1">
       <c r="A122" s="2">
         <v>500</v>
       </c>
@@ -13424,7 +13445,7 @@
       <c r="P122" s="38"/>
       <c r="Q122" s="27"/>
     </row>
-    <row r="123" spans="1:17" customFormat="1" ht="15.75">
+    <row r="123" spans="1:17" customFormat="1" ht="15.75" hidden="1">
       <c r="A123" s="2">
         <v>500</v>
       </c>
@@ -13461,7 +13482,7 @@
       <c r="P123" s="38"/>
       <c r="Q123" s="27"/>
     </row>
-    <row r="124" spans="1:17" customFormat="1" ht="15.75">
+    <row r="124" spans="1:17" customFormat="1" ht="15.75" hidden="1">
       <c r="A124" s="2">
         <v>500</v>
       </c>
@@ -13504,7 +13525,7 @@
       <c r="P124" s="38"/>
       <c r="Q124" s="27"/>
     </row>
-    <row r="125" spans="1:17" customFormat="1" ht="15.75">
+    <row r="125" spans="1:17" customFormat="1" ht="15.75" hidden="1">
       <c r="A125" s="2">
         <v>500</v>
       </c>
@@ -13547,7 +13568,7 @@
       <c r="P125" s="38"/>
       <c r="Q125" s="27"/>
     </row>
-    <row r="126" spans="1:17" customFormat="1" ht="15.75">
+    <row r="126" spans="1:17" customFormat="1" ht="15.75" hidden="1">
       <c r="A126" s="2">
         <v>500</v>
       </c>
@@ -13590,7 +13611,7 @@
       <c r="P126" s="38"/>
       <c r="Q126" s="27"/>
     </row>
-    <row r="127" spans="1:17" customFormat="1" ht="15.75">
+    <row r="127" spans="1:17" customFormat="1" ht="15.75" hidden="1">
       <c r="A127" s="2">
         <v>500</v>
       </c>
@@ -13633,7 +13654,7 @@
       <c r="P127" s="38"/>
       <c r="Q127" s="27"/>
     </row>
-    <row r="128" spans="1:17" customFormat="1" ht="15.75">
+    <row r="128" spans="1:17" customFormat="1" ht="15.75" hidden="1">
       <c r="A128" s="2">
         <v>500</v>
       </c>
@@ -13676,7 +13697,7 @@
       <c r="P128" s="38"/>
       <c r="Q128" s="27"/>
     </row>
-    <row r="129" spans="1:17" customFormat="1" ht="15.75">
+    <row r="129" spans="1:17" customFormat="1" ht="15.75" hidden="1">
       <c r="A129" s="2">
         <v>500</v>
       </c>
@@ -13719,7 +13740,7 @@
       <c r="P129" s="38"/>
       <c r="Q129" s="27"/>
     </row>
-    <row r="130" spans="1:17" ht="15.75">
+    <row r="130" spans="1:17" ht="15.75" hidden="1">
       <c r="A130" s="30">
         <v>500</v>
       </c>
@@ -13756,7 +13777,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="131" spans="1:17" ht="15.75">
+    <row r="131" spans="1:17" ht="15.75" hidden="1">
       <c r="A131" s="30">
         <v>500</v>
       </c>
@@ -13793,7 +13814,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="132" spans="1:17" customFormat="1" ht="15.75">
+    <row r="132" spans="1:17" customFormat="1" ht="15.75" hidden="1">
       <c r="A132" s="2">
         <v>500</v>
       </c>
@@ -13830,7 +13851,7 @@
       <c r="P132" s="38"/>
       <c r="Q132" s="27"/>
     </row>
-    <row r="133" spans="1:17" customFormat="1" ht="15.75">
+    <row r="133" spans="1:17" customFormat="1" ht="15.75" hidden="1">
       <c r="A133" s="2">
         <v>500</v>
       </c>
@@ -13867,7 +13888,7 @@
       <c r="P133" s="38"/>
       <c r="Q133" s="27"/>
     </row>
-    <row r="134" spans="1:17" ht="15.75">
+    <row r="134" spans="1:17" ht="15.75" hidden="1">
       <c r="A134" s="30">
         <v>500</v>
       </c>
@@ -13906,7 +13927,7 @@
         <v>0.88</v>
       </c>
     </row>
-    <row r="135" spans="1:17" ht="15.75">
+    <row r="135" spans="1:17" ht="15.75" hidden="1">
       <c r="A135" s="30">
         <v>500</v>
       </c>
@@ -13945,7 +13966,7 @@
         <v>0.88</v>
       </c>
     </row>
-    <row r="136" spans="1:17" ht="15.75">
+    <row r="136" spans="1:17" ht="15.75" hidden="1">
       <c r="A136" s="30">
         <v>500</v>
       </c>
@@ -13984,7 +14005,7 @@
         <v>0.88</v>
       </c>
     </row>
-    <row r="137" spans="1:17" ht="15.75">
+    <row r="137" spans="1:17" ht="15.75" hidden="1">
       <c r="A137" s="30">
         <v>500</v>
       </c>
@@ -14023,7 +14044,7 @@
         <v>0.88</v>
       </c>
     </row>
-    <row r="138" spans="1:17" ht="15.75">
+    <row r="138" spans="1:17" ht="15.75" hidden="1">
       <c r="A138" s="30">
         <v>500</v>
       </c>
@@ -14062,7 +14083,7 @@
         <v>0.88</v>
       </c>
     </row>
-    <row r="139" spans="1:17" customFormat="1" ht="15.75">
+    <row r="139" spans="1:17" customFormat="1" ht="15.75" hidden="1">
       <c r="A139" s="2">
         <v>500</v>
       </c>
@@ -14099,7 +14120,7 @@
       <c r="P139" s="38"/>
       <c r="Q139" s="27"/>
     </row>
-    <row r="140" spans="1:17" customFormat="1" ht="15.75">
+    <row r="140" spans="1:17" customFormat="1" ht="15.75" hidden="1">
       <c r="A140" s="2">
         <v>500</v>
       </c>
@@ -14142,7 +14163,7 @@
       <c r="P140" s="38"/>
       <c r="Q140" s="27"/>
     </row>
-    <row r="141" spans="1:17" ht="15.75">
+    <row r="141" spans="1:17" ht="15.75" hidden="1">
       <c r="A141" s="30">
         <v>500</v>
       </c>
@@ -14181,7 +14202,7 @@
         <v>0.88</v>
       </c>
     </row>
-    <row r="142" spans="1:17" ht="15.75">
+    <row r="142" spans="1:17" ht="15.75" hidden="1">
       <c r="A142" s="30">
         <v>500</v>
       </c>
@@ -14220,7 +14241,7 @@
         <v>0.88</v>
       </c>
     </row>
-    <row r="143" spans="1:17" customFormat="1" ht="15.75">
+    <row r="143" spans="1:17" customFormat="1" ht="15.75" hidden="1">
       <c r="A143" s="2">
         <v>500</v>
       </c>
@@ -14257,7 +14278,7 @@
       <c r="P143" s="38"/>
       <c r="Q143" s="27"/>
     </row>
-    <row r="144" spans="1:17" customFormat="1" ht="15.75">
+    <row r="144" spans="1:17" customFormat="1" ht="15.75" hidden="1">
       <c r="A144" s="2">
         <v>500</v>
       </c>
@@ -14296,7 +14317,7 @@
       <c r="P144" s="38"/>
       <c r="Q144" s="27"/>
     </row>
-    <row r="145" spans="1:17" customFormat="1" ht="15.75">
+    <row r="145" spans="1:17" customFormat="1" ht="15.75" hidden="1">
       <c r="A145" s="2">
         <v>500</v>
       </c>
@@ -14335,7 +14356,7 @@
       <c r="P145" s="38"/>
       <c r="Q145" s="27"/>
     </row>
-    <row r="146" spans="1:17" customFormat="1" ht="15.75">
+    <row r="146" spans="1:17" customFormat="1" ht="15.75" hidden="1">
       <c r="A146" s="2">
         <v>500</v>
       </c>
@@ -14374,7 +14395,7 @@
       <c r="P146" s="38"/>
       <c r="Q146" s="27"/>
     </row>
-    <row r="147" spans="1:17" customFormat="1" ht="15.75">
+    <row r="147" spans="1:17" customFormat="1" ht="15.75" hidden="1">
       <c r="A147" s="2">
         <v>500</v>
       </c>
@@ -14413,7 +14434,7 @@
       <c r="P147" s="38"/>
       <c r="Q147" s="27"/>
     </row>
-    <row r="148" spans="1:17" customFormat="1" ht="15.75">
+    <row r="148" spans="1:17" customFormat="1" ht="15.75" hidden="1">
       <c r="A148" s="2">
         <v>500</v>
       </c>
@@ -14452,7 +14473,7 @@
       <c r="P148" s="38"/>
       <c r="Q148" s="27"/>
     </row>
-    <row r="149" spans="1:17" customFormat="1" ht="15.75">
+    <row r="149" spans="1:17" customFormat="1" ht="15.75" hidden="1">
       <c r="A149" s="2">
         <v>500</v>
       </c>
@@ -14491,7 +14512,7 @@
       <c r="P149" s="38"/>
       <c r="Q149" s="27"/>
     </row>
-    <row r="150" spans="1:17" ht="15.75">
+    <row r="150" spans="1:17" ht="15.75" hidden="1">
       <c r="A150" s="30">
         <v>500</v>
       </c>
@@ -14528,7 +14549,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="151" spans="1:17" customFormat="1" ht="15.75">
+    <row r="151" spans="1:17" customFormat="1" ht="15.75" hidden="1">
       <c r="A151" s="2">
         <v>600</v>
       </c>
@@ -14571,7 +14592,7 @@
       <c r="P151" s="38"/>
       <c r="Q151" s="27"/>
     </row>
-    <row r="152" spans="1:17" customFormat="1" ht="15.75">
+    <row r="152" spans="1:17" customFormat="1" ht="15.75" hidden="1">
       <c r="A152" s="2">
         <v>600</v>
       </c>
@@ -14614,7 +14635,7 @@
       <c r="P152" s="38"/>
       <c r="Q152" s="27"/>
     </row>
-    <row r="153" spans="1:17" customFormat="1" ht="15.75">
+    <row r="153" spans="1:17" customFormat="1" ht="15.75" hidden="1">
       <c r="A153" s="2">
         <v>600</v>
       </c>
@@ -14657,7 +14678,7 @@
       <c r="P153" s="38"/>
       <c r="Q153" s="27"/>
     </row>
-    <row r="154" spans="1:17" customFormat="1" ht="15.75">
+    <row r="154" spans="1:17" customFormat="1" ht="15.75" hidden="1">
       <c r="A154" s="2">
         <v>600</v>
       </c>
@@ -14700,7 +14721,7 @@
       <c r="P154" s="38"/>
       <c r="Q154" s="27"/>
     </row>
-    <row r="155" spans="1:17" customFormat="1" ht="15.75">
+    <row r="155" spans="1:17" customFormat="1" ht="15.75" hidden="1">
       <c r="A155" s="2">
         <v>600</v>
       </c>
@@ -14743,7 +14764,7 @@
       <c r="P155" s="38"/>
       <c r="Q155" s="27"/>
     </row>
-    <row r="156" spans="1:17" customFormat="1" ht="15.75">
+    <row r="156" spans="1:17" customFormat="1" ht="15.75" hidden="1">
       <c r="A156" s="2">
         <v>600</v>
       </c>
@@ -14786,7 +14807,7 @@
       <c r="P156" s="38"/>
       <c r="Q156" s="27"/>
     </row>
-    <row r="157" spans="1:17" customFormat="1" ht="15.75">
+    <row r="157" spans="1:17" customFormat="1" ht="15.75" hidden="1">
       <c r="A157" s="2">
         <v>600</v>
       </c>
@@ -14829,7 +14850,7 @@
       <c r="P157" s="38"/>
       <c r="Q157" s="27"/>
     </row>
-    <row r="158" spans="1:17" customFormat="1" ht="15.75">
+    <row r="158" spans="1:17" customFormat="1" ht="15.75" hidden="1">
       <c r="A158" s="2">
         <v>600</v>
       </c>
@@ -14872,7 +14893,7 @@
       <c r="P158" s="38"/>
       <c r="Q158" s="27"/>
     </row>
-    <row r="159" spans="1:17" customFormat="1" ht="15.75">
+    <row r="159" spans="1:17" customFormat="1" ht="15.75" hidden="1">
       <c r="A159" s="2">
         <v>600</v>
       </c>
@@ -14915,7 +14936,7 @@
       <c r="P159" s="38"/>
       <c r="Q159" s="27"/>
     </row>
-    <row r="160" spans="1:17" customFormat="1" ht="15.75">
+    <row r="160" spans="1:17" customFormat="1" ht="15.75" hidden="1">
       <c r="A160" s="2">
         <v>600</v>
       </c>
@@ -14958,7 +14979,7 @@
       <c r="P160" s="38"/>
       <c r="Q160" s="27"/>
     </row>
-    <row r="161" spans="1:17" customFormat="1" ht="15.75">
+    <row r="161" spans="1:17" customFormat="1" ht="15.75" hidden="1">
       <c r="A161" s="2">
         <v>600</v>
       </c>
@@ -15001,7 +15022,7 @@
       <c r="P161" s="38"/>
       <c r="Q161" s="27"/>
     </row>
-    <row r="162" spans="1:17" customFormat="1" ht="15.75">
+    <row r="162" spans="1:17" customFormat="1" ht="15.75" hidden="1">
       <c r="A162" s="2">
         <v>600</v>
       </c>
@@ -15044,7 +15065,7 @@
       <c r="P162" s="38"/>
       <c r="Q162" s="27"/>
     </row>
-    <row r="163" spans="1:17" customFormat="1" ht="15.75">
+    <row r="163" spans="1:17" customFormat="1" ht="15.75" hidden="1">
       <c r="A163" s="2">
         <v>600</v>
       </c>
@@ -15087,7 +15108,7 @@
       <c r="P163" s="38"/>
       <c r="Q163" s="27"/>
     </row>
-    <row r="164" spans="1:17" customFormat="1" ht="15.75">
+    <row r="164" spans="1:17" customFormat="1" ht="15.75" hidden="1">
       <c r="A164" s="2">
         <v>600</v>
       </c>
@@ -15130,7 +15151,7 @@
       <c r="P164" s="38"/>
       <c r="Q164" s="27"/>
     </row>
-    <row r="165" spans="1:17" customFormat="1" ht="15.75">
+    <row r="165" spans="1:17" customFormat="1" ht="15.75" hidden="1">
       <c r="A165" s="2">
         <v>600</v>
       </c>
@@ -15171,7 +15192,7 @@
       <c r="P165" s="38"/>
       <c r="Q165" s="27"/>
     </row>
-    <row r="166" spans="1:17" customFormat="1" ht="15.75">
+    <row r="166" spans="1:17" customFormat="1" ht="15.75" hidden="1">
       <c r="A166" s="2">
         <v>600</v>
       </c>
@@ -15212,7 +15233,7 @@
       <c r="P166" s="38"/>
       <c r="Q166" s="27"/>
     </row>
-    <row r="167" spans="1:17" customFormat="1" ht="15.75">
+    <row r="167" spans="1:17" customFormat="1" ht="15.75" hidden="1">
       <c r="A167" s="2">
         <v>600</v>
       </c>
@@ -15253,7 +15274,7 @@
       <c r="P167" s="38"/>
       <c r="Q167" s="27"/>
     </row>
-    <row r="168" spans="1:17" customFormat="1" ht="15.75">
+    <row r="168" spans="1:17" customFormat="1" ht="15.75" hidden="1">
       <c r="A168" s="2">
         <v>600</v>
       </c>
@@ -15294,7 +15315,7 @@
       <c r="P168" s="38"/>
       <c r="Q168" s="27"/>
     </row>
-    <row r="169" spans="1:17" customFormat="1" ht="15.75">
+    <row r="169" spans="1:17" customFormat="1" ht="15.75" hidden="1">
       <c r="A169" s="2">
         <v>600</v>
       </c>
@@ -15335,7 +15356,7 @@
       <c r="P169" s="38"/>
       <c r="Q169" s="27"/>
     </row>
-    <row r="170" spans="1:17" customFormat="1" ht="15.75">
+    <row r="170" spans="1:17" customFormat="1" ht="15.75" hidden="1">
       <c r="A170" s="2">
         <v>600</v>
       </c>
@@ -15376,7 +15397,7 @@
       <c r="P170" s="38"/>
       <c r="Q170" s="27"/>
     </row>
-    <row r="171" spans="1:17" customFormat="1" ht="15.75">
+    <row r="171" spans="1:17" customFormat="1" ht="15.75" hidden="1">
       <c r="A171" s="2">
         <v>600</v>
       </c>
@@ -15419,7 +15440,7 @@
       <c r="P171" s="38"/>
       <c r="Q171" s="27"/>
     </row>
-    <row r="172" spans="1:17" customFormat="1" ht="15.75">
+    <row r="172" spans="1:17" customFormat="1" ht="15.75" hidden="1">
       <c r="A172" s="2">
         <v>600</v>
       </c>
@@ -15462,7 +15483,7 @@
       <c r="P172" s="38"/>
       <c r="Q172" s="27"/>
     </row>
-    <row r="173" spans="1:17" customFormat="1" ht="15.75">
+    <row r="173" spans="1:17" customFormat="1" ht="15.75" hidden="1">
       <c r="A173" s="2">
         <v>600</v>
       </c>
@@ -15505,7 +15526,7 @@
       <c r="P173" s="38"/>
       <c r="Q173" s="27"/>
     </row>
-    <row r="174" spans="1:17" customFormat="1" ht="15.75">
+    <row r="174" spans="1:17" customFormat="1" ht="15.75" hidden="1">
       <c r="A174" s="2">
         <v>600</v>
       </c>
@@ -15548,7 +15569,7 @@
       <c r="P174" s="38"/>
       <c r="Q174" s="27"/>
     </row>
-    <row r="175" spans="1:17" customFormat="1" ht="15.75">
+    <row r="175" spans="1:17" customFormat="1" ht="15.75" hidden="1">
       <c r="A175" s="2">
         <v>600</v>
       </c>
@@ -15591,7 +15612,7 @@
       <c r="P175" s="38"/>
       <c r="Q175" s="27"/>
     </row>
-    <row r="176" spans="1:17" customFormat="1" ht="15.75">
+    <row r="176" spans="1:17" customFormat="1" ht="15.75" hidden="1">
       <c r="A176" s="2">
         <v>600</v>
       </c>
@@ -15634,7 +15655,7 @@
       <c r="P176" s="38"/>
       <c r="Q176" s="27"/>
     </row>
-    <row r="177" spans="1:17" customFormat="1" ht="15.75">
+    <row r="177" spans="1:17" customFormat="1" ht="15.75" hidden="1">
       <c r="A177" s="2">
         <v>600</v>
       </c>
@@ -15677,7 +15698,7 @@
       <c r="P177" s="38"/>
       <c r="Q177" s="27"/>
     </row>
-    <row r="178" spans="1:17" customFormat="1" ht="15.75">
+    <row r="178" spans="1:17" customFormat="1" ht="15.75" hidden="1">
       <c r="A178" s="2">
         <v>600</v>
       </c>
@@ -15720,7 +15741,7 @@
       <c r="P178" s="38"/>
       <c r="Q178" s="27"/>
     </row>
-    <row r="179" spans="1:17" ht="15.75">
+    <row r="179" spans="1:17" ht="15.75" hidden="1">
       <c r="A179" s="30">
         <v>600</v>
       </c>
@@ -15759,7 +15780,7 @@
         <v>0.88</v>
       </c>
     </row>
-    <row r="180" spans="1:17" ht="15.75">
+    <row r="180" spans="1:17" ht="15.75" hidden="1">
       <c r="A180" s="30">
         <v>600</v>
       </c>
@@ -15798,7 +15819,7 @@
         <v>0.88</v>
       </c>
     </row>
-    <row r="181" spans="1:17" ht="15.75">
+    <row r="181" spans="1:17" ht="15.75" hidden="1">
       <c r="A181" s="30">
         <v>600</v>
       </c>
@@ -15837,7 +15858,7 @@
         <v>0.88</v>
       </c>
     </row>
-    <row r="182" spans="1:17" ht="15.75">
+    <row r="182" spans="1:17" ht="15.75" hidden="1">
       <c r="A182" s="30">
         <v>600</v>
       </c>
@@ -15876,7 +15897,7 @@
         <v>0.88</v>
       </c>
     </row>
-    <row r="183" spans="1:17" ht="15.75">
+    <row r="183" spans="1:17" ht="15.75" hidden="1">
       <c r="A183" s="30">
         <v>600</v>
       </c>
@@ -15915,7 +15936,7 @@
         <v>0.88</v>
       </c>
     </row>
-    <row r="184" spans="1:17" ht="15.75">
+    <row r="184" spans="1:17" ht="15.75" hidden="1">
       <c r="A184" s="30">
         <v>600</v>
       </c>
@@ -15954,7 +15975,7 @@
         <v>0.88</v>
       </c>
     </row>
-    <row r="185" spans="1:17" ht="15.75">
+    <row r="185" spans="1:17" ht="15.75" hidden="1">
       <c r="A185" s="30">
         <v>600</v>
       </c>
@@ -15993,7 +16014,7 @@
         <v>0.88</v>
       </c>
     </row>
-    <row r="186" spans="1:17" ht="15.75">
+    <row r="186" spans="1:17" ht="15.75" hidden="1">
       <c r="A186" s="30">
         <v>600</v>
       </c>
@@ -16032,7 +16053,7 @@
         <v>0.88</v>
       </c>
     </row>
-    <row r="187" spans="1:17" ht="15.75">
+    <row r="187" spans="1:17" ht="15.75" hidden="1">
       <c r="A187" s="30">
         <v>600</v>
       </c>
@@ -16071,7 +16092,7 @@
         <v>0.88</v>
       </c>
     </row>
-    <row r="188" spans="1:17" ht="15.75">
+    <row r="188" spans="1:17" ht="15.75" hidden="1">
       <c r="A188" s="30">
         <v>600</v>
       </c>
@@ -16110,7 +16131,7 @@
         <v>0.88</v>
       </c>
     </row>
-    <row r="189" spans="1:17" ht="15.75">
+    <row r="189" spans="1:17" ht="15.75" hidden="1">
       <c r="A189" s="30">
         <v>600</v>
       </c>
@@ -16149,7 +16170,7 @@
         <v>0.88</v>
       </c>
     </row>
-    <row r="190" spans="1:17" ht="15.75">
+    <row r="190" spans="1:17" ht="15.75" hidden="1">
       <c r="A190" s="30">
         <v>600</v>
       </c>
@@ -16188,7 +16209,7 @@
         <v>0.88</v>
       </c>
     </row>
-    <row r="191" spans="1:17" ht="15.75">
+    <row r="191" spans="1:17" ht="15.75" hidden="1">
       <c r="A191" s="30">
         <v>600</v>
       </c>
@@ -16227,7 +16248,7 @@
         <v>0.88</v>
       </c>
     </row>
-    <row r="192" spans="1:17" ht="15.75">
+    <row r="192" spans="1:17" ht="15.75" hidden="1">
       <c r="A192" s="30">
         <v>600</v>
       </c>
@@ -16266,7 +16287,7 @@
         <v>0.88</v>
       </c>
     </row>
-    <row r="193" spans="1:17" ht="15.75">
+    <row r="193" spans="1:17" ht="15.75" hidden="1">
       <c r="A193" s="30">
         <v>600</v>
       </c>
@@ -16305,7 +16326,7 @@
         <v>0.88</v>
       </c>
     </row>
-    <row r="194" spans="1:17" ht="15.75">
+    <row r="194" spans="1:17" ht="15.75" hidden="1">
       <c r="A194" s="30">
         <v>600</v>
       </c>
@@ -16344,7 +16365,7 @@
         <v>0.88</v>
       </c>
     </row>
-    <row r="195" spans="1:17" ht="15.75">
+    <row r="195" spans="1:17" ht="15.75" hidden="1">
       <c r="A195" s="30">
         <v>600</v>
       </c>
@@ -16383,7 +16404,7 @@
         <v>0.88</v>
       </c>
     </row>
-    <row r="196" spans="1:17" ht="15.75">
+    <row r="196" spans="1:17" ht="15.75" hidden="1">
       <c r="A196" s="30">
         <v>600</v>
       </c>
@@ -16422,7 +16443,7 @@
         <v>0.88</v>
       </c>
     </row>
-    <row r="197" spans="1:17" ht="15.75">
+    <row r="197" spans="1:17" ht="15.75" hidden="1">
       <c r="A197" s="30">
         <v>600</v>
       </c>
@@ -16461,7 +16482,7 @@
         <v>0.88</v>
       </c>
     </row>
-    <row r="198" spans="1:17" customFormat="1" ht="15.75">
+    <row r="198" spans="1:17" customFormat="1" ht="15.75" hidden="1">
       <c r="A198" s="2">
         <v>600</v>
       </c>
@@ -16504,7 +16525,7 @@
       <c r="P198" s="38"/>
       <c r="Q198" s="27"/>
     </row>
-    <row r="199" spans="1:17" customFormat="1" ht="15.75">
+    <row r="199" spans="1:17" customFormat="1" ht="15.75" hidden="1">
       <c r="A199" s="2">
         <v>600</v>
       </c>
@@ -16541,7 +16562,7 @@
       <c r="P199" s="38"/>
       <c r="Q199" s="27"/>
     </row>
-    <row r="200" spans="1:17" ht="15.75">
+    <row r="200" spans="1:17" ht="15.75" hidden="1">
       <c r="A200" s="30">
         <v>700</v>
       </c>
@@ -16580,7 +16601,7 @@
         <v>0.88</v>
       </c>
     </row>
-    <row r="201" spans="1:17" customFormat="1" ht="15.75">
+    <row r="201" spans="1:17" customFormat="1" ht="15.75" hidden="1">
       <c r="A201" s="2">
         <v>700</v>
       </c>
@@ -16617,7 +16638,7 @@
       <c r="P201" s="38"/>
       <c r="Q201" s="27"/>
     </row>
-    <row r="202" spans="1:17" ht="15.75">
+    <row r="202" spans="1:17" ht="15.75" hidden="1">
       <c r="A202" s="30">
         <v>700</v>
       </c>
@@ -16656,7 +16677,7 @@
         <v>0.88</v>
       </c>
     </row>
-    <row r="203" spans="1:17" ht="15.75">
+    <row r="203" spans="1:17" ht="15.75" hidden="1">
       <c r="A203" s="30">
         <v>700</v>
       </c>
@@ -16695,7 +16716,7 @@
         <v>0.88</v>
       </c>
     </row>
-    <row r="204" spans="1:17" customFormat="1" ht="15.75">
+    <row r="204" spans="1:17" customFormat="1" ht="15.75" hidden="1">
       <c r="A204" s="2">
         <v>700</v>
       </c>
@@ -16738,7 +16759,7 @@
       <c r="P204" s="38"/>
       <c r="Q204" s="27"/>
     </row>
-    <row r="205" spans="1:17" customFormat="1" ht="15.75">
+    <row r="205" spans="1:17" customFormat="1" ht="15.75" hidden="1">
       <c r="A205" s="2">
         <v>700</v>
       </c>
@@ -16781,7 +16802,7 @@
       <c r="P205" s="38"/>
       <c r="Q205" s="27"/>
     </row>
-    <row r="206" spans="1:17" customFormat="1" ht="15.75">
+    <row r="206" spans="1:17" customFormat="1" ht="15.75" hidden="1">
       <c r="A206" s="2">
         <v>700</v>
       </c>
@@ -16824,7 +16845,7 @@
       <c r="P206" s="38"/>
       <c r="Q206" s="27"/>
     </row>
-    <row r="207" spans="1:17" customFormat="1" ht="15.75">
+    <row r="207" spans="1:17" customFormat="1" ht="15.75" hidden="1">
       <c r="A207" s="2">
         <v>700</v>
       </c>
@@ -16867,7 +16888,7 @@
       <c r="P207" s="38"/>
       <c r="Q207" s="27"/>
     </row>
-    <row r="208" spans="1:17" customFormat="1" ht="15.75">
+    <row r="208" spans="1:17" customFormat="1" ht="15.75" hidden="1">
       <c r="A208" s="2">
         <v>700</v>
       </c>
@@ -16910,7 +16931,7 @@
       <c r="P208" s="38"/>
       <c r="Q208" s="27"/>
     </row>
-    <row r="209" spans="1:17" customFormat="1" ht="15.75">
+    <row r="209" spans="1:17" customFormat="1" ht="15.75" hidden="1">
       <c r="A209" s="2">
         <v>700</v>
       </c>
@@ -16953,7 +16974,7 @@
       <c r="P209" s="38"/>
       <c r="Q209" s="27"/>
     </row>
-    <row r="210" spans="1:17" customFormat="1" ht="15.75">
+    <row r="210" spans="1:17" customFormat="1" ht="15.75" hidden="1">
       <c r="A210" s="2">
         <v>700</v>
       </c>
@@ -16996,7 +17017,7 @@
       <c r="P210" s="38"/>
       <c r="Q210" s="27"/>
     </row>
-    <row r="211" spans="1:17" customFormat="1" ht="15.75">
+    <row r="211" spans="1:17" customFormat="1" ht="15.75" hidden="1">
       <c r="A211" s="2">
         <v>700</v>
       </c>
@@ -17039,7 +17060,7 @@
       <c r="P211" s="38"/>
       <c r="Q211" s="27"/>
     </row>
-    <row r="212" spans="1:17" customFormat="1" ht="15.75">
+    <row r="212" spans="1:17" customFormat="1" ht="15.75" hidden="1">
       <c r="A212" s="2">
         <v>700</v>
       </c>
@@ -17082,7 +17103,7 @@
       <c r="P212" s="38"/>
       <c r="Q212" s="27"/>
     </row>
-    <row r="213" spans="1:17" ht="15.75">
+    <row r="213" spans="1:17" ht="15.75" hidden="1">
       <c r="A213" s="30">
         <v>700</v>
       </c>
@@ -17121,7 +17142,7 @@
         <v>0.88</v>
       </c>
     </row>
-    <row r="214" spans="1:17" ht="15.75">
+    <row r="214" spans="1:17" ht="15.75" hidden="1">
       <c r="A214" s="30">
         <v>700</v>
       </c>
@@ -17160,7 +17181,7 @@
         <v>0.88</v>
       </c>
     </row>
-    <row r="215" spans="1:17" ht="15.75">
+    <row r="215" spans="1:17" ht="15.75" hidden="1">
       <c r="A215" s="30">
         <v>700</v>
       </c>
@@ -17199,7 +17220,7 @@
         <v>0.88</v>
       </c>
     </row>
-    <row r="216" spans="1:17" ht="15.75">
+    <row r="216" spans="1:17" ht="15.75" hidden="1">
       <c r="A216" s="30">
         <v>700</v>
       </c>
@@ -17238,7 +17259,7 @@
         <v>0.88</v>
       </c>
     </row>
-    <row r="217" spans="1:17" ht="15.75">
+    <row r="217" spans="1:17" ht="15.75" hidden="1">
       <c r="A217" s="30">
         <v>700</v>
       </c>
@@ -17277,7 +17298,7 @@
         <v>0.88</v>
       </c>
     </row>
-    <row r="218" spans="1:17" ht="15.75">
+    <row r="218" spans="1:17" ht="15.75" hidden="1">
       <c r="A218" s="30">
         <v>700</v>
       </c>
@@ -17316,7 +17337,7 @@
         <v>0.88</v>
       </c>
     </row>
-    <row r="219" spans="1:17" ht="15.75">
+    <row r="219" spans="1:17" ht="15.75" hidden="1">
       <c r="A219" s="30">
         <v>700</v>
       </c>
@@ -17355,7 +17376,7 @@
         <v>0.88</v>
       </c>
     </row>
-    <row r="220" spans="1:17" ht="15.75">
+    <row r="220" spans="1:17" ht="15.75" hidden="1">
       <c r="A220" s="30">
         <v>700</v>
       </c>
@@ -17394,7 +17415,7 @@
         <v>0.88</v>
       </c>
     </row>
-    <row r="221" spans="1:17" customFormat="1" ht="15.75">
+    <row r="221" spans="1:17" customFormat="1" ht="15.75" hidden="1">
       <c r="A221" s="2">
         <v>700</v>
       </c>
@@ -17437,7 +17458,7 @@
       <c r="P221" s="38"/>
       <c r="Q221" s="27"/>
     </row>
-    <row r="222" spans="1:17" customFormat="1" ht="15.75">
+    <row r="222" spans="1:17" customFormat="1" ht="15.75" hidden="1">
       <c r="A222" s="2">
         <v>700</v>
       </c>
@@ -17480,7 +17501,7 @@
       <c r="P222" s="38"/>
       <c r="Q222" s="27"/>
     </row>
-    <row r="223" spans="1:17" customFormat="1" ht="15.75">
+    <row r="223" spans="1:17" customFormat="1" ht="15.75" hidden="1">
       <c r="A223" s="2">
         <v>700</v>
       </c>
@@ -17523,7 +17544,7 @@
       <c r="P223" s="38"/>
       <c r="Q223" s="27"/>
     </row>
-    <row r="224" spans="1:17" customFormat="1" ht="15.75">
+    <row r="224" spans="1:17" customFormat="1" ht="15.75" hidden="1">
       <c r="A224" s="2">
         <v>700</v>
       </c>
@@ -17564,7 +17585,7 @@
       <c r="P224" s="38"/>
       <c r="Q224" s="27"/>
     </row>
-    <row r="225" spans="1:17" ht="15.75">
+    <row r="225" spans="1:17" ht="15.75" hidden="1">
       <c r="A225" s="30">
         <v>700</v>
       </c>
@@ -17603,7 +17624,7 @@
         <v>0.88</v>
       </c>
     </row>
-    <row r="226" spans="1:17" ht="15.75">
+    <row r="226" spans="1:17" ht="15.75" hidden="1">
       <c r="A226" s="30">
         <v>700</v>
       </c>
@@ -17642,7 +17663,7 @@
         <v>0.88</v>
       </c>
     </row>
-    <row r="227" spans="1:17" customFormat="1" ht="15.75">
+    <row r="227" spans="1:17" customFormat="1" ht="15.75" hidden="1">
       <c r="A227" s="2">
         <v>700</v>
       </c>
@@ -17685,7 +17706,7 @@
       <c r="P227" s="38"/>
       <c r="Q227" s="27"/>
     </row>
-    <row r="228" spans="1:17" ht="15.75">
+    <row r="228" spans="1:17" ht="15.75" hidden="1">
       <c r="A228" s="30">
         <v>700</v>
       </c>
@@ -17724,7 +17745,7 @@
         <v>0.88</v>
       </c>
     </row>
-    <row r="229" spans="1:17" ht="15.75">
+    <row r="229" spans="1:17" ht="15.75" hidden="1">
       <c r="A229" s="30">
         <v>700</v>
       </c>
@@ -17763,7 +17784,7 @@
         <v>0.88</v>
       </c>
     </row>
-    <row r="230" spans="1:17" ht="15.75">
+    <row r="230" spans="1:17" ht="15.75" hidden="1">
       <c r="A230" s="30">
         <v>700</v>
       </c>
@@ -17802,7 +17823,7 @@
         <v>0.88</v>
       </c>
     </row>
-    <row r="231" spans="1:17" customFormat="1" ht="15.75">
+    <row r="231" spans="1:17" customFormat="1" ht="15.75" hidden="1">
       <c r="A231" s="2">
         <v>700</v>
       </c>
@@ -17845,7 +17866,7 @@
       <c r="P231" s="38"/>
       <c r="Q231" s="27"/>
     </row>
-    <row r="232" spans="1:17" customFormat="1" ht="15.75">
+    <row r="232" spans="1:17" customFormat="1" ht="15.75" hidden="1">
       <c r="A232" s="2">
         <v>700</v>
       </c>
@@ -17888,7 +17909,7 @@
       <c r="P232" s="38"/>
       <c r="Q232" s="27"/>
     </row>
-    <row r="233" spans="1:17" ht="15.75">
+    <row r="233" spans="1:17" ht="15.75" hidden="1">
       <c r="A233" s="30">
         <v>700</v>
       </c>
@@ -17927,7 +17948,7 @@
         <v>0.88</v>
       </c>
     </row>
-    <row r="234" spans="1:17" customFormat="1" ht="15.75">
+    <row r="234" spans="1:17" customFormat="1" ht="15.75" hidden="1">
       <c r="A234" s="2">
         <v>700</v>
       </c>
@@ -17970,7 +17991,7 @@
       <c r="P234" s="38"/>
       <c r="Q234" s="27"/>
     </row>
-    <row r="235" spans="1:17" ht="15.75">
+    <row r="235" spans="1:17" ht="15.75" hidden="1">
       <c r="A235" s="30">
         <v>700</v>
       </c>
@@ -18009,7 +18030,7 @@
         <v>0.88</v>
       </c>
     </row>
-    <row r="236" spans="1:17" customFormat="1" ht="15.75">
+    <row r="236" spans="1:17" customFormat="1" ht="15.75" hidden="1">
       <c r="A236" s="2">
         <v>700</v>
       </c>
@@ -18052,7 +18073,7 @@
       <c r="P236" s="38"/>
       <c r="Q236" s="27"/>
     </row>
-    <row r="237" spans="1:17" ht="15.75">
+    <row r="237" spans="1:17" ht="15.75" hidden="1">
       <c r="A237" s="30">
         <v>700</v>
       </c>
@@ -18091,7 +18112,7 @@
         <v>0.88</v>
       </c>
     </row>
-    <row r="238" spans="1:17" customFormat="1" ht="15.75">
+    <row r="238" spans="1:17" customFormat="1" ht="15.75" hidden="1">
       <c r="A238" s="2">
         <v>700</v>
       </c>
@@ -18134,7 +18155,7 @@
       <c r="P238" s="38"/>
       <c r="Q238" s="27"/>
     </row>
-    <row r="239" spans="1:17" customFormat="1" ht="15.75">
+    <row r="239" spans="1:17" customFormat="1" ht="15.75" hidden="1">
       <c r="A239" s="2">
         <v>700</v>
       </c>
@@ -18177,7 +18198,7 @@
       <c r="P239" s="38"/>
       <c r="Q239" s="27"/>
     </row>
-    <row r="240" spans="1:17" customFormat="1" ht="15.75">
+    <row r="240" spans="1:17" customFormat="1" ht="15.75" hidden="1">
       <c r="A240" s="2">
         <v>700</v>
       </c>
@@ -18220,7 +18241,7 @@
       <c r="P240" s="38"/>
       <c r="Q240" s="27"/>
     </row>
-    <row r="241" spans="1:17" customFormat="1" ht="15.75">
+    <row r="241" spans="1:17" customFormat="1" ht="15.75" hidden="1">
       <c r="A241" s="2">
         <v>700</v>
       </c>
@@ -18263,7 +18284,7 @@
       <c r="P241" s="38"/>
       <c r="Q241" s="27"/>
     </row>
-    <row r="242" spans="1:17" ht="15.75">
+    <row r="242" spans="1:17" ht="15.75" hidden="1">
       <c r="A242" s="30">
         <v>700</v>
       </c>
@@ -18302,7 +18323,7 @@
         <v>0.88</v>
       </c>
     </row>
-    <row r="243" spans="1:17" ht="15.75">
+    <row r="243" spans="1:17" ht="15.75" hidden="1">
       <c r="A243" s="30">
         <v>700</v>
       </c>
@@ -18341,7 +18362,7 @@
         <v>0.88</v>
       </c>
     </row>
-    <row r="244" spans="1:17" ht="15.75">
+    <row r="244" spans="1:17" ht="15.75" hidden="1">
       <c r="A244" s="30">
         <v>700</v>
       </c>
@@ -18380,7 +18401,7 @@
         <v>0.88</v>
       </c>
     </row>
-    <row r="245" spans="1:17" ht="15.75">
+    <row r="245" spans="1:17" ht="15.75" hidden="1">
       <c r="A245" s="30">
         <v>700</v>
       </c>
@@ -18419,7 +18440,7 @@
         <v>0.88</v>
       </c>
     </row>
-    <row r="246" spans="1:17" ht="15.75">
+    <row r="246" spans="1:17" ht="15.75" hidden="1">
       <c r="A246" s="30">
         <v>700</v>
       </c>
@@ -18458,7 +18479,7 @@
         <v>0.88</v>
       </c>
     </row>
-    <row r="247" spans="1:17" customFormat="1" ht="15.75">
+    <row r="247" spans="1:17" customFormat="1" ht="15.75" hidden="1">
       <c r="A247" s="2">
         <v>700</v>
       </c>
@@ -18501,7 +18522,7 @@
       <c r="P247" s="38"/>
       <c r="Q247" s="27"/>
     </row>
-    <row r="248" spans="1:17" ht="15.75">
+    <row r="248" spans="1:17" ht="15.75" hidden="1">
       <c r="A248" s="30">
         <v>700</v>
       </c>
@@ -18540,7 +18561,7 @@
         <v>0.88</v>
       </c>
     </row>
-    <row r="249" spans="1:17" ht="15.75">
+    <row r="249" spans="1:17" ht="15.75" hidden="1">
       <c r="A249" s="30">
         <v>700</v>
       </c>
@@ -18579,7 +18600,7 @@
         <v>0.88</v>
       </c>
     </row>
-    <row r="250" spans="1:17" customFormat="1" ht="15.75">
+    <row r="250" spans="1:17" customFormat="1" ht="15.75" hidden="1">
       <c r="A250" s="2">
         <v>700</v>
       </c>
@@ -18622,7 +18643,7 @@
       <c r="P250" s="38"/>
       <c r="Q250" s="27"/>
     </row>
-    <row r="251" spans="1:17" customFormat="1" ht="15.75">
+    <row r="251" spans="1:17" customFormat="1" ht="15.75" hidden="1">
       <c r="A251" s="2">
         <v>700</v>
       </c>
@@ -18665,7 +18686,7 @@
       <c r="P251" s="38"/>
       <c r="Q251" s="27"/>
     </row>
-    <row r="252" spans="1:17" customFormat="1" ht="15.75">
+    <row r="252" spans="1:17" customFormat="1" ht="15.75" hidden="1">
       <c r="A252" s="2">
         <v>700</v>
       </c>
@@ -18706,7 +18727,7 @@
       <c r="P252" s="38"/>
       <c r="Q252" s="27"/>
     </row>
-    <row r="253" spans="1:17" ht="15.75">
+    <row r="253" spans="1:17" ht="15.75" hidden="1">
       <c r="A253" s="30">
         <v>700</v>
       </c>
@@ -18745,7 +18766,7 @@
         <v>0.88</v>
       </c>
     </row>
-    <row r="254" spans="1:17" customFormat="1" ht="15.75">
+    <row r="254" spans="1:17" customFormat="1" ht="15.75" hidden="1">
       <c r="A254" s="2">
         <v>700</v>
       </c>
@@ -18788,7 +18809,7 @@
       <c r="P254" s="38"/>
       <c r="Q254" s="27"/>
     </row>
-    <row r="255" spans="1:17" customFormat="1" ht="15.75">
+    <row r="255" spans="1:17" customFormat="1" ht="15.75" hidden="1">
       <c r="A255" s="2">
         <v>700</v>
       </c>
@@ -18831,7 +18852,7 @@
       <c r="P255" s="38"/>
       <c r="Q255" s="27"/>
     </row>
-    <row r="256" spans="1:17" customFormat="1" ht="15.75">
+    <row r="256" spans="1:17" customFormat="1" ht="15.75" hidden="1">
       <c r="A256" s="13">
         <v>700</v>
       </c>
@@ -18872,7 +18893,7 @@
       <c r="P256" s="38"/>
       <c r="Q256" s="27"/>
     </row>
-    <row r="257" spans="1:17" customFormat="1" ht="15.75">
+    <row r="257" spans="1:17" customFormat="1" ht="15.75" hidden="1">
       <c r="A257" s="2">
         <v>700</v>
       </c>
@@ -18915,7 +18936,7 @@
       <c r="P257" s="38"/>
       <c r="Q257" s="27"/>
     </row>
-    <row r="258" spans="1:17" customFormat="1" ht="15.75">
+    <row r="258" spans="1:17" customFormat="1" ht="15.75" hidden="1">
       <c r="A258" s="2">
         <v>700</v>
       </c>
@@ -18952,7 +18973,7 @@
       <c r="P258" s="38"/>
       <c r="Q258" s="27"/>
     </row>
-    <row r="259" spans="1:17" customFormat="1" ht="15.75">
+    <row r="259" spans="1:17" customFormat="1" ht="15.75" hidden="1">
       <c r="A259" s="2">
         <v>700</v>
       </c>
@@ -18995,7 +19016,7 @@
       <c r="P259" s="38"/>
       <c r="Q259" s="27"/>
     </row>
-    <row r="260" spans="1:17" customFormat="1" ht="15.75">
+    <row r="260" spans="1:17" customFormat="1" ht="15.75" hidden="1">
       <c r="A260" s="2">
         <v>700</v>
       </c>
@@ -19032,7 +19053,7 @@
       <c r="P260" s="38"/>
       <c r="Q260" s="27"/>
     </row>
-    <row r="261" spans="1:17" customFormat="1" ht="15.75">
+    <row r="261" spans="1:17" customFormat="1" ht="15.75" hidden="1">
       <c r="A261" s="2">
         <v>700</v>
       </c>
@@ -19075,7 +19096,7 @@
       <c r="P261" s="38"/>
       <c r="Q261" s="27"/>
     </row>
-    <row r="262" spans="1:17" ht="15.75">
+    <row r="262" spans="1:17" ht="15.75" hidden="1">
       <c r="A262" s="30">
         <v>700</v>
       </c>
@@ -19114,7 +19135,7 @@
         <v>0.88</v>
       </c>
     </row>
-    <row r="263" spans="1:17" customFormat="1" ht="15.75">
+    <row r="263" spans="1:17" customFormat="1" ht="15.75" hidden="1">
       <c r="A263" s="2">
         <v>700</v>
       </c>
@@ -19155,7 +19176,7 @@
       <c r="P263" s="38"/>
       <c r="Q263" s="27"/>
     </row>
-    <row r="264" spans="1:17" customFormat="1" ht="15.75">
+    <row r="264" spans="1:17" customFormat="1" ht="15.75" hidden="1">
       <c r="A264" s="2">
         <v>700</v>
       </c>
@@ -19196,7 +19217,7 @@
       <c r="P264" s="38"/>
       <c r="Q264" s="27"/>
     </row>
-    <row r="265" spans="1:17" customFormat="1" ht="15.75">
+    <row r="265" spans="1:17" customFormat="1" ht="15.75" hidden="1">
       <c r="A265" s="2">
         <v>700</v>
       </c>
@@ -19237,7 +19258,7 @@
       <c r="P265" s="38"/>
       <c r="Q265" s="27"/>
     </row>
-    <row r="266" spans="1:17" customFormat="1" ht="15.75">
+    <row r="266" spans="1:17" customFormat="1" ht="15.75" hidden="1">
       <c r="A266" s="2">
         <v>700</v>
       </c>
@@ -19278,7 +19299,7 @@
       <c r="P266" s="38"/>
       <c r="Q266" s="27"/>
     </row>
-    <row r="267" spans="1:17" customFormat="1" ht="15.75">
+    <row r="267" spans="1:17" customFormat="1" ht="15.75" hidden="1">
       <c r="A267" s="2">
         <v>700</v>
       </c>
@@ -19321,7 +19342,7 @@
       <c r="P267" s="38"/>
       <c r="Q267" s="27"/>
     </row>
-    <row r="268" spans="1:17" customFormat="1" ht="15.75">
+    <row r="268" spans="1:17" customFormat="1" ht="15.75" hidden="1">
       <c r="A268" s="2">
         <v>700</v>
       </c>
@@ -19364,7 +19385,7 @@
       <c r="P268" s="38"/>
       <c r="Q268" s="27"/>
     </row>
-    <row r="269" spans="1:17" ht="15.75">
+    <row r="269" spans="1:17" ht="15.75" hidden="1">
       <c r="A269" s="30">
         <v>700</v>
       </c>
@@ -19403,7 +19424,7 @@
         <v>0.88</v>
       </c>
     </row>
-    <row r="270" spans="1:17" customFormat="1" ht="15.75">
+    <row r="270" spans="1:17" customFormat="1" ht="15.75" hidden="1">
       <c r="A270" s="2">
         <v>700</v>
       </c>
@@ -19446,7 +19467,7 @@
       <c r="P270" s="38"/>
       <c r="Q270" s="27"/>
     </row>
-    <row r="271" spans="1:17" customFormat="1" ht="15.75">
+    <row r="271" spans="1:17" customFormat="1" ht="15.75" hidden="1">
       <c r="A271" s="2">
         <v>700</v>
       </c>
@@ -19489,7 +19510,7 @@
       <c r="P271" s="38"/>
       <c r="Q271" s="27"/>
     </row>
-    <row r="272" spans="1:17" ht="15.75">
+    <row r="272" spans="1:17" ht="15.75" hidden="1">
       <c r="A272" s="30">
         <v>700</v>
       </c>
@@ -19528,7 +19549,7 @@
         <v>0.88</v>
       </c>
     </row>
-    <row r="273" spans="1:17" ht="15.75">
+    <row r="273" spans="1:17" ht="15.75" hidden="1">
       <c r="A273" s="30">
         <v>700</v>
       </c>
@@ -19567,7 +19588,7 @@
         <v>0.88</v>
       </c>
     </row>
-    <row r="274" spans="1:17" customFormat="1" ht="15.75">
+    <row r="274" spans="1:17" customFormat="1" ht="15.75" hidden="1">
       <c r="A274" s="2">
         <v>800</v>
       </c>
@@ -19608,7 +19629,7 @@
       <c r="P274" s="38"/>
       <c r="Q274" s="27"/>
     </row>
-    <row r="275" spans="1:17" customFormat="1" ht="15.75">
+    <row r="275" spans="1:17" customFormat="1" ht="15.75" hidden="1">
       <c r="A275" s="2">
         <v>800</v>
       </c>
@@ -19649,7 +19670,7 @@
       <c r="P275" s="38"/>
       <c r="Q275" s="27"/>
     </row>
-    <row r="276" spans="1:17" customFormat="1" ht="15.75">
+    <row r="276" spans="1:17" customFormat="1" ht="15.75" hidden="1">
       <c r="A276" s="2">
         <v>800</v>
       </c>
@@ -19688,7 +19709,7 @@
       <c r="P276" s="38"/>
       <c r="Q276" s="27"/>
     </row>
-    <row r="277" spans="1:17" customFormat="1" ht="15.75">
+    <row r="277" spans="1:17" customFormat="1" ht="15.75" hidden="1">
       <c r="A277" s="2">
         <v>800</v>
       </c>
@@ -19725,7 +19746,7 @@
       <c r="P277" s="38"/>
       <c r="Q277" s="27"/>
     </row>
-    <row r="278" spans="1:17" customFormat="1" ht="15.75">
+    <row r="278" spans="1:17" customFormat="1" ht="15.75" hidden="1">
       <c r="A278" s="2">
         <v>800</v>
       </c>
@@ -19764,7 +19785,7 @@
       <c r="P278" s="38"/>
       <c r="Q278" s="27"/>
     </row>
-    <row r="279" spans="1:17" customFormat="1" ht="15.75">
+    <row r="279" spans="1:17" customFormat="1" ht="15.75" hidden="1">
       <c r="A279" s="2">
         <v>800</v>
       </c>
@@ -19805,7 +19826,7 @@
       <c r="P279" s="38"/>
       <c r="Q279" s="27"/>
     </row>
-    <row r="280" spans="1:17" customFormat="1" ht="15.75">
+    <row r="280" spans="1:17" customFormat="1" ht="15.75" hidden="1">
       <c r="A280" s="2">
         <v>800</v>
       </c>
@@ -19842,7 +19863,7 @@
       <c r="P280" s="38"/>
       <c r="Q280" s="27"/>
     </row>
-    <row r="281" spans="1:17" customFormat="1" ht="15.75">
+    <row r="281" spans="1:17" customFormat="1" ht="15.75" hidden="1">
       <c r="A281" s="2">
         <v>800</v>
       </c>
@@ -19879,7 +19900,7 @@
       <c r="P281" s="38"/>
       <c r="Q281" s="27"/>
     </row>
-    <row r="282" spans="1:17" customFormat="1" ht="15.75">
+    <row r="282" spans="1:17" customFormat="1" ht="15.75" hidden="1">
       <c r="A282" s="2">
         <v>800</v>
       </c>
@@ -19920,7 +19941,7 @@
       <c r="P282" s="38"/>
       <c r="Q282" s="27"/>
     </row>
-    <row r="283" spans="1:17" customFormat="1" ht="15.75">
+    <row r="283" spans="1:17" customFormat="1" ht="15.75" hidden="1">
       <c r="A283" s="2">
         <v>800</v>
       </c>
@@ -19961,7 +19982,7 @@
       <c r="P283" s="38"/>
       <c r="Q283" s="27"/>
     </row>
-    <row r="284" spans="1:17" customFormat="1" ht="15.75">
+    <row r="284" spans="1:17" customFormat="1" ht="15.75" hidden="1">
       <c r="A284" s="2">
         <v>800</v>
       </c>
@@ -20002,7 +20023,7 @@
       <c r="P284" s="38"/>
       <c r="Q284" s="27"/>
     </row>
-    <row r="285" spans="1:17" customFormat="1" ht="15.75">
+    <row r="285" spans="1:17" customFormat="1" ht="15.75" hidden="1">
       <c r="A285" s="2">
         <v>800</v>
       </c>
@@ -20043,7 +20064,7 @@
       <c r="P285" s="38"/>
       <c r="Q285" s="27"/>
     </row>
-    <row r="286" spans="1:17" customFormat="1" ht="15.75">
+    <row r="286" spans="1:17" customFormat="1" ht="15.75" hidden="1">
       <c r="A286" s="2">
         <v>800</v>
       </c>
@@ -20084,7 +20105,7 @@
       <c r="P286" s="38"/>
       <c r="Q286" s="27"/>
     </row>
-    <row r="287" spans="1:17" customFormat="1" ht="15.75">
+    <row r="287" spans="1:17" customFormat="1" ht="15.75" hidden="1">
       <c r="A287" s="2">
         <v>800</v>
       </c>
@@ -20125,7 +20146,7 @@
       <c r="P287" s="38"/>
       <c r="Q287" s="27"/>
     </row>
-    <row r="288" spans="1:17" customFormat="1" ht="15.75">
+    <row r="288" spans="1:17" customFormat="1" ht="15.75" hidden="1">
       <c r="A288" s="2">
         <v>800</v>
       </c>
@@ -20166,7 +20187,7 @@
       <c r="P288" s="38"/>
       <c r="Q288" s="27"/>
     </row>
-    <row r="289" spans="1:17" customFormat="1" ht="15.75">
+    <row r="289" spans="1:17" customFormat="1" ht="15.75" hidden="1">
       <c r="A289" s="2">
         <v>800</v>
       </c>
@@ -20203,7 +20224,7 @@
       <c r="P289" s="38"/>
       <c r="Q289" s="27"/>
     </row>
-    <row r="290" spans="1:17" customFormat="1" ht="15.75">
+    <row r="290" spans="1:17" customFormat="1" ht="15.75" hidden="1">
       <c r="A290" s="2">
         <v>800</v>
       </c>
@@ -20240,7 +20261,7 @@
       <c r="P290" s="38"/>
       <c r="Q290" s="27"/>
     </row>
-    <row r="291" spans="1:17" customFormat="1" ht="15.75">
+    <row r="291" spans="1:17" customFormat="1" ht="15.75" hidden="1">
       <c r="A291" s="2">
         <v>800</v>
       </c>
@@ -20277,7 +20298,7 @@
       <c r="P291" s="38"/>
       <c r="Q291" s="27"/>
     </row>
-    <row r="292" spans="1:17" customFormat="1" ht="15.75">
+    <row r="292" spans="1:17" customFormat="1" ht="15.75" hidden="1">
       <c r="A292" s="2">
         <v>800</v>
       </c>
@@ -20316,7 +20337,7 @@
       <c r="P292" s="38"/>
       <c r="Q292" s="27"/>
     </row>
-    <row r="293" spans="1:17" customFormat="1" ht="15.75">
+    <row r="293" spans="1:17" customFormat="1" ht="15.75" hidden="1">
       <c r="A293" s="2">
         <v>800</v>
       </c>
@@ -20355,7 +20376,7 @@
       <c r="P293" s="38"/>
       <c r="Q293" s="27"/>
     </row>
-    <row r="294" spans="1:17" customFormat="1" ht="15.75">
+    <row r="294" spans="1:17" customFormat="1" ht="15.75" hidden="1">
       <c r="A294" s="2">
         <v>800</v>
       </c>
@@ -20394,7 +20415,7 @@
       <c r="P294" s="38"/>
       <c r="Q294" s="27"/>
     </row>
-    <row r="295" spans="1:17" customFormat="1" ht="15.75">
+    <row r="295" spans="1:17" customFormat="1" ht="15.75" hidden="1">
       <c r="A295" s="2">
         <v>800</v>
       </c>
@@ -20433,7 +20454,7 @@
       <c r="P295" s="38"/>
       <c r="Q295" s="27"/>
     </row>
-    <row r="296" spans="1:17" customFormat="1" ht="15.75">
+    <row r="296" spans="1:17" customFormat="1" ht="15.75" hidden="1">
       <c r="A296" s="2">
         <v>800</v>
       </c>
@@ -20472,7 +20493,7 @@
       <c r="P296" s="38"/>
       <c r="Q296" s="27"/>
     </row>
-    <row r="297" spans="1:17" customFormat="1" ht="15.75">
+    <row r="297" spans="1:17" customFormat="1" ht="15.75" hidden="1">
       <c r="A297" s="2">
         <v>800</v>
       </c>
@@ -20511,7 +20532,7 @@
       <c r="P297" s="38"/>
       <c r="Q297" s="27"/>
     </row>
-    <row r="298" spans="1:17" customFormat="1" ht="15.75">
+    <row r="298" spans="1:17" customFormat="1" ht="15.75" hidden="1">
       <c r="A298" s="2">
         <v>800</v>
       </c>
@@ -20550,7 +20571,7 @@
       <c r="P298" s="38"/>
       <c r="Q298" s="27"/>
     </row>
-    <row r="299" spans="1:17" customFormat="1" ht="15.75">
+    <row r="299" spans="1:17" customFormat="1" ht="15.75" hidden="1">
       <c r="A299" s="2">
         <v>800</v>
       </c>
@@ -20589,7 +20610,7 @@
       <c r="P299" s="38"/>
       <c r="Q299" s="27"/>
     </row>
-    <row r="300" spans="1:17" customFormat="1" ht="15.75">
+    <row r="300" spans="1:17" customFormat="1" ht="15.75" hidden="1">
       <c r="A300" s="2">
         <v>800</v>
       </c>
@@ -20628,7 +20649,7 @@
       <c r="P300" s="38"/>
       <c r="Q300" s="27"/>
     </row>
-    <row r="301" spans="1:17" customFormat="1" ht="15.75">
+    <row r="301" spans="1:17" customFormat="1" ht="15.75" hidden="1">
       <c r="A301" s="2">
         <v>800</v>
       </c>
@@ -20665,7 +20686,7 @@
       <c r="P301" s="38"/>
       <c r="Q301" s="27"/>
     </row>
-    <row r="302" spans="1:17" customFormat="1" ht="15.75">
+    <row r="302" spans="1:17" customFormat="1" ht="15.75" hidden="1">
       <c r="A302" s="2">
         <v>800</v>
       </c>
@@ -20702,7 +20723,7 @@
       <c r="P302" s="38"/>
       <c r="Q302" s="27"/>
     </row>
-    <row r="303" spans="1:17" customFormat="1" ht="15.75">
+    <row r="303" spans="1:17" customFormat="1" ht="15.75" hidden="1">
       <c r="A303" s="2">
         <v>800</v>
       </c>
@@ -20739,7 +20760,7 @@
       <c r="P303" s="38"/>
       <c r="Q303" s="27"/>
     </row>
-    <row r="304" spans="1:17" customFormat="1" ht="15.75">
+    <row r="304" spans="1:17" customFormat="1" ht="15.75" hidden="1">
       <c r="A304" s="2">
         <v>800</v>
       </c>
@@ -20778,7 +20799,7 @@
       <c r="P304" s="38"/>
       <c r="Q304" s="27"/>
     </row>
-    <row r="305" spans="1:17" customFormat="1" ht="15.75">
+    <row r="305" spans="1:17" customFormat="1" ht="15.75" hidden="1">
       <c r="A305" s="2">
         <v>800</v>
       </c>
@@ -20815,7 +20836,7 @@
       <c r="P305" s="38"/>
       <c r="Q305" s="27"/>
     </row>
-    <row r="306" spans="1:17" customFormat="1" ht="15.75">
+    <row r="306" spans="1:17" customFormat="1" ht="15.75" hidden="1">
       <c r="A306" s="2">
         <v>800</v>
       </c>
@@ -20852,7 +20873,7 @@
       <c r="P306" s="38"/>
       <c r="Q306" s="27"/>
     </row>
-    <row r="307" spans="1:17" customFormat="1" ht="15.75">
+    <row r="307" spans="1:17" customFormat="1" ht="15.75" hidden="1">
       <c r="A307" s="2">
         <v>800</v>
       </c>
@@ -20889,7 +20910,7 @@
       <c r="P307" s="38"/>
       <c r="Q307" s="27"/>
     </row>
-    <row r="308" spans="1:17" customFormat="1" ht="15.75">
+    <row r="308" spans="1:17" customFormat="1" ht="15.75" hidden="1">
       <c r="A308" s="2">
         <v>800</v>
       </c>
@@ -20926,7 +20947,7 @@
       <c r="P308" s="38"/>
       <c r="Q308" s="27"/>
     </row>
-    <row r="309" spans="1:17" customFormat="1" ht="15.75">
+    <row r="309" spans="1:17" customFormat="1" ht="15.75" hidden="1">
       <c r="A309" s="2">
         <v>800</v>
       </c>
@@ -20963,7 +20984,7 @@
       <c r="P309" s="38"/>
       <c r="Q309" s="27"/>
     </row>
-    <row r="310" spans="1:17" customFormat="1" ht="15.75">
+    <row r="310" spans="1:17" customFormat="1" ht="15.75" hidden="1">
       <c r="A310" s="2">
         <v>800</v>
       </c>
@@ -21000,7 +21021,7 @@
       <c r="P310" s="38"/>
       <c r="Q310" s="27"/>
     </row>
-    <row r="311" spans="1:17" customFormat="1" ht="15.75">
+    <row r="311" spans="1:17" customFormat="1" ht="15.75" hidden="1">
       <c r="A311" s="2">
         <v>800</v>
       </c>
@@ -21037,7 +21058,7 @@
       <c r="P311" s="38"/>
       <c r="Q311" s="27"/>
     </row>
-    <row r="312" spans="1:17" customFormat="1" ht="15.75">
+    <row r="312" spans="1:17" customFormat="1" ht="15.75" hidden="1">
       <c r="A312" s="2">
         <v>800</v>
       </c>
@@ -21074,7 +21095,7 @@
       <c r="P312" s="38"/>
       <c r="Q312" s="27"/>
     </row>
-    <row r="313" spans="1:17" customFormat="1" ht="15.75">
+    <row r="313" spans="1:17" customFormat="1" ht="15.75" hidden="1">
       <c r="A313" s="2">
         <v>800</v>
       </c>
@@ -21111,7 +21132,7 @@
       <c r="P313" s="38"/>
       <c r="Q313" s="27"/>
     </row>
-    <row r="314" spans="1:17" customFormat="1" ht="15.75">
+    <row r="314" spans="1:17" customFormat="1" ht="15.75" hidden="1">
       <c r="A314" s="2">
         <v>800</v>
       </c>
@@ -21148,7 +21169,7 @@
       <c r="P314" s="38"/>
       <c r="Q314" s="27"/>
     </row>
-    <row r="315" spans="1:17" customFormat="1" ht="15.75">
+    <row r="315" spans="1:17" customFormat="1" ht="15.75" hidden="1">
       <c r="A315" s="2">
         <v>800</v>
       </c>
@@ -21185,7 +21206,7 @@
       <c r="P315" s="38"/>
       <c r="Q315" s="27"/>
     </row>
-    <row r="316" spans="1:17" customFormat="1" ht="15.75">
+    <row r="316" spans="1:17" customFormat="1" ht="15.75" hidden="1">
       <c r="A316" s="2">
         <v>800</v>
       </c>
@@ -21222,7 +21243,7 @@
       <c r="P316" s="38"/>
       <c r="Q316" s="27"/>
     </row>
-    <row r="317" spans="1:17" customFormat="1" ht="15.75">
+    <row r="317" spans="1:17" customFormat="1" ht="15.75" hidden="1">
       <c r="A317" s="2">
         <v>800</v>
       </c>
@@ -21259,7 +21280,7 @@
       <c r="P317" s="38"/>
       <c r="Q317" s="27"/>
     </row>
-    <row r="318" spans="1:17" customFormat="1" ht="15.75">
+    <row r="318" spans="1:17" customFormat="1" ht="15.75" hidden="1">
       <c r="A318" s="2">
         <v>800</v>
       </c>
@@ -21296,7 +21317,7 @@
       <c r="P318" s="38"/>
       <c r="Q318" s="27"/>
     </row>
-    <row r="319" spans="1:17" customFormat="1" ht="15.75">
+    <row r="319" spans="1:17" customFormat="1" ht="15.75" hidden="1">
       <c r="A319" s="2">
         <v>800</v>
       </c>
@@ -21333,7 +21354,7 @@
       <c r="P319" s="38"/>
       <c r="Q319" s="27"/>
     </row>
-    <row r="320" spans="1:17" customFormat="1" ht="15.75">
+    <row r="320" spans="1:17" customFormat="1" ht="15.75" hidden="1">
       <c r="A320" s="2">
         <v>800</v>
       </c>
@@ -21370,7 +21391,7 @@
       <c r="P320" s="38"/>
       <c r="Q320" s="27"/>
     </row>
-    <row r="321" spans="1:17" customFormat="1" ht="15.75">
+    <row r="321" spans="1:17" customFormat="1" ht="15.75" hidden="1">
       <c r="A321" s="2">
         <v>800</v>
       </c>
@@ -21407,7 +21428,7 @@
       <c r="P321" s="38"/>
       <c r="Q321" s="27"/>
     </row>
-    <row r="322" spans="1:17" customFormat="1" ht="15.75">
+    <row r="322" spans="1:17" customFormat="1" ht="15.75" hidden="1">
       <c r="A322" s="2">
         <v>800</v>
       </c>
@@ -21444,7 +21465,7 @@
       <c r="P322" s="38"/>
       <c r="Q322" s="27"/>
     </row>
-    <row r="323" spans="1:17" customFormat="1" ht="15.75">
+    <row r="323" spans="1:17" customFormat="1" ht="15.75" hidden="1">
       <c r="A323" s="2">
         <v>800</v>
       </c>
@@ -21481,7 +21502,7 @@
       <c r="P323" s="38"/>
       <c r="Q323" s="27"/>
     </row>
-    <row r="324" spans="1:17" customFormat="1" ht="15.75">
+    <row r="324" spans="1:17" customFormat="1" ht="15.75" hidden="1">
       <c r="A324" s="2">
         <v>800</v>
       </c>
@@ -21518,7 +21539,7 @@
       <c r="P324" s="38"/>
       <c r="Q324" s="27"/>
     </row>
-    <row r="325" spans="1:17" customFormat="1" ht="15.75">
+    <row r="325" spans="1:17" customFormat="1" ht="15.75" hidden="1">
       <c r="A325" s="2">
         <v>800</v>
       </c>
@@ -21555,7 +21576,7 @@
       <c r="P325" s="38"/>
       <c r="Q325" s="27"/>
     </row>
-    <row r="326" spans="1:17" customFormat="1" ht="15.75">
+    <row r="326" spans="1:17" customFormat="1" ht="15.75" hidden="1">
       <c r="A326" s="2">
         <v>800</v>
       </c>
@@ -21592,7 +21613,7 @@
       <c r="P326" s="38"/>
       <c r="Q326" s="27"/>
     </row>
-    <row r="327" spans="1:17" customFormat="1" ht="15.75">
+    <row r="327" spans="1:17" customFormat="1" ht="15.75" hidden="1">
       <c r="A327" s="2">
         <v>800</v>
       </c>
@@ -21629,7 +21650,7 @@
       <c r="P327" s="38"/>
       <c r="Q327" s="27"/>
     </row>
-    <row r="328" spans="1:17" customFormat="1" ht="15.75">
+    <row r="328" spans="1:17" customFormat="1" ht="15.75" hidden="1">
       <c r="A328" s="2">
         <v>800</v>
       </c>
@@ -21666,7 +21687,7 @@
       <c r="P328" s="38"/>
       <c r="Q328" s="27"/>
     </row>
-    <row r="329" spans="1:17" customFormat="1" ht="15.75">
+    <row r="329" spans="1:17" customFormat="1" ht="15.75" hidden="1">
       <c r="A329" s="2">
         <v>800</v>
       </c>
@@ -21703,7 +21724,7 @@
       <c r="P329" s="38"/>
       <c r="Q329" s="27"/>
     </row>
-    <row r="330" spans="1:17" customFormat="1" ht="15.75">
+    <row r="330" spans="1:17" customFormat="1" ht="15.75" hidden="1">
       <c r="A330" s="2">
         <v>800</v>
       </c>
@@ -21740,7 +21761,7 @@
       <c r="P330" s="38"/>
       <c r="Q330" s="27"/>
     </row>
-    <row r="331" spans="1:17" customFormat="1" ht="15.75">
+    <row r="331" spans="1:17" customFormat="1" ht="15.75" hidden="1">
       <c r="A331" s="2">
         <v>800</v>
       </c>
@@ -21777,7 +21798,7 @@
       <c r="P331" s="38"/>
       <c r="Q331" s="27"/>
     </row>
-    <row r="332" spans="1:17" customFormat="1" ht="15.75">
+    <row r="332" spans="1:17" customFormat="1" ht="15.75" hidden="1">
       <c r="A332" s="2">
         <v>800</v>
       </c>
@@ -21814,7 +21835,7 @@
       <c r="P332" s="38"/>
       <c r="Q332" s="27"/>
     </row>
-    <row r="333" spans="1:17" customFormat="1" ht="15.75">
+    <row r="333" spans="1:17" customFormat="1" ht="15.75" hidden="1">
       <c r="A333" s="2">
         <v>800</v>
       </c>
@@ -21851,7 +21872,7 @@
       <c r="P333" s="38"/>
       <c r="Q333" s="27"/>
     </row>
-    <row r="334" spans="1:17" customFormat="1" ht="15.75">
+    <row r="334" spans="1:17" customFormat="1" ht="15.75" hidden="1">
       <c r="A334" s="2">
         <v>800</v>
       </c>
@@ -21888,7 +21909,7 @@
       <c r="P334" s="38"/>
       <c r="Q334" s="27"/>
     </row>
-    <row r="335" spans="1:17" customFormat="1" ht="15.75">
+    <row r="335" spans="1:17" customFormat="1" ht="15.75" hidden="1">
       <c r="A335" s="2">
         <v>800</v>
       </c>
@@ -21925,7 +21946,7 @@
       <c r="P335" s="38"/>
       <c r="Q335" s="27"/>
     </row>
-    <row r="336" spans="1:17" customFormat="1" ht="15.75">
+    <row r="336" spans="1:17" customFormat="1" ht="15.75" hidden="1">
       <c r="A336" s="2">
         <v>800</v>
       </c>
@@ -21962,7 +21983,7 @@
       <c r="P336" s="38"/>
       <c r="Q336" s="27"/>
     </row>
-    <row r="337" spans="1:17" customFormat="1" ht="15.75">
+    <row r="337" spans="1:17" customFormat="1" ht="15.75" hidden="1">
       <c r="A337" s="2">
         <v>800</v>
       </c>
@@ -21999,7 +22020,7 @@
       <c r="P337" s="38"/>
       <c r="Q337" s="27"/>
     </row>
-    <row r="338" spans="1:17" customFormat="1" ht="15.75">
+    <row r="338" spans="1:17" customFormat="1" ht="15.75" hidden="1">
       <c r="A338" s="2">
         <v>800</v>
       </c>
@@ -22036,7 +22057,7 @@
       <c r="P338" s="38"/>
       <c r="Q338" s="27"/>
     </row>
-    <row r="339" spans="1:17" customFormat="1" ht="15.75">
+    <row r="339" spans="1:17" customFormat="1" ht="15.75" hidden="1">
       <c r="A339" s="2">
         <v>800</v>
       </c>
@@ -22073,7 +22094,7 @@
       <c r="P339" s="38"/>
       <c r="Q339" s="27"/>
     </row>
-    <row r="340" spans="1:17" customFormat="1" ht="15.75">
+    <row r="340" spans="1:17" customFormat="1" ht="15.75" hidden="1">
       <c r="A340" s="2">
         <v>800</v>
       </c>
@@ -22110,7 +22131,7 @@
       <c r="P340" s="38"/>
       <c r="Q340" s="27"/>
     </row>
-    <row r="341" spans="1:17" customFormat="1" ht="15.75">
+    <row r="341" spans="1:17" customFormat="1" ht="15.75" hidden="1">
       <c r="A341" s="2">
         <v>800</v>
       </c>
@@ -22147,7 +22168,7 @@
       <c r="P341" s="38"/>
       <c r="Q341" s="27"/>
     </row>
-    <row r="342" spans="1:17" customFormat="1" ht="15.75">
+    <row r="342" spans="1:17" customFormat="1" ht="15.75" hidden="1">
       <c r="A342" s="2">
         <v>800</v>
       </c>
@@ -22184,7 +22205,7 @@
       <c r="P342" s="38"/>
       <c r="Q342" s="27"/>
     </row>
-    <row r="343" spans="1:17" customFormat="1" ht="15.75">
+    <row r="343" spans="1:17" customFormat="1" ht="15.75" hidden="1">
       <c r="A343" s="2">
         <v>800</v>
       </c>
@@ -22221,7 +22242,7 @@
       <c r="P343" s="38"/>
       <c r="Q343" s="27"/>
     </row>
-    <row r="344" spans="1:17" customFormat="1" ht="15.75">
+    <row r="344" spans="1:17" customFormat="1" ht="15.75" hidden="1">
       <c r="A344" s="2">
         <v>800</v>
       </c>
@@ -22258,7 +22279,7 @@
       <c r="P344" s="38"/>
       <c r="Q344" s="27"/>
     </row>
-    <row r="345" spans="1:17" customFormat="1" ht="15.75">
+    <row r="345" spans="1:17" customFormat="1" ht="15.75" hidden="1">
       <c r="A345" s="2">
         <v>800</v>
       </c>
@@ -22295,7 +22316,7 @@
       <c r="P345" s="38"/>
       <c r="Q345" s="27"/>
     </row>
-    <row r="346" spans="1:17" customFormat="1" ht="15.75">
+    <row r="346" spans="1:17" customFormat="1" ht="15.75" hidden="1">
       <c r="A346" s="2">
         <v>800</v>
       </c>
@@ -22332,7 +22353,7 @@
       <c r="P346" s="38"/>
       <c r="Q346" s="27"/>
     </row>
-    <row r="347" spans="1:17" customFormat="1" ht="15.75">
+    <row r="347" spans="1:17" customFormat="1" ht="15.75" hidden="1">
       <c r="A347" s="2">
         <v>800</v>
       </c>
@@ -22369,7 +22390,7 @@
       <c r="P347" s="38"/>
       <c r="Q347" s="27"/>
     </row>
-    <row r="348" spans="1:17" customFormat="1" ht="15.75">
+    <row r="348" spans="1:17" customFormat="1" ht="15.75" hidden="1">
       <c r="A348" s="2">
         <v>800</v>
       </c>
@@ -22406,7 +22427,7 @@
       <c r="P348" s="38"/>
       <c r="Q348" s="27"/>
     </row>
-    <row r="349" spans="1:17" customFormat="1" ht="15.75">
+    <row r="349" spans="1:17" customFormat="1" ht="15.75" hidden="1">
       <c r="A349" s="2">
         <v>800</v>
       </c>
@@ -22443,7 +22464,7 @@
       <c r="P349" s="38"/>
       <c r="Q349" s="27"/>
     </row>
-    <row r="350" spans="1:17" customFormat="1" ht="15.75">
+    <row r="350" spans="1:17" customFormat="1" ht="15.75" hidden="1">
       <c r="A350" s="2">
         <v>800</v>
       </c>
@@ -22480,7 +22501,7 @@
       <c r="P350" s="38"/>
       <c r="Q350" s="27"/>
     </row>
-    <row r="351" spans="1:17" customFormat="1" ht="15.75">
+    <row r="351" spans="1:17" customFormat="1" ht="15.75" hidden="1">
       <c r="A351" s="2">
         <v>800</v>
       </c>
@@ -22517,7 +22538,7 @@
       <c r="P351" s="38"/>
       <c r="Q351" s="27"/>
     </row>
-    <row r="352" spans="1:17" customFormat="1" ht="15.75">
+    <row r="352" spans="1:17" customFormat="1" ht="15.75" hidden="1">
       <c r="A352" s="2">
         <v>800</v>
       </c>
@@ -22554,7 +22575,7 @@
       <c r="P352" s="38"/>
       <c r="Q352" s="27"/>
     </row>
-    <row r="353" spans="1:17" customFormat="1" ht="15.75">
+    <row r="353" spans="1:17" customFormat="1" ht="15.75" hidden="1">
       <c r="A353" s="2">
         <v>800</v>
       </c>
@@ -22591,7 +22612,7 @@
       <c r="P353" s="38"/>
       <c r="Q353" s="27"/>
     </row>
-    <row r="354" spans="1:17" customFormat="1" ht="15.75">
+    <row r="354" spans="1:17" customFormat="1" ht="15.75" hidden="1">
       <c r="A354" s="2">
         <v>800</v>
       </c>
@@ -22628,7 +22649,7 @@
       <c r="P354" s="38"/>
       <c r="Q354" s="27"/>
     </row>
-    <row r="355" spans="1:17" customFormat="1" ht="15.75">
+    <row r="355" spans="1:17" customFormat="1" ht="15.75" hidden="1">
       <c r="A355" s="2">
         <v>800</v>
       </c>
@@ -22665,7 +22686,7 @@
       <c r="P355" s="38"/>
       <c r="Q355" s="27"/>
     </row>
-    <row r="356" spans="1:17" customFormat="1" ht="15.75">
+    <row r="356" spans="1:17" customFormat="1" ht="15.75" hidden="1">
       <c r="A356" s="2">
         <v>800</v>
       </c>
@@ -22702,7 +22723,7 @@
       <c r="P356" s="38"/>
       <c r="Q356" s="27"/>
     </row>
-    <row r="357" spans="1:17" customFormat="1" ht="15.75">
+    <row r="357" spans="1:17" customFormat="1" ht="15.75" hidden="1">
       <c r="A357" s="2">
         <v>800</v>
       </c>
@@ -22739,7 +22760,7 @@
       <c r="P357" s="38"/>
       <c r="Q357" s="27"/>
     </row>
-    <row r="358" spans="1:17" customFormat="1" ht="15.75">
+    <row r="358" spans="1:17" customFormat="1" ht="15.75" hidden="1">
       <c r="A358" s="2">
         <v>800</v>
       </c>
@@ -22776,7 +22797,7 @@
       <c r="P358" s="38"/>
       <c r="Q358" s="27"/>
     </row>
-    <row r="359" spans="1:17" customFormat="1" ht="15.75">
+    <row r="359" spans="1:17" customFormat="1" ht="15.75" hidden="1">
       <c r="A359" s="2">
         <v>800</v>
       </c>
@@ -22813,7 +22834,7 @@
       <c r="P359" s="38"/>
       <c r="Q359" s="27"/>
     </row>
-    <row r="360" spans="1:17" customFormat="1" ht="15.75">
+    <row r="360" spans="1:17" customFormat="1" ht="15.75" hidden="1">
       <c r="A360" s="2">
         <v>800</v>
       </c>
@@ -22850,7 +22871,7 @@
       <c r="P360" s="38"/>
       <c r="Q360" s="27"/>
     </row>
-    <row r="361" spans="1:17" customFormat="1" ht="15.75">
+    <row r="361" spans="1:17" customFormat="1" ht="15.75" hidden="1">
       <c r="A361" s="2">
         <v>800</v>
       </c>
@@ -22887,7 +22908,7 @@
       <c r="P361" s="38"/>
       <c r="Q361" s="27"/>
     </row>
-    <row r="362" spans="1:17" customFormat="1" ht="15.75">
+    <row r="362" spans="1:17" customFormat="1" ht="15.75" hidden="1">
       <c r="A362" s="2">
         <v>800</v>
       </c>
@@ -22924,7 +22945,7 @@
       <c r="P362" s="38"/>
       <c r="Q362" s="27"/>
     </row>
-    <row r="363" spans="1:17" customFormat="1" ht="15.75">
+    <row r="363" spans="1:17" customFormat="1" ht="15.75" hidden="1">
       <c r="A363" s="2">
         <v>800</v>
       </c>
@@ -22961,7 +22982,7 @@
       <c r="P363" s="38"/>
       <c r="Q363" s="27"/>
     </row>
-    <row r="364" spans="1:17" customFormat="1" ht="15.75">
+    <row r="364" spans="1:17" customFormat="1" ht="15.75" hidden="1">
       <c r="A364" s="2">
         <v>800</v>
       </c>
@@ -22998,7 +23019,7 @@
       <c r="P364" s="38"/>
       <c r="Q364" s="27"/>
     </row>
-    <row r="365" spans="1:17" customFormat="1" ht="15.75">
+    <row r="365" spans="1:17" customFormat="1" ht="15.75" hidden="1">
       <c r="A365" s="2">
         <v>800</v>
       </c>
@@ -23035,7 +23056,7 @@
       <c r="P365" s="38"/>
       <c r="Q365" s="27"/>
     </row>
-    <row r="366" spans="1:17" customFormat="1" ht="15.75">
+    <row r="366" spans="1:17" customFormat="1" ht="15.75" hidden="1">
       <c r="A366" s="2">
         <v>800</v>
       </c>
@@ -23072,7 +23093,7 @@
       <c r="P366" s="38"/>
       <c r="Q366" s="27"/>
     </row>
-    <row r="367" spans="1:17" customFormat="1" ht="15.75">
+    <row r="367" spans="1:17" customFormat="1" ht="15.75" hidden="1">
       <c r="A367" s="2">
         <v>800</v>
       </c>
@@ -23109,7 +23130,7 @@
       <c r="P367" s="38"/>
       <c r="Q367" s="27"/>
     </row>
-    <row r="368" spans="1:17" customFormat="1" ht="15.75">
+    <row r="368" spans="1:17" customFormat="1" ht="15.75" hidden="1">
       <c r="A368" s="2">
         <v>800</v>
       </c>
@@ -23146,7 +23167,7 @@
       <c r="P368" s="38"/>
       <c r="Q368" s="27"/>
     </row>
-    <row r="369" spans="1:17" customFormat="1" ht="15.75">
+    <row r="369" spans="1:17" customFormat="1" ht="15.75" hidden="1">
       <c r="A369" s="2">
         <v>800</v>
       </c>
@@ -23183,7 +23204,7 @@
       <c r="P369" s="38"/>
       <c r="Q369" s="27"/>
     </row>
-    <row r="370" spans="1:17" customFormat="1" ht="15.75">
+    <row r="370" spans="1:17" customFormat="1" ht="15.75" hidden="1">
       <c r="A370" s="2">
         <v>800</v>
       </c>
@@ -23220,7 +23241,7 @@
       <c r="P370" s="38"/>
       <c r="Q370" s="27"/>
     </row>
-    <row r="371" spans="1:17" customFormat="1" ht="15.75">
+    <row r="371" spans="1:17" customFormat="1" ht="15.75" hidden="1">
       <c r="A371" s="2">
         <v>800</v>
       </c>
@@ -23257,7 +23278,7 @@
       <c r="P371" s="38"/>
       <c r="Q371" s="27"/>
     </row>
-    <row r="372" spans="1:17" customFormat="1" ht="15.75">
+    <row r="372" spans="1:17" customFormat="1" ht="15.75" hidden="1">
       <c r="A372" s="2">
         <v>800</v>
       </c>
@@ -23294,7 +23315,7 @@
       <c r="P372" s="38"/>
       <c r="Q372" s="27"/>
     </row>
-    <row r="373" spans="1:17" customFormat="1" ht="15.75">
+    <row r="373" spans="1:17" customFormat="1" ht="15.75" hidden="1">
       <c r="A373" s="2">
         <v>800</v>
       </c>
@@ -23331,7 +23352,7 @@
       <c r="P373" s="38"/>
       <c r="Q373" s="27"/>
     </row>
-    <row r="374" spans="1:17" customFormat="1" ht="15.75">
+    <row r="374" spans="1:17" customFormat="1" ht="15.75" hidden="1">
       <c r="A374" s="2">
         <v>800</v>
       </c>
@@ -23368,7 +23389,7 @@
       <c r="P374" s="38"/>
       <c r="Q374" s="27"/>
     </row>
-    <row r="375" spans="1:17" customFormat="1" ht="15.75">
+    <row r="375" spans="1:17" customFormat="1" ht="15.75" hidden="1">
       <c r="A375" s="2">
         <v>800</v>
       </c>
@@ -23405,7 +23426,7 @@
       <c r="P375" s="38"/>
       <c r="Q375" s="27"/>
     </row>
-    <row r="376" spans="1:17" customFormat="1" ht="15.75">
+    <row r="376" spans="1:17" customFormat="1" ht="15.75" hidden="1">
       <c r="A376" s="2">
         <v>800</v>
       </c>
@@ -23442,7 +23463,7 @@
       <c r="P376" s="38"/>
       <c r="Q376" s="27"/>
     </row>
-    <row r="377" spans="1:17" customFormat="1" ht="15.75">
+    <row r="377" spans="1:17" customFormat="1" ht="15.75" hidden="1">
       <c r="A377" s="2">
         <v>800</v>
       </c>
@@ -23479,7 +23500,7 @@
       <c r="P377" s="38"/>
       <c r="Q377" s="27"/>
     </row>
-    <row r="378" spans="1:17" customFormat="1" ht="15.75">
+    <row r="378" spans="1:17" customFormat="1" ht="15.75" hidden="1">
       <c r="A378" s="2">
         <v>800</v>
       </c>
@@ -23518,7 +23539,7 @@
       <c r="P378" s="38"/>
       <c r="Q378" s="27"/>
     </row>
-    <row r="379" spans="1:17" customFormat="1" ht="15.75">
+    <row r="379" spans="1:17" customFormat="1" ht="15.75" hidden="1">
       <c r="A379" s="2">
         <v>800</v>
       </c>
@@ -23555,7 +23576,7 @@
       <c r="P379" s="38"/>
       <c r="Q379" s="27"/>
     </row>
-    <row r="380" spans="1:17" customFormat="1" ht="15.75">
+    <row r="380" spans="1:17" customFormat="1" ht="15.75" hidden="1">
       <c r="A380" s="2">
         <v>800</v>
       </c>
@@ -23592,7 +23613,7 @@
       <c r="P380" s="38"/>
       <c r="Q380" s="27"/>
     </row>
-    <row r="381" spans="1:17" customFormat="1" ht="15.75">
+    <row r="381" spans="1:17" customFormat="1" ht="15.75" hidden="1">
       <c r="A381" s="2">
         <v>800</v>
       </c>
@@ -23627,7 +23648,7 @@
       <c r="P381" s="38"/>
       <c r="Q381" s="27"/>
     </row>
-    <row r="382" spans="1:17" customFormat="1" ht="15.75">
+    <row r="382" spans="1:17" customFormat="1" ht="15.75" hidden="1">
       <c r="A382" s="2">
         <v>800</v>
       </c>
@@ -23664,7 +23685,7 @@
       <c r="P382" s="38"/>
       <c r="Q382" s="27"/>
     </row>
-    <row r="383" spans="1:17" customFormat="1" ht="15.75">
+    <row r="383" spans="1:17" customFormat="1" ht="15.75" hidden="1">
       <c r="A383" s="2">
         <v>800</v>
       </c>
@@ -23705,7 +23726,7 @@
       <c r="P383" s="38"/>
       <c r="Q383" s="27"/>
     </row>
-    <row r="384" spans="1:17" customFormat="1" ht="15.75">
+    <row r="384" spans="1:17" customFormat="1" ht="15.75" hidden="1">
       <c r="A384" s="2">
         <v>800</v>
       </c>
@@ -23746,7 +23767,7 @@
       <c r="P384" s="38"/>
       <c r="Q384" s="27"/>
     </row>
-    <row r="385" spans="1:17" customFormat="1" ht="15.75">
+    <row r="385" spans="1:17" customFormat="1" ht="15.75" hidden="1">
       <c r="A385" s="2">
         <v>800</v>
       </c>
@@ -23787,7 +23808,7 @@
       <c r="P385" s="38"/>
       <c r="Q385" s="27"/>
     </row>
-    <row r="386" spans="1:17" customFormat="1" ht="15.75">
+    <row r="386" spans="1:17" customFormat="1" ht="15.75" hidden="1">
       <c r="A386" s="2">
         <v>800</v>
       </c>
@@ -23828,7 +23849,7 @@
       <c r="P386" s="38"/>
       <c r="Q386" s="27"/>
     </row>
-    <row r="387" spans="1:17" customFormat="1" ht="15.75">
+    <row r="387" spans="1:17" customFormat="1" ht="15.75" hidden="1">
       <c r="A387" s="2">
         <v>800</v>
       </c>
@@ -23867,7 +23888,7 @@
       <c r="P387" s="38"/>
       <c r="Q387" s="27"/>
     </row>
-    <row r="388" spans="1:17" customFormat="1" ht="15.75">
+    <row r="388" spans="1:17" customFormat="1" ht="15.75" hidden="1">
       <c r="A388" s="2">
         <v>800</v>
       </c>
@@ -23904,7 +23925,7 @@
       <c r="P388" s="38"/>
       <c r="Q388" s="27"/>
     </row>
-    <row r="389" spans="1:17" customFormat="1" ht="15.75">
+    <row r="389" spans="1:17" customFormat="1" ht="15.75" hidden="1">
       <c r="A389" s="2">
         <v>800</v>
       </c>
@@ -23941,7 +23962,7 @@
       <c r="P389" s="38"/>
       <c r="Q389" s="27"/>
     </row>
-    <row r="390" spans="1:17" customFormat="1" ht="15.75">
+    <row r="390" spans="1:17" customFormat="1" ht="15.75" hidden="1">
       <c r="A390" s="2">
         <v>800</v>
       </c>
@@ -23978,7 +23999,7 @@
       <c r="P390" s="38"/>
       <c r="Q390" s="27"/>
     </row>
-    <row r="391" spans="1:17" customFormat="1" ht="15.75">
+    <row r="391" spans="1:17" customFormat="1" ht="15.75" hidden="1">
       <c r="A391" s="2">
         <v>800</v>
       </c>
@@ -24015,7 +24036,7 @@
       <c r="P391" s="38"/>
       <c r="Q391" s="27"/>
     </row>
-    <row r="392" spans="1:17" customFormat="1" ht="15.75">
+    <row r="392" spans="1:17" customFormat="1" ht="15.75" hidden="1">
       <c r="A392" s="2">
         <v>800</v>
       </c>
@@ -24054,7 +24075,7 @@
       <c r="P392" s="38"/>
       <c r="Q392" s="27"/>
     </row>
-    <row r="393" spans="1:17" ht="15.75">
+    <row r="393" spans="1:17" ht="15.75" hidden="1">
       <c r="A393" s="30">
         <v>900</v>
       </c>
@@ -24093,7 +24114,7 @@
         <v>0.88</v>
       </c>
     </row>
-    <row r="394" spans="1:17" customFormat="1" ht="15.75">
+    <row r="394" spans="1:17" customFormat="1" ht="15.75" hidden="1">
       <c r="A394" s="2">
         <v>900</v>
       </c>
@@ -24136,7 +24157,7 @@
       <c r="P394" s="38"/>
       <c r="Q394" s="27"/>
     </row>
-    <row r="395" spans="1:17" customFormat="1" ht="15.75">
+    <row r="395" spans="1:17" customFormat="1" ht="15.75" hidden="1">
       <c r="A395" s="2">
         <v>900</v>
       </c>
@@ -24179,7 +24200,7 @@
       <c r="P395" s="38"/>
       <c r="Q395" s="27"/>
     </row>
-    <row r="396" spans="1:17" customFormat="1" ht="15.75">
+    <row r="396" spans="1:17" customFormat="1" ht="15.75" hidden="1">
       <c r="A396" s="2">
         <v>900</v>
       </c>
@@ -24220,7 +24241,7 @@
       <c r="P396" s="38"/>
       <c r="Q396" s="27"/>
     </row>
-    <row r="397" spans="1:17" customFormat="1" ht="15.75">
+    <row r="397" spans="1:17" customFormat="1" ht="15.75" hidden="1">
       <c r="A397" s="2">
         <v>900</v>
       </c>
@@ -24261,7 +24282,7 @@
       <c r="P397" s="38"/>
       <c r="Q397" s="27"/>
     </row>
-    <row r="398" spans="1:17" customFormat="1" ht="15.75">
+    <row r="398" spans="1:17" customFormat="1" ht="15.75" hidden="1">
       <c r="A398" s="2">
         <v>900</v>
       </c>
@@ -24298,7 +24319,7 @@
       <c r="P398" s="38"/>
       <c r="Q398" s="27"/>
     </row>
-    <row r="399" spans="1:17" customFormat="1" ht="15.75">
+    <row r="399" spans="1:17" customFormat="1" ht="15.75" hidden="1">
       <c r="A399" s="2">
         <v>900</v>
       </c>
@@ -24339,7 +24360,7 @@
       <c r="P399" s="38"/>
       <c r="Q399" s="27"/>
     </row>
-    <row r="400" spans="1:17" customFormat="1" ht="15.75">
+    <row r="400" spans="1:17" customFormat="1" ht="15.75" hidden="1">
       <c r="A400" s="2">
         <v>900</v>
       </c>
@@ -24382,7 +24403,7 @@
       <c r="P400" s="38"/>
       <c r="Q400" s="27"/>
     </row>
-    <row r="401" spans="1:17" customFormat="1" ht="15.75">
+    <row r="401" spans="1:17" customFormat="1" ht="15.75" hidden="1">
       <c r="A401" s="2">
         <v>900</v>
       </c>
@@ -24425,7 +24446,7 @@
       <c r="P401" s="38"/>
       <c r="Q401" s="27"/>
     </row>
-    <row r="402" spans="1:17" customFormat="1" ht="15.75">
+    <row r="402" spans="1:17" customFormat="1" ht="15.75" hidden="1">
       <c r="A402" s="2">
         <v>900</v>
       </c>
@@ -24468,7 +24489,7 @@
       <c r="P402" s="38"/>
       <c r="Q402" s="27"/>
     </row>
-    <row r="403" spans="1:17" customFormat="1" ht="15.75">
+    <row r="403" spans="1:17" customFormat="1" ht="15.75" hidden="1">
       <c r="A403" s="2">
         <v>900</v>
       </c>
@@ -24509,7 +24530,7 @@
       <c r="P403" s="38"/>
       <c r="Q403" s="27"/>
     </row>
-    <row r="404" spans="1:17" ht="15.75">
+    <row r="404" spans="1:17" ht="15.75" hidden="1">
       <c r="A404" s="30">
         <v>900</v>
       </c>
@@ -24541,7 +24562,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="405" spans="1:17" customFormat="1" ht="15.75">
+    <row r="405" spans="1:17" customFormat="1" ht="15.75" hidden="1">
       <c r="A405" s="2">
         <v>900</v>
       </c>
@@ -24578,7 +24599,7 @@
       <c r="P405" s="38"/>
       <c r="Q405" s="27"/>
     </row>
-    <row r="406" spans="1:17" customFormat="1" ht="15.75">
+    <row r="406" spans="1:17" customFormat="1" ht="15.75" hidden="1">
       <c r="A406" s="2">
         <v>900</v>
       </c>
@@ -24621,7 +24642,7 @@
       <c r="P406" s="38"/>
       <c r="Q406" s="27"/>
     </row>
-    <row r="407" spans="1:17" customFormat="1" ht="15.75">
+    <row r="407" spans="1:17" customFormat="1" ht="15.75" hidden="1">
       <c r="A407" s="2">
         <v>900</v>
       </c>
@@ -24662,7 +24683,7 @@
       <c r="P407" s="38"/>
       <c r="Q407" s="27"/>
     </row>
-    <row r="408" spans="1:17" ht="15.75">
+    <row r="408" spans="1:17" ht="15.75" hidden="1">
       <c r="A408" s="30">
         <v>900</v>
       </c>
@@ -24701,7 +24722,7 @@
         <v>0.88</v>
       </c>
     </row>
-    <row r="409" spans="1:17" customFormat="1" ht="15.75">
+    <row r="409" spans="1:17" customFormat="1" ht="15.75" hidden="1">
       <c r="A409" s="2">
         <v>900</v>
       </c>
@@ -24742,7 +24763,7 @@
       <c r="P409" s="38"/>
       <c r="Q409" s="27"/>
     </row>
-    <row r="410" spans="1:17" customFormat="1" ht="15.75">
+    <row r="410" spans="1:17" customFormat="1" ht="15.75" hidden="1">
       <c r="A410" s="2">
         <v>900</v>
       </c>
@@ -24779,7 +24800,7 @@
       <c r="P410" s="38"/>
       <c r="Q410" s="27"/>
     </row>
-    <row r="411" spans="1:17" customFormat="1" ht="15.75">
+    <row r="411" spans="1:17" customFormat="1" ht="15.75" hidden="1">
       <c r="A411" s="2">
         <v>900</v>
       </c>
@@ -24818,7 +24839,7 @@
       <c r="P411" s="38"/>
       <c r="Q411" s="27"/>
     </row>
-    <row r="412" spans="1:17" customFormat="1" ht="15.75">
+    <row r="412" spans="1:17" customFormat="1" ht="15.75" hidden="1">
       <c r="A412" s="2">
         <v>900</v>
       </c>
@@ -24859,7 +24880,7 @@
       <c r="P412" s="38"/>
       <c r="Q412" s="27"/>
     </row>
-    <row r="413" spans="1:17" customFormat="1" ht="15.75">
+    <row r="413" spans="1:17" customFormat="1" ht="15.75" hidden="1">
       <c r="A413" s="2">
         <v>900</v>
       </c>
@@ -24902,7 +24923,7 @@
       <c r="P413" s="38"/>
       <c r="Q413" s="27"/>
     </row>
-    <row r="414" spans="1:17" customFormat="1" ht="15.75">
+    <row r="414" spans="1:17" customFormat="1" ht="15.75" hidden="1">
       <c r="A414" s="2">
         <v>900</v>
       </c>
@@ -24945,7 +24966,7 @@
       <c r="P414" s="38"/>
       <c r="Q414" s="27"/>
     </row>
-    <row r="415" spans="1:17" customFormat="1" ht="15.75">
+    <row r="415" spans="1:17" customFormat="1" ht="15.75" hidden="1">
       <c r="A415" s="2">
         <v>900</v>
       </c>
@@ -24986,7 +25007,7 @@
       <c r="P415" s="38"/>
       <c r="Q415" s="27"/>
     </row>
-    <row r="416" spans="1:17" customFormat="1" ht="15.75">
+    <row r="416" spans="1:17" customFormat="1" ht="15.75" hidden="1">
       <c r="A416" s="2">
         <v>900</v>
       </c>
@@ -25029,7 +25050,7 @@
       <c r="P416" s="38"/>
       <c r="Q416" s="27"/>
     </row>
-    <row r="417" spans="1:17" customFormat="1" ht="15.75">
+    <row r="417" spans="1:17" customFormat="1" ht="15.75" hidden="1">
       <c r="A417" s="2">
         <v>900</v>
       </c>
@@ -25066,7 +25087,7 @@
       <c r="P417" s="38"/>
       <c r="Q417" s="27"/>
     </row>
-    <row r="418" spans="1:17" ht="15.75">
+    <row r="418" spans="1:17" ht="15.75" hidden="1">
       <c r="A418" s="30">
         <v>900</v>
       </c>
@@ -25101,7 +25122,7 @@
         <v>0.45</v>
       </c>
     </row>
-    <row r="419" spans="1:17" customFormat="1" ht="15.75">
+    <row r="419" spans="1:17" customFormat="1" ht="15.75" hidden="1">
       <c r="A419" s="2">
         <v>900</v>
       </c>
@@ -25140,7 +25161,7 @@
       <c r="P419" s="38"/>
       <c r="Q419" s="27"/>
     </row>
-    <row r="420" spans="1:17" ht="15.75">
+    <row r="420" spans="1:17" ht="15.75" hidden="1">
       <c r="A420" s="30">
         <v>900</v>
       </c>
@@ -25175,7 +25196,7 @@
         <v>0.45</v>
       </c>
     </row>
-    <row r="421" spans="1:17" customFormat="1" ht="15.75">
+    <row r="421" spans="1:17" customFormat="1" ht="15.75" hidden="1">
       <c r="A421" s="2">
         <v>900</v>
       </c>
@@ -25216,7 +25237,7 @@
       <c r="P421" s="38"/>
       <c r="Q421" s="27"/>
     </row>
-    <row r="422" spans="1:17" customFormat="1" ht="15.75">
+    <row r="422" spans="1:17" customFormat="1" ht="15.75" hidden="1">
       <c r="A422" s="2">
         <v>900</v>
       </c>
@@ -25257,7 +25278,7 @@
       <c r="P422" s="38"/>
       <c r="Q422" s="27"/>
     </row>
-    <row r="423" spans="1:17" customFormat="1" ht="15.75">
+    <row r="423" spans="1:17" customFormat="1" ht="15.75" hidden="1">
       <c r="A423" s="2">
         <v>900</v>
       </c>
@@ -25298,7 +25319,7 @@
       <c r="P423" s="38"/>
       <c r="Q423" s="27"/>
     </row>
-    <row r="424" spans="1:17" customFormat="1" ht="15.75">
+    <row r="424" spans="1:17" customFormat="1" ht="15.75" hidden="1">
       <c r="A424" s="2">
         <v>900</v>
       </c>
@@ -25339,7 +25360,7 @@
       <c r="P424" s="38"/>
       <c r="Q424" s="27"/>
     </row>
-    <row r="425" spans="1:17" customFormat="1" ht="15.75">
+    <row r="425" spans="1:17" customFormat="1" ht="15.75" hidden="1">
       <c r="A425" s="2">
         <v>900</v>
       </c>
@@ -25380,7 +25401,7 @@
       <c r="P425" s="38"/>
       <c r="Q425" s="27"/>
     </row>
-    <row r="426" spans="1:17" customFormat="1" ht="15.75">
+    <row r="426" spans="1:17" customFormat="1" ht="15.75" hidden="1">
       <c r="A426" s="2">
         <v>900</v>
       </c>
@@ -25421,7 +25442,7 @@
       <c r="P426" s="38"/>
       <c r="Q426" s="27"/>
     </row>
-    <row r="427" spans="1:17" customFormat="1" ht="15.75">
+    <row r="427" spans="1:17" customFormat="1" ht="15.75" hidden="1">
       <c r="A427" s="2">
         <v>900</v>
       </c>
@@ -25462,7 +25483,7 @@
       <c r="P427" s="38"/>
       <c r="Q427" s="27"/>
     </row>
-    <row r="428" spans="1:17" customFormat="1" ht="15.75">
+    <row r="428" spans="1:17" customFormat="1" ht="15.75" hidden="1">
       <c r="A428" s="2">
         <v>900</v>
       </c>
@@ -25503,7 +25524,7 @@
       <c r="P428" s="38"/>
       <c r="Q428" s="27"/>
     </row>
-    <row r="429" spans="1:17" customFormat="1" ht="15.75">
+    <row r="429" spans="1:17" customFormat="1" ht="15.75" hidden="1">
       <c r="A429" s="2">
         <v>900</v>
       </c>
@@ -25544,7 +25565,7 @@
       <c r="P429" s="38"/>
       <c r="Q429" s="27"/>
     </row>
-    <row r="430" spans="1:17" customFormat="1" ht="15.75">
+    <row r="430" spans="1:17" customFormat="1" ht="15.75" hidden="1">
       <c r="A430" s="2">
         <v>900</v>
       </c>
@@ -25585,7 +25606,7 @@
       <c r="P430" s="38"/>
       <c r="Q430" s="27"/>
     </row>
-    <row r="431" spans="1:17" customFormat="1" ht="15.75">
+    <row r="431" spans="1:17" customFormat="1" ht="15.75" hidden="1">
       <c r="A431" s="2">
         <v>900</v>
       </c>
@@ -25622,7 +25643,7 @@
       <c r="P431" s="38"/>
       <c r="Q431" s="27"/>
     </row>
-    <row r="432" spans="1:17" customFormat="1" ht="15.75">
+    <row r="432" spans="1:17" customFormat="1" ht="15.75" hidden="1">
       <c r="A432" s="2">
         <v>900</v>
       </c>
@@ -25661,7 +25682,7 @@
       <c r="P432" s="38"/>
       <c r="Q432" s="27"/>
     </row>
-    <row r="433" spans="1:17" customFormat="1" ht="15.75">
+    <row r="433" spans="1:17" customFormat="1" ht="15.75" hidden="1">
       <c r="A433" s="2">
         <v>900</v>
       </c>
@@ -25700,7 +25721,7 @@
       <c r="P433" s="38"/>
       <c r="Q433" s="27"/>
     </row>
-    <row r="434" spans="1:17" customFormat="1" ht="15.75">
+    <row r="434" spans="1:17" customFormat="1" ht="15.75" hidden="1">
       <c r="A434" s="2">
         <v>900</v>
       </c>
@@ -25739,7 +25760,7 @@
       <c r="P434" s="38"/>
       <c r="Q434" s="27"/>
     </row>
-    <row r="435" spans="1:17" customFormat="1" ht="15.75">
+    <row r="435" spans="1:17" customFormat="1" ht="15.75" hidden="1">
       <c r="A435" s="2">
         <v>900</v>
       </c>
@@ -25778,7 +25799,7 @@
       <c r="P435" s="38"/>
       <c r="Q435" s="27"/>
     </row>
-    <row r="436" spans="1:17" customFormat="1" ht="15.75">
+    <row r="436" spans="1:17" customFormat="1" ht="15.75" hidden="1">
       <c r="A436" s="2">
         <v>900</v>
       </c>
@@ -25817,7 +25838,7 @@
       <c r="P436" s="38"/>
       <c r="Q436" s="27"/>
     </row>
-    <row r="437" spans="1:17" customFormat="1" ht="15.75">
+    <row r="437" spans="1:17" customFormat="1" ht="15.75" hidden="1">
       <c r="A437" s="2">
         <v>900</v>
       </c>
@@ -25854,7 +25875,7 @@
       <c r="P437" s="38"/>
       <c r="Q437" s="27"/>
     </row>
-    <row r="438" spans="1:17" customFormat="1" ht="15.75">
+    <row r="438" spans="1:17" customFormat="1" ht="15.75" hidden="1">
       <c r="A438" s="2">
         <v>900</v>
       </c>
@@ -25897,7 +25918,7 @@
       <c r="P438" s="38"/>
       <c r="Q438" s="27"/>
     </row>
-    <row r="439" spans="1:17" customFormat="1" ht="15.75">
+    <row r="439" spans="1:17" customFormat="1" ht="15.75" hidden="1">
       <c r="A439" s="2">
         <v>900</v>
       </c>
@@ -25940,7 +25961,7 @@
       <c r="P439" s="38"/>
       <c r="Q439" s="27"/>
     </row>
-    <row r="440" spans="1:17" customFormat="1" ht="15.75">
+    <row r="440" spans="1:17" customFormat="1" ht="15.75" hidden="1">
       <c r="A440" s="2">
         <v>900</v>
       </c>
@@ -25983,7 +26004,7 @@
       <c r="P440" s="38"/>
       <c r="Q440" s="27"/>
     </row>
-    <row r="441" spans="1:17" customFormat="1" ht="15.75">
+    <row r="441" spans="1:17" customFormat="1" ht="15.75" hidden="1">
       <c r="A441" s="2">
         <v>900</v>
       </c>
@@ -26026,7 +26047,7 @@
       <c r="P441" s="38"/>
       <c r="Q441" s="27"/>
     </row>
-    <row r="442" spans="1:17" customFormat="1" ht="15.75">
+    <row r="442" spans="1:17" customFormat="1" ht="15.75" hidden="1">
       <c r="A442" s="2">
         <v>900</v>
       </c>
@@ -26069,7 +26090,7 @@
       <c r="P442" s="38"/>
       <c r="Q442" s="27"/>
     </row>
-    <row r="443" spans="1:17" customFormat="1" ht="15.75">
+    <row r="443" spans="1:17" customFormat="1" ht="15.75" hidden="1">
       <c r="A443" s="2">
         <v>900</v>
       </c>
@@ -26112,7 +26133,7 @@
       <c r="P443" s="38"/>
       <c r="Q443" s="27"/>
     </row>
-    <row r="444" spans="1:17" customFormat="1" ht="15.75">
+    <row r="444" spans="1:17" customFormat="1" ht="15.75" hidden="1">
       <c r="A444" s="2">
         <v>900</v>
       </c>
@@ -26155,7 +26176,7 @@
       <c r="P444" s="38"/>
       <c r="Q444" s="27"/>
     </row>
-    <row r="445" spans="1:17" customFormat="1" ht="15.75">
+    <row r="445" spans="1:17" customFormat="1" ht="15.75" hidden="1">
       <c r="A445" s="2">
         <v>900</v>
       </c>
@@ -26198,7 +26219,7 @@
       <c r="P445" s="38"/>
       <c r="Q445" s="27"/>
     </row>
-    <row r="446" spans="1:17" customFormat="1" ht="15.75">
+    <row r="446" spans="1:17" customFormat="1" ht="15.75" hidden="1">
       <c r="A446" s="2">
         <v>900</v>
       </c>
@@ -26241,7 +26262,7 @@
       <c r="P446" s="38"/>
       <c r="Q446" s="27"/>
     </row>
-    <row r="447" spans="1:17" customFormat="1" ht="15.75">
+    <row r="447" spans="1:17" customFormat="1" ht="15.75" hidden="1">
       <c r="A447" s="2">
         <v>900</v>
       </c>
@@ -26284,7 +26305,7 @@
       <c r="P447" s="38"/>
       <c r="Q447" s="27"/>
     </row>
-    <row r="448" spans="1:17" customFormat="1" ht="15.75">
+    <row r="448" spans="1:17" customFormat="1" ht="15.75" hidden="1">
       <c r="A448" s="2">
         <v>900</v>
       </c>
@@ -26327,7 +26348,7 @@
       <c r="P448" s="38"/>
       <c r="Q448" s="27"/>
     </row>
-    <row r="449" spans="1:17" customFormat="1" ht="15.75">
+    <row r="449" spans="1:17" customFormat="1" ht="15.75" hidden="1">
       <c r="A449" s="2">
         <v>900</v>
       </c>
@@ -26370,7 +26391,7 @@
       <c r="P449" s="38"/>
       <c r="Q449" s="27"/>
     </row>
-    <row r="450" spans="1:17" customFormat="1" ht="15.75">
+    <row r="450" spans="1:17" customFormat="1" ht="15.75" hidden="1">
       <c r="A450" s="2">
         <v>900</v>
       </c>
@@ -26413,7 +26434,7 @@
       <c r="P450" s="38"/>
       <c r="Q450" s="27"/>
     </row>
-    <row r="451" spans="1:17" customFormat="1" ht="15.75">
+    <row r="451" spans="1:17" customFormat="1" ht="15.75" hidden="1">
       <c r="A451" s="2">
         <v>900</v>
       </c>
@@ -26456,7 +26477,7 @@
       <c r="P451" s="38"/>
       <c r="Q451" s="27"/>
     </row>
-    <row r="452" spans="1:17" customFormat="1" ht="15.75">
+    <row r="452" spans="1:17" customFormat="1" ht="15.75" hidden="1">
       <c r="A452" s="2">
         <v>900</v>
       </c>
@@ -26493,7 +26514,7 @@
       <c r="P452" s="38"/>
       <c r="Q452" s="27"/>
     </row>
-    <row r="453" spans="1:17" customFormat="1" ht="15.75">
+    <row r="453" spans="1:17" customFormat="1" ht="15.75" hidden="1">
       <c r="A453" s="2">
         <v>900</v>
       </c>
@@ -26530,7 +26551,7 @@
       <c r="P453" s="38"/>
       <c r="Q453" s="27"/>
     </row>
-    <row r="454" spans="1:17" customFormat="1" ht="15.75">
+    <row r="454" spans="1:17" customFormat="1" ht="15.75" hidden="1">
       <c r="A454" s="2">
         <v>900</v>
       </c>
@@ -26567,7 +26588,7 @@
       <c r="P454" s="38"/>
       <c r="Q454" s="27"/>
     </row>
-    <row r="455" spans="1:17" customFormat="1" ht="15.75">
+    <row r="455" spans="1:17" customFormat="1" ht="15.75" hidden="1">
       <c r="A455" s="2">
         <v>900</v>
       </c>
@@ -26604,7 +26625,7 @@
       <c r="P455" s="38"/>
       <c r="Q455" s="27"/>
     </row>
-    <row r="456" spans="1:17" customFormat="1" ht="15.75">
+    <row r="456" spans="1:17" customFormat="1" ht="15.75" hidden="1">
       <c r="A456" s="2">
         <v>900</v>
       </c>
@@ -26641,7 +26662,7 @@
       <c r="P456" s="38"/>
       <c r="Q456" s="27"/>
     </row>
-    <row r="457" spans="1:17" customFormat="1" ht="15.75">
+    <row r="457" spans="1:17" customFormat="1" ht="15.75" hidden="1">
       <c r="A457" s="2">
         <v>900</v>
       </c>
@@ -26678,7 +26699,7 @@
       <c r="P457" s="38"/>
       <c r="Q457" s="27"/>
     </row>
-    <row r="458" spans="1:17" customFormat="1" ht="15.75">
+    <row r="458" spans="1:17" customFormat="1" ht="15.75" hidden="1">
       <c r="A458" s="2">
         <v>900</v>
       </c>
@@ -26717,7 +26738,7 @@
       <c r="P458" s="38"/>
       <c r="Q458" s="27"/>
     </row>
-    <row r="459" spans="1:17" customFormat="1" ht="15.75">
+    <row r="459" spans="1:17" customFormat="1" ht="15.75" hidden="1">
       <c r="A459" s="2">
         <v>900</v>
       </c>
@@ -26756,7 +26777,7 @@
       <c r="P459" s="38"/>
       <c r="Q459" s="27"/>
     </row>
-    <row r="460" spans="1:17" customFormat="1" ht="15.75">
+    <row r="460" spans="1:17" customFormat="1" ht="15.75" hidden="1">
       <c r="A460" s="2">
         <v>900</v>
       </c>
@@ -26795,7 +26816,7 @@
       <c r="P460" s="38"/>
       <c r="Q460" s="27"/>
     </row>
-    <row r="461" spans="1:17" customFormat="1" ht="15.75">
+    <row r="461" spans="1:17" customFormat="1" ht="15.75" hidden="1">
       <c r="A461" s="2">
         <v>900</v>
       </c>
@@ -26834,7 +26855,7 @@
       <c r="P461" s="38"/>
       <c r="Q461" s="27"/>
     </row>
-    <row r="462" spans="1:17" customFormat="1" ht="15.75">
+    <row r="462" spans="1:17" customFormat="1" ht="15.75" hidden="1">
       <c r="A462" s="2">
         <v>900</v>
       </c>
@@ -26873,7 +26894,7 @@
       <c r="P462" s="38"/>
       <c r="Q462" s="27"/>
     </row>
-    <row r="463" spans="1:17" customFormat="1" ht="15.75">
+    <row r="463" spans="1:17" customFormat="1" ht="15.75" hidden="1">
       <c r="A463" s="2">
         <v>900</v>
       </c>
@@ -26912,7 +26933,7 @@
       <c r="P463" s="38"/>
       <c r="Q463" s="27"/>
     </row>
-    <row r="464" spans="1:17" ht="15.75">
+    <row r="464" spans="1:17" ht="15.75" hidden="1">
       <c r="A464" s="30">
         <v>900</v>
       </c>
@@ -26951,7 +26972,7 @@
         <v>0.88</v>
       </c>
     </row>
-    <row r="465" spans="1:17" ht="15.75">
+    <row r="465" spans="1:17" ht="15.75" hidden="1">
       <c r="A465" s="30">
         <v>900</v>
       </c>
@@ -26990,7 +27011,7 @@
         <v>0.88</v>
       </c>
     </row>
-    <row r="466" spans="1:17" customFormat="1" ht="15.75">
+    <row r="466" spans="1:17" customFormat="1" ht="15.75" hidden="1">
       <c r="A466" s="2">
         <v>900</v>
       </c>
@@ -27027,7 +27048,7 @@
       <c r="P466" s="38"/>
       <c r="Q466" s="27"/>
     </row>
-    <row r="467" spans="1:17" customFormat="1" ht="15.75">
+    <row r="467" spans="1:17" customFormat="1" ht="15.75" hidden="1">
       <c r="A467" s="2">
         <v>900</v>
       </c>
@@ -27064,7 +27085,7 @@
       <c r="P467" s="38"/>
       <c r="Q467" s="27"/>
     </row>
-    <row r="468" spans="1:17" customFormat="1" ht="15.75">
+    <row r="468" spans="1:17" customFormat="1" ht="15.75" hidden="1">
       <c r="A468" s="2">
         <v>900</v>
       </c>
@@ -27101,7 +27122,7 @@
       <c r="P468" s="38"/>
       <c r="Q468" s="27"/>
     </row>
-    <row r="469" spans="1:17" customFormat="1" ht="15.75">
+    <row r="469" spans="1:17" customFormat="1" ht="15.75" hidden="1">
       <c r="A469" s="2">
         <v>900</v>
       </c>
@@ -27138,7 +27159,7 @@
       <c r="P469" s="38"/>
       <c r="Q469" s="27"/>
     </row>
-    <row r="470" spans="1:17" customFormat="1" ht="15.75">
+    <row r="470" spans="1:17" customFormat="1" ht="15.75" hidden="1">
       <c r="A470" s="2">
         <v>900</v>
       </c>
@@ -27175,7 +27196,7 @@
       <c r="P470" s="38"/>
       <c r="Q470" s="27"/>
     </row>
-    <row r="471" spans="1:17" customFormat="1" ht="15.75">
+    <row r="471" spans="1:17" customFormat="1" ht="15.75" hidden="1">
       <c r="A471" s="2">
         <v>900</v>
       </c>
@@ -27212,7 +27233,7 @@
       <c r="P471" s="38"/>
       <c r="Q471" s="27"/>
     </row>
-    <row r="472" spans="1:17" customFormat="1" ht="15.75">
+    <row r="472" spans="1:17" customFormat="1" ht="15.75" hidden="1">
       <c r="A472" s="2">
         <v>900</v>
       </c>
@@ -27249,7 +27270,7 @@
       <c r="P472" s="38"/>
       <c r="Q472" s="27"/>
     </row>
-    <row r="473" spans="1:17" customFormat="1" ht="15.75">
+    <row r="473" spans="1:17" customFormat="1" ht="15.75" hidden="1">
       <c r="A473" s="2">
         <v>900</v>
       </c>
@@ -27286,7 +27307,7 @@
       <c r="P473" s="38"/>
       <c r="Q473" s="27"/>
     </row>
-    <row r="474" spans="1:17" customFormat="1" ht="15.75">
+    <row r="474" spans="1:17" customFormat="1" ht="15.75" hidden="1">
       <c r="A474" s="2">
         <v>900</v>
       </c>
@@ -27329,7 +27350,7 @@
       <c r="P474" s="38"/>
       <c r="Q474" s="27"/>
     </row>
-    <row r="475" spans="1:17" customFormat="1" ht="15.75">
+    <row r="475" spans="1:17" customFormat="1" ht="15.75" hidden="1">
       <c r="A475" s="2">
         <v>900</v>
       </c>
@@ -27368,7 +27389,7 @@
       <c r="P475" s="38"/>
       <c r="Q475" s="27"/>
     </row>
-    <row r="476" spans="1:17" customFormat="1" ht="15.75">
+    <row r="476" spans="1:17" customFormat="1" ht="15.75" hidden="1">
       <c r="A476" s="2">
         <v>900</v>
       </c>
@@ -27409,7 +27430,7 @@
       <c r="P476" s="38"/>
       <c r="Q476" s="27"/>
     </row>
-    <row r="477" spans="1:17" customFormat="1" ht="15.75">
+    <row r="477" spans="1:17" customFormat="1" ht="15.75" hidden="1">
       <c r="A477" s="2">
         <v>900</v>
       </c>
@@ -27450,7 +27471,7 @@
       <c r="P477" s="38"/>
       <c r="Q477" s="27"/>
     </row>
-    <row r="478" spans="1:17" customFormat="1" ht="15.75">
+    <row r="478" spans="1:17" customFormat="1" ht="15.75" hidden="1">
       <c r="A478" s="2">
         <v>900</v>
       </c>
@@ -27489,7 +27510,7 @@
       <c r="P478" s="38"/>
       <c r="Q478" s="27"/>
     </row>
-    <row r="479" spans="1:17" customFormat="1" ht="15.75">
+    <row r="479" spans="1:17" customFormat="1" ht="15.75" hidden="1">
       <c r="A479" s="2">
         <v>900</v>
       </c>
@@ -27528,7 +27549,7 @@
       <c r="P479" s="38"/>
       <c r="Q479" s="27"/>
     </row>
-    <row r="480" spans="1:17" customFormat="1" ht="15.75">
+    <row r="480" spans="1:17" customFormat="1" ht="15.75" hidden="1">
       <c r="A480" s="2">
         <v>900</v>
       </c>
@@ -27567,7 +27588,7 @@
       <c r="P480" s="38"/>
       <c r="Q480" s="27"/>
     </row>
-    <row r="481" spans="1:17" customFormat="1" ht="15.75">
+    <row r="481" spans="1:17" customFormat="1" ht="15.75" hidden="1">
       <c r="A481" s="2">
         <v>900</v>
       </c>
@@ -27604,7 +27625,7 @@
       <c r="P481" s="38"/>
       <c r="Q481" s="27"/>
     </row>
-    <row r="482" spans="1:17" customFormat="1" ht="15.75">
+    <row r="482" spans="1:17" customFormat="1" ht="15.75" hidden="1">
       <c r="A482" s="2">
         <v>900</v>
       </c>
@@ -27647,7 +27668,7 @@
       <c r="P482" s="38"/>
       <c r="Q482" s="27"/>
     </row>
-    <row r="483" spans="1:17" customFormat="1" ht="15.75">
+    <row r="483" spans="1:17" customFormat="1" ht="15.75" hidden="1">
       <c r="A483" s="2">
         <v>900</v>
       </c>
@@ -27690,7 +27711,7 @@
       <c r="P483" s="38"/>
       <c r="Q483" s="27"/>
     </row>
-    <row r="484" spans="1:17" customFormat="1" ht="15.75">
+    <row r="484" spans="1:17" customFormat="1" ht="15.75" hidden="1">
       <c r="A484" s="2">
         <v>900</v>
       </c>
@@ -27733,7 +27754,7 @@
       <c r="P484" s="38"/>
       <c r="Q484" s="27"/>
     </row>
-    <row r="485" spans="1:17" customFormat="1" ht="15.75">
+    <row r="485" spans="1:17" customFormat="1" ht="15.75" hidden="1">
       <c r="A485" s="2">
         <v>900</v>
       </c>
@@ -27776,7 +27797,7 @@
       <c r="P485" s="38"/>
       <c r="Q485" s="27"/>
     </row>
-    <row r="486" spans="1:17" customFormat="1" ht="15.75">
+    <row r="486" spans="1:17" customFormat="1" ht="15.75" hidden="1">
       <c r="A486" s="2">
         <v>900</v>
       </c>
@@ -27813,7 +27834,7 @@
       <c r="P486" s="38"/>
       <c r="Q486" s="27"/>
     </row>
-    <row r="487" spans="1:17" ht="15.75">
+    <row r="487" spans="1:17" ht="15.75" hidden="1">
       <c r="A487" s="30">
         <v>900</v>
       </c>
@@ -27848,7 +27869,7 @@
         <v>0.45</v>
       </c>
     </row>
-    <row r="488" spans="1:17" ht="15.75">
+    <row r="488" spans="1:17" ht="15.75" hidden="1">
       <c r="A488" s="30">
         <v>900</v>
       </c>
@@ -27883,7 +27904,7 @@
         <v>0.45</v>
       </c>
     </row>
-    <row r="489" spans="1:17" customFormat="1" ht="15.75">
+    <row r="489" spans="1:17" customFormat="1" ht="15.75" hidden="1">
       <c r="A489" s="2">
         <v>900</v>
       </c>
@@ -27922,7 +27943,7 @@
       <c r="P489" s="38"/>
       <c r="Q489" s="27"/>
     </row>
-    <row r="490" spans="1:17" customFormat="1" ht="15.75">
+    <row r="490" spans="1:17" customFormat="1" ht="15.75" hidden="1">
       <c r="A490" s="2">
         <v>900</v>
       </c>
@@ -27961,7 +27982,7 @@
       <c r="P490" s="38"/>
       <c r="Q490" s="27"/>
     </row>
-    <row r="491" spans="1:17" customFormat="1" ht="15.75">
+    <row r="491" spans="1:17" customFormat="1" ht="15.75" hidden="1">
       <c r="A491" s="2">
         <v>900</v>
       </c>
@@ -28004,7 +28025,7 @@
       <c r="P491" s="38"/>
       <c r="Q491" s="27"/>
     </row>
-    <row r="492" spans="1:17" customFormat="1" ht="15.75">
+    <row r="492" spans="1:17" customFormat="1" ht="15.75" hidden="1">
       <c r="A492" s="2">
         <v>900</v>
       </c>
@@ -28047,7 +28068,7 @@
       <c r="P492" s="38"/>
       <c r="Q492" s="27"/>
     </row>
-    <row r="493" spans="1:17" customFormat="1" ht="15.75">
+    <row r="493" spans="1:17" customFormat="1" ht="15.75" hidden="1">
       <c r="A493" s="2">
         <v>900</v>
       </c>
@@ -28088,7 +28109,7 @@
       <c r="P493" s="38"/>
       <c r="Q493" s="27"/>
     </row>
-    <row r="494" spans="1:17" customFormat="1" ht="15.75">
+    <row r="494" spans="1:17" customFormat="1" ht="15.75" hidden="1">
       <c r="A494" s="2">
         <v>900</v>
       </c>
@@ -28129,7 +28150,7 @@
       <c r="P494" s="38"/>
       <c r="Q494" s="27"/>
     </row>
-    <row r="495" spans="1:17" customFormat="1" ht="15.75">
+    <row r="495" spans="1:17" customFormat="1" ht="15.75" hidden="1">
       <c r="A495" s="2">
         <v>1000</v>
       </c>
@@ -28166,7 +28187,7 @@
       <c r="P495" s="38"/>
       <c r="Q495" s="27"/>
     </row>
-    <row r="496" spans="1:17" customFormat="1" ht="15.75">
+    <row r="496" spans="1:17" customFormat="1" ht="15.75" hidden="1">
       <c r="A496" s="2">
         <v>1000</v>
       </c>
@@ -28203,7 +28224,7 @@
       <c r="P496" s="38"/>
       <c r="Q496" s="27"/>
     </row>
-    <row r="497" spans="1:17" customFormat="1" ht="15.75">
+    <row r="497" spans="1:17" customFormat="1" ht="15.75" hidden="1">
       <c r="A497" s="2">
         <v>1000</v>
       </c>
@@ -28240,7 +28261,7 @@
       <c r="P497" s="38"/>
       <c r="Q497" s="27"/>
     </row>
-    <row r="498" spans="1:17" customFormat="1" ht="15.75">
+    <row r="498" spans="1:17" customFormat="1" ht="15.75" hidden="1">
       <c r="A498" s="2">
         <v>1000</v>
       </c>
@@ -28277,7 +28298,7 @@
       <c r="P498" s="38"/>
       <c r="Q498" s="27"/>
     </row>
-    <row r="499" spans="1:17" customFormat="1" ht="15.75">
+    <row r="499" spans="1:17" customFormat="1" ht="15.75" hidden="1">
       <c r="A499" s="2">
         <v>1000</v>
       </c>
@@ -28314,7 +28335,7 @@
       <c r="P499" s="38"/>
       <c r="Q499" s="27"/>
     </row>
-    <row r="500" spans="1:17" customFormat="1" ht="15.75">
+    <row r="500" spans="1:17" customFormat="1" ht="15.75" hidden="1">
       <c r="A500" s="2">
         <v>1000</v>
       </c>
@@ -28351,7 +28372,7 @@
       <c r="P500" s="38"/>
       <c r="Q500" s="27"/>
     </row>
-    <row r="501" spans="1:17" customFormat="1" ht="15.75">
+    <row r="501" spans="1:17" customFormat="1" ht="15.75" hidden="1">
       <c r="A501" s="2">
         <v>1000</v>
       </c>
@@ -28388,7 +28409,7 @@
       <c r="P501" s="38"/>
       <c r="Q501" s="27"/>
     </row>
-    <row r="502" spans="1:17" customFormat="1" ht="15.75">
+    <row r="502" spans="1:17" customFormat="1" ht="15.75" hidden="1">
       <c r="A502" s="2">
         <v>1000</v>
       </c>
@@ -28425,7 +28446,7 @@
       <c r="P502" s="38"/>
       <c r="Q502" s="27"/>
     </row>
-    <row r="503" spans="1:17" customFormat="1" ht="15.75">
+    <row r="503" spans="1:17" customFormat="1" ht="15.75" hidden="1">
       <c r="A503" s="2">
         <v>1000</v>
       </c>
@@ -28462,7 +28483,7 @@
       <c r="P503" s="38"/>
       <c r="Q503" s="27"/>
     </row>
-    <row r="504" spans="1:17" customFormat="1" ht="15.75">
+    <row r="504" spans="1:17" customFormat="1" ht="15.75" hidden="1">
       <c r="A504" s="2">
         <v>1000</v>
       </c>
@@ -28499,7 +28520,7 @@
       <c r="P504" s="38"/>
       <c r="Q504" s="27"/>
     </row>
-    <row r="505" spans="1:17" customFormat="1" ht="15.75">
+    <row r="505" spans="1:17" customFormat="1" ht="15.75" hidden="1">
       <c r="A505" s="2">
         <v>1000</v>
       </c>
@@ -28536,7 +28557,7 @@
       <c r="P505" s="38"/>
       <c r="Q505" s="27"/>
     </row>
-    <row r="506" spans="1:17" customFormat="1" ht="15.75">
+    <row r="506" spans="1:17" customFormat="1" ht="15.75" hidden="1">
       <c r="A506" s="2">
         <v>1000</v>
       </c>
@@ -28573,7 +28594,7 @@
       <c r="P506" s="38"/>
       <c r="Q506" s="27"/>
     </row>
-    <row r="507" spans="1:17" customFormat="1" ht="15.75">
+    <row r="507" spans="1:17" customFormat="1" ht="15.75" hidden="1">
       <c r="A507" s="2">
         <v>1000</v>
       </c>
@@ -28610,7 +28631,7 @@
       <c r="P507" s="38"/>
       <c r="Q507" s="27"/>
     </row>
-    <row r="508" spans="1:17" customFormat="1" ht="15.75">
+    <row r="508" spans="1:17" customFormat="1" ht="15.75" hidden="1">
       <c r="A508" s="2">
         <v>1000</v>
       </c>
@@ -28647,7 +28668,7 @@
       <c r="P508" s="38"/>
       <c r="Q508" s="27"/>
     </row>
-    <row r="509" spans="1:17" customFormat="1" ht="15.75">
+    <row r="509" spans="1:17" customFormat="1" ht="15.75" hidden="1">
       <c r="A509" s="2">
         <v>1000</v>
       </c>
@@ -28684,7 +28705,7 @@
       <c r="P509" s="38"/>
       <c r="Q509" s="27"/>
     </row>
-    <row r="510" spans="1:17" customFormat="1" ht="15.75">
+    <row r="510" spans="1:17" customFormat="1" ht="15.75" hidden="1">
       <c r="A510" s="2">
         <v>1000</v>
       </c>
@@ -28721,7 +28742,7 @@
       <c r="P510" s="38"/>
       <c r="Q510" s="27"/>
     </row>
-    <row r="511" spans="1:17" customFormat="1" ht="15.75">
+    <row r="511" spans="1:17" customFormat="1" ht="15.75" hidden="1">
       <c r="A511" s="2">
         <v>1000</v>
       </c>
@@ -28758,7 +28779,7 @@
       <c r="P511" s="38"/>
       <c r="Q511" s="27"/>
     </row>
-    <row r="512" spans="1:17" customFormat="1" ht="15.75">
+    <row r="512" spans="1:17" customFormat="1" ht="15.75" hidden="1">
       <c r="A512" s="2">
         <v>1000</v>
       </c>
@@ -28795,7 +28816,7 @@
       <c r="P512" s="38"/>
       <c r="Q512" s="27"/>
     </row>
-    <row r="513" spans="1:17" customFormat="1" ht="15.75">
+    <row r="513" spans="1:17" customFormat="1" ht="15.75" hidden="1">
       <c r="A513" s="2">
         <v>1000</v>
       </c>
@@ -28832,7 +28853,7 @@
       <c r="P513" s="38"/>
       <c r="Q513" s="27"/>
     </row>
-    <row r="514" spans="1:17" customFormat="1" ht="15.75">
+    <row r="514" spans="1:17" customFormat="1" ht="15.75" hidden="1">
       <c r="A514" s="2">
         <v>1000</v>
       </c>
@@ -28869,7 +28890,7 @@
       <c r="P514" s="38"/>
       <c r="Q514" s="27"/>
     </row>
-    <row r="515" spans="1:17" customFormat="1" ht="15.75">
+    <row r="515" spans="1:17" customFormat="1" ht="15.75" hidden="1">
       <c r="A515" s="2">
         <v>1000</v>
       </c>
@@ -28906,7 +28927,7 @@
       <c r="P515" s="38"/>
       <c r="Q515" s="27"/>
     </row>
-    <row r="516" spans="1:17" customFormat="1" ht="15.75">
+    <row r="516" spans="1:17" customFormat="1" ht="15.75" hidden="1">
       <c r="A516" s="2">
         <v>1000</v>
       </c>
@@ -28943,7 +28964,7 @@
       <c r="P516" s="38"/>
       <c r="Q516" s="27"/>
     </row>
-    <row r="517" spans="1:17" customFormat="1" ht="15.75">
+    <row r="517" spans="1:17" customFormat="1" ht="15.75" hidden="1">
       <c r="A517" s="2">
         <v>1000</v>
       </c>
@@ -28980,7 +29001,7 @@
       <c r="P517" s="38"/>
       <c r="Q517" s="27"/>
     </row>
-    <row r="518" spans="1:17" customFormat="1" ht="15.75">
+    <row r="518" spans="1:17" customFormat="1" ht="15.75" hidden="1">
       <c r="A518" s="4">
         <v>1100</v>
       </c>
@@ -29015,7 +29036,7 @@
       <c r="P518" s="38"/>
       <c r="Q518" s="27"/>
     </row>
-    <row r="519" spans="1:17" customFormat="1" ht="15.75">
+    <row r="519" spans="1:17" customFormat="1" ht="15.75" hidden="1">
       <c r="A519" s="4">
         <v>1300</v>
       </c>
@@ -29052,7 +29073,7 @@
       <c r="P519" s="38"/>
       <c r="Q519" s="27"/>
     </row>
-    <row r="520" spans="1:17" customFormat="1" ht="15.75">
+    <row r="520" spans="1:17" customFormat="1" ht="15.75" hidden="1">
       <c r="A520" s="4">
         <v>1300</v>
       </c>
@@ -29093,7 +29114,7 @@
       <c r="P520" s="38"/>
       <c r="Q520" s="27"/>
     </row>
-    <row r="521" spans="1:17" customFormat="1" ht="15.75">
+    <row r="521" spans="1:17" customFormat="1" ht="15.75" hidden="1">
       <c r="A521" s="4">
         <v>1300</v>
       </c>
@@ -29134,7 +29155,7 @@
       <c r="P521" s="38"/>
       <c r="Q521" s="27"/>
     </row>
-    <row r="522" spans="1:17" customFormat="1" ht="15.75">
+    <row r="522" spans="1:17" customFormat="1" ht="15.75" hidden="1">
       <c r="A522" s="4">
         <v>1300</v>
       </c>
@@ -29171,7 +29192,7 @@
       <c r="P522" s="38"/>
       <c r="Q522" s="27"/>
     </row>
-    <row r="523" spans="1:17" customFormat="1" ht="15.75">
+    <row r="523" spans="1:17" customFormat="1" ht="15.75" hidden="1">
       <c r="A523" s="4">
         <v>1300</v>
       </c>
@@ -29208,7 +29229,7 @@
       <c r="P523" s="38"/>
       <c r="Q523" s="27"/>
     </row>
-    <row r="524" spans="1:17" customFormat="1" ht="15.75">
+    <row r="524" spans="1:17" customFormat="1" ht="15.75" hidden="1">
       <c r="A524" s="4">
         <v>1300</v>
       </c>
@@ -29245,7 +29266,7 @@
       <c r="P524" s="38"/>
       <c r="Q524" s="27"/>
     </row>
-    <row r="525" spans="1:17" customFormat="1" ht="15.75">
+    <row r="525" spans="1:17" customFormat="1" ht="15.75" hidden="1">
       <c r="A525" s="4">
         <v>1300</v>
       </c>
@@ -29282,7 +29303,7 @@
       <c r="P525" s="38"/>
       <c r="Q525" s="27"/>
     </row>
-    <row r="526" spans="1:17" customFormat="1" ht="15.75">
+    <row r="526" spans="1:17" customFormat="1" ht="15.75" hidden="1">
       <c r="A526" s="4">
         <v>1300</v>
       </c>
@@ -29319,7 +29340,7 @@
       <c r="P526" s="38"/>
       <c r="Q526" s="27"/>
     </row>
-    <row r="527" spans="1:17" customFormat="1" ht="15.75">
+    <row r="527" spans="1:17" customFormat="1" ht="15.75" hidden="1">
       <c r="A527" s="4">
         <v>1300</v>
       </c>
@@ -29356,7 +29377,7 @@
       <c r="P527" s="38"/>
       <c r="Q527" s="27"/>
     </row>
-    <row r="528" spans="1:17" customFormat="1" ht="15.75">
+    <row r="528" spans="1:17" customFormat="1" ht="15.75" hidden="1">
       <c r="A528" s="4">
         <v>1300</v>
       </c>
@@ -29397,7 +29418,7 @@
       <c r="P528" s="38"/>
       <c r="Q528" s="27"/>
     </row>
-    <row r="529" spans="1:17" customFormat="1" ht="15.75">
+    <row r="529" spans="1:17" customFormat="1" ht="15.75" hidden="1">
       <c r="A529" s="4">
         <v>1300</v>
       </c>
@@ -29438,7 +29459,7 @@
       <c r="P529" s="38"/>
       <c r="Q529" s="27"/>
     </row>
-    <row r="530" spans="1:17" customFormat="1" ht="15.75">
+    <row r="530" spans="1:17" customFormat="1" ht="15.75" hidden="1">
       <c r="A530" s="4">
         <v>1300</v>
       </c>
@@ -29475,7 +29496,7 @@
       <c r="P530" s="38"/>
       <c r="Q530" s="27"/>
     </row>
-    <row r="531" spans="1:17" customFormat="1" ht="15.75">
+    <row r="531" spans="1:17" customFormat="1" ht="15.75" hidden="1">
       <c r="A531" s="4">
         <v>1300</v>
       </c>
@@ -29512,7 +29533,7 @@
       <c r="P531" s="38"/>
       <c r="Q531" s="27"/>
     </row>
-    <row r="532" spans="1:17" customFormat="1" ht="15.75">
+    <row r="532" spans="1:17" customFormat="1" ht="15.75" hidden="1">
       <c r="A532" s="4">
         <v>1300</v>
       </c>
@@ -29553,7 +29574,7 @@
       <c r="P532" s="38"/>
       <c r="Q532" s="27"/>
     </row>
-    <row r="533" spans="1:17" customFormat="1" ht="15.75">
+    <row r="533" spans="1:17" customFormat="1" ht="15.75" hidden="1">
       <c r="A533" s="4">
         <v>1300</v>
       </c>
@@ -29594,7 +29615,7 @@
       <c r="P533" s="38"/>
       <c r="Q533" s="27"/>
     </row>
-    <row r="534" spans="1:17" customFormat="1" ht="15.75">
+    <row r="534" spans="1:17" customFormat="1" ht="15.75" hidden="1">
       <c r="A534" s="4">
         <v>1300</v>
       </c>
@@ -29635,7 +29656,7 @@
       <c r="P534" s="38"/>
       <c r="Q534" s="27"/>
     </row>
-    <row r="535" spans="1:17" customFormat="1" ht="15.75">
+    <row r="535" spans="1:17" customFormat="1" ht="15.75" hidden="1">
       <c r="A535" s="4">
         <v>1300</v>
       </c>
@@ -29676,7 +29697,7 @@
       <c r="P535" s="38"/>
       <c r="Q535" s="27"/>
     </row>
-    <row r="536" spans="1:17" customFormat="1" ht="15.75">
+    <row r="536" spans="1:17" customFormat="1" ht="15.75" hidden="1">
       <c r="A536" s="4">
         <v>1300</v>
       </c>
@@ -29717,7 +29738,7 @@
       <c r="P536" s="38"/>
       <c r="Q536" s="27"/>
     </row>
-    <row r="537" spans="1:17" customFormat="1" ht="15.75">
+    <row r="537" spans="1:17" customFormat="1" ht="15.75" hidden="1">
       <c r="A537" s="4">
         <v>1300</v>
       </c>
@@ -29758,7 +29779,7 @@
       <c r="P537" s="38"/>
       <c r="Q537" s="27"/>
     </row>
-    <row r="538" spans="1:17" customFormat="1" ht="15.75">
+    <row r="538" spans="1:17" customFormat="1" ht="15.75" hidden="1">
       <c r="A538" s="4">
         <v>1300</v>
       </c>
@@ -29799,7 +29820,7 @@
       <c r="P538" s="38"/>
       <c r="Q538" s="27"/>
     </row>
-    <row r="539" spans="1:17" customFormat="1" ht="15.75">
+    <row r="539" spans="1:17" customFormat="1" ht="15.75" hidden="1">
       <c r="A539" s="4">
         <v>1300</v>
       </c>
@@ -29840,7 +29861,7 @@
       <c r="P539" s="38"/>
       <c r="Q539" s="27"/>
     </row>
-    <row r="540" spans="1:17" customFormat="1" ht="15.75">
+    <row r="540" spans="1:17" customFormat="1" ht="15.75" hidden="1">
       <c r="A540" s="4">
         <v>1300</v>
       </c>
@@ -29881,7 +29902,7 @@
       <c r="P540" s="38"/>
       <c r="Q540" s="27"/>
     </row>
-    <row r="541" spans="1:17" customFormat="1" ht="15.75">
+    <row r="541" spans="1:17" customFormat="1" ht="15.75" hidden="1">
       <c r="A541" s="4">
         <v>1300</v>
       </c>
@@ -29922,7 +29943,7 @@
       <c r="P541" s="38"/>
       <c r="Q541" s="27"/>
     </row>
-    <row r="542" spans="1:17" customFormat="1" ht="15.75">
+    <row r="542" spans="1:17" customFormat="1" ht="15.75" hidden="1">
       <c r="A542" s="4">
         <v>1300</v>
       </c>
@@ -29963,7 +29984,7 @@
       <c r="P542" s="38"/>
       <c r="Q542" s="27"/>
     </row>
-    <row r="543" spans="1:17" customFormat="1" ht="15.75">
+    <row r="543" spans="1:17" customFormat="1" ht="15.75" hidden="1">
       <c r="A543" s="4">
         <v>1300</v>
       </c>
@@ -30004,7 +30025,7 @@
       <c r="P543" s="38"/>
       <c r="Q543" s="27"/>
     </row>
-    <row r="544" spans="1:17" customFormat="1" ht="15.75">
+    <row r="544" spans="1:17" customFormat="1" ht="15.75" hidden="1">
       <c r="A544" s="4">
         <v>1300</v>
       </c>
@@ -30045,7 +30066,7 @@
       <c r="P544" s="38"/>
       <c r="Q544" s="27"/>
     </row>
-    <row r="545" spans="1:17" customFormat="1" ht="15.75">
+    <row r="545" spans="1:17" customFormat="1" ht="15.75" hidden="1">
       <c r="A545" s="4">
         <v>1300</v>
       </c>
@@ -30086,7 +30107,7 @@
       <c r="P545" s="38"/>
       <c r="Q545" s="27"/>
     </row>
-    <row r="546" spans="1:17" customFormat="1" ht="15.75">
+    <row r="546" spans="1:17" customFormat="1" ht="15.75" hidden="1">
       <c r="A546" s="4">
         <v>1300</v>
       </c>
@@ -30123,7 +30144,7 @@
       <c r="P546" s="38"/>
       <c r="Q546" s="27"/>
     </row>
-    <row r="547" spans="1:17" customFormat="1" ht="15.75">
+    <row r="547" spans="1:17" customFormat="1" ht="15.75" hidden="1">
       <c r="A547" s="4">
         <v>1300</v>
       </c>
@@ -30160,7 +30181,7 @@
       <c r="P547" s="38"/>
       <c r="Q547" s="27"/>
     </row>
-    <row r="548" spans="1:17" customFormat="1" ht="15.75">
+    <row r="548" spans="1:17" customFormat="1" ht="15.75" hidden="1">
       <c r="A548" s="4">
         <v>1300</v>
       </c>
@@ -30197,7 +30218,7 @@
       <c r="P548" s="38"/>
       <c r="Q548" s="27"/>
     </row>
-    <row r="549" spans="1:17" customFormat="1" ht="15.75">
+    <row r="549" spans="1:17" customFormat="1" ht="15.75" hidden="1">
       <c r="A549" s="4">
         <v>1300</v>
       </c>
@@ -30234,7 +30255,7 @@
       <c r="P549" s="38"/>
       <c r="Q549" s="27"/>
     </row>
-    <row r="550" spans="1:17" customFormat="1" ht="15.75">
+    <row r="550" spans="1:17" customFormat="1" ht="15.75" hidden="1">
       <c r="A550" s="4">
         <v>1300</v>
       </c>
@@ -30275,7 +30296,7 @@
       <c r="P550" s="38"/>
       <c r="Q550" s="27"/>
     </row>
-    <row r="551" spans="1:17" customFormat="1" ht="15.75">
+    <row r="551" spans="1:17" customFormat="1" ht="15.75" hidden="1">
       <c r="A551" s="4">
         <v>1300</v>
       </c>
@@ -30316,7 +30337,7 @@
       <c r="P551" s="38"/>
       <c r="Q551" s="27"/>
     </row>
-    <row r="552" spans="1:17" customFormat="1" ht="15.75">
+    <row r="552" spans="1:17" customFormat="1" ht="15.75" hidden="1">
       <c r="A552" s="4">
         <v>1300</v>
       </c>
@@ -30357,7 +30378,7 @@
       <c r="P552" s="38"/>
       <c r="Q552" s="27"/>
     </row>
-    <row r="553" spans="1:17" customFormat="1" ht="15.75">
+    <row r="553" spans="1:17" customFormat="1" ht="15.75" hidden="1">
       <c r="A553" s="4">
         <v>1300</v>
       </c>
@@ -30398,7 +30419,7 @@
       <c r="P553" s="38"/>
       <c r="Q553" s="27"/>
     </row>
-    <row r="554" spans="1:17" customFormat="1" ht="15.75">
+    <row r="554" spans="1:17" customFormat="1" ht="15.75" hidden="1">
       <c r="A554" s="4">
         <v>1300</v>
       </c>
@@ -30435,7 +30456,7 @@
       <c r="P554" s="38"/>
       <c r="Q554" s="27"/>
     </row>
-    <row r="555" spans="1:17" customFormat="1" ht="15.75">
+    <row r="555" spans="1:17" customFormat="1" ht="15.75" hidden="1">
       <c r="A555" s="4">
         <v>1300</v>
       </c>
@@ -30472,7 +30493,7 @@
       <c r="P555" s="38"/>
       <c r="Q555" s="27"/>
     </row>
-    <row r="556" spans="1:17" customFormat="1" ht="15.75">
+    <row r="556" spans="1:17" customFormat="1" ht="15.75" hidden="1">
       <c r="A556" s="4">
         <v>1300</v>
       </c>
@@ -30509,7 +30530,7 @@
       <c r="P556" s="38"/>
       <c r="Q556" s="27"/>
     </row>
-    <row r="557" spans="1:17" customFormat="1" ht="15.75">
+    <row r="557" spans="1:17" customFormat="1" ht="15.75" hidden="1">
       <c r="A557" s="4">
         <v>1300</v>
       </c>
@@ -30546,7 +30567,7 @@
       <c r="P557" s="38"/>
       <c r="Q557" s="27"/>
     </row>
-    <row r="558" spans="1:17" customFormat="1" ht="15.75">
+    <row r="558" spans="1:17" customFormat="1" ht="15.75" hidden="1">
       <c r="A558" s="4">
         <v>1300</v>
       </c>
@@ -30583,7 +30604,7 @@
       <c r="P558" s="38"/>
       <c r="Q558" s="27"/>
     </row>
-    <row r="559" spans="1:17" customFormat="1" ht="15.75">
+    <row r="559" spans="1:17" customFormat="1" ht="15.75" hidden="1">
       <c r="A559" s="4">
         <v>1300</v>
       </c>
@@ -30620,7 +30641,7 @@
       <c r="P559" s="38"/>
       <c r="Q559" s="27"/>
     </row>
-    <row r="560" spans="1:17" customFormat="1" ht="15.75">
+    <row r="560" spans="1:17" customFormat="1" ht="15.75" hidden="1">
       <c r="A560" s="4">
         <v>1300</v>
       </c>
@@ -30657,7 +30678,7 @@
       <c r="P560" s="38"/>
       <c r="Q560" s="27"/>
     </row>
-    <row r="561" spans="1:17" customFormat="1" ht="15.75">
+    <row r="561" spans="1:17" customFormat="1" ht="15.75" hidden="1">
       <c r="A561" s="4">
         <v>1300</v>
       </c>
@@ -30698,7 +30719,7 @@
       <c r="P561" s="38"/>
       <c r="Q561" s="27"/>
     </row>
-    <row r="562" spans="1:17" customFormat="1" ht="15.75">
+    <row r="562" spans="1:17" customFormat="1" ht="15.75" hidden="1">
       <c r="A562" s="4">
         <v>1300</v>
       </c>
@@ -30739,7 +30760,7 @@
       <c r="P562" s="38"/>
       <c r="Q562" s="27"/>
     </row>
-    <row r="563" spans="1:17" customFormat="1" ht="15.75">
+    <row r="563" spans="1:17" customFormat="1" ht="15.75" hidden="1">
       <c r="A563" s="4">
         <v>1300</v>
       </c>
@@ -30780,7 +30801,7 @@
       <c r="P563" s="38"/>
       <c r="Q563" s="27"/>
     </row>
-    <row r="564" spans="1:17" customFormat="1" ht="15.75">
+    <row r="564" spans="1:17" customFormat="1" ht="15.75" hidden="1">
       <c r="A564" s="4">
         <v>1300</v>
       </c>
@@ -30821,7 +30842,7 @@
       <c r="P564" s="38"/>
       <c r="Q564" s="27"/>
     </row>
-    <row r="565" spans="1:17" customFormat="1" ht="15.75">
+    <row r="565" spans="1:17" customFormat="1" ht="15.75" hidden="1">
       <c r="A565" s="4">
         <v>1300</v>
       </c>
@@ -30858,7 +30879,7 @@
       <c r="P565" s="38"/>
       <c r="Q565" s="27"/>
     </row>
-    <row r="566" spans="1:17" customFormat="1" ht="15.75">
+    <row r="566" spans="1:17" customFormat="1" ht="15.75" hidden="1">
       <c r="A566" s="4">
         <v>1300</v>
       </c>
@@ -30895,7 +30916,7 @@
       <c r="P566" s="38"/>
       <c r="Q566" s="27"/>
     </row>
-    <row r="567" spans="1:17" customFormat="1" ht="15.75">
+    <row r="567" spans="1:17" customFormat="1" ht="15.75" hidden="1">
       <c r="A567" s="4">
         <v>1300</v>
       </c>
@@ -30932,7 +30953,7 @@
       <c r="P567" s="38"/>
       <c r="Q567" s="27"/>
     </row>
-    <row r="568" spans="1:17" customFormat="1" ht="15.75">
+    <row r="568" spans="1:17" customFormat="1" ht="15.75" hidden="1">
       <c r="A568" s="4">
         <v>1300</v>
       </c>
@@ -30969,7 +30990,7 @@
       <c r="P568" s="38"/>
       <c r="Q568" s="27"/>
     </row>
-    <row r="569" spans="1:17" customFormat="1" ht="15.75">
+    <row r="569" spans="1:17" customFormat="1" ht="15.75" hidden="1">
       <c r="A569" s="4">
         <v>1300</v>
       </c>
@@ -31006,7 +31027,7 @@
       <c r="P569" s="38"/>
       <c r="Q569" s="27"/>
     </row>
-    <row r="570" spans="1:17" customFormat="1" ht="15.75">
+    <row r="570" spans="1:17" customFormat="1" ht="15.75" hidden="1">
       <c r="A570" s="4">
         <v>1300</v>
       </c>
@@ -31043,7 +31064,7 @@
       <c r="P570" s="38"/>
       <c r="Q570" s="27"/>
     </row>
-    <row r="571" spans="1:17" customFormat="1" ht="15.75">
+    <row r="571" spans="1:17" customFormat="1" ht="15.75" hidden="1">
       <c r="A571" s="4">
         <v>1300</v>
       </c>
@@ -31080,7 +31101,7 @@
       <c r="P571" s="38"/>
       <c r="Q571" s="27"/>
     </row>
-    <row r="572" spans="1:17" customFormat="1" ht="15.75">
+    <row r="572" spans="1:17" customFormat="1" ht="15.75" hidden="1">
       <c r="A572" s="4">
         <v>1300</v>
       </c>
@@ -31117,7 +31138,7 @@
       <c r="P572" s="38"/>
       <c r="Q572" s="27"/>
     </row>
-    <row r="573" spans="1:17" customFormat="1" ht="15.75">
+    <row r="573" spans="1:17" customFormat="1" ht="15.75" hidden="1">
       <c r="A573" s="4">
         <v>1300</v>
       </c>
@@ -31154,7 +31175,7 @@
       <c r="P573" s="38"/>
       <c r="Q573" s="27"/>
     </row>
-    <row r="574" spans="1:17" ht="15.75">
+    <row r="574" spans="1:17" ht="15.75" hidden="1">
       <c r="A574" s="33">
         <v>1300</v>
       </c>
@@ -31191,7 +31212,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="575" spans="1:17" ht="15.75">
+    <row r="575" spans="1:17" ht="15.75" hidden="1">
       <c r="A575" s="33">
         <v>1300</v>
       </c>
@@ -31228,7 +31249,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="576" spans="1:17" customFormat="1" ht="15.75">
+    <row r="576" spans="1:17" customFormat="1" ht="15.75" hidden="1">
       <c r="A576" s="4">
         <v>1300</v>
       </c>
@@ -31265,7 +31286,7 @@
       <c r="P576" s="38"/>
       <c r="Q576" s="27"/>
     </row>
-    <row r="577" spans="1:17" customFormat="1" ht="15.75">
+    <row r="577" spans="1:17" customFormat="1" ht="15.75" hidden="1">
       <c r="A577" s="4">
         <v>1300</v>
       </c>
@@ -31302,7 +31323,7 @@
       <c r="P577" s="38"/>
       <c r="Q577" s="27"/>
     </row>
-    <row r="578" spans="1:17" customFormat="1" ht="15.75">
+    <row r="578" spans="1:17" customFormat="1" ht="15.75" hidden="1">
       <c r="A578" s="4">
         <v>1300</v>
       </c>
@@ -31339,7 +31360,7 @@
       <c r="P578" s="38"/>
       <c r="Q578" s="27"/>
     </row>
-    <row r="579" spans="1:17" customFormat="1" ht="15.75">
+    <row r="579" spans="1:17" customFormat="1" ht="15.75" hidden="1">
       <c r="A579" s="4">
         <v>1300</v>
       </c>
@@ -31376,7 +31397,7 @@
       <c r="P579" s="38"/>
       <c r="Q579" s="27"/>
     </row>
-    <row r="580" spans="1:17" customFormat="1" ht="15.75">
+    <row r="580" spans="1:17" customFormat="1" ht="15.75" hidden="1">
       <c r="A580" s="4">
         <v>1300</v>
       </c>
@@ -31413,7 +31434,7 @@
       <c r="P580" s="38"/>
       <c r="Q580" s="27"/>
     </row>
-    <row r="581" spans="1:17" customFormat="1" ht="15.75">
+    <row r="581" spans="1:17" customFormat="1" ht="15.75" hidden="1">
       <c r="A581" s="4">
         <v>1300</v>
       </c>
@@ -31450,7 +31471,7 @@
       <c r="P581" s="38"/>
       <c r="Q581" s="27"/>
     </row>
-    <row r="582" spans="1:17" customFormat="1" ht="15.75">
+    <row r="582" spans="1:17" customFormat="1" ht="15.75" hidden="1">
       <c r="A582" s="4">
         <v>1300</v>
       </c>
@@ -31487,7 +31508,7 @@
       <c r="P582" s="38"/>
       <c r="Q582" s="27"/>
     </row>
-    <row r="583" spans="1:17" customFormat="1" ht="15.75">
+    <row r="583" spans="1:17" customFormat="1" ht="15.75" hidden="1">
       <c r="A583" s="4">
         <v>1300</v>
       </c>
@@ -31524,7 +31545,7 @@
       <c r="P583" s="38"/>
       <c r="Q583" s="27"/>
     </row>
-    <row r="584" spans="1:17" customFormat="1" ht="15.75">
+    <row r="584" spans="1:17" customFormat="1" ht="15.75" hidden="1">
       <c r="A584" s="4">
         <v>1300</v>
       </c>
@@ -31561,7 +31582,7 @@
       <c r="P584" s="38"/>
       <c r="Q584" s="27"/>
     </row>
-    <row r="585" spans="1:17" customFormat="1" ht="15.75">
+    <row r="585" spans="1:17" customFormat="1" ht="15.75" hidden="1">
       <c r="A585" s="4">
         <v>1300</v>
       </c>
@@ -31598,7 +31619,7 @@
       <c r="P585" s="38"/>
       <c r="Q585" s="27"/>
     </row>
-    <row r="586" spans="1:17" customFormat="1" ht="15.75">
+    <row r="586" spans="1:17" customFormat="1" ht="15.75" hidden="1">
       <c r="A586" s="4">
         <v>1300</v>
       </c>
@@ -31633,7 +31654,7 @@
       <c r="P586" s="38"/>
       <c r="Q586" s="27"/>
     </row>
-    <row r="587" spans="1:17" customFormat="1" ht="15.75">
+    <row r="587" spans="1:17" customFormat="1" ht="15.75" hidden="1">
       <c r="A587" s="4">
         <v>1300</v>
       </c>
@@ -31670,7 +31691,7 @@
       <c r="P587" s="38"/>
       <c r="Q587" s="27"/>
     </row>
-    <row r="588" spans="1:17" customFormat="1" ht="15.75">
+    <row r="588" spans="1:17" customFormat="1" ht="15.75" hidden="1">
       <c r="A588" s="4">
         <v>1300</v>
       </c>
@@ -31707,7 +31728,7 @@
       <c r="P588" s="38"/>
       <c r="Q588" s="27"/>
     </row>
-    <row r="589" spans="1:17" customFormat="1" ht="15.75">
+    <row r="589" spans="1:17" customFormat="1" ht="15.75" hidden="1">
       <c r="A589" s="4">
         <v>1300</v>
       </c>
@@ -31744,7 +31765,7 @@
       <c r="P589" s="38"/>
       <c r="Q589" s="27"/>
     </row>
-    <row r="590" spans="1:17" customFormat="1" ht="15.75">
+    <row r="590" spans="1:17" customFormat="1" ht="15.75" hidden="1">
       <c r="A590" s="4">
         <v>1300</v>
       </c>
@@ -31781,7 +31802,7 @@
       <c r="P590" s="38"/>
       <c r="Q590" s="27"/>
     </row>
-    <row r="591" spans="1:17" customFormat="1" ht="15.75">
+    <row r="591" spans="1:17" customFormat="1" ht="15.75" hidden="1">
       <c r="A591" s="2">
         <v>1400</v>
       </c>
@@ -31816,7 +31837,7 @@
       <c r="P591" s="38"/>
       <c r="Q591" s="27"/>
     </row>
-    <row r="592" spans="1:17" customFormat="1" ht="15.75">
+    <row r="592" spans="1:17" customFormat="1" ht="15.75" hidden="1">
       <c r="A592" s="2">
         <v>1400</v>
       </c>
@@ -31853,7 +31874,7 @@
       <c r="P592" s="38"/>
       <c r="Q592" s="27"/>
     </row>
-    <row r="593" spans="1:17" customFormat="1" ht="15.75">
+    <row r="593" spans="1:17" customFormat="1" ht="15.75" hidden="1">
       <c r="A593" s="2">
         <v>1400</v>
       </c>
@@ -31890,7 +31911,7 @@
       <c r="P593" s="38"/>
       <c r="Q593" s="27"/>
     </row>
-    <row r="594" spans="1:17" customFormat="1" ht="15.75">
+    <row r="594" spans="1:17" customFormat="1" ht="15.75" hidden="1">
       <c r="A594" s="2">
         <v>1400</v>
       </c>
@@ -31927,7 +31948,7 @@
       <c r="P594" s="38"/>
       <c r="Q594" s="27"/>
     </row>
-    <row r="595" spans="1:17" customFormat="1" ht="15.75">
+    <row r="595" spans="1:17" customFormat="1" ht="15.75" hidden="1">
       <c r="A595" s="2">
         <v>1400</v>
       </c>
@@ -31972,7 +31993,13 @@
     <protectedRange sqref="D8:D94" name="Range1"/>
     <protectedRange sqref="D591" name="Range1_1"/>
   </protectedRanges>
-  <autoFilter ref="A7:AF595"/>
+  <autoFilter ref="A7:AF595">
+    <filterColumn colId="4">
+      <filters>
+        <filter val="کارگر"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <mergeCells count="1">
     <mergeCell ref="AA1:AF1"/>
   </mergeCells>

--- a/RCM- پیشرفت کار کارشناسان- تکسونامی تجهیزات گندله سازی.xlsx
+++ b/RCM- پیشرفت کار کارشناسان- تکسونامی تجهیزات گندله سازی.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\H.haddadniya\RCM\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\haddadnia\Documents\GitHub\RCM_data_concatinating\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -8301,7 +8301,7 @@
   <dimension ref="A1:AF596"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A93" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="G99" sqref="G99"/>
+      <selection activeCell="I93" sqref="I93"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.125" defaultRowHeight="15"/>
@@ -8518,7 +8518,7 @@
       </c>
       <c r="D3" s="56">
         <f>AVERAGEIF($B$8:$B$595,"ESSENTIAL",$M$8:$M$595)</f>
-        <v>0.49622340425531963</v>
+        <v>0.496702127659575</v>
       </c>
       <c r="E3" s="62"/>
       <c r="F3" s="70" t="s">
@@ -8602,7 +8602,7 @@
       </c>
       <c r="I4" s="56">
         <f>SUMIF($A$8:$A$1048576,"300",$M$8:$M$1048576)/I2</f>
-        <v>0.33400000000000002</v>
+        <v>0.34</v>
       </c>
       <c r="J4" s="56">
         <f>SUMIF($A$8:$A$1048576,"500",$M$8:$M$1048576)/J2</f>
@@ -8684,7 +8684,7 @@
       </c>
       <c r="I5" s="56">
         <f t="shared" si="1"/>
-        <v>8.9811046511627905E-3</v>
+        <v>9.142441860465117E-3</v>
       </c>
       <c r="J5" s="56">
         <f t="shared" si="1"/>
@@ -8727,7 +8727,7 @@
       <c r="U5" s="56"/>
       <c r="V5" s="56">
         <f>SUBTOTAL(9,G5:U5)</f>
-        <v>0.45354507921642928</v>
+        <v>0.45370641642573156</v>
       </c>
     </row>
     <row r="6" spans="1:32" ht="15" customHeight="1">
@@ -12300,14 +12300,14 @@
       </c>
       <c r="H93" s="10"/>
       <c r="I93" s="10">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="J93" s="10"/>
       <c r="K93" s="10"/>
       <c r="L93" s="10"/>
       <c r="M93" s="10">
         <f t="shared" si="3"/>
-        <v>0.36000000000000004</v>
+        <v>0.45</v>
       </c>
       <c r="N93" s="38"/>
       <c r="O93" s="38"/>

--- a/RCM- پیشرفت کار کارشناسان- تکسونامی تجهیزات گندله سازی.xlsx
+++ b/RCM- پیشرفت کار کارشناسان- تکسونامی تجهیزات گندله سازی.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\haddadnia\Documents\GitHub\RCM_data_concatinating\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70EF26B2-352C-4762-81DF-A229E1F266EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02C3E2E9-9BE8-47C6-9C43-AAB2E7BD672F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -5071,10 +5071,10 @@
     <xf numFmtId="49" fontId="4" fillId="10" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="9" fontId="15" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="17" fillId="9" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="9" fontId="17" fillId="9" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="15" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -5615,8 +5615,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AF596"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="O7" sqref="O7"/>
+    <sheetView tabSelected="1" topLeftCell="H1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="V13" sqref="V13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5713,14 +5713,14 @@
       <c r="W1" s="69" t="s">
         <v>1473</v>
       </c>
-      <c r="AA1" s="72" t="s">
+      <c r="AA1" s="73" t="s">
         <v>1465</v>
       </c>
-      <c r="AB1" s="72"/>
-      <c r="AC1" s="72"/>
-      <c r="AD1" s="72"/>
-      <c r="AE1" s="72"/>
-      <c r="AF1" s="72"/>
+      <c r="AB1" s="73"/>
+      <c r="AC1" s="73"/>
+      <c r="AD1" s="73"/>
+      <c r="AE1" s="73"/>
+      <c r="AF1" s="73"/>
     </row>
     <row r="2" spans="1:32" ht="43.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="40" t="s">
@@ -5804,9 +5804,9 @@
         <f>SUM(G2:U2)</f>
         <v>588</v>
       </c>
-      <c r="W2" s="73">
+      <c r="W2" s="72">
         <f>SUM(O8:O595)/V2</f>
-        <v>0.1598639455782313</v>
+        <v>0.21428571428571427</v>
       </c>
       <c r="AA2" s="65">
         <v>0.15</v>
@@ -23299,7 +23299,9 @@
         <v>1</v>
       </c>
       <c r="N413" s="28"/>
-      <c r="O413" s="28"/>
+      <c r="O413" s="28">
+        <v>1</v>
+      </c>
       <c r="P413" s="38"/>
       <c r="Q413" s="27"/>
     </row>
@@ -23346,7 +23348,9 @@
         <v>1</v>
       </c>
       <c r="N414" s="28"/>
-      <c r="O414" s="28"/>
+      <c r="O414" s="28">
+        <v>1</v>
+      </c>
       <c r="P414" s="38"/>
       <c r="Q414" s="27"/>
     </row>
@@ -23625,7 +23629,9 @@
         <v>0.6</v>
       </c>
       <c r="N421" s="28"/>
-      <c r="O421" s="28"/>
+      <c r="O421" s="28">
+        <v>1</v>
+      </c>
       <c r="P421" s="38"/>
       <c r="Q421" s="27"/>
     </row>
@@ -23666,7 +23672,9 @@
         <v>0.6</v>
       </c>
       <c r="N422" s="28"/>
-      <c r="O422" s="28"/>
+      <c r="O422" s="28">
+        <v>1</v>
+      </c>
       <c r="P422" s="38"/>
       <c r="Q422" s="27"/>
     </row>
@@ -23707,7 +23715,9 @@
         <v>0.6</v>
       </c>
       <c r="N423" s="28"/>
-      <c r="O423" s="28"/>
+      <c r="O423" s="28">
+        <v>1</v>
+      </c>
       <c r="P423" s="38"/>
       <c r="Q423" s="27"/>
     </row>
@@ -23748,7 +23758,9 @@
         <v>0.6</v>
       </c>
       <c r="N424" s="28"/>
-      <c r="O424" s="28"/>
+      <c r="O424" s="28">
+        <v>1</v>
+      </c>
       <c r="P424" s="38"/>
       <c r="Q424" s="27"/>
     </row>
@@ -23789,7 +23801,9 @@
         <v>0.6</v>
       </c>
       <c r="N425" s="28"/>
-      <c r="O425" s="28"/>
+      <c r="O425" s="28">
+        <v>1</v>
+      </c>
       <c r="P425" s="38"/>
       <c r="Q425" s="27"/>
     </row>
@@ -23830,7 +23844,9 @@
         <v>0.6</v>
       </c>
       <c r="N426" s="28"/>
-      <c r="O426" s="28"/>
+      <c r="O426" s="28">
+        <v>1</v>
+      </c>
       <c r="P426" s="38"/>
       <c r="Q426" s="27"/>
     </row>
@@ -23871,7 +23887,9 @@
         <v>0.6</v>
       </c>
       <c r="N427" s="28"/>
-      <c r="O427" s="28"/>
+      <c r="O427" s="28">
+        <v>1</v>
+      </c>
       <c r="P427" s="38"/>
       <c r="Q427" s="27"/>
     </row>
@@ -23912,7 +23930,9 @@
         <v>0.6</v>
       </c>
       <c r="N428" s="28"/>
-      <c r="O428" s="28"/>
+      <c r="O428" s="28">
+        <v>1</v>
+      </c>
       <c r="P428" s="38"/>
       <c r="Q428" s="27"/>
     </row>
@@ -23953,7 +23973,9 @@
         <v>0.6</v>
       </c>
       <c r="N429" s="28"/>
-      <c r="O429" s="28"/>
+      <c r="O429" s="28">
+        <v>1</v>
+      </c>
       <c r="P429" s="38"/>
       <c r="Q429" s="27"/>
     </row>
@@ -23994,7 +24016,9 @@
         <v>0.6</v>
       </c>
       <c r="N430" s="28"/>
-      <c r="O430" s="28"/>
+      <c r="O430" s="28">
+        <v>1</v>
+      </c>
       <c r="P430" s="38"/>
       <c r="Q430" s="27"/>
     </row>
@@ -24310,7 +24334,9 @@
         <v>1</v>
       </c>
       <c r="N438" s="28"/>
-      <c r="O438" s="28"/>
+      <c r="O438" s="28">
+        <v>1</v>
+      </c>
       <c r="P438" s="38"/>
       <c r="Q438" s="27"/>
     </row>
@@ -24357,7 +24383,9 @@
         <v>1</v>
       </c>
       <c r="N439" s="28"/>
-      <c r="O439" s="28"/>
+      <c r="O439" s="28">
+        <v>1</v>
+      </c>
       <c r="P439" s="38"/>
       <c r="Q439" s="27"/>
     </row>
@@ -24404,7 +24432,9 @@
         <v>1</v>
       </c>
       <c r="N440" s="28"/>
-      <c r="O440" s="28"/>
+      <c r="O440" s="28">
+        <v>1</v>
+      </c>
       <c r="P440" s="38"/>
       <c r="Q440" s="27"/>
     </row>
@@ -24451,7 +24481,9 @@
         <v>1</v>
       </c>
       <c r="N441" s="28"/>
-      <c r="O441" s="28"/>
+      <c r="O441" s="28">
+        <v>1</v>
+      </c>
       <c r="P441" s="38"/>
       <c r="Q441" s="27"/>
     </row>
@@ -24498,7 +24530,9 @@
         <v>1</v>
       </c>
       <c r="N442" s="28"/>
-      <c r="O442" s="28"/>
+      <c r="O442" s="28">
+        <v>1</v>
+      </c>
       <c r="P442" s="38"/>
       <c r="Q442" s="27"/>
     </row>
@@ -24545,7 +24579,9 @@
         <v>1</v>
       </c>
       <c r="N443" s="28"/>
-      <c r="O443" s="28"/>
+      <c r="O443" s="28">
+        <v>1</v>
+      </c>
       <c r="P443" s="38"/>
       <c r="Q443" s="27"/>
     </row>
@@ -24592,7 +24628,9 @@
         <v>1</v>
       </c>
       <c r="N444" s="28"/>
-      <c r="O444" s="28"/>
+      <c r="O444" s="28">
+        <v>1</v>
+      </c>
       <c r="P444" s="38"/>
       <c r="Q444" s="27"/>
     </row>
@@ -24639,7 +24677,9 @@
         <v>1</v>
       </c>
       <c r="N445" s="28"/>
-      <c r="O445" s="28"/>
+      <c r="O445" s="28">
+        <v>1</v>
+      </c>
       <c r="P445" s="38"/>
       <c r="Q445" s="27"/>
     </row>
@@ -24686,7 +24726,9 @@
         <v>1</v>
       </c>
       <c r="N446" s="28"/>
-      <c r="O446" s="28"/>
+      <c r="O446" s="28">
+        <v>1</v>
+      </c>
       <c r="P446" s="38"/>
       <c r="Q446" s="27"/>
     </row>
@@ -24733,7 +24775,9 @@
         <v>1</v>
       </c>
       <c r="N447" s="28"/>
-      <c r="O447" s="28"/>
+      <c r="O447" s="28">
+        <v>1</v>
+      </c>
       <c r="P447" s="38"/>
       <c r="Q447" s="27"/>
     </row>
@@ -24780,7 +24824,9 @@
         <v>1</v>
       </c>
       <c r="N448" s="28"/>
-      <c r="O448" s="28"/>
+      <c r="O448" s="28">
+        <v>1</v>
+      </c>
       <c r="P448" s="38"/>
       <c r="Q448" s="27"/>
     </row>
@@ -24827,7 +24873,9 @@
         <v>1</v>
       </c>
       <c r="N449" s="28"/>
-      <c r="O449" s="28"/>
+      <c r="O449" s="28">
+        <v>1</v>
+      </c>
       <c r="P449" s="38"/>
       <c r="Q449" s="27"/>
     </row>
@@ -24874,7 +24922,9 @@
         <v>1</v>
       </c>
       <c r="N450" s="28"/>
-      <c r="O450" s="28"/>
+      <c r="O450" s="28">
+        <v>1</v>
+      </c>
       <c r="P450" s="38"/>
       <c r="Q450" s="27"/>
     </row>
@@ -24921,7 +24971,9 @@
         <v>1</v>
       </c>
       <c r="N451" s="28"/>
-      <c r="O451" s="28"/>
+      <c r="O451" s="28">
+        <v>1</v>
+      </c>
       <c r="P451" s="38"/>
       <c r="Q451" s="27"/>
     </row>
@@ -25894,7 +25946,9 @@
         <v>0.6</v>
       </c>
       <c r="N476" s="28"/>
-      <c r="O476" s="28"/>
+      <c r="O476" s="28">
+        <v>1</v>
+      </c>
       <c r="P476" s="38"/>
       <c r="Q476" s="27"/>
     </row>
@@ -25935,7 +25989,9 @@
         <v>0.6</v>
       </c>
       <c r="N477" s="28"/>
-      <c r="O477" s="28"/>
+      <c r="O477" s="28">
+        <v>1</v>
+      </c>
       <c r="P477" s="38"/>
       <c r="Q477" s="27"/>
     </row>
@@ -26136,7 +26192,9 @@
         <v>1</v>
       </c>
       <c r="N482" s="28"/>
-      <c r="O482" s="28"/>
+      <c r="O482" s="28">
+        <v>1</v>
+      </c>
       <c r="P482" s="38"/>
       <c r="Q482" s="27"/>
     </row>
@@ -26183,7 +26241,9 @@
         <v>1</v>
       </c>
       <c r="N483" s="28"/>
-      <c r="O483" s="28"/>
+      <c r="O483" s="28">
+        <v>1</v>
+      </c>
       <c r="P483" s="38"/>
       <c r="Q483" s="27"/>
     </row>
@@ -26230,7 +26290,9 @@
         <v>1</v>
       </c>
       <c r="N484" s="28"/>
-      <c r="O484" s="28"/>
+      <c r="O484" s="28">
+        <v>1</v>
+      </c>
       <c r="P484" s="38"/>
       <c r="Q484" s="27"/>
     </row>
@@ -26277,7 +26339,9 @@
         <v>1</v>
       </c>
       <c r="N485" s="28"/>
-      <c r="O485" s="28"/>
+      <c r="O485" s="28">
+        <v>1</v>
+      </c>
       <c r="P485" s="38"/>
       <c r="Q485" s="27"/>
     </row>
@@ -31384,7 +31448,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A30" s="4">
         <v>1500</v>
       </c>
@@ -31411,7 +31475,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A31" s="4">
         <v>1500</v>
       </c>
@@ -31438,7 +31502,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A32" s="4">
         <v>1500</v>
       </c>
@@ -31465,7 +31529,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A33" s="4">
         <v>1500</v>
       </c>
@@ -31492,7 +31556,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A34" s="4">
         <v>1500</v>
       </c>
@@ -31519,7 +31583,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A35" s="4">
         <v>1500</v>
       </c>
@@ -31546,7 +31610,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A36" s="4">
         <v>1500</v>
       </c>
@@ -31573,7 +31637,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A37" s="4">
         <v>1500</v>
       </c>
@@ -31600,7 +31664,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A38" s="4">
         <v>1500</v>
       </c>
@@ -31627,7 +31691,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A39" s="4">
         <v>1500</v>
       </c>
@@ -31654,7 +31718,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A40" s="4">
         <v>1500</v>
       </c>
@@ -31681,7 +31745,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A41" s="4">
         <v>1500</v>
       </c>
@@ -31708,7 +31772,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A42" s="4">
         <v>1500</v>
       </c>
@@ -31735,7 +31799,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A43" s="4">
         <v>1500</v>
       </c>
@@ -31762,7 +31826,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A44" s="4">
         <v>1500</v>
       </c>
@@ -31789,7 +31853,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A45" s="4">
         <v>1500</v>
       </c>
@@ -31816,7 +31880,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A46" s="4">
         <v>1500</v>
       </c>
@@ -31843,7 +31907,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A47" s="4">
         <v>1500</v>
       </c>
@@ -31870,7 +31934,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A48" s="4">
         <v>1500</v>
       </c>
@@ -31897,7 +31961,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A49" s="4">
         <v>1500</v>
       </c>
@@ -31924,7 +31988,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A50" s="4">
         <v>1500</v>
       </c>
@@ -31951,7 +32015,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A51" s="4">
         <v>1500</v>
       </c>
@@ -31978,7 +32042,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A52" s="4">
         <v>1500</v>
       </c>
@@ -32005,7 +32069,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A53" s="4">
         <v>1500</v>
       </c>
@@ -32032,7 +32096,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A54" s="4">
         <v>1500</v>
       </c>
@@ -32059,7 +32123,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A55" s="4">
         <v>1500</v>
       </c>
@@ -32086,7 +32150,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A56" s="4">
         <v>1500</v>
       </c>
@@ -32113,7 +32177,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A57" s="4">
         <v>1500</v>
       </c>
@@ -32140,7 +32204,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A58" s="4">
         <v>1500</v>
       </c>
@@ -32167,7 +32231,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A59" s="4">
         <v>1500</v>
       </c>
@@ -32194,7 +32258,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A60" s="4">
         <v>1500</v>
       </c>
@@ -32221,7 +32285,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A61" s="4">
         <v>1500</v>
       </c>
@@ -32248,7 +32312,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A62" s="4">
         <v>1500</v>
       </c>
@@ -32275,7 +32339,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A63" s="4">
         <v>1500</v>
       </c>
@@ -32302,7 +32366,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A64" s="4">
         <v>1500</v>
       </c>
@@ -32329,7 +32393,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A65" s="4">
         <v>1500</v>
       </c>
@@ -32356,7 +32420,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A66" s="4">
         <v>1500</v>
       </c>
@@ -32383,7 +32447,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A67" s="4">
         <v>1500</v>
       </c>
@@ -32410,7 +32474,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A68" s="4">
         <v>1500</v>
       </c>
@@ -32437,7 +32501,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A69" s="4">
         <v>1500</v>
       </c>
@@ -32464,7 +32528,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A70" s="4">
         <v>1500</v>
       </c>
@@ -32491,7 +32555,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A71" s="4">
         <v>1500</v>
       </c>
@@ -32518,7 +32582,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A72" s="4">
         <v>1500</v>
       </c>
@@ -32545,7 +32609,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A73" s="4">
         <v>1500</v>
       </c>
@@ -32572,7 +32636,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A74" s="4">
         <v>1500</v>
       </c>
@@ -32599,7 +32663,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A75" s="4">
         <v>1500</v>
       </c>
@@ -32626,7 +32690,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A76" s="4">
         <v>1500</v>
       </c>
@@ -32653,7 +32717,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A77" s="4">
         <v>1500</v>
       </c>
@@ -32678,7 +32742,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A78" s="4">
         <v>1500</v>
       </c>
@@ -32705,7 +32769,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A79" s="4">
         <v>1500</v>
       </c>
@@ -32732,7 +32796,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A80" s="4">
         <v>1500</v>
       </c>
@@ -32759,7 +32823,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A81" s="4">
         <v>1500</v>
       </c>
@@ -32786,7 +32850,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A82" s="4">
         <v>1500</v>
       </c>
@@ -32813,7 +32877,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A83" s="4">
         <v>1500</v>
       </c>
@@ -32840,7 +32904,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A84" s="4">
         <v>1500</v>
       </c>
@@ -32867,7 +32931,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A85" s="4">
         <v>1500</v>
       </c>
@@ -32894,7 +32958,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A86" s="4">
         <v>1500</v>
       </c>
@@ -32921,7 +32985,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A87" s="4">
         <v>1500</v>
       </c>
@@ -32948,7 +33012,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A88" s="4">
         <v>1500</v>
       </c>
@@ -32975,7 +33039,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A89" s="4">
         <v>1500</v>
       </c>
@@ -33002,7 +33066,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A90" s="4">
         <v>1500</v>
       </c>
@@ -33029,7 +33093,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A91" s="4">
         <v>1500</v>
       </c>
@@ -33056,7 +33120,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A92" s="4">
         <v>1500</v>
       </c>
@@ -33083,7 +33147,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A93" s="2"/>
       <c r="B93" s="4"/>
       <c r="C93" s="4"/>
@@ -33109,7 +33173,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A94" s="2"/>
       <c r="B94" s="4"/>
       <c r="C94" s="4"/>
@@ -33137,7 +33201,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A95" s="2"/>
       <c r="B95" s="4"/>
       <c r="C95" s="4"/>
@@ -33161,7 +33225,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A96" s="4"/>
       <c r="B96" s="4"/>
       <c r="C96" s="4"/>
@@ -33185,7 +33249,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A97" s="2"/>
       <c r="B97" s="4"/>
       <c r="C97" s="4"/>
@@ -33209,7 +33273,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A98" s="4"/>
       <c r="B98" s="4"/>
       <c r="C98" s="4"/>
@@ -33235,7 +33299,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A99" s="4"/>
       <c r="B99" s="4"/>
       <c r="C99" s="4"/>
@@ -33261,7 +33325,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A100" s="4"/>
       <c r="B100" s="4"/>
       <c r="C100" s="4"/>
@@ -33287,7 +33351,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A101" s="2"/>
       <c r="B101" s="4"/>
       <c r="C101" s="4"/>
@@ -33313,7 +33377,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A102" s="2"/>
       <c r="B102" s="4"/>
       <c r="C102" s="4"/>
@@ -33337,7 +33401,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A103" s="2"/>
       <c r="B103" s="4"/>
       <c r="C103" s="4"/>
@@ -33363,7 +33427,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A104" s="4"/>
       <c r="B104" s="4"/>
       <c r="C104" s="4"/>
@@ -33389,7 +33453,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A105" s="2"/>
       <c r="B105" s="4"/>
       <c r="C105" s="4"/>
@@ -33415,7 +33479,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A106" s="4"/>
       <c r="B106" s="4"/>
       <c r="C106" s="4"/>
@@ -33441,7 +33505,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A107" s="2"/>
       <c r="B107" s="4"/>
       <c r="C107" s="4"/>
@@ -33467,7 +33531,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A108" s="4"/>
       <c r="B108" s="4"/>
       <c r="C108" s="4"/>
@@ -33493,7 +33557,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A109" s="2"/>
       <c r="B109" s="4"/>
       <c r="C109" s="4"/>
@@ -33519,7 +33583,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A110" s="4"/>
       <c r="B110" s="4"/>
       <c r="C110" s="4"/>
@@ -33545,7 +33609,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A111" s="2"/>
       <c r="B111" s="4"/>
       <c r="C111" s="4"/>
@@ -33571,7 +33635,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="112" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A112" s="4"/>
       <c r="B112" s="4"/>
       <c r="C112" s="4"/>
@@ -33597,7 +33661,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A113" s="2"/>
       <c r="B113" s="4"/>
       <c r="C113" s="4"/>
@@ -33623,7 +33687,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="114" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A114" s="2"/>
       <c r="B114" s="4"/>
       <c r="C114" s="4"/>
@@ -33649,7 +33713,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="115" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A115" s="4"/>
       <c r="B115" s="4"/>
       <c r="C115" s="4"/>
@@ -33675,7 +33739,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="116" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A116" s="4"/>
       <c r="B116" s="4"/>
       <c r="C116" s="4"/>
@@ -33701,7 +33765,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="117" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A117" s="2"/>
       <c r="B117" s="4"/>
       <c r="C117" s="4"/>
@@ -33727,7 +33791,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="118" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A118" s="2"/>
       <c r="B118" s="2"/>
       <c r="C118" s="2"/>
@@ -33751,7 +33815,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="119" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A119" s="4"/>
       <c r="B119" s="4"/>
       <c r="C119" s="4"/>
@@ -33775,7 +33839,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="120" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A120" s="2"/>
       <c r="B120" s="2"/>
       <c r="C120" s="2"/>
@@ -33799,7 +33863,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="121" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A121" s="2"/>
       <c r="B121" s="2"/>
       <c r="C121" s="2"/>
@@ -33823,7 +33887,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="122" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A122" s="4"/>
       <c r="B122" s="4"/>
       <c r="C122" s="4"/>
@@ -33847,7 +33911,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="123" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A123" s="4"/>
       <c r="B123" s="4"/>
       <c r="C123" s="4"/>
@@ -33871,7 +33935,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="124" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A124" s="2"/>
       <c r="B124" s="2"/>
       <c r="C124" s="2"/>
@@ -33895,7 +33959,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="125" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A125" s="4"/>
       <c r="B125" s="4"/>
       <c r="C125" s="4"/>
@@ -33919,7 +33983,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="126" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A126" s="2"/>
       <c r="B126" s="2"/>
       <c r="C126" s="2"/>
@@ -33943,7 +34007,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="127" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A127" s="4"/>
       <c r="B127" s="4"/>
       <c r="C127" s="4"/>
@@ -33967,7 +34031,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="128" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A128" s="2"/>
       <c r="B128" s="2"/>
       <c r="C128" s="2"/>
@@ -33991,7 +34055,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="129" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A129" s="4"/>
       <c r="B129" s="4"/>
       <c r="C129" s="4"/>
@@ -34015,7 +34079,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="130" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A130" s="2"/>
       <c r="B130" s="2"/>
       <c r="C130" s="2"/>
@@ -34039,7 +34103,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="131" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A131" s="4"/>
       <c r="B131" s="4"/>
       <c r="C131" s="4"/>
@@ -34063,7 +34127,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="132" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A132" s="2"/>
       <c r="B132" s="2"/>
       <c r="C132" s="2"/>
@@ -34087,7 +34151,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="133" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A133" s="4"/>
       <c r="B133" s="4"/>
       <c r="C133" s="4"/>
@@ -34111,7 +34175,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="134" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A134" s="2"/>
       <c r="B134" s="2"/>
       <c r="C134" s="2"/>
@@ -34135,7 +34199,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="135" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A135" s="4"/>
       <c r="B135" s="4"/>
       <c r="C135" s="4"/>
@@ -34159,7 +34223,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="136" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A136" s="2"/>
       <c r="B136" s="2"/>
       <c r="C136" s="2"/>
@@ -34183,7 +34247,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="137" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A137" s="4"/>
       <c r="B137" s="4"/>
       <c r="C137" s="4"/>
@@ -34207,7 +34271,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="138" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A138" s="2"/>
       <c r="B138" s="2"/>
       <c r="C138" s="2"/>
@@ -34231,7 +34295,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="139" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A139" s="4"/>
       <c r="B139" s="4"/>
       <c r="C139" s="4"/>
@@ -34255,7 +34319,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="140" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A140" s="2"/>
       <c r="B140" s="2"/>
       <c r="C140" s="2"/>
@@ -34279,7 +34343,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="141" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A141" s="4"/>
       <c r="B141" s="4"/>
       <c r="C141" s="4"/>
@@ -34303,7 +34367,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="142" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A142" s="2"/>
       <c r="B142" s="2"/>
       <c r="C142" s="2"/>
@@ -34327,7 +34391,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="143" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A143" s="4"/>
       <c r="B143" s="4"/>
       <c r="C143" s="4"/>
@@ -34351,7 +34415,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="144" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A144" s="2"/>
       <c r="B144" s="2"/>
       <c r="C144" s="2"/>
@@ -34375,7 +34439,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="145" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A145" s="4"/>
       <c r="B145" s="4"/>
       <c r="C145" s="4"/>
@@ -34399,7 +34463,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="146" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A146" s="2"/>
       <c r="B146" s="2"/>
       <c r="C146" s="2"/>
@@ -34423,7 +34487,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="147" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A147" s="4"/>
       <c r="B147" s="4"/>
       <c r="C147" s="4"/>
@@ -34447,7 +34511,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="148" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A148" s="2"/>
       <c r="B148" s="2"/>
       <c r="C148" s="2"/>
@@ -34471,7 +34535,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="149" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A149" s="4"/>
       <c r="B149" s="4"/>
       <c r="C149" s="4"/>
@@ -34495,7 +34559,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="150" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A150" s="2"/>
       <c r="B150" s="2"/>
       <c r="C150" s="2"/>
@@ -34519,7 +34583,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="151" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A151" s="4"/>
       <c r="B151" s="4"/>
       <c r="C151" s="4"/>
@@ -34543,7 +34607,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="152" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A152" s="2"/>
       <c r="B152" s="2"/>
       <c r="C152" s="2"/>
@@ -34567,7 +34631,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="153" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A153" s="4"/>
       <c r="B153" s="4"/>
       <c r="C153" s="4"/>
@@ -34591,7 +34655,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="154" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A154" s="2"/>
       <c r="B154" s="2"/>
       <c r="C154" s="2"/>
@@ -34615,7 +34679,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="155" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A155" s="4"/>
       <c r="B155" s="4"/>
       <c r="C155" s="4"/>
@@ -34639,7 +34703,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="156" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A156" s="2"/>
       <c r="B156" s="2"/>
       <c r="C156" s="2"/>
@@ -34663,7 +34727,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="157" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A157" s="4"/>
       <c r="B157" s="4"/>
       <c r="C157" s="4"/>
@@ -34687,7 +34751,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="158" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A158" s="2"/>
       <c r="B158" s="2"/>
       <c r="C158" s="2"/>
@@ -34711,7 +34775,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="159" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A159" s="4"/>
       <c r="B159" s="4"/>
       <c r="C159" s="4"/>
@@ -34735,7 +34799,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="160" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A160" s="2"/>
       <c r="B160" s="2"/>
       <c r="C160" s="2"/>
@@ -34759,7 +34823,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="161" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A161" s="4"/>
       <c r="B161" s="4"/>
       <c r="C161" s="4"/>
@@ -34783,7 +34847,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="162" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A162" s="2"/>
       <c r="B162" s="2"/>
       <c r="C162" s="2"/>
@@ -34807,7 +34871,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="163" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A163" s="4"/>
       <c r="B163" s="4"/>
       <c r="C163" s="4"/>
@@ -34831,7 +34895,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="164" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A164" s="2"/>
       <c r="B164" s="2"/>
       <c r="C164" s="2"/>
@@ -34855,7 +34919,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="165" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A165" s="4"/>
       <c r="B165" s="4"/>
       <c r="C165" s="4"/>
@@ -34879,7 +34943,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="166" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A166" s="2"/>
       <c r="B166" s="2"/>
       <c r="C166" s="2"/>
@@ -34903,7 +34967,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="167" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A167" s="4"/>
       <c r="B167" s="4"/>
       <c r="C167" s="4"/>
@@ -34927,7 +34991,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="168" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A168" s="2"/>
       <c r="B168" s="2"/>
       <c r="C168" s="2"/>
@@ -34951,7 +35015,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="169" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A169" s="4"/>
       <c r="B169" s="4"/>
       <c r="C169" s="4"/>
@@ -34975,7 +35039,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="170" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A170" s="2"/>
       <c r="B170" s="2"/>
       <c r="C170" s="2"/>
@@ -34999,7 +35063,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="171" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A171" s="4"/>
       <c r="B171" s="4"/>
       <c r="C171" s="4"/>
@@ -35023,7 +35087,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="172" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A172" s="2"/>
       <c r="B172" s="2"/>
       <c r="C172" s="2"/>
@@ -35047,7 +35111,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="173" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A173" s="4"/>
       <c r="B173" s="4"/>
       <c r="C173" s="4"/>
@@ -35071,7 +35135,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="174" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A174" s="2"/>
       <c r="B174" s="2"/>
       <c r="C174" s="2"/>
@@ -35095,7 +35159,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="175" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A175" s="4"/>
       <c r="B175" s="4"/>
       <c r="C175" s="4"/>
@@ -35119,7 +35183,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="176" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A176" s="2"/>
       <c r="B176" s="2"/>
       <c r="C176" s="2"/>
@@ -35143,7 +35207,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="177" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A177" s="4"/>
       <c r="B177" s="4"/>
       <c r="C177" s="4"/>
@@ -35167,7 +35231,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="178" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A178" s="2"/>
       <c r="B178" s="2"/>
       <c r="C178" s="2"/>
@@ -35191,7 +35255,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="179" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A179" s="4"/>
       <c r="B179" s="4"/>
       <c r="C179" s="4"/>
@@ -35215,7 +35279,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="180" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A180" s="2"/>
       <c r="B180" s="2"/>
       <c r="C180" s="2"/>
@@ -35239,7 +35303,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="181" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A181" s="4"/>
       <c r="B181" s="4"/>
       <c r="C181" s="4"/>
@@ -35263,7 +35327,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="182" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A182" s="2"/>
       <c r="B182" s="2"/>
       <c r="C182" s="2"/>
@@ -35287,7 +35351,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="183" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A183" s="4"/>
       <c r="B183" s="4"/>
       <c r="C183" s="4"/>
@@ -35311,7 +35375,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="184" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A184" s="2"/>
       <c r="B184" s="2"/>
       <c r="C184" s="2"/>
@@ -35335,7 +35399,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="185" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A185" s="4"/>
       <c r="B185" s="4"/>
       <c r="C185" s="4"/>
@@ -35359,7 +35423,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="186" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A186" s="2"/>
       <c r="B186" s="2"/>
       <c r="C186" s="2"/>
@@ -35383,7 +35447,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="187" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A187" s="4"/>
       <c r="B187" s="4"/>
       <c r="C187" s="4"/>
@@ -35407,7 +35471,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="188" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A188" s="2"/>
       <c r="B188" s="2"/>
       <c r="C188" s="2"/>
@@ -35431,7 +35495,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="189" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A189" s="4"/>
       <c r="B189" s="4"/>
       <c r="C189" s="4"/>
@@ -35455,7 +35519,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="190" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A190" s="2"/>
       <c r="B190" s="2"/>
       <c r="C190" s="2"/>
@@ -35479,7 +35543,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="191" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A191" s="4"/>
       <c r="B191" s="4"/>
       <c r="C191" s="4"/>
@@ -35503,7 +35567,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="192" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A192" s="2"/>
       <c r="B192" s="2"/>
       <c r="C192" s="2"/>
@@ -35527,7 +35591,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="193" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A193" s="4"/>
       <c r="B193" s="4"/>
       <c r="C193" s="4"/>
@@ -35551,7 +35615,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="194" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A194" s="2"/>
       <c r="B194" s="2"/>
       <c r="C194" s="2"/>
@@ -35575,7 +35639,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="195" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A195" s="4"/>
       <c r="B195" s="4"/>
       <c r="C195" s="4"/>
@@ -35599,7 +35663,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="196" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A196" s="2"/>
       <c r="B196" s="2"/>
       <c r="C196" s="2"/>
@@ -35623,7 +35687,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="197" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A197" s="4"/>
       <c r="B197" s="4"/>
       <c r="C197" s="4"/>
@@ -35647,7 +35711,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="198" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A198" s="2"/>
       <c r="B198" s="2"/>
       <c r="C198" s="2"/>
@@ -35671,7 +35735,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="199" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A199" s="4"/>
       <c r="B199" s="4"/>
       <c r="C199" s="4"/>
@@ -35695,7 +35759,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="200" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A200" s="2"/>
       <c r="B200" s="2"/>
       <c r="C200" s="2"/>
@@ -35719,7 +35783,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="201" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A201" s="4"/>
       <c r="B201" s="4"/>
       <c r="C201" s="4"/>
@@ -35743,7 +35807,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="202" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A202" s="2"/>
       <c r="B202" s="2"/>
       <c r="C202" s="2"/>
@@ -35767,7 +35831,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="203" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A203" s="4"/>
       <c r="B203" s="4"/>
       <c r="C203" s="4"/>
@@ -35793,7 +35857,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="204" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A204" s="2">
         <v>100</v>
       </c>
@@ -35820,7 +35884,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="205" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A205" s="2">
         <v>100</v>
       </c>
@@ -35847,7 +35911,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="206" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A206" s="2">
         <v>100</v>
       </c>
@@ -35874,7 +35938,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="207" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A207" s="2">
         <v>500</v>
       </c>
@@ -35901,7 +35965,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="208" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A208" s="2">
         <v>600</v>
       </c>
@@ -35930,7 +35994,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="209" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A209" s="2">
         <v>700</v>
       </c>
@@ -35957,7 +36021,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="210" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A210" s="2">
         <v>700</v>
       </c>
@@ -35984,7 +36048,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="211" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A211" s="2">
         <v>800</v>
       </c>
@@ -36013,7 +36077,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="212" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A212" s="2">
         <v>800</v>
       </c>
@@ -36042,7 +36106,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="213" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A213" s="2">
         <v>900</v>
       </c>
@@ -36069,7 +36133,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="214" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A214" s="4">
         <v>1100</v>
       </c>
@@ -36096,7 +36160,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="215" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A215" s="4">
         <v>1200</v>
       </c>
@@ -36125,7 +36189,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="216" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A216" s="4">
         <v>1200</v>
       </c>
@@ -36154,7 +36218,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="217" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A217" s="4">
         <v>1200</v>
       </c>
@@ -36183,7 +36247,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="218" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A218" s="4">
         <v>1200</v>
       </c>
@@ -36212,7 +36276,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="219" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A219" s="4">
         <v>1200</v>
       </c>
@@ -36241,7 +36305,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="220" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A220" s="4">
         <v>1300</v>
       </c>
@@ -36270,7 +36334,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="221" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A221" s="4">
         <v>1300</v>
       </c>
@@ -36299,7 +36363,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="222" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A222" s="4">
         <v>1300</v>
       </c>
@@ -36328,7 +36392,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="223" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A223" s="4"/>
       <c r="B223" s="4"/>
       <c r="C223" s="4"/>
@@ -36353,7 +36417,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="224" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A224" s="2"/>
       <c r="B224" s="2"/>
       <c r="C224" s="2"/>
@@ -36378,7 +36442,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="225" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A225" s="4"/>
       <c r="B225" s="4"/>
       <c r="C225" s="4"/>
@@ -36403,7 +36467,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="226" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A226" s="2"/>
       <c r="B226" s="2"/>
       <c r="C226" s="2"/>
@@ -36428,7 +36492,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="227" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A227" s="4"/>
       <c r="B227" s="4"/>
       <c r="C227" s="4"/>
@@ -36453,7 +36517,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="228" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A228" s="2"/>
       <c r="B228" s="2"/>
       <c r="C228" s="2"/>
@@ -36478,7 +36542,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="229" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A229" s="2">
         <v>500</v>
       </c>
@@ -36507,7 +36571,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="230" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A230" s="2">
         <v>600</v>
       </c>
@@ -36536,7 +36600,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="231" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A231" s="2">
         <v>600</v>
       </c>
@@ -36565,7 +36629,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="232" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A232" s="2">
         <v>600</v>
       </c>
@@ -36594,7 +36658,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="233" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A233" s="2">
         <v>600</v>
       </c>
@@ -36623,7 +36687,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="234" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A234" s="2">
         <v>600</v>
       </c>
@@ -36652,7 +36716,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="235" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A235" s="2">
         <v>600</v>
       </c>
@@ -36681,7 +36745,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="236" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A236" s="2">
         <v>600</v>
       </c>
@@ -36710,7 +36774,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="237" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A237" s="2">
         <v>600</v>
       </c>
@@ -36739,7 +36803,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="238" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A238" s="2">
         <v>600</v>
       </c>
@@ -36768,7 +36832,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="239" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A239" s="2">
         <v>700</v>
       </c>
@@ -36797,7 +36861,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="240" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A240" s="2">
         <v>700</v>
       </c>
@@ -36826,7 +36890,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="241" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A241" s="2">
         <v>500</v>
       </c>
@@ -36855,7 +36919,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="242" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A242" s="2">
         <v>800</v>
       </c>
@@ -36884,7 +36948,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="243" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A243" s="2">
         <v>800</v>
       </c>
@@ -36914,7 +36978,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="244" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A244" s="2"/>
       <c r="B244" s="2"/>
       <c r="C244" s="2"/>
@@ -36938,7 +37002,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="245" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A245" s="4"/>
       <c r="B245" s="4"/>
       <c r="C245" s="4"/>
@@ -36962,7 +37026,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="246" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A246" s="2"/>
       <c r="B246" s="2"/>
       <c r="C246" s="2"/>
@@ -36986,7 +37050,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="247" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A247" s="4"/>
       <c r="B247" s="4"/>
       <c r="C247" s="4"/>
@@ -37010,7 +37074,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="248" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A248" s="2"/>
       <c r="B248" s="2"/>
       <c r="C248" s="2"/>
@@ -37034,7 +37098,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="249" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A249" s="4"/>
       <c r="B249" s="4"/>
       <c r="C249" s="4"/>
@@ -37058,7 +37122,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="250" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A250" s="2"/>
       <c r="B250" s="2"/>
       <c r="C250" s="2"/>
@@ -37082,7 +37146,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="251" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A251" s="4"/>
       <c r="B251" s="4"/>
       <c r="C251" s="4"/>
@@ -37106,7 +37170,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="252" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A252" s="2"/>
       <c r="B252" s="2"/>
       <c r="C252" s="2"/>
@@ -37130,7 +37194,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="253" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A253" s="4"/>
       <c r="B253" s="4"/>
       <c r="C253" s="4"/>
@@ -37154,7 +37218,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="254" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A254" s="2"/>
       <c r="B254" s="2"/>
       <c r="C254" s="2"/>
@@ -37178,7 +37242,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="255" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A255" s="4"/>
       <c r="B255" s="4"/>
       <c r="C255" s="4"/>
@@ -37202,7 +37266,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="256" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A256" s="2"/>
       <c r="B256" s="2"/>
       <c r="C256" s="2"/>
@@ -37226,7 +37290,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="257" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A257" s="4"/>
       <c r="B257" s="4"/>
       <c r="C257" s="4"/>
@@ -37250,7 +37314,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="258" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A258" s="2"/>
       <c r="B258" s="2"/>
       <c r="C258" s="2"/>
@@ -37274,7 +37338,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="259" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A259" s="4"/>
       <c r="B259" s="4"/>
       <c r="C259" s="4"/>
@@ -37298,7 +37362,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="260" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A260" s="2"/>
       <c r="B260" s="2"/>
       <c r="C260" s="2"/>
@@ -37322,7 +37386,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="261" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A261" s="4"/>
       <c r="B261" s="4"/>
       <c r="C261" s="4"/>
@@ -37346,7 +37410,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="262" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A262" s="4"/>
       <c r="B262" s="4"/>
       <c r="C262" s="4"/>
@@ -37370,7 +37434,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="263" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A263" s="2"/>
       <c r="B263" s="2"/>
       <c r="C263" s="2"/>
@@ -37394,7 +37458,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="264" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A264" s="4"/>
       <c r="B264" s="4"/>
       <c r="C264" s="4"/>
@@ -37418,7 +37482,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="265" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A265" s="2"/>
       <c r="B265" s="2"/>
       <c r="C265" s="2"/>
@@ -37442,7 +37506,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="266" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A266" s="4"/>
       <c r="B266" s="4"/>
       <c r="C266" s="4"/>
@@ -37466,7 +37530,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="267" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A267" s="2"/>
       <c r="B267" s="2"/>
       <c r="C267" s="2"/>
@@ -37490,7 +37554,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="268" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A268" s="4"/>
       <c r="B268" s="4"/>
       <c r="C268" s="4"/>
@@ -37514,7 +37578,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="269" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A269" s="2"/>
       <c r="B269" s="2"/>
       <c r="C269" s="2"/>
@@ -37538,7 +37602,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="270" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A270" s="4"/>
       <c r="B270" s="4"/>
       <c r="C270" s="4"/>
@@ -37562,7 +37626,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="271" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A271" s="2"/>
       <c r="B271" s="2"/>
       <c r="C271" s="2"/>
@@ -37586,7 +37650,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="272" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A272" s="4"/>
       <c r="B272" s="4"/>
       <c r="C272" s="4"/>
@@ -37610,7 +37674,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="273" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A273" s="2"/>
       <c r="B273" s="2"/>
       <c r="C273" s="2"/>
@@ -37634,7 +37698,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="274" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A274" s="4"/>
       <c r="B274" s="4"/>
       <c r="C274" s="4"/>
@@ -37658,7 +37722,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="275" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A275" s="2"/>
       <c r="B275" s="2"/>
       <c r="C275" s="2"/>
@@ -37682,7 +37746,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="276" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A276" s="4"/>
       <c r="B276" s="4"/>
       <c r="C276" s="4"/>
@@ -37706,7 +37770,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="277" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A277" s="2"/>
       <c r="B277" s="2"/>
       <c r="C277" s="2"/>
@@ -37730,7 +37794,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="278" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A278" s="4"/>
       <c r="B278" s="4"/>
       <c r="C278" s="4"/>
@@ -37754,7 +37818,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="279" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A279" s="2"/>
       <c r="B279" s="2"/>
       <c r="C279" s="2"/>
@@ -37778,7 +37842,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="280" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A280" s="4"/>
       <c r="B280" s="4"/>
       <c r="C280" s="4"/>
@@ -37802,7 +37866,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="281" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A281" s="2"/>
       <c r="B281" s="2"/>
       <c r="C281" s="2"/>
@@ -37826,7 +37890,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="282" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A282" s="4"/>
       <c r="B282" s="4"/>
       <c r="C282" s="4"/>
@@ -37850,7 +37914,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="283" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A283" s="2"/>
       <c r="B283" s="2"/>
       <c r="C283" s="2"/>
@@ -37874,7 +37938,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="284" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A284" s="4"/>
       <c r="B284" s="4"/>
       <c r="C284" s="4"/>
@@ -37898,7 +37962,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="285" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A285" s="2"/>
       <c r="B285" s="2"/>
       <c r="C285" s="2"/>
@@ -37922,7 +37986,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="286" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A286" s="2"/>
       <c r="B286" s="2"/>
       <c r="C286" s="2"/>
@@ -37946,7 +38010,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="287" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A287" s="4"/>
       <c r="B287" s="4"/>
       <c r="C287" s="4"/>
@@ -37970,7 +38034,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="288" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A288" s="4"/>
       <c r="B288" s="4"/>
       <c r="C288" s="4"/>
@@ -37994,7 +38058,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="289" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A289" s="2"/>
       <c r="B289" s="2"/>
       <c r="C289" s="2"/>
@@ -38018,7 +38082,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="290" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A290" s="2"/>
       <c r="B290" s="2"/>
       <c r="C290" s="2"/>
@@ -38042,7 +38106,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="291" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A291" s="2"/>
       <c r="B291" s="2"/>
       <c r="C291" s="2"/>
@@ -38066,7 +38130,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="292" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A292" s="2"/>
       <c r="B292" s="2"/>
       <c r="C292" s="2"/>
@@ -38090,7 +38154,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="293" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A293" s="4"/>
       <c r="B293" s="4"/>
       <c r="C293" s="4"/>
@@ -38114,7 +38178,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="294" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A294" s="2"/>
       <c r="B294" s="2"/>
       <c r="C294" s="2"/>
@@ -38138,7 +38202,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="295" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A295" s="4"/>
       <c r="B295" s="4"/>
       <c r="C295" s="4"/>
@@ -38162,7 +38226,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="296" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A296" s="2"/>
       <c r="B296" s="2"/>
       <c r="C296" s="2"/>
@@ -38186,7 +38250,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="297" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A297" s="4"/>
       <c r="B297" s="4"/>
       <c r="C297" s="4"/>
@@ -38210,7 +38274,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="298" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A298" s="2"/>
       <c r="B298" s="2"/>
       <c r="C298" s="2"/>
@@ -38234,7 +38298,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="299" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A299" s="4"/>
       <c r="B299" s="4"/>
       <c r="C299" s="4"/>
@@ -38258,7 +38322,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="300" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A300" s="2"/>
       <c r="B300" s="2"/>
       <c r="C300" s="2"/>
@@ -38282,7 +38346,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="301" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A301" s="4"/>
       <c r="B301" s="4"/>
       <c r="C301" s="4"/>
@@ -38306,7 +38370,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="302" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A302" s="4"/>
       <c r="B302" s="4"/>
       <c r="C302" s="4"/>
@@ -38330,7 +38394,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="303" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A303" s="2"/>
       <c r="B303" s="2"/>
       <c r="C303" s="2"/>
@@ -38354,7 +38418,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="304" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A304" s="4"/>
       <c r="B304" s="4"/>
       <c r="C304" s="4"/>
@@ -38378,7 +38442,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="305" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A305" s="2"/>
       <c r="B305" s="2"/>
       <c r="C305" s="2"/>
@@ -38402,7 +38466,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="306" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A306" s="4"/>
       <c r="B306" s="4"/>
       <c r="C306" s="4"/>
@@ -38426,7 +38490,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="307" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A307" s="4"/>
       <c r="B307" s="4"/>
       <c r="C307" s="4"/>
@@ -38450,7 +38514,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="308" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A308" s="2"/>
       <c r="B308" s="2"/>
       <c r="C308" s="2"/>
@@ -38474,7 +38538,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="309" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A309" s="4"/>
       <c r="B309" s="4"/>
       <c r="C309" s="4"/>
@@ -38498,7 +38562,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="310" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A310" s="2"/>
       <c r="B310" s="2"/>
       <c r="C310" s="2"/>
@@ -38522,7 +38586,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="311" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A311" s="4"/>
       <c r="B311" s="4"/>
       <c r="C311" s="4"/>
@@ -38546,7 +38610,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="312" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A312" s="2"/>
       <c r="B312" s="2"/>
       <c r="C312" s="2"/>
@@ -38570,7 +38634,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="313" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A313" s="4"/>
       <c r="B313" s="4"/>
       <c r="C313" s="4"/>
@@ -38594,7 +38658,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="314" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A314" s="2"/>
       <c r="B314" s="2"/>
       <c r="C314" s="2"/>
@@ -38618,7 +38682,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="315" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A315" s="4"/>
       <c r="B315" s="4"/>
       <c r="C315" s="4"/>
@@ -38642,7 +38706,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="316" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A316" s="2"/>
       <c r="B316" s="2"/>
       <c r="C316" s="2"/>
@@ -38666,7 +38730,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="317" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A317" s="4"/>
       <c r="B317" s="4"/>
       <c r="C317" s="4"/>
@@ -38690,7 +38754,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="318" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A318" s="2"/>
       <c r="B318" s="2"/>
       <c r="C318" s="2"/>
@@ -38714,7 +38778,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="319" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A319" s="4"/>
       <c r="B319" s="4"/>
       <c r="C319" s="4"/>
@@ -38738,7 +38802,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="320" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A320" s="2"/>
       <c r="B320" s="2"/>
       <c r="C320" s="2"/>
@@ -38762,7 +38826,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="321" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A321" s="4"/>
       <c r="B321" s="4"/>
       <c r="C321" s="4"/>
@@ -38786,7 +38850,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="322" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A322" s="2"/>
       <c r="B322" s="2"/>
       <c r="C322" s="2"/>
@@ -38810,7 +38874,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="323" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A323" s="2"/>
       <c r="B323" s="2"/>
       <c r="C323" s="2"/>
@@ -38834,7 +38898,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="324" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A324" s="4"/>
       <c r="B324" s="4"/>
       <c r="C324" s="4"/>
@@ -38858,7 +38922,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="325" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A325" s="2"/>
       <c r="B325" s="2"/>
       <c r="C325" s="2"/>
@@ -38882,7 +38946,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="326" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A326" s="4"/>
       <c r="B326" s="4"/>
       <c r="C326" s="4"/>
@@ -38906,7 +38970,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="327" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A327" s="2"/>
       <c r="B327" s="2"/>
       <c r="C327" s="2"/>
@@ -38930,7 +38994,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="328" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A328" s="4"/>
       <c r="B328" s="4"/>
       <c r="C328" s="4"/>
@@ -38954,7 +39018,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="329" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A329" s="2"/>
       <c r="B329" s="2"/>
       <c r="C329" s="2"/>
@@ -38978,7 +39042,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="330" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A330" s="4"/>
       <c r="B330" s="4"/>
       <c r="C330" s="4"/>
@@ -39002,7 +39066,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="331" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A331" s="2"/>
       <c r="B331" s="2"/>
       <c r="C331" s="2"/>
@@ -39026,7 +39090,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="332" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A332" s="4"/>
       <c r="B332" s="4"/>
       <c r="C332" s="4"/>
@@ -39050,7 +39114,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="333" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A333" s="2"/>
       <c r="B333" s="2"/>
       <c r="C333" s="2"/>
@@ -39074,7 +39138,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="334" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A334" s="4"/>
       <c r="B334" s="4"/>
       <c r="C334" s="4"/>
@@ -39098,7 +39162,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="335" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A335" s="2"/>
       <c r="B335" s="2"/>
       <c r="C335" s="2"/>
@@ -39122,7 +39186,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="336" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A336" s="4"/>
       <c r="B336" s="4"/>
       <c r="C336" s="4"/>
@@ -39146,7 +39210,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="337" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A337" s="2"/>
       <c r="B337" s="2"/>
       <c r="C337" s="2"/>
@@ -39170,7 +39234,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="338" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A338" s="4"/>
       <c r="B338" s="4"/>
       <c r="C338" s="4"/>
@@ -39194,7 +39258,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="339" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A339" s="2"/>
       <c r="B339" s="2"/>
       <c r="C339" s="2"/>
@@ -39218,7 +39282,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="340" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A340" s="4"/>
       <c r="B340" s="4"/>
       <c r="C340" s="4"/>
@@ -39242,7 +39306,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="341" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A341" s="2"/>
       <c r="B341" s="2"/>
       <c r="C341" s="2"/>
@@ -39266,7 +39330,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="342" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A342" s="4"/>
       <c r="B342" s="4"/>
       <c r="C342" s="4"/>
@@ -39290,7 +39354,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="343" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A343" s="2"/>
       <c r="B343" s="2"/>
       <c r="C343" s="2"/>
@@ -39314,7 +39378,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="344" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A344" s="4"/>
       <c r="B344" s="4"/>
       <c r="C344" s="4"/>
@@ -39338,7 +39402,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="345" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A345" s="2"/>
       <c r="B345" s="2"/>
       <c r="C345" s="2"/>
@@ -39362,7 +39426,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="346" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A346" s="4"/>
       <c r="B346" s="4"/>
       <c r="C346" s="4"/>
@@ -39386,7 +39450,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="347" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A347" s="2"/>
       <c r="B347" s="2"/>
       <c r="C347" s="2"/>
@@ -39410,7 +39474,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="348" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A348" s="4"/>
       <c r="B348" s="4"/>
       <c r="C348" s="4"/>
@@ -39434,7 +39498,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="349" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A349" s="2"/>
       <c r="B349" s="2"/>
       <c r="C349" s="2"/>
@@ -39458,7 +39522,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="350" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A350" s="4"/>
       <c r="B350" s="4"/>
       <c r="C350" s="4"/>
@@ -39482,7 +39546,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="351" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A351" s="2"/>
       <c r="B351" s="2"/>
       <c r="C351" s="2"/>
@@ -39506,7 +39570,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="352" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A352" s="4"/>
       <c r="B352" s="4"/>
       <c r="C352" s="4"/>
@@ -39530,7 +39594,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="353" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A353" s="2"/>
       <c r="B353" s="2"/>
       <c r="C353" s="2"/>
@@ -39554,7 +39618,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="354" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A354" s="4"/>
       <c r="B354" s="4"/>
       <c r="C354" s="4"/>
@@ -39578,7 +39642,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="355" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A355" s="2"/>
       <c r="B355" s="2"/>
       <c r="C355" s="2"/>
@@ -39602,7 +39666,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="356" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A356" s="4"/>
       <c r="B356" s="4"/>
       <c r="C356" s="4"/>
@@ -39626,7 +39690,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="357" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A357" s="2"/>
       <c r="B357" s="2"/>
       <c r="C357" s="2"/>
@@ -39650,7 +39714,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="358" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A358" s="4"/>
       <c r="B358" s="4"/>
       <c r="C358" s="4"/>
@@ -39674,7 +39738,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="359" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A359" s="4"/>
       <c r="B359" s="4"/>
       <c r="C359" s="4"/>
@@ -39698,7 +39762,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="360" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A360" s="2"/>
       <c r="B360" s="2"/>
       <c r="C360" s="2"/>
@@ -39722,7 +39786,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="361" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A361" s="4"/>
       <c r="B361" s="4"/>
       <c r="C361" s="4"/>
@@ -39746,7 +39810,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="362" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A362" s="2"/>
       <c r="B362" s="2"/>
       <c r="C362" s="2"/>
@@ -39770,7 +39834,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="363" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A363" s="4"/>
       <c r="B363" s="4"/>
       <c r="C363" s="4"/>
@@ -39794,7 +39858,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="364" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A364" s="2"/>
       <c r="B364" s="2"/>
       <c r="C364" s="2"/>
@@ -39818,7 +39882,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="365" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A365" s="4"/>
       <c r="B365" s="4"/>
       <c r="C365" s="4"/>
@@ -39842,7 +39906,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="366" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A366" s="2"/>
       <c r="B366" s="2"/>
       <c r="C366" s="2"/>
@@ -39866,7 +39930,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="367" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A367" s="4"/>
       <c r="B367" s="4"/>
       <c r="C367" s="4"/>
@@ -39890,7 +39954,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="368" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A368" s="2"/>
       <c r="B368" s="2"/>
       <c r="C368" s="2"/>
@@ -39914,7 +39978,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="369" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A369" s="4"/>
       <c r="B369" s="4"/>
       <c r="C369" s="4"/>
@@ -39938,7 +40002,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="370" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A370" s="2"/>
       <c r="B370" s="2"/>
       <c r="C370" s="2"/>
@@ -39962,7 +40026,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="371" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A371" s="4"/>
       <c r="B371" s="4"/>
       <c r="C371" s="4"/>
@@ -39986,7 +40050,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="372" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A372" s="2"/>
       <c r="B372" s="2"/>
       <c r="C372" s="2"/>
@@ -40010,7 +40074,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="373" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A373" s="4"/>
       <c r="B373" s="4"/>
       <c r="C373" s="4"/>
@@ -40034,7 +40098,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="374" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A374" s="2"/>
       <c r="B374" s="2"/>
       <c r="C374" s="2"/>
@@ -40058,7 +40122,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="375" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A375" s="4"/>
       <c r="B375" s="4"/>
       <c r="C375" s="4"/>
@@ -40082,7 +40146,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="376" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A376" s="2"/>
       <c r="B376" s="2"/>
       <c r="C376" s="2"/>
@@ -40106,7 +40170,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="377" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A377" s="4"/>
       <c r="B377" s="4"/>
       <c r="C377" s="4"/>
@@ -40130,7 +40194,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="378" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A378" s="2"/>
       <c r="B378" s="2"/>
       <c r="C378" s="2"/>
@@ -40154,7 +40218,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="379" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A379" s="4"/>
       <c r="B379" s="4"/>
       <c r="C379" s="4"/>
@@ -40178,7 +40242,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="380" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A380" s="2"/>
       <c r="B380" s="2"/>
       <c r="C380" s="2"/>
@@ -40202,7 +40266,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="381" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A381" s="4"/>
       <c r="B381" s="4"/>
       <c r="C381" s="4"/>
@@ -40226,7 +40290,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="382" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A382" s="2"/>
       <c r="B382" s="2"/>
       <c r="C382" s="2"/>
@@ -40250,7 +40314,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="383" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A383" s="4"/>
       <c r="B383" s="4"/>
       <c r="C383" s="4"/>
@@ -40274,7 +40338,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="384" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A384" s="2"/>
       <c r="B384" s="2"/>
       <c r="C384" s="2"/>
@@ -40298,7 +40362,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="385" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A385" s="4"/>
       <c r="B385" s="4"/>
       <c r="C385" s="4"/>
@@ -40322,7 +40386,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="386" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A386" s="4"/>
       <c r="B386" s="4"/>
       <c r="C386" s="4"/>
@@ -40346,7 +40410,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="387" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A387" s="2"/>
       <c r="B387" s="2"/>
       <c r="C387" s="2"/>
@@ -40370,7 +40434,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="388" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A388" s="4"/>
       <c r="B388" s="4"/>
       <c r="C388" s="4"/>
@@ -40394,7 +40458,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="389" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A389" s="2"/>
       <c r="B389" s="2"/>
       <c r="C389" s="2"/>
@@ -40418,7 +40482,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="390" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A390" s="4"/>
       <c r="B390" s="4"/>
       <c r="C390" s="4"/>
@@ -40442,7 +40506,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="391" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A391" s="2"/>
       <c r="B391" s="2"/>
       <c r="C391" s="2"/>
@@ -40466,7 +40530,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="392" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A392" s="4"/>
       <c r="B392" s="4"/>
       <c r="C392" s="4"/>
@@ -40490,7 +40554,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="393" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A393" s="2"/>
       <c r="B393" s="2"/>
       <c r="C393" s="2"/>
@@ -40514,7 +40578,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="394" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A394" s="2"/>
       <c r="B394" s="2"/>
       <c r="C394" s="2"/>
@@ -40538,7 +40602,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="395" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A395" s="2"/>
       <c r="B395" s="2"/>
       <c r="C395" s="2"/>
@@ -40562,7 +40626,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="396" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A396" s="4"/>
       <c r="B396" s="4"/>
       <c r="C396" s="4"/>
@@ -40586,7 +40650,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="397" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A397" s="2"/>
       <c r="B397" s="2"/>
       <c r="C397" s="2"/>
@@ -40610,7 +40674,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="398" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A398" s="4"/>
       <c r="B398" s="4"/>
       <c r="C398" s="4"/>
@@ -40634,7 +40698,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="399" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A399" s="2"/>
       <c r="B399" s="2"/>
       <c r="C399" s="2"/>
@@ -40658,7 +40722,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="400" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A400" s="4"/>
       <c r="B400" s="4"/>
       <c r="C400" s="4"/>
@@ -40682,7 +40746,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="401" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="401" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A401" s="2"/>
       <c r="B401" s="2"/>
       <c r="C401" s="2"/>
@@ -40706,7 +40770,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="402" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="402" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A402" s="4"/>
       <c r="B402" s="4"/>
       <c r="C402" s="4"/>
@@ -40730,7 +40794,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="403" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="403" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A403" s="2"/>
       <c r="B403" s="2"/>
       <c r="C403" s="2"/>
@@ -40754,7 +40818,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="404" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="404" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A404" s="4"/>
       <c r="B404" s="4"/>
       <c r="C404" s="4"/>
@@ -40778,7 +40842,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="405" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="405" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A405" s="2"/>
       <c r="B405" s="2"/>
       <c r="C405" s="2"/>
@@ -40802,7 +40866,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="406" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="406" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A406" s="4"/>
       <c r="B406" s="4"/>
       <c r="C406" s="4"/>
@@ -40826,7 +40890,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="407" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="407" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A407" s="4"/>
       <c r="B407" s="4"/>
       <c r="C407" s="4"/>
@@ -40850,7 +40914,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="408" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="408" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A408" s="2"/>
       <c r="B408" s="2"/>
       <c r="C408" s="2"/>
@@ -40874,7 +40938,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="409" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="409" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A409" s="4"/>
       <c r="B409" s="4"/>
       <c r="C409" s="4"/>
@@ -40898,7 +40962,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="410" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="410" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A410" s="2"/>
       <c r="B410" s="2"/>
       <c r="C410" s="2"/>
@@ -40922,7 +40986,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="411" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="411" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A411" s="4"/>
       <c r="B411" s="4"/>
       <c r="C411" s="4"/>
@@ -40946,7 +41010,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="412" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="412" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A412" s="2"/>
       <c r="B412" s="2"/>
       <c r="C412" s="2"/>
@@ -40970,7 +41034,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="413" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="413" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A413" s="4"/>
       <c r="B413" s="4"/>
       <c r="C413" s="4"/>
@@ -40994,7 +41058,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="414" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="414" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A414" s="2"/>
       <c r="B414" s="2"/>
       <c r="C414" s="2"/>
@@ -41018,7 +41082,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="415" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="415" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A415" s="4"/>
       <c r="B415" s="4"/>
       <c r="C415" s="4"/>
@@ -41042,7 +41106,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="416" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="416" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A416" s="4"/>
       <c r="B416" s="4"/>
       <c r="C416" s="4"/>
@@ -41066,7 +41130,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="417" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="417" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A417" s="2"/>
       <c r="B417" s="2"/>
       <c r="C417" s="2"/>
@@ -41090,7 +41154,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="418" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="418" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A418" s="4"/>
       <c r="B418" s="4"/>
       <c r="C418" s="4"/>
@@ -41114,7 +41178,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="419" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="419" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A419" s="2"/>
       <c r="B419" s="2"/>
       <c r="C419" s="2"/>
@@ -41138,7 +41202,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="420" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="420" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A420" s="2"/>
       <c r="B420" s="2"/>
       <c r="C420" s="2"/>
@@ -41162,7 +41226,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="421" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="421" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A421" s="4"/>
       <c r="B421" s="4"/>
       <c r="C421" s="4"/>
@@ -41186,7 +41250,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="422" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="422" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A422" s="2"/>
       <c r="B422" s="2"/>
       <c r="C422" s="2"/>
@@ -41210,7 +41274,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="423" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="423" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A423" s="2"/>
       <c r="B423" s="2"/>
       <c r="C423" s="2"/>
@@ -41234,7 +41298,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="424" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="424" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A424" s="2"/>
       <c r="B424" s="2"/>
       <c r="C424" s="2"/>
@@ -41258,7 +41322,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="425" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="425" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A425" s="4"/>
       <c r="B425" s="4"/>
       <c r="C425" s="4"/>
@@ -41282,7 +41346,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="426" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="426" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A426" s="2"/>
       <c r="B426" s="2"/>
       <c r="C426" s="2"/>
@@ -41306,7 +41370,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="427" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="427" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A427" s="4"/>
       <c r="B427" s="4"/>
       <c r="C427" s="4"/>
@@ -41330,7 +41394,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="428" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="428" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A428" s="2"/>
       <c r="B428" s="2"/>
       <c r="C428" s="2"/>
@@ -41354,7 +41418,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="429" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="429" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A429" s="4"/>
       <c r="B429" s="4"/>
       <c r="C429" s="4"/>
@@ -41378,7 +41442,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="430" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="430" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A430" s="4"/>
       <c r="B430" s="4"/>
       <c r="C430" s="4"/>
@@ -41402,7 +41466,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="431" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="431" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A431" s="4"/>
       <c r="B431" s="4"/>
       <c r="C431" s="4"/>
@@ -41426,7 +41490,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="432" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="432" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A432" s="2"/>
       <c r="B432" s="2"/>
       <c r="C432" s="2"/>
@@ -41450,7 +41514,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="433" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="433" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A433" s="2"/>
       <c r="B433" s="2"/>
       <c r="C433" s="2"/>
@@ -41474,7 +41538,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="434" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="434" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A434" s="2"/>
       <c r="B434" s="2"/>
       <c r="C434" s="2"/>
@@ -41498,7 +41562,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="435" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="435" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A435" s="4"/>
       <c r="B435" s="4"/>
       <c r="C435" s="4"/>
@@ -41522,7 +41586,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="436" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="436" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A436" s="2"/>
       <c r="B436" s="2"/>
       <c r="C436" s="2"/>
@@ -41546,7 +41610,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="437" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="437" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A437" s="4"/>
       <c r="B437" s="4"/>
       <c r="C437" s="4"/>
@@ -41570,7 +41634,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="438" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="438" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A438" s="2"/>
       <c r="B438" s="2"/>
       <c r="C438" s="2"/>
@@ -41594,7 +41658,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="439" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="439" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A439" s="4"/>
       <c r="B439" s="4"/>
       <c r="C439" s="4"/>
@@ -41618,7 +41682,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="440" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="440" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A440" s="4"/>
       <c r="B440" s="4"/>
       <c r="C440" s="4"/>
@@ -41642,7 +41706,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="441" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="441" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A441" s="4"/>
       <c r="B441" s="4"/>
       <c r="C441" s="4"/>
@@ -41666,7 +41730,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="442" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="442" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A442" s="2"/>
       <c r="B442" s="2"/>
       <c r="C442" s="2"/>
@@ -41690,7 +41754,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="443" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="443" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A443" s="2"/>
       <c r="B443" s="2"/>
       <c r="C443" s="2"/>
@@ -41714,7 +41778,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="444" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="444" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A444" s="4"/>
       <c r="B444" s="4"/>
       <c r="C444" s="4"/>
@@ -41738,7 +41802,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="445" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="445" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A445" s="4"/>
       <c r="B445" s="4"/>
       <c r="C445" s="4"/>
@@ -41762,7 +41826,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="446" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="446" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A446" s="2"/>
       <c r="B446" s="2"/>
       <c r="C446" s="2"/>
@@ -41786,7 +41850,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="447" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="447" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A447" s="4"/>
       <c r="B447" s="4"/>
       <c r="C447" s="4"/>
@@ -41810,7 +41874,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="448" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="448" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A448" s="2"/>
       <c r="B448" s="2"/>
       <c r="C448" s="2"/>
@@ -41834,7 +41898,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="449" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="449" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A449" s="4"/>
       <c r="B449" s="4"/>
       <c r="C449" s="4"/>
@@ -41858,7 +41922,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="450" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="450" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A450" s="2"/>
       <c r="B450" s="2"/>
       <c r="C450" s="2"/>
@@ -41882,7 +41946,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="451" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="451" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A451" s="2"/>
       <c r="B451" s="2"/>
       <c r="C451" s="2"/>
@@ -41906,7 +41970,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="452" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="452" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A452" s="4"/>
       <c r="B452" s="4"/>
       <c r="C452" s="4"/>
@@ -41930,7 +41994,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="453" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="453" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A453" s="4"/>
       <c r="B453" s="4"/>
       <c r="C453" s="4"/>
@@ -41954,7 +42018,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="454" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="454" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A454" s="2"/>
       <c r="B454" s="2"/>
       <c r="C454" s="2"/>
@@ -41978,7 +42042,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="455" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="455" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A455" s="4"/>
       <c r="B455" s="4"/>
       <c r="C455" s="4"/>
@@ -42002,7 +42066,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="456" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="456" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A456" s="2"/>
       <c r="B456" s="2"/>
       <c r="C456" s="2"/>
@@ -42026,7 +42090,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="457" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="457" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A457" s="4"/>
       <c r="B457" s="4"/>
       <c r="C457" s="4"/>
@@ -42050,7 +42114,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="458" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="458" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A458" s="2"/>
       <c r="B458" s="2"/>
       <c r="C458" s="2"/>
@@ -42074,7 +42138,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="459" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="459" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A459" s="2"/>
       <c r="B459" s="2"/>
       <c r="C459" s="2"/>
@@ -42098,7 +42162,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="460" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="460" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A460" s="4"/>
       <c r="B460" s="4"/>
       <c r="C460" s="4"/>
@@ -42122,7 +42186,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="461" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="461" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A461" s="2"/>
       <c r="B461" s="2"/>
       <c r="C461" s="2"/>
@@ -42146,7 +42210,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="462" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="462" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A462" s="4"/>
       <c r="B462" s="4"/>
       <c r="C462" s="4"/>
@@ -42170,7 +42234,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="463" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="463" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A463" s="4"/>
       <c r="B463" s="4"/>
       <c r="C463" s="4"/>
@@ -42194,7 +42258,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="464" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="464" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A464" s="2"/>
       <c r="B464" s="2"/>
       <c r="C464" s="2"/>
@@ -42218,7 +42282,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="465" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="465" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A465" s="4"/>
       <c r="B465" s="4"/>
       <c r="C465" s="4"/>
@@ -42242,7 +42306,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="466" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="466" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A466" s="2"/>
       <c r="B466" s="2"/>
       <c r="C466" s="2"/>
@@ -42266,7 +42330,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="467" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="467" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A467" s="2"/>
       <c r="B467" s="2"/>
       <c r="C467" s="2"/>
@@ -42290,7 +42354,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="468" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="468" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A468" s="4"/>
       <c r="B468" s="4"/>
       <c r="C468" s="4"/>
@@ -42314,7 +42378,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="469" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="469" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A469" s="2"/>
       <c r="B469" s="2"/>
       <c r="C469" s="2"/>
@@ -42338,7 +42402,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="470" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="470" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A470" s="4"/>
       <c r="B470" s="4"/>
       <c r="C470" s="4"/>
@@ -42362,7 +42426,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="471" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="471" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A471" s="2"/>
       <c r="B471" s="2"/>
       <c r="C471" s="2"/>
@@ -42386,7 +42450,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="472" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="472" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A472" s="4"/>
       <c r="B472" s="4"/>
       <c r="C472" s="4"/>
@@ -42410,7 +42474,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="473" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="473" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A473" s="4"/>
       <c r="B473" s="4"/>
       <c r="C473" s="4"/>
@@ -42434,7 +42498,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="474" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="474" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A474" s="4"/>
       <c r="B474" s="4"/>
       <c r="C474" s="4"/>

--- a/RCM- پیشرفت کار کارشناسان- تکسونامی تجهیزات گندله سازی.xlsx
+++ b/RCM- پیشرفت کار کارشناسان- تکسونامی تجهیزات گندله سازی.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26227"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\haddadnia\Documents\GitHub\RCM_data_concatinating\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02C3E2E9-9BE8-47C6-9C43-AAB2E7BD672F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FCC44660-F6A9-4507-93CC-A76033B9B8CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -5616,7 +5616,7 @@
   <dimension ref="A1:AF596"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="H1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="V13" sqref="V13"/>
+      <selection activeCell="T7" sqref="T7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/RCM- پیشرفت کار کارشناسان- تکسونامی تجهیزات گندله سازی.xlsx
+++ b/RCM- پیشرفت کار کارشناسان- تکسونامی تجهیزات گندله سازی.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26501"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\haddadnia\Documents\GitHub\RCM_data_concatinating\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FCC44660-F6A9-4507-93CC-A76033B9B8CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D635B21-E3E6-4F62-B2B8-D6D196383DD0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -5613,10 +5613,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:AF596"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="T7" sqref="T7"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="F502" sqref="F502"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5806,7 +5807,7 @@
       </c>
       <c r="W2" s="72">
         <f>SUM(O8:O595)/V2</f>
-        <v>0.21428571428571427</v>
+        <v>0.32848639455782336</v>
       </c>
       <c r="AA2" s="65">
         <v>0.15</v>
@@ -6118,7 +6119,7 @@
         <v>1472</v>
       </c>
     </row>
-    <row r="8" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:32" hidden="1" x14ac:dyDescent="0.25">
       <c r="A8" s="30">
         <v>100</v>
       </c>
@@ -6163,7 +6164,7 @@
       <c r="N8" s="28"/>
       <c r="O8" s="28"/>
     </row>
-    <row r="9" spans="1:32" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:32" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>100</v>
       </c>
@@ -6212,7 +6213,7 @@
       <c r="P9" s="38"/>
       <c r="Q9" s="27"/>
     </row>
-    <row r="10" spans="1:32" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:32" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <v>100</v>
       </c>
@@ -6261,7 +6262,7 @@
       <c r="P10" s="38"/>
       <c r="Q10" s="27"/>
     </row>
-    <row r="11" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:32" hidden="1" x14ac:dyDescent="0.25">
       <c r="A11" s="30">
         <v>100</v>
       </c>
@@ -6306,7 +6307,7 @@
       <c r="N11" s="28"/>
       <c r="O11" s="28"/>
     </row>
-    <row r="12" spans="1:32" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:32" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
         <v>100</v>
       </c>
@@ -6353,7 +6354,7 @@
       <c r="P12" s="38"/>
       <c r="Q12" s="27"/>
     </row>
-    <row r="13" spans="1:32" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:32" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
         <v>100</v>
       </c>
@@ -6396,11 +6397,13 @@
         <v>1</v>
       </c>
       <c r="N13" s="28"/>
-      <c r="O13" s="28"/>
+      <c r="O13" s="28">
+        <v>1</v>
+      </c>
       <c r="P13" s="38"/>
       <c r="Q13" s="27"/>
     </row>
-    <row r="14" spans="1:32" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:32" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
         <v>100</v>
       </c>
@@ -6443,11 +6446,13 @@
         <v>1</v>
       </c>
       <c r="N14" s="28"/>
-      <c r="O14" s="28"/>
+      <c r="O14" s="28">
+        <v>1</v>
+      </c>
       <c r="P14" s="38"/>
       <c r="Q14" s="27"/>
     </row>
-    <row r="15" spans="1:32" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:32" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
         <v>100</v>
       </c>
@@ -6494,7 +6499,7 @@
       <c r="P15" s="38"/>
       <c r="Q15" s="27"/>
     </row>
-    <row r="16" spans="1:32" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:32" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
         <v>100</v>
       </c>
@@ -6541,7 +6546,7 @@
       <c r="P16" s="38"/>
       <c r="Q16" s="27"/>
     </row>
-    <row r="17" spans="1:17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
         <v>100</v>
       </c>
@@ -6588,7 +6593,7 @@
       <c r="P17" s="38"/>
       <c r="Q17" s="27"/>
     </row>
-    <row r="18" spans="1:17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
         <v>100</v>
       </c>
@@ -6635,7 +6640,7 @@
       <c r="P18" s="38"/>
       <c r="Q18" s="27"/>
     </row>
-    <row r="19" spans="1:17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
         <v>100</v>
       </c>
@@ -6682,7 +6687,7 @@
       <c r="P19" s="38"/>
       <c r="Q19" s="27"/>
     </row>
-    <row r="20" spans="1:17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
         <v>100</v>
       </c>
@@ -6729,7 +6734,7 @@
       <c r="P20" s="38"/>
       <c r="Q20" s="27"/>
     </row>
-    <row r="21" spans="1:17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
         <v>100</v>
       </c>
@@ -6776,7 +6781,7 @@
       <c r="P21" s="38"/>
       <c r="Q21" s="27"/>
     </row>
-    <row r="22" spans="1:17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
         <v>100</v>
       </c>
@@ -6823,7 +6828,7 @@
       <c r="P22" s="38"/>
       <c r="Q22" s="27"/>
     </row>
-    <row r="23" spans="1:17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A23" s="2">
         <v>100</v>
       </c>
@@ -6870,7 +6875,7 @@
       <c r="P23" s="38"/>
       <c r="Q23" s="27"/>
     </row>
-    <row r="24" spans="1:17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A24" s="2">
         <v>100</v>
       </c>
@@ -6917,7 +6922,7 @@
       <c r="P24" s="38"/>
       <c r="Q24" s="27"/>
     </row>
-    <row r="25" spans="1:17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A25" s="2">
         <v>100</v>
       </c>
@@ -6964,7 +6969,7 @@
       <c r="P25" s="38"/>
       <c r="Q25" s="27"/>
     </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A26" s="30">
         <v>100</v>
       </c>
@@ -7009,7 +7014,7 @@
       <c r="N26" s="28"/>
       <c r="O26" s="28"/>
     </row>
-    <row r="27" spans="1:17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A27" s="2">
         <v>100</v>
       </c>
@@ -7056,7 +7061,7 @@
       <c r="P27" s="38"/>
       <c r="Q27" s="27"/>
     </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A28" s="30">
         <v>100</v>
       </c>
@@ -7101,7 +7106,7 @@
       <c r="N28" s="28"/>
       <c r="O28" s="28"/>
     </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A29" s="30">
         <v>100</v>
       </c>
@@ -7148,7 +7153,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A30" s="30">
         <v>100</v>
       </c>
@@ -7195,7 +7200,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A31" s="30">
         <v>100</v>
       </c>
@@ -7242,7 +7247,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A32" s="30">
         <v>100</v>
       </c>
@@ -7289,7 +7294,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A33" s="30">
         <v>100</v>
       </c>
@@ -7336,7 +7341,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A34" s="2">
         <v>100</v>
       </c>
@@ -7383,7 +7388,7 @@
       <c r="P34" s="38"/>
       <c r="Q34" s="27"/>
     </row>
-    <row r="35" spans="1:17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A35" s="2">
         <v>100</v>
       </c>
@@ -7430,7 +7435,7 @@
       <c r="P35" s="38"/>
       <c r="Q35" s="27"/>
     </row>
-    <row r="36" spans="1:17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A36" s="2">
         <v>100</v>
       </c>
@@ -7471,7 +7476,7 @@
       <c r="P36" s="38"/>
       <c r="Q36" s="27"/>
     </row>
-    <row r="37" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A37" s="30">
         <v>100</v>
       </c>
@@ -7512,7 +7517,7 @@
       <c r="N37" s="28"/>
       <c r="O37" s="28"/>
     </row>
-    <row r="38" spans="1:17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A38" s="2">
         <v>100</v>
       </c>
@@ -7559,7 +7564,7 @@
       <c r="P38" s="38"/>
       <c r="Q38" s="27"/>
     </row>
-    <row r="39" spans="1:17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A39" s="2">
         <v>100</v>
       </c>
@@ -7606,7 +7611,7 @@
       <c r="P39" s="38"/>
       <c r="Q39" s="27"/>
     </row>
-    <row r="40" spans="1:17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A40" s="2">
         <v>100</v>
       </c>
@@ -7653,7 +7658,7 @@
       <c r="P40" s="38"/>
       <c r="Q40" s="27"/>
     </row>
-    <row r="41" spans="1:17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A41" s="2">
         <v>100</v>
       </c>
@@ -7702,7 +7707,7 @@
       <c r="P41" s="38"/>
       <c r="Q41" s="27"/>
     </row>
-    <row r="42" spans="1:17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A42" s="2">
         <v>100</v>
       </c>
@@ -7749,7 +7754,7 @@
       <c r="P42" s="38"/>
       <c r="Q42" s="27"/>
     </row>
-    <row r="43" spans="1:17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A43" s="2">
         <v>100</v>
       </c>
@@ -7786,11 +7791,13 @@
         <v>0.43000000000000005</v>
       </c>
       <c r="N43" s="28"/>
-      <c r="O43" s="28"/>
+      <c r="O43" s="28">
+        <v>0.9</v>
+      </c>
       <c r="P43" s="38"/>
       <c r="Q43" s="27"/>
     </row>
-    <row r="44" spans="1:17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A44" s="2">
         <v>100</v>
       </c>
@@ -7831,7 +7838,7 @@
       <c r="P44" s="38"/>
       <c r="Q44" s="27"/>
     </row>
-    <row r="45" spans="1:17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A45" s="2">
         <v>100</v>
       </c>
@@ -7872,7 +7879,7 @@
       <c r="P45" s="38"/>
       <c r="Q45" s="27"/>
     </row>
-    <row r="46" spans="1:17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A46" s="2">
         <v>100</v>
       </c>
@@ -7913,7 +7920,7 @@
       <c r="P46" s="38"/>
       <c r="Q46" s="27"/>
     </row>
-    <row r="47" spans="1:17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A47" s="2">
         <v>100</v>
       </c>
@@ -7954,7 +7961,7 @@
       <c r="P47" s="38"/>
       <c r="Q47" s="27"/>
     </row>
-    <row r="48" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A48" s="30">
         <v>100</v>
       </c>
@@ -8001,7 +8008,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A49" s="30">
         <v>100</v>
       </c>
@@ -8048,7 +8055,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A50" s="30">
         <v>100</v>
       </c>
@@ -8095,7 +8102,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A51" s="2">
         <v>100</v>
       </c>
@@ -8142,7 +8149,7 @@
       <c r="P51" s="38"/>
       <c r="Q51" s="27"/>
     </row>
-    <row r="52" spans="1:17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A52" s="2">
         <v>100</v>
       </c>
@@ -8179,11 +8186,13 @@
         <v>0.43000000000000005</v>
       </c>
       <c r="N52" s="28"/>
-      <c r="O52" s="28"/>
+      <c r="O52" s="28">
+        <v>1</v>
+      </c>
       <c r="P52" s="38"/>
       <c r="Q52" s="27"/>
     </row>
-    <row r="53" spans="1:17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A53" s="2">
         <v>100</v>
       </c>
@@ -8226,11 +8235,13 @@
         <v>1</v>
       </c>
       <c r="N53" s="28"/>
-      <c r="O53" s="28"/>
+      <c r="O53" s="28">
+        <v>1</v>
+      </c>
       <c r="P53" s="38"/>
       <c r="Q53" s="27"/>
     </row>
-    <row r="54" spans="1:17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A54" s="2">
         <v>100</v>
       </c>
@@ -8271,7 +8282,7 @@
       <c r="P54" s="38"/>
       <c r="Q54" s="27"/>
     </row>
-    <row r="55" spans="1:17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A55" s="2">
         <v>100</v>
       </c>
@@ -8308,7 +8319,7 @@
       <c r="P55" s="38"/>
       <c r="Q55" s="27"/>
     </row>
-    <row r="56" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A56" s="30">
         <v>100</v>
       </c>
@@ -8353,7 +8364,7 @@
       <c r="N56" s="28"/>
       <c r="O56" s="28"/>
     </row>
-    <row r="57" spans="1:17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A57" s="2">
         <v>100</v>
       </c>
@@ -8396,11 +8407,13 @@
         <v>1</v>
       </c>
       <c r="N57" s="28"/>
-      <c r="O57" s="28"/>
+      <c r="O57" s="28">
+        <v>1</v>
+      </c>
       <c r="P57" s="38"/>
       <c r="Q57" s="27"/>
     </row>
-    <row r="58" spans="1:17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A58" s="2">
         <v>100</v>
       </c>
@@ -8447,7 +8460,7 @@
       <c r="P58" s="38"/>
       <c r="Q58" s="27"/>
     </row>
-    <row r="59" spans="1:17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A59" s="2">
         <v>100</v>
       </c>
@@ -8494,7 +8507,7 @@
       <c r="P59" s="38"/>
       <c r="Q59" s="27"/>
     </row>
-    <row r="60" spans="1:17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A60" s="2">
         <v>100</v>
       </c>
@@ -8537,11 +8550,13 @@
         <v>1</v>
       </c>
       <c r="N60" s="28"/>
-      <c r="O60" s="28"/>
+      <c r="O60" s="28">
+        <v>1</v>
+      </c>
       <c r="P60" s="38"/>
       <c r="Q60" s="27"/>
     </row>
-    <row r="61" spans="1:17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A61" s="2">
         <v>100</v>
       </c>
@@ -8590,7 +8605,7 @@
       <c r="P61" s="38"/>
       <c r="Q61" s="27"/>
     </row>
-    <row r="62" spans="1:17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A62" s="2">
         <v>100</v>
       </c>
@@ -8639,7 +8654,7 @@
       <c r="P62" s="38"/>
       <c r="Q62" s="27"/>
     </row>
-    <row r="63" spans="1:17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A63" s="2">
         <v>100</v>
       </c>
@@ -8688,7 +8703,7 @@
       <c r="P63" s="38"/>
       <c r="Q63" s="27"/>
     </row>
-    <row r="64" spans="1:17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A64" s="2">
         <v>100</v>
       </c>
@@ -8737,7 +8752,7 @@
       <c r="P64" s="38"/>
       <c r="Q64" s="27"/>
     </row>
-    <row r="65" spans="1:17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A65" s="2">
         <v>100</v>
       </c>
@@ -8786,7 +8801,7 @@
       <c r="P65" s="38"/>
       <c r="Q65" s="27"/>
     </row>
-    <row r="66" spans="1:17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A66" s="2">
         <v>100</v>
       </c>
@@ -8833,7 +8848,7 @@
       <c r="P66" s="38"/>
       <c r="Q66" s="27"/>
     </row>
-    <row r="67" spans="1:17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A67" s="2">
         <v>100</v>
       </c>
@@ -8880,7 +8895,7 @@
       <c r="P67" s="38"/>
       <c r="Q67" s="27"/>
     </row>
-    <row r="68" spans="1:17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A68" s="2">
         <v>100</v>
       </c>
@@ -8927,7 +8942,7 @@
       <c r="P68" s="38"/>
       <c r="Q68" s="27"/>
     </row>
-    <row r="69" spans="1:17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A69" s="2">
         <v>100</v>
       </c>
@@ -8964,7 +8979,7 @@
       <c r="P69" s="38"/>
       <c r="Q69" s="27"/>
     </row>
-    <row r="70" spans="1:17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A70" s="2">
         <v>100</v>
       </c>
@@ -9003,7 +9018,7 @@
       <c r="P70" s="38"/>
       <c r="Q70" s="27"/>
     </row>
-    <row r="71" spans="1:17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A71" s="2">
         <v>100</v>
       </c>
@@ -9042,7 +9057,7 @@
       <c r="P71" s="38"/>
       <c r="Q71" s="27"/>
     </row>
-    <row r="72" spans="1:17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A72" s="2">
         <v>100</v>
       </c>
@@ -9083,7 +9098,7 @@
       <c r="P72" s="38"/>
       <c r="Q72" s="27"/>
     </row>
-    <row r="73" spans="1:17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A73" s="2">
         <v>100</v>
       </c>
@@ -9124,7 +9139,7 @@
       <c r="P73" s="38"/>
       <c r="Q73" s="27"/>
     </row>
-    <row r="74" spans="1:17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A74" s="2">
         <v>100</v>
       </c>
@@ -9171,7 +9186,7 @@
       <c r="P74" s="38"/>
       <c r="Q74" s="27"/>
     </row>
-    <row r="75" spans="1:17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A75" s="2">
         <v>200</v>
       </c>
@@ -9208,7 +9223,7 @@
       <c r="P75" s="38"/>
       <c r="Q75" s="27"/>
     </row>
-    <row r="76" spans="1:17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A76" s="2">
         <v>200</v>
       </c>
@@ -9245,7 +9260,7 @@
       <c r="P76" s="38"/>
       <c r="Q76" s="27"/>
     </row>
-    <row r="77" spans="1:17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A77" s="2">
         <v>200</v>
       </c>
@@ -9286,7 +9301,7 @@
       <c r="P77" s="38"/>
       <c r="Q77" s="27"/>
     </row>
-    <row r="78" spans="1:17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A78" s="2">
         <v>200</v>
       </c>
@@ -9323,7 +9338,7 @@
       <c r="P78" s="38"/>
       <c r="Q78" s="27"/>
     </row>
-    <row r="79" spans="1:17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A79" s="2">
         <v>200</v>
       </c>
@@ -9356,11 +9371,13 @@
         <v>0</v>
       </c>
       <c r="N79" s="28"/>
-      <c r="O79" s="28"/>
+      <c r="O79" s="28">
+        <v>0.9</v>
+      </c>
       <c r="P79" s="38"/>
       <c r="Q79" s="27"/>
     </row>
-    <row r="80" spans="1:17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A80" s="2">
         <v>200</v>
       </c>
@@ -9397,7 +9414,7 @@
       <c r="P80" s="38"/>
       <c r="Q80" s="27"/>
     </row>
-    <row r="81" spans="1:17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A81" s="2">
         <v>200</v>
       </c>
@@ -9438,7 +9455,7 @@
       <c r="P81" s="38"/>
       <c r="Q81" s="27"/>
     </row>
-    <row r="82" spans="1:17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A82" s="2">
         <v>200</v>
       </c>
@@ -9475,7 +9492,7 @@
       <c r="P82" s="38"/>
       <c r="Q82" s="27"/>
     </row>
-    <row r="83" spans="1:17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A83" s="2">
         <v>200</v>
       </c>
@@ -9516,7 +9533,7 @@
       <c r="P83" s="38"/>
       <c r="Q83" s="27"/>
     </row>
-    <row r="84" spans="1:17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A84" s="2">
         <v>200</v>
       </c>
@@ -9557,7 +9574,7 @@
       <c r="P84" s="38"/>
       <c r="Q84" s="27"/>
     </row>
-    <row r="85" spans="1:17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A85" s="2">
         <v>200</v>
       </c>
@@ -9598,7 +9615,7 @@
       <c r="P85" s="38"/>
       <c r="Q85" s="27"/>
     </row>
-    <row r="86" spans="1:17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A86" s="2">
         <v>200</v>
       </c>
@@ -9639,7 +9656,7 @@
       <c r="P86" s="38"/>
       <c r="Q86" s="27"/>
     </row>
-    <row r="87" spans="1:17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A87" s="2">
         <v>200</v>
       </c>
@@ -9680,7 +9697,7 @@
       <c r="P87" s="38"/>
       <c r="Q87" s="27"/>
     </row>
-    <row r="88" spans="1:17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A88" s="2">
         <v>200</v>
       </c>
@@ -9717,7 +9734,7 @@
       <c r="P88" s="38"/>
       <c r="Q88" s="27"/>
     </row>
-    <row r="89" spans="1:17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A89" s="2">
         <v>200</v>
       </c>
@@ -9754,7 +9771,7 @@
       <c r="P89" s="38"/>
       <c r="Q89" s="27"/>
     </row>
-    <row r="90" spans="1:17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A90" s="2">
         <v>200</v>
       </c>
@@ -9791,7 +9808,7 @@
       <c r="P90" s="38"/>
       <c r="Q90" s="27"/>
     </row>
-    <row r="91" spans="1:17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A91" s="2">
         <v>200</v>
       </c>
@@ -9828,7 +9845,7 @@
       <c r="P91" s="38"/>
       <c r="Q91" s="27"/>
     </row>
-    <row r="92" spans="1:17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A92" s="2">
         <v>200</v>
       </c>
@@ -9865,11 +9882,13 @@
         <v>0.6</v>
       </c>
       <c r="N92" s="28"/>
-      <c r="O92" s="28"/>
+      <c r="O92" s="28">
+        <v>1</v>
+      </c>
       <c r="P92" s="38"/>
       <c r="Q92" s="27"/>
     </row>
-    <row r="93" spans="1:17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A93" s="2">
         <v>300</v>
       </c>
@@ -9908,7 +9927,7 @@
       <c r="P93" s="38"/>
       <c r="Q93" s="27"/>
     </row>
-    <row r="94" spans="1:17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A94" s="2">
         <v>300</v>
       </c>
@@ -9947,7 +9966,7 @@
       <c r="P94" s="38"/>
       <c r="Q94" s="27"/>
     </row>
-    <row r="95" spans="1:17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A95" s="2">
         <v>300</v>
       </c>
@@ -9986,7 +10005,7 @@
       <c r="P95" s="38"/>
       <c r="Q95" s="27"/>
     </row>
-    <row r="96" spans="1:17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A96" s="2">
         <v>300</v>
       </c>
@@ -10025,7 +10044,7 @@
       <c r="P96" s="38"/>
       <c r="Q96" s="27"/>
     </row>
-    <row r="97" spans="1:17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A97" s="2">
         <v>300</v>
       </c>
@@ -10062,7 +10081,7 @@
       <c r="P97" s="38"/>
       <c r="Q97" s="27"/>
     </row>
-    <row r="98" spans="1:17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A98" s="2">
         <v>300</v>
       </c>
@@ -10099,7 +10118,7 @@
       <c r="P98" s="38"/>
       <c r="Q98" s="27"/>
     </row>
-    <row r="99" spans="1:17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A99" s="2">
         <v>300</v>
       </c>
@@ -10138,7 +10157,7 @@
       <c r="P99" s="38"/>
       <c r="Q99" s="27"/>
     </row>
-    <row r="100" spans="1:17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A100" s="2">
         <v>300</v>
       </c>
@@ -10177,7 +10196,7 @@
       <c r="P100" s="38"/>
       <c r="Q100" s="27"/>
     </row>
-    <row r="101" spans="1:17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A101" s="2">
         <v>300</v>
       </c>
@@ -10218,7 +10237,7 @@
       <c r="P101" s="38"/>
       <c r="Q101" s="27"/>
     </row>
-    <row r="102" spans="1:17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A102" s="2">
         <v>300</v>
       </c>
@@ -10257,7 +10276,7 @@
       <c r="P102" s="38"/>
       <c r="Q102" s="27"/>
     </row>
-    <row r="103" spans="1:17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A103" s="2">
         <v>300</v>
       </c>
@@ -10296,7 +10315,7 @@
       <c r="P103" s="38"/>
       <c r="Q103" s="27"/>
     </row>
-    <row r="104" spans="1:17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A104" s="2">
         <v>300</v>
       </c>
@@ -10335,7 +10354,7 @@
       <c r="P104" s="38"/>
       <c r="Q104" s="27"/>
     </row>
-    <row r="105" spans="1:17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A105" s="2">
         <v>300</v>
       </c>
@@ -10374,7 +10393,7 @@
       <c r="P105" s="38"/>
       <c r="Q105" s="27"/>
     </row>
-    <row r="106" spans="1:17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A106" s="2">
         <v>300</v>
       </c>
@@ -10411,7 +10430,7 @@
       <c r="P106" s="38"/>
       <c r="Q106" s="27"/>
     </row>
-    <row r="107" spans="1:17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A107" s="2">
         <v>300</v>
       </c>
@@ -10448,7 +10467,7 @@
       <c r="P107" s="38"/>
       <c r="Q107" s="27"/>
     </row>
-    <row r="108" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A108" s="30">
         <v>500</v>
       </c>
@@ -10495,7 +10514,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="109" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A109" s="30">
         <v>500</v>
       </c>
@@ -10542,7 +10561,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="110" spans="1:17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A110" s="2">
         <v>500</v>
       </c>
@@ -10583,7 +10602,7 @@
       <c r="P110" s="38"/>
       <c r="Q110" s="27"/>
     </row>
-    <row r="111" spans="1:17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A111" s="2">
         <v>500</v>
       </c>
@@ -10624,7 +10643,7 @@
       <c r="P111" s="38"/>
       <c r="Q111" s="27"/>
     </row>
-    <row r="112" spans="1:17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A112" s="2">
         <v>500</v>
       </c>
@@ -10671,7 +10690,7 @@
       <c r="P112" s="38"/>
       <c r="Q112" s="27"/>
     </row>
-    <row r="113" spans="1:17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A113" s="2">
         <v>500</v>
       </c>
@@ -10718,7 +10737,7 @@
       <c r="P113" s="38"/>
       <c r="Q113" s="27"/>
     </row>
-    <row r="114" spans="1:17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A114" s="2">
         <v>500</v>
       </c>
@@ -10765,7 +10784,7 @@
       <c r="P114" s="38"/>
       <c r="Q114" s="27"/>
     </row>
-    <row r="115" spans="1:17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A115" s="2">
         <v>500</v>
       </c>
@@ -10812,7 +10831,7 @@
       <c r="P115" s="38"/>
       <c r="Q115" s="27"/>
     </row>
-    <row r="116" spans="1:17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A116" s="2">
         <v>500</v>
       </c>
@@ -10849,7 +10868,7 @@
       <c r="P116" s="38"/>
       <c r="Q116" s="27"/>
     </row>
-    <row r="117" spans="1:17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A117" s="2">
         <v>500</v>
       </c>
@@ -10886,7 +10905,7 @@
       <c r="P117" s="38"/>
       <c r="Q117" s="27"/>
     </row>
-    <row r="118" spans="1:17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A118" s="2">
         <v>500</v>
       </c>
@@ -10923,7 +10942,7 @@
       <c r="P118" s="38"/>
       <c r="Q118" s="27"/>
     </row>
-    <row r="119" spans="1:17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A119" s="2">
         <v>500</v>
       </c>
@@ -10960,7 +10979,7 @@
       <c r="P119" s="38"/>
       <c r="Q119" s="27"/>
     </row>
-    <row r="120" spans="1:17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A120" s="2">
         <v>500</v>
       </c>
@@ -10997,7 +11016,7 @@
       <c r="P120" s="38"/>
       <c r="Q120" s="27"/>
     </row>
-    <row r="121" spans="1:17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A121" s="2">
         <v>500</v>
       </c>
@@ -11034,7 +11053,7 @@
       <c r="P121" s="38"/>
       <c r="Q121" s="27"/>
     </row>
-    <row r="122" spans="1:17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A122" s="2">
         <v>500</v>
       </c>
@@ -11071,7 +11090,7 @@
       <c r="P122" s="38"/>
       <c r="Q122" s="27"/>
     </row>
-    <row r="123" spans="1:17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A123" s="2">
         <v>500</v>
       </c>
@@ -11108,7 +11127,7 @@
       <c r="P123" s="38"/>
       <c r="Q123" s="27"/>
     </row>
-    <row r="124" spans="1:17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A124" s="2">
         <v>500</v>
       </c>
@@ -11151,11 +11170,13 @@
         <v>1</v>
       </c>
       <c r="N124" s="28"/>
-      <c r="O124" s="28"/>
+      <c r="O124" s="28">
+        <v>1</v>
+      </c>
       <c r="P124" s="38"/>
       <c r="Q124" s="27"/>
     </row>
-    <row r="125" spans="1:17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A125" s="2">
         <v>500</v>
       </c>
@@ -11198,11 +11219,13 @@
         <v>1</v>
       </c>
       <c r="N125" s="28"/>
-      <c r="O125" s="28"/>
+      <c r="O125" s="28">
+        <v>1</v>
+      </c>
       <c r="P125" s="38"/>
       <c r="Q125" s="27"/>
     </row>
-    <row r="126" spans="1:17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A126" s="2">
         <v>500</v>
       </c>
@@ -11245,11 +11268,13 @@
         <v>1</v>
       </c>
       <c r="N126" s="28"/>
-      <c r="O126" s="28"/>
+      <c r="O126" s="28">
+        <v>1</v>
+      </c>
       <c r="P126" s="38"/>
       <c r="Q126" s="27"/>
     </row>
-    <row r="127" spans="1:17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A127" s="2">
         <v>500</v>
       </c>
@@ -11292,11 +11317,13 @@
         <v>1</v>
       </c>
       <c r="N127" s="28"/>
-      <c r="O127" s="28"/>
+      <c r="O127" s="28">
+        <v>1</v>
+      </c>
       <c r="P127" s="38"/>
       <c r="Q127" s="27"/>
     </row>
-    <row r="128" spans="1:17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A128" s="2">
         <v>500</v>
       </c>
@@ -11339,11 +11366,13 @@
         <v>1</v>
       </c>
       <c r="N128" s="28"/>
-      <c r="O128" s="28"/>
+      <c r="O128" s="28">
+        <v>1</v>
+      </c>
       <c r="P128" s="38"/>
       <c r="Q128" s="27"/>
     </row>
-    <row r="129" spans="1:17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A129" s="2">
         <v>500</v>
       </c>
@@ -11386,11 +11415,13 @@
         <v>1</v>
       </c>
       <c r="N129" s="28"/>
-      <c r="O129" s="28"/>
+      <c r="O129" s="28">
+        <v>1</v>
+      </c>
       <c r="P129" s="38"/>
       <c r="Q129" s="27"/>
     </row>
-    <row r="130" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A130" s="30">
         <v>500</v>
       </c>
@@ -11427,9 +11458,11 @@
         <v>0.6</v>
       </c>
       <c r="N130" s="28"/>
-      <c r="O130" s="28"/>
-    </row>
-    <row r="131" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="O130" s="28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="131" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A131" s="30">
         <v>500</v>
       </c>
@@ -11466,9 +11499,11 @@
         <v>0.6</v>
       </c>
       <c r="N131" s="28"/>
-      <c r="O131" s="28"/>
-    </row>
-    <row r="132" spans="1:17" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="O131" s="28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="132" spans="1:17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A132" s="2">
         <v>500</v>
       </c>
@@ -11501,11 +11536,13 @@
         <v>0</v>
       </c>
       <c r="N132" s="28"/>
-      <c r="O132" s="28"/>
+      <c r="O132" s="28">
+        <v>1</v>
+      </c>
       <c r="P132" s="38"/>
       <c r="Q132" s="27"/>
     </row>
-    <row r="133" spans="1:17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A133" s="2">
         <v>500</v>
       </c>
@@ -11538,11 +11575,13 @@
         <v>0</v>
       </c>
       <c r="N133" s="28"/>
-      <c r="O133" s="28"/>
+      <c r="O133" s="28">
+        <v>1</v>
+      </c>
       <c r="P133" s="38"/>
       <c r="Q133" s="27"/>
     </row>
-    <row r="134" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A134" s="30">
         <v>500</v>
       </c>
@@ -11589,7 +11628,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="135" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A135" s="30">
         <v>500</v>
       </c>
@@ -11636,7 +11675,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="136" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A136" s="30">
         <v>500</v>
       </c>
@@ -11683,7 +11722,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="137" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A137" s="30">
         <v>500</v>
       </c>
@@ -11730,7 +11769,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="138" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A138" s="30">
         <v>500</v>
       </c>
@@ -11777,7 +11816,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="139" spans="1:17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A139" s="2">
         <v>500</v>
       </c>
@@ -11810,11 +11849,13 @@
         <v>0</v>
       </c>
       <c r="N139" s="28"/>
-      <c r="O139" s="28"/>
+      <c r="O139" s="28">
+        <v>0.9</v>
+      </c>
       <c r="P139" s="38"/>
       <c r="Q139" s="27"/>
     </row>
-    <row r="140" spans="1:17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A140" s="2">
         <v>500</v>
       </c>
@@ -11861,7 +11902,7 @@
       <c r="P140" s="38"/>
       <c r="Q140" s="27"/>
     </row>
-    <row r="141" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A141" s="30">
         <v>500</v>
       </c>
@@ -11906,7 +11947,7 @@
       <c r="N141" s="28"/>
       <c r="O141" s="28"/>
     </row>
-    <row r="142" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A142" s="30">
         <v>500</v>
       </c>
@@ -11951,7 +11992,7 @@
       <c r="N142" s="28"/>
       <c r="O142" s="28"/>
     </row>
-    <row r="143" spans="1:17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A143" s="2">
         <v>500</v>
       </c>
@@ -11988,7 +12029,7 @@
       <c r="P143" s="38"/>
       <c r="Q143" s="27"/>
     </row>
-    <row r="144" spans="1:17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A144" s="2">
         <v>500</v>
       </c>
@@ -12027,7 +12068,7 @@
       <c r="P144" s="38"/>
       <c r="Q144" s="27"/>
     </row>
-    <row r="145" spans="1:17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A145" s="2">
         <v>500</v>
       </c>
@@ -12066,7 +12107,7 @@
       <c r="P145" s="38"/>
       <c r="Q145" s="27"/>
     </row>
-    <row r="146" spans="1:17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A146" s="2">
         <v>500</v>
       </c>
@@ -12105,7 +12146,7 @@
       <c r="P146" s="38"/>
       <c r="Q146" s="27"/>
     </row>
-    <row r="147" spans="1:17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A147" s="2">
         <v>500</v>
       </c>
@@ -12144,7 +12185,7 @@
       <c r="P147" s="38"/>
       <c r="Q147" s="27"/>
     </row>
-    <row r="148" spans="1:17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A148" s="2">
         <v>500</v>
       </c>
@@ -12183,7 +12224,7 @@
       <c r="P148" s="38"/>
       <c r="Q148" s="27"/>
     </row>
-    <row r="149" spans="1:17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A149" s="2">
         <v>500</v>
       </c>
@@ -12222,7 +12263,7 @@
       <c r="P149" s="38"/>
       <c r="Q149" s="27"/>
     </row>
-    <row r="150" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A150" s="30">
         <v>500</v>
       </c>
@@ -12261,7 +12302,7 @@
       <c r="N150" s="28"/>
       <c r="O150" s="28"/>
     </row>
-    <row r="151" spans="1:17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A151" s="2">
         <v>600</v>
       </c>
@@ -12310,7 +12351,7 @@
       <c r="P151" s="38"/>
       <c r="Q151" s="27"/>
     </row>
-    <row r="152" spans="1:17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A152" s="2">
         <v>600</v>
       </c>
@@ -12359,7 +12400,7 @@
       <c r="P152" s="38"/>
       <c r="Q152" s="27"/>
     </row>
-    <row r="153" spans="1:17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A153" s="2">
         <v>600</v>
       </c>
@@ -12408,7 +12449,7 @@
       <c r="P153" s="38"/>
       <c r="Q153" s="27"/>
     </row>
-    <row r="154" spans="1:17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A154" s="2">
         <v>600</v>
       </c>
@@ -12457,7 +12498,7 @@
       <c r="P154" s="38"/>
       <c r="Q154" s="27"/>
     </row>
-    <row r="155" spans="1:17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A155" s="2">
         <v>600</v>
       </c>
@@ -12506,7 +12547,7 @@
       <c r="P155" s="38"/>
       <c r="Q155" s="27"/>
     </row>
-    <row r="156" spans="1:17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A156" s="2">
         <v>600</v>
       </c>
@@ -12555,7 +12596,7 @@
       <c r="P156" s="38"/>
       <c r="Q156" s="27"/>
     </row>
-    <row r="157" spans="1:17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A157" s="2">
         <v>600</v>
       </c>
@@ -12604,7 +12645,7 @@
       <c r="P157" s="38"/>
       <c r="Q157" s="27"/>
     </row>
-    <row r="158" spans="1:17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A158" s="2">
         <v>600</v>
       </c>
@@ -12653,7 +12694,7 @@
       <c r="P158" s="38"/>
       <c r="Q158" s="27"/>
     </row>
-    <row r="159" spans="1:17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A159" s="2">
         <v>600</v>
       </c>
@@ -12702,7 +12743,7 @@
       <c r="P159" s="38"/>
       <c r="Q159" s="27"/>
     </row>
-    <row r="160" spans="1:17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A160" s="2">
         <v>600</v>
       </c>
@@ -12751,7 +12792,7 @@
       <c r="P160" s="38"/>
       <c r="Q160" s="27"/>
     </row>
-    <row r="161" spans="1:17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A161" s="2">
         <v>600</v>
       </c>
@@ -12800,7 +12841,7 @@
       <c r="P161" s="38"/>
       <c r="Q161" s="27"/>
     </row>
-    <row r="162" spans="1:17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A162" s="2">
         <v>600</v>
       </c>
@@ -12849,7 +12890,7 @@
       <c r="P162" s="38"/>
       <c r="Q162" s="27"/>
     </row>
-    <row r="163" spans="1:17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A163" s="2">
         <v>600</v>
       </c>
@@ -12898,7 +12939,7 @@
       <c r="P163" s="38"/>
       <c r="Q163" s="27"/>
     </row>
-    <row r="164" spans="1:17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A164" s="2">
         <v>600</v>
       </c>
@@ -12947,7 +12988,7 @@
       <c r="P164" s="38"/>
       <c r="Q164" s="27"/>
     </row>
-    <row r="165" spans="1:17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A165" s="2">
         <v>600</v>
       </c>
@@ -12988,7 +13029,7 @@
       <c r="P165" s="38"/>
       <c r="Q165" s="27"/>
     </row>
-    <row r="166" spans="1:17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A166" s="2">
         <v>600</v>
       </c>
@@ -13029,7 +13070,7 @@
       <c r="P166" s="38"/>
       <c r="Q166" s="27"/>
     </row>
-    <row r="167" spans="1:17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A167" s="2">
         <v>600</v>
       </c>
@@ -13070,7 +13111,7 @@
       <c r="P167" s="38"/>
       <c r="Q167" s="27"/>
     </row>
-    <row r="168" spans="1:17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A168" s="2">
         <v>600</v>
       </c>
@@ -13111,7 +13152,7 @@
       <c r="P168" s="38"/>
       <c r="Q168" s="27"/>
     </row>
-    <row r="169" spans="1:17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A169" s="2">
         <v>600</v>
       </c>
@@ -13152,7 +13193,7 @@
       <c r="P169" s="38"/>
       <c r="Q169" s="27"/>
     </row>
-    <row r="170" spans="1:17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A170" s="2">
         <v>600</v>
       </c>
@@ -13193,7 +13234,7 @@
       <c r="P170" s="38"/>
       <c r="Q170" s="27"/>
     </row>
-    <row r="171" spans="1:17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A171" s="2">
         <v>600</v>
       </c>
@@ -13240,7 +13281,7 @@
       <c r="P171" s="38"/>
       <c r="Q171" s="27"/>
     </row>
-    <row r="172" spans="1:17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A172" s="2">
         <v>600</v>
       </c>
@@ -13287,7 +13328,7 @@
       <c r="P172" s="38"/>
       <c r="Q172" s="27"/>
     </row>
-    <row r="173" spans="1:17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A173" s="2">
         <v>600</v>
       </c>
@@ -13334,7 +13375,7 @@
       <c r="P173" s="38"/>
       <c r="Q173" s="27"/>
     </row>
-    <row r="174" spans="1:17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A174" s="2">
         <v>600</v>
       </c>
@@ -13381,7 +13422,7 @@
       <c r="P174" s="38"/>
       <c r="Q174" s="27"/>
     </row>
-    <row r="175" spans="1:17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A175" s="2">
         <v>600</v>
       </c>
@@ -13428,7 +13469,7 @@
       <c r="P175" s="38"/>
       <c r="Q175" s="27"/>
     </row>
-    <row r="176" spans="1:17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A176" s="2">
         <v>600</v>
       </c>
@@ -13475,7 +13516,7 @@
       <c r="P176" s="38"/>
       <c r="Q176" s="27"/>
     </row>
-    <row r="177" spans="1:17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A177" s="2">
         <v>600</v>
       </c>
@@ -13522,7 +13563,7 @@
       <c r="P177" s="38"/>
       <c r="Q177" s="27"/>
     </row>
-    <row r="178" spans="1:17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A178" s="2">
         <v>600</v>
       </c>
@@ -13569,7 +13610,7 @@
       <c r="P178" s="38"/>
       <c r="Q178" s="27"/>
     </row>
-    <row r="179" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A179" s="30">
         <v>600</v>
       </c>
@@ -13612,9 +13653,11 @@
         <v>1</v>
       </c>
       <c r="N179" s="28"/>
-      <c r="O179" s="28"/>
-    </row>
-    <row r="180" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="O179" s="28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="180" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A180" s="30">
         <v>600</v>
       </c>
@@ -13657,9 +13700,11 @@
         <v>1</v>
       </c>
       <c r="N180" s="28"/>
-      <c r="O180" s="28"/>
-    </row>
-    <row r="181" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="O180" s="28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="181" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A181" s="30">
         <v>600</v>
       </c>
@@ -13702,9 +13747,11 @@
         <v>1</v>
       </c>
       <c r="N181" s="28"/>
-      <c r="O181" s="28"/>
-    </row>
-    <row r="182" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="O181" s="28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="182" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A182" s="30">
         <v>600</v>
       </c>
@@ -13747,9 +13794,11 @@
         <v>1</v>
       </c>
       <c r="N182" s="28"/>
-      <c r="O182" s="28"/>
-    </row>
-    <row r="183" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="O182" s="28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="183" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A183" s="30">
         <v>600</v>
       </c>
@@ -13792,9 +13841,11 @@
         <v>1</v>
       </c>
       <c r="N183" s="28"/>
-      <c r="O183" s="28"/>
-    </row>
-    <row r="184" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="O183" s="28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="184" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A184" s="30">
         <v>600</v>
       </c>
@@ -13837,9 +13888,11 @@
         <v>1</v>
       </c>
       <c r="N184" s="28"/>
-      <c r="O184" s="28"/>
-    </row>
-    <row r="185" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="O184" s="28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="185" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A185" s="30">
         <v>600</v>
       </c>
@@ -13884,7 +13937,7 @@
       <c r="N185" s="28"/>
       <c r="O185" s="28"/>
     </row>
-    <row r="186" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A186" s="30">
         <v>600</v>
       </c>
@@ -13929,7 +13982,7 @@
       <c r="N186" s="28"/>
       <c r="O186" s="28"/>
     </row>
-    <row r="187" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A187" s="30">
         <v>600</v>
       </c>
@@ -13972,9 +14025,11 @@
         <v>1</v>
       </c>
       <c r="N187" s="28"/>
-      <c r="O187" s="28"/>
-    </row>
-    <row r="188" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="O187" s="28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="188" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A188" s="30">
         <v>600</v>
       </c>
@@ -14017,9 +14072,11 @@
         <v>1</v>
       </c>
       <c r="N188" s="28"/>
-      <c r="O188" s="28"/>
-    </row>
-    <row r="189" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="O188" s="28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="189" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A189" s="30">
         <v>600</v>
       </c>
@@ -14062,9 +14119,11 @@
         <v>1</v>
       </c>
       <c r="N189" s="28"/>
-      <c r="O189" s="28"/>
-    </row>
-    <row r="190" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="O189" s="28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="190" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A190" s="30">
         <v>600</v>
       </c>
@@ -14107,9 +14166,11 @@
         <v>1</v>
       </c>
       <c r="N190" s="28"/>
-      <c r="O190" s="28"/>
-    </row>
-    <row r="191" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="O190" s="28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="191" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A191" s="30">
         <v>600</v>
       </c>
@@ -14152,9 +14213,11 @@
         <v>1</v>
       </c>
       <c r="N191" s="28"/>
-      <c r="O191" s="28"/>
-    </row>
-    <row r="192" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="O191" s="28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="192" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A192" s="30">
         <v>600</v>
       </c>
@@ -14197,9 +14260,11 @@
         <v>1</v>
       </c>
       <c r="N192" s="28"/>
-      <c r="O192" s="28"/>
-    </row>
-    <row r="193" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="O192" s="28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="193" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A193" s="30">
         <v>600</v>
       </c>
@@ -14244,7 +14309,7 @@
       <c r="N193" s="28"/>
       <c r="O193" s="28"/>
     </row>
-    <row r="194" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A194" s="30">
         <v>600</v>
       </c>
@@ -14291,7 +14356,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="195" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A195" s="30">
         <v>600</v>
       </c>
@@ -14338,7 +14403,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="196" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A196" s="30">
         <v>600</v>
       </c>
@@ -14385,7 +14450,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="197" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A197" s="30">
         <v>600</v>
       </c>
@@ -14432,7 +14497,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="198" spans="1:17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A198" s="2">
         <v>600</v>
       </c>
@@ -14479,7 +14544,7 @@
       <c r="P198" s="38"/>
       <c r="Q198" s="27"/>
     </row>
-    <row r="199" spans="1:17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A199" s="2">
         <v>600</v>
       </c>
@@ -14512,11 +14577,13 @@
         <v>0</v>
       </c>
       <c r="N199" s="28"/>
-      <c r="O199" s="28"/>
+      <c r="O199" s="28">
+        <v>0.9</v>
+      </c>
       <c r="P199" s="38"/>
       <c r="Q199" s="27"/>
     </row>
-    <row r="200" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A200" s="30">
         <v>700</v>
       </c>
@@ -14561,7 +14628,7 @@
       <c r="N200" s="28"/>
       <c r="O200" s="28"/>
     </row>
-    <row r="201" spans="1:17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A201" s="2">
         <v>700</v>
       </c>
@@ -14594,11 +14661,13 @@
         <v>0</v>
       </c>
       <c r="N201" s="28"/>
-      <c r="O201" s="28"/>
+      <c r="O201" s="28">
+        <v>0.9</v>
+      </c>
       <c r="P201" s="38"/>
       <c r="Q201" s="27"/>
     </row>
-    <row r="202" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A202" s="30">
         <v>700</v>
       </c>
@@ -14643,7 +14712,7 @@
       <c r="N202" s="28"/>
       <c r="O202" s="28"/>
     </row>
-    <row r="203" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A203" s="30">
         <v>700</v>
       </c>
@@ -14688,7 +14757,7 @@
       <c r="N203" s="28"/>
       <c r="O203" s="28"/>
     </row>
-    <row r="204" spans="1:17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A204" s="2">
         <v>700</v>
       </c>
@@ -14735,7 +14804,7 @@
       <c r="P204" s="38"/>
       <c r="Q204" s="27"/>
     </row>
-    <row r="205" spans="1:17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A205" s="2">
         <v>700</v>
       </c>
@@ -14782,7 +14851,7 @@
       <c r="P205" s="38"/>
       <c r="Q205" s="27"/>
     </row>
-    <row r="206" spans="1:17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A206" s="2">
         <v>700</v>
       </c>
@@ -14829,7 +14898,7 @@
       <c r="P206" s="38"/>
       <c r="Q206" s="27"/>
     </row>
-    <row r="207" spans="1:17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A207" s="2">
         <v>700</v>
       </c>
@@ -14876,7 +14945,7 @@
       <c r="P207" s="38"/>
       <c r="Q207" s="27"/>
     </row>
-    <row r="208" spans="1:17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A208" s="2">
         <v>700</v>
       </c>
@@ -14923,7 +14992,7 @@
       <c r="P208" s="38"/>
       <c r="Q208" s="27"/>
     </row>
-    <row r="209" spans="1:17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A209" s="2">
         <v>700</v>
       </c>
@@ -14970,7 +15039,7 @@
       <c r="P209" s="38"/>
       <c r="Q209" s="27"/>
     </row>
-    <row r="210" spans="1:17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A210" s="2">
         <v>700</v>
       </c>
@@ -15017,7 +15086,7 @@
       <c r="P210" s="38"/>
       <c r="Q210" s="27"/>
     </row>
-    <row r="211" spans="1:17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A211" s="2">
         <v>700</v>
       </c>
@@ -15064,7 +15133,7 @@
       <c r="P211" s="38"/>
       <c r="Q211" s="27"/>
     </row>
-    <row r="212" spans="1:17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A212" s="2">
         <v>700</v>
       </c>
@@ -15111,7 +15180,7 @@
       <c r="P212" s="38"/>
       <c r="Q212" s="27"/>
     </row>
-    <row r="213" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A213" s="30">
         <v>700</v>
       </c>
@@ -15156,7 +15225,7 @@
       <c r="N213" s="28"/>
       <c r="O213" s="28"/>
     </row>
-    <row r="214" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A214" s="30">
         <v>700</v>
       </c>
@@ -15201,7 +15270,7 @@
       <c r="N214" s="28"/>
       <c r="O214" s="28"/>
     </row>
-    <row r="215" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A215" s="30">
         <v>700</v>
       </c>
@@ -15246,7 +15315,7 @@
       <c r="N215" s="28"/>
       <c r="O215" s="28"/>
     </row>
-    <row r="216" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A216" s="30">
         <v>700</v>
       </c>
@@ -15291,7 +15360,7 @@
       <c r="N216" s="28"/>
       <c r="O216" s="28"/>
     </row>
-    <row r="217" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A217" s="30">
         <v>700</v>
       </c>
@@ -15336,7 +15405,7 @@
       <c r="N217" s="28"/>
       <c r="O217" s="28"/>
     </row>
-    <row r="218" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A218" s="30">
         <v>700</v>
       </c>
@@ -15381,7 +15450,7 @@
       <c r="N218" s="28"/>
       <c r="O218" s="28"/>
     </row>
-    <row r="219" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A219" s="30">
         <v>700</v>
       </c>
@@ -15426,7 +15495,7 @@
       <c r="N219" s="28"/>
       <c r="O219" s="28"/>
     </row>
-    <row r="220" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A220" s="30">
         <v>700</v>
       </c>
@@ -15471,7 +15540,7 @@
       <c r="N220" s="28"/>
       <c r="O220" s="28"/>
     </row>
-    <row r="221" spans="1:17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A221" s="2">
         <v>700</v>
       </c>
@@ -15518,7 +15587,7 @@
       <c r="P221" s="38"/>
       <c r="Q221" s="27"/>
     </row>
-    <row r="222" spans="1:17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A222" s="2">
         <v>700</v>
       </c>
@@ -15565,7 +15634,7 @@
       <c r="P222" s="38"/>
       <c r="Q222" s="27"/>
     </row>
-    <row r="223" spans="1:17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A223" s="2">
         <v>700</v>
       </c>
@@ -15612,7 +15681,7 @@
       <c r="P223" s="38"/>
       <c r="Q223" s="27"/>
     </row>
-    <row r="224" spans="1:17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A224" s="2">
         <v>700</v>
       </c>
@@ -15653,7 +15722,7 @@
       <c r="P224" s="38"/>
       <c r="Q224" s="27"/>
     </row>
-    <row r="225" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A225" s="30">
         <v>700</v>
       </c>
@@ -15698,7 +15767,7 @@
       <c r="N225" s="28"/>
       <c r="O225" s="28"/>
     </row>
-    <row r="226" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A226" s="30">
         <v>700</v>
       </c>
@@ -15743,7 +15812,7 @@
       <c r="N226" s="28"/>
       <c r="O226" s="28"/>
     </row>
-    <row r="227" spans="1:17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A227" s="2">
         <v>700</v>
       </c>
@@ -15790,7 +15859,7 @@
       <c r="P227" s="38"/>
       <c r="Q227" s="27"/>
     </row>
-    <row r="228" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A228" s="30">
         <v>700</v>
       </c>
@@ -15833,9 +15902,11 @@
         <v>1</v>
       </c>
       <c r="N228" s="28"/>
-      <c r="O228" s="28"/>
-    </row>
-    <row r="229" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="O228" s="28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="229" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A229" s="30">
         <v>700</v>
       </c>
@@ -15880,7 +15951,7 @@
       <c r="N229" s="28"/>
       <c r="O229" s="28"/>
     </row>
-    <row r="230" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A230" s="30">
         <v>700</v>
       </c>
@@ -15925,7 +15996,7 @@
       <c r="N230" s="28"/>
       <c r="O230" s="28"/>
     </row>
-    <row r="231" spans="1:17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A231" s="2">
         <v>700</v>
       </c>
@@ -15972,7 +16043,7 @@
       <c r="P231" s="38"/>
       <c r="Q231" s="27"/>
     </row>
-    <row r="232" spans="1:17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A232" s="2">
         <v>700</v>
       </c>
@@ -16019,7 +16090,7 @@
       <c r="P232" s="38"/>
       <c r="Q232" s="27"/>
     </row>
-    <row r="233" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A233" s="30">
         <v>700</v>
       </c>
@@ -16064,7 +16135,7 @@
       <c r="N233" s="28"/>
       <c r="O233" s="28"/>
     </row>
-    <row r="234" spans="1:17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A234" s="2">
         <v>700</v>
       </c>
@@ -16111,7 +16182,7 @@
       <c r="P234" s="38"/>
       <c r="Q234" s="27"/>
     </row>
-    <row r="235" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A235" s="30">
         <v>700</v>
       </c>
@@ -16156,7 +16227,7 @@
       <c r="N235" s="28"/>
       <c r="O235" s="28"/>
     </row>
-    <row r="236" spans="1:17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A236" s="2">
         <v>700</v>
       </c>
@@ -16203,7 +16274,7 @@
       <c r="P236" s="38"/>
       <c r="Q236" s="27"/>
     </row>
-    <row r="237" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A237" s="30">
         <v>700</v>
       </c>
@@ -16246,9 +16317,11 @@
         <v>1</v>
       </c>
       <c r="N237" s="28"/>
-      <c r="O237" s="28"/>
-    </row>
-    <row r="238" spans="1:17" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="O237" s="28">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="238" spans="1:17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A238" s="2">
         <v>700</v>
       </c>
@@ -16295,7 +16368,7 @@
       <c r="P238" s="38"/>
       <c r="Q238" s="27"/>
     </row>
-    <row r="239" spans="1:17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A239" s="2">
         <v>700</v>
       </c>
@@ -16342,7 +16415,7 @@
       <c r="P239" s="38"/>
       <c r="Q239" s="27"/>
     </row>
-    <row r="240" spans="1:17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A240" s="2">
         <v>700</v>
       </c>
@@ -16389,7 +16462,7 @@
       <c r="P240" s="38"/>
       <c r="Q240" s="27"/>
     </row>
-    <row r="241" spans="1:17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A241" s="2">
         <v>700</v>
       </c>
@@ -16436,7 +16509,7 @@
       <c r="P241" s="38"/>
       <c r="Q241" s="27"/>
     </row>
-    <row r="242" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A242" s="30">
         <v>700</v>
       </c>
@@ -16481,7 +16554,7 @@
       <c r="N242" s="28"/>
       <c r="O242" s="28"/>
     </row>
-    <row r="243" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A243" s="30">
         <v>700</v>
       </c>
@@ -16526,7 +16599,7 @@
       <c r="N243" s="28"/>
       <c r="O243" s="28"/>
     </row>
-    <row r="244" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A244" s="30">
         <v>700</v>
       </c>
@@ -16571,7 +16644,7 @@
       <c r="N244" s="28"/>
       <c r="O244" s="28"/>
     </row>
-    <row r="245" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A245" s="30">
         <v>700</v>
       </c>
@@ -16616,7 +16689,7 @@
       <c r="N245" s="28"/>
       <c r="O245" s="28"/>
     </row>
-    <row r="246" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A246" s="30">
         <v>700</v>
       </c>
@@ -16661,7 +16734,7 @@
       <c r="N246" s="28"/>
       <c r="O246" s="28"/>
     </row>
-    <row r="247" spans="1:17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A247" s="2">
         <v>700</v>
       </c>
@@ -16708,7 +16781,7 @@
       <c r="P247" s="38"/>
       <c r="Q247" s="27"/>
     </row>
-    <row r="248" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A248" s="30">
         <v>700</v>
       </c>
@@ -16753,7 +16826,7 @@
       <c r="N248" s="28"/>
       <c r="O248" s="28"/>
     </row>
-    <row r="249" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A249" s="30">
         <v>700</v>
       </c>
@@ -16798,7 +16871,7 @@
       <c r="N249" s="28"/>
       <c r="O249" s="28"/>
     </row>
-    <row r="250" spans="1:17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A250" s="2">
         <v>700</v>
       </c>
@@ -16845,7 +16918,7 @@
       <c r="P250" s="38"/>
       <c r="Q250" s="27"/>
     </row>
-    <row r="251" spans="1:17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A251" s="2">
         <v>700</v>
       </c>
@@ -16892,7 +16965,7 @@
       <c r="P251" s="38"/>
       <c r="Q251" s="27"/>
     </row>
-    <row r="252" spans="1:17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A252" s="2">
         <v>700</v>
       </c>
@@ -16933,7 +17006,7 @@
       <c r="P252" s="38"/>
       <c r="Q252" s="27"/>
     </row>
-    <row r="253" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A253" s="30">
         <v>700</v>
       </c>
@@ -16978,7 +17051,7 @@
       <c r="N253" s="28"/>
       <c r="O253" s="28"/>
     </row>
-    <row r="254" spans="1:17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A254" s="2">
         <v>700</v>
       </c>
@@ -17027,7 +17100,7 @@
       <c r="P254" s="38"/>
       <c r="Q254" s="27"/>
     </row>
-    <row r="255" spans="1:17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A255" s="2">
         <v>700</v>
       </c>
@@ -17076,7 +17149,7 @@
       <c r="P255" s="38"/>
       <c r="Q255" s="27"/>
     </row>
-    <row r="256" spans="1:17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A256" s="13">
         <v>700</v>
       </c>
@@ -17121,7 +17194,7 @@
       <c r="P256" s="38"/>
       <c r="Q256" s="27"/>
     </row>
-    <row r="257" spans="1:17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A257" s="2">
         <v>700</v>
       </c>
@@ -17168,7 +17241,7 @@
       <c r="P257" s="38"/>
       <c r="Q257" s="27"/>
     </row>
-    <row r="258" spans="1:17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A258" s="2">
         <v>700</v>
       </c>
@@ -17201,11 +17274,13 @@
         <v>0</v>
       </c>
       <c r="N258" s="28"/>
-      <c r="O258" s="28"/>
+      <c r="O258" s="28">
+        <v>0.9</v>
+      </c>
       <c r="P258" s="38"/>
       <c r="Q258" s="27"/>
     </row>
-    <row r="259" spans="1:17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A259" s="2">
         <v>700</v>
       </c>
@@ -17252,7 +17327,7 @@
       <c r="P259" s="38"/>
       <c r="Q259" s="27"/>
     </row>
-    <row r="260" spans="1:17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A260" s="2">
         <v>700</v>
       </c>
@@ -17289,7 +17364,7 @@
       <c r="P260" s="38"/>
       <c r="Q260" s="27"/>
     </row>
-    <row r="261" spans="1:17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A261" s="2">
         <v>700</v>
       </c>
@@ -17336,7 +17411,7 @@
       <c r="P261" s="38"/>
       <c r="Q261" s="27"/>
     </row>
-    <row r="262" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A262" s="30">
         <v>700</v>
       </c>
@@ -17381,7 +17456,7 @@
       <c r="N262" s="28"/>
       <c r="O262" s="28"/>
     </row>
-    <row r="263" spans="1:17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A263" s="2">
         <v>700</v>
       </c>
@@ -17426,7 +17501,7 @@
       <c r="P263" s="38"/>
       <c r="Q263" s="27"/>
     </row>
-    <row r="264" spans="1:17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A264" s="2">
         <v>700</v>
       </c>
@@ -17471,7 +17546,7 @@
       <c r="P264" s="38"/>
       <c r="Q264" s="27"/>
     </row>
-    <row r="265" spans="1:17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A265" s="2">
         <v>700</v>
       </c>
@@ -17516,7 +17591,7 @@
       <c r="P265" s="38"/>
       <c r="Q265" s="27"/>
     </row>
-    <row r="266" spans="1:17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A266" s="2">
         <v>700</v>
       </c>
@@ -17561,7 +17636,7 @@
       <c r="P266" s="38"/>
       <c r="Q266" s="27"/>
     </row>
-    <row r="267" spans="1:17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A267" s="2">
         <v>700</v>
       </c>
@@ -17608,7 +17683,7 @@
       <c r="P267" s="38"/>
       <c r="Q267" s="27"/>
     </row>
-    <row r="268" spans="1:17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A268" s="2">
         <v>700</v>
       </c>
@@ -17655,7 +17730,7 @@
       <c r="P268" s="38"/>
       <c r="Q268" s="27"/>
     </row>
-    <row r="269" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A269" s="30">
         <v>700</v>
       </c>
@@ -17700,7 +17775,7 @@
       <c r="N269" s="28"/>
       <c r="O269" s="28"/>
     </row>
-    <row r="270" spans="1:17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A270" s="2">
         <v>700</v>
       </c>
@@ -17747,7 +17822,7 @@
       <c r="P270" s="38"/>
       <c r="Q270" s="27"/>
     </row>
-    <row r="271" spans="1:17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A271" s="2">
         <v>700</v>
       </c>
@@ -17794,7 +17869,7 @@
       <c r="P271" s="38"/>
       <c r="Q271" s="27"/>
     </row>
-    <row r="272" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A272" s="30">
         <v>700</v>
       </c>
@@ -17839,7 +17914,7 @@
       <c r="N272" s="28"/>
       <c r="O272" s="28"/>
     </row>
-    <row r="273" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A273" s="30">
         <v>700</v>
       </c>
@@ -17884,7 +17959,7 @@
       <c r="N273" s="28"/>
       <c r="O273" s="28"/>
     </row>
-    <row r="274" spans="1:17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A274" s="2">
         <v>800</v>
       </c>
@@ -17927,7 +18002,7 @@
       <c r="P274" s="38"/>
       <c r="Q274" s="27"/>
     </row>
-    <row r="275" spans="1:17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A275" s="2">
         <v>800</v>
       </c>
@@ -17970,7 +18045,7 @@
       <c r="P275" s="38"/>
       <c r="Q275" s="27"/>
     </row>
-    <row r="276" spans="1:17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A276" s="2">
         <v>800</v>
       </c>
@@ -18009,7 +18084,7 @@
       <c r="P276" s="38"/>
       <c r="Q276" s="27"/>
     </row>
-    <row r="277" spans="1:17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A277" s="2">
         <v>800</v>
       </c>
@@ -18046,7 +18121,7 @@
       <c r="P277" s="38"/>
       <c r="Q277" s="27"/>
     </row>
-    <row r="278" spans="1:17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A278" s="2">
         <v>800</v>
       </c>
@@ -18085,7 +18160,7 @@
       <c r="P278" s="38"/>
       <c r="Q278" s="27"/>
     </row>
-    <row r="279" spans="1:17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A279" s="2">
         <v>800</v>
       </c>
@@ -18126,7 +18201,7 @@
       <c r="P279" s="38"/>
       <c r="Q279" s="27"/>
     </row>
-    <row r="280" spans="1:17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A280" s="2">
         <v>800</v>
       </c>
@@ -18163,7 +18238,7 @@
       <c r="P280" s="38"/>
       <c r="Q280" s="27"/>
     </row>
-    <row r="281" spans="1:17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A281" s="2">
         <v>800</v>
       </c>
@@ -18200,7 +18275,7 @@
       <c r="P281" s="38"/>
       <c r="Q281" s="27"/>
     </row>
-    <row r="282" spans="1:17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A282" s="2">
         <v>800</v>
       </c>
@@ -18243,7 +18318,7 @@
       <c r="P282" s="38"/>
       <c r="Q282" s="27"/>
     </row>
-    <row r="283" spans="1:17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A283" s="2">
         <v>800</v>
       </c>
@@ -18286,7 +18361,7 @@
       <c r="P283" s="38"/>
       <c r="Q283" s="27"/>
     </row>
-    <row r="284" spans="1:17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A284" s="2">
         <v>800</v>
       </c>
@@ -18329,7 +18404,7 @@
       <c r="P284" s="38"/>
       <c r="Q284" s="27"/>
     </row>
-    <row r="285" spans="1:17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A285" s="2">
         <v>800</v>
       </c>
@@ -18372,7 +18447,7 @@
       <c r="P285" s="38"/>
       <c r="Q285" s="27"/>
     </row>
-    <row r="286" spans="1:17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A286" s="2">
         <v>800</v>
       </c>
@@ -18415,7 +18490,7 @@
       <c r="P286" s="38"/>
       <c r="Q286" s="27"/>
     </row>
-    <row r="287" spans="1:17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A287" s="2">
         <v>800</v>
       </c>
@@ -18458,7 +18533,7 @@
       <c r="P287" s="38"/>
       <c r="Q287" s="27"/>
     </row>
-    <row r="288" spans="1:17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A288" s="2">
         <v>800</v>
       </c>
@@ -18501,7 +18576,7 @@
       <c r="P288" s="38"/>
       <c r="Q288" s="27"/>
     </row>
-    <row r="289" spans="1:17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A289" s="2">
         <v>800</v>
       </c>
@@ -18538,7 +18613,7 @@
       <c r="P289" s="38"/>
       <c r="Q289" s="27"/>
     </row>
-    <row r="290" spans="1:17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A290" s="2">
         <v>800</v>
       </c>
@@ -18575,7 +18650,7 @@
       <c r="P290" s="38"/>
       <c r="Q290" s="27"/>
     </row>
-    <row r="291" spans="1:17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A291" s="2">
         <v>800</v>
       </c>
@@ -18612,7 +18687,7 @@
       <c r="P291" s="38"/>
       <c r="Q291" s="27"/>
     </row>
-    <row r="292" spans="1:17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A292" s="2">
         <v>800</v>
       </c>
@@ -18651,7 +18726,7 @@
       <c r="P292" s="38"/>
       <c r="Q292" s="27"/>
     </row>
-    <row r="293" spans="1:17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A293" s="2">
         <v>800</v>
       </c>
@@ -18690,7 +18765,7 @@
       <c r="P293" s="38"/>
       <c r="Q293" s="27"/>
     </row>
-    <row r="294" spans="1:17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A294" s="2">
         <v>800</v>
       </c>
@@ -18729,7 +18804,7 @@
       <c r="P294" s="38"/>
       <c r="Q294" s="27"/>
     </row>
-    <row r="295" spans="1:17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A295" s="2">
         <v>800</v>
       </c>
@@ -18768,7 +18843,7 @@
       <c r="P295" s="38"/>
       <c r="Q295" s="27"/>
     </row>
-    <row r="296" spans="1:17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A296" s="2">
         <v>800</v>
       </c>
@@ -18807,7 +18882,7 @@
       <c r="P296" s="38"/>
       <c r="Q296" s="27"/>
     </row>
-    <row r="297" spans="1:17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A297" s="2">
         <v>800</v>
       </c>
@@ -18846,7 +18921,7 @@
       <c r="P297" s="38"/>
       <c r="Q297" s="27"/>
     </row>
-    <row r="298" spans="1:17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A298" s="2">
         <v>800</v>
       </c>
@@ -18885,7 +18960,7 @@
       <c r="P298" s="38"/>
       <c r="Q298" s="27"/>
     </row>
-    <row r="299" spans="1:17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A299" s="2">
         <v>800</v>
       </c>
@@ -18924,7 +18999,7 @@
       <c r="P299" s="38"/>
       <c r="Q299" s="27"/>
     </row>
-    <row r="300" spans="1:17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A300" s="2">
         <v>800</v>
       </c>
@@ -18963,7 +19038,7 @@
       <c r="P300" s="38"/>
       <c r="Q300" s="27"/>
     </row>
-    <row r="301" spans="1:17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A301" s="2">
         <v>800</v>
       </c>
@@ -18996,11 +19071,13 @@
         <v>0</v>
       </c>
       <c r="N301" s="28"/>
-      <c r="O301" s="28"/>
+      <c r="O301" s="28">
+        <v>0.9</v>
+      </c>
       <c r="P301" s="38"/>
       <c r="Q301" s="27"/>
     </row>
-    <row r="302" spans="1:17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A302" s="2">
         <v>800</v>
       </c>
@@ -19037,7 +19114,7 @@
       <c r="P302" s="38"/>
       <c r="Q302" s="27"/>
     </row>
-    <row r="303" spans="1:17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A303" s="2">
         <v>800</v>
       </c>
@@ -19074,7 +19151,7 @@
       <c r="P303" s="38"/>
       <c r="Q303" s="27"/>
     </row>
-    <row r="304" spans="1:17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A304" s="2">
         <v>800</v>
       </c>
@@ -19113,7 +19190,7 @@
       <c r="P304" s="38"/>
       <c r="Q304" s="27"/>
     </row>
-    <row r="305" spans="1:17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A305" s="2">
         <v>800</v>
       </c>
@@ -19150,7 +19227,7 @@
       <c r="P305" s="38"/>
       <c r="Q305" s="27"/>
     </row>
-    <row r="306" spans="1:17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A306" s="2">
         <v>800</v>
       </c>
@@ -19187,7 +19264,7 @@
       <c r="P306" s="38"/>
       <c r="Q306" s="27"/>
     </row>
-    <row r="307" spans="1:17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A307" s="2">
         <v>800</v>
       </c>
@@ -19224,7 +19301,7 @@
       <c r="P307" s="38"/>
       <c r="Q307" s="27"/>
     </row>
-    <row r="308" spans="1:17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A308" s="2">
         <v>800</v>
       </c>
@@ -19261,7 +19338,7 @@
       <c r="P308" s="38"/>
       <c r="Q308" s="27"/>
     </row>
-    <row r="309" spans="1:17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A309" s="2">
         <v>800</v>
       </c>
@@ -19298,7 +19375,7 @@
       <c r="P309" s="38"/>
       <c r="Q309" s="27"/>
     </row>
-    <row r="310" spans="1:17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A310" s="2">
         <v>800</v>
       </c>
@@ -19335,7 +19412,7 @@
       <c r="P310" s="38"/>
       <c r="Q310" s="27"/>
     </row>
-    <row r="311" spans="1:17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A311" s="2">
         <v>800</v>
       </c>
@@ -19372,7 +19449,7 @@
       <c r="P311" s="38"/>
       <c r="Q311" s="27"/>
     </row>
-    <row r="312" spans="1:17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A312" s="2">
         <v>800</v>
       </c>
@@ -19409,7 +19486,7 @@
       <c r="P312" s="38"/>
       <c r="Q312" s="27"/>
     </row>
-    <row r="313" spans="1:17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A313" s="2">
         <v>800</v>
       </c>
@@ -19446,7 +19523,7 @@
       <c r="P313" s="38"/>
       <c r="Q313" s="27"/>
     </row>
-    <row r="314" spans="1:17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A314" s="2">
         <v>800</v>
       </c>
@@ -19483,7 +19560,7 @@
       <c r="P314" s="38"/>
       <c r="Q314" s="27"/>
     </row>
-    <row r="315" spans="1:17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A315" s="2">
         <v>800</v>
       </c>
@@ -19520,7 +19597,7 @@
       <c r="P315" s="38"/>
       <c r="Q315" s="27"/>
     </row>
-    <row r="316" spans="1:17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A316" s="2">
         <v>800</v>
       </c>
@@ -19557,7 +19634,7 @@
       <c r="P316" s="38"/>
       <c r="Q316" s="27"/>
     </row>
-    <row r="317" spans="1:17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A317" s="2">
         <v>800</v>
       </c>
@@ -19594,7 +19671,7 @@
       <c r="P317" s="38"/>
       <c r="Q317" s="27"/>
     </row>
-    <row r="318" spans="1:17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A318" s="2">
         <v>800</v>
       </c>
@@ -19631,7 +19708,7 @@
       <c r="P318" s="38"/>
       <c r="Q318" s="27"/>
     </row>
-    <row r="319" spans="1:17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A319" s="2">
         <v>800</v>
       </c>
@@ -19668,7 +19745,7 @@
       <c r="P319" s="38"/>
       <c r="Q319" s="27"/>
     </row>
-    <row r="320" spans="1:17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A320" s="2">
         <v>800</v>
       </c>
@@ -19705,7 +19782,7 @@
       <c r="P320" s="38"/>
       <c r="Q320" s="27"/>
     </row>
-    <row r="321" spans="1:17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A321" s="2">
         <v>800</v>
       </c>
@@ -19742,7 +19819,7 @@
       <c r="P321" s="38"/>
       <c r="Q321" s="27"/>
     </row>
-    <row r="322" spans="1:17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A322" s="2">
         <v>800</v>
       </c>
@@ -19779,7 +19856,7 @@
       <c r="P322" s="38"/>
       <c r="Q322" s="27"/>
     </row>
-    <row r="323" spans="1:17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A323" s="2">
         <v>800</v>
       </c>
@@ -19816,7 +19893,7 @@
       <c r="P323" s="38"/>
       <c r="Q323" s="27"/>
     </row>
-    <row r="324" spans="1:17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A324" s="2">
         <v>800</v>
       </c>
@@ -19853,7 +19930,7 @@
       <c r="P324" s="38"/>
       <c r="Q324" s="27"/>
     </row>
-    <row r="325" spans="1:17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A325" s="2">
         <v>800</v>
       </c>
@@ -19890,7 +19967,7 @@
       <c r="P325" s="38"/>
       <c r="Q325" s="27"/>
     </row>
-    <row r="326" spans="1:17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A326" s="2">
         <v>800</v>
       </c>
@@ -19927,7 +20004,7 @@
       <c r="P326" s="38"/>
       <c r="Q326" s="27"/>
     </row>
-    <row r="327" spans="1:17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A327" s="2">
         <v>800</v>
       </c>
@@ -19964,7 +20041,7 @@
       <c r="P327" s="38"/>
       <c r="Q327" s="27"/>
     </row>
-    <row r="328" spans="1:17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A328" s="2">
         <v>800</v>
       </c>
@@ -20001,7 +20078,7 @@
       <c r="P328" s="38"/>
       <c r="Q328" s="27"/>
     </row>
-    <row r="329" spans="1:17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A329" s="2">
         <v>800</v>
       </c>
@@ -20038,7 +20115,7 @@
       <c r="P329" s="38"/>
       <c r="Q329" s="27"/>
     </row>
-    <row r="330" spans="1:17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A330" s="2">
         <v>800</v>
       </c>
@@ -20075,7 +20152,7 @@
       <c r="P330" s="38"/>
       <c r="Q330" s="27"/>
     </row>
-    <row r="331" spans="1:17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A331" s="2">
         <v>800</v>
       </c>
@@ -20112,7 +20189,7 @@
       <c r="P331" s="38"/>
       <c r="Q331" s="27"/>
     </row>
-    <row r="332" spans="1:17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A332" s="2">
         <v>800</v>
       </c>
@@ -20149,7 +20226,7 @@
       <c r="P332" s="38"/>
       <c r="Q332" s="27"/>
     </row>
-    <row r="333" spans="1:17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A333" s="2">
         <v>800</v>
       </c>
@@ -20186,7 +20263,7 @@
       <c r="P333" s="38"/>
       <c r="Q333" s="27"/>
     </row>
-    <row r="334" spans="1:17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A334" s="2">
         <v>800</v>
       </c>
@@ -20223,7 +20300,7 @@
       <c r="P334" s="38"/>
       <c r="Q334" s="27"/>
     </row>
-    <row r="335" spans="1:17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A335" s="2">
         <v>800</v>
       </c>
@@ -20260,7 +20337,7 @@
       <c r="P335" s="38"/>
       <c r="Q335" s="27"/>
     </row>
-    <row r="336" spans="1:17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A336" s="2">
         <v>800</v>
       </c>
@@ -20297,7 +20374,7 @@
       <c r="P336" s="38"/>
       <c r="Q336" s="27"/>
     </row>
-    <row r="337" spans="1:17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A337" s="2">
         <v>800</v>
       </c>
@@ -20334,7 +20411,7 @@
       <c r="P337" s="38"/>
       <c r="Q337" s="27"/>
     </row>
-    <row r="338" spans="1:17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A338" s="2">
         <v>800</v>
       </c>
@@ -20371,7 +20448,7 @@
       <c r="P338" s="38"/>
       <c r="Q338" s="27"/>
     </row>
-    <row r="339" spans="1:17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A339" s="2">
         <v>800</v>
       </c>
@@ -20408,7 +20485,7 @@
       <c r="P339" s="38"/>
       <c r="Q339" s="27"/>
     </row>
-    <row r="340" spans="1:17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A340" s="2">
         <v>800</v>
       </c>
@@ -20445,7 +20522,7 @@
       <c r="P340" s="38"/>
       <c r="Q340" s="27"/>
     </row>
-    <row r="341" spans="1:17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A341" s="2">
         <v>800</v>
       </c>
@@ -20482,7 +20559,7 @@
       <c r="P341" s="38"/>
       <c r="Q341" s="27"/>
     </row>
-    <row r="342" spans="1:17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A342" s="2">
         <v>800</v>
       </c>
@@ -20519,7 +20596,7 @@
       <c r="P342" s="38"/>
       <c r="Q342" s="27"/>
     </row>
-    <row r="343" spans="1:17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A343" s="2">
         <v>800</v>
       </c>
@@ -20556,7 +20633,7 @@
       <c r="P343" s="38"/>
       <c r="Q343" s="27"/>
     </row>
-    <row r="344" spans="1:17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A344" s="2">
         <v>800</v>
       </c>
@@ -20593,7 +20670,7 @@
       <c r="P344" s="38"/>
       <c r="Q344" s="27"/>
     </row>
-    <row r="345" spans="1:17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A345" s="2">
         <v>800</v>
       </c>
@@ -20630,7 +20707,7 @@
       <c r="P345" s="38"/>
       <c r="Q345" s="27"/>
     </row>
-    <row r="346" spans="1:17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A346" s="2">
         <v>800</v>
       </c>
@@ -20667,7 +20744,7 @@
       <c r="P346" s="38"/>
       <c r="Q346" s="27"/>
     </row>
-    <row r="347" spans="1:17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A347" s="2">
         <v>800</v>
       </c>
@@ -20704,7 +20781,7 @@
       <c r="P347" s="38"/>
       <c r="Q347" s="27"/>
     </row>
-    <row r="348" spans="1:17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A348" s="2">
         <v>800</v>
       </c>
@@ -20741,7 +20818,7 @@
       <c r="P348" s="38"/>
       <c r="Q348" s="27"/>
     </row>
-    <row r="349" spans="1:17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A349" s="2">
         <v>800</v>
       </c>
@@ -20778,7 +20855,7 @@
       <c r="P349" s="38"/>
       <c r="Q349" s="27"/>
     </row>
-    <row r="350" spans="1:17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A350" s="2">
         <v>800</v>
       </c>
@@ -20815,7 +20892,7 @@
       <c r="P350" s="38"/>
       <c r="Q350" s="27"/>
     </row>
-    <row r="351" spans="1:17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A351" s="2">
         <v>800</v>
       </c>
@@ -20852,7 +20929,7 @@
       <c r="P351" s="38"/>
       <c r="Q351" s="27"/>
     </row>
-    <row r="352" spans="1:17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A352" s="2">
         <v>800</v>
       </c>
@@ -20889,7 +20966,7 @@
       <c r="P352" s="38"/>
       <c r="Q352" s="27"/>
     </row>
-    <row r="353" spans="1:17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A353" s="2">
         <v>800</v>
       </c>
@@ -20926,7 +21003,7 @@
       <c r="P353" s="38"/>
       <c r="Q353" s="27"/>
     </row>
-    <row r="354" spans="1:17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A354" s="2">
         <v>800</v>
       </c>
@@ -20963,7 +21040,7 @@
       <c r="P354" s="38"/>
       <c r="Q354" s="27"/>
     </row>
-    <row r="355" spans="1:17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A355" s="2">
         <v>800</v>
       </c>
@@ -21000,7 +21077,7 @@
       <c r="P355" s="38"/>
       <c r="Q355" s="27"/>
     </row>
-    <row r="356" spans="1:17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A356" s="2">
         <v>800</v>
       </c>
@@ -21037,7 +21114,7 @@
       <c r="P356" s="38"/>
       <c r="Q356" s="27"/>
     </row>
-    <row r="357" spans="1:17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A357" s="2">
         <v>800</v>
       </c>
@@ -21074,7 +21151,7 @@
       <c r="P357" s="38"/>
       <c r="Q357" s="27"/>
     </row>
-    <row r="358" spans="1:17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A358" s="2">
         <v>800</v>
       </c>
@@ -21111,7 +21188,7 @@
       <c r="P358" s="38"/>
       <c r="Q358" s="27"/>
     </row>
-    <row r="359" spans="1:17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A359" s="2">
         <v>800</v>
       </c>
@@ -21148,7 +21225,7 @@
       <c r="P359" s="38"/>
       <c r="Q359" s="27"/>
     </row>
-    <row r="360" spans="1:17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A360" s="2">
         <v>800</v>
       </c>
@@ -21185,7 +21262,7 @@
       <c r="P360" s="38"/>
       <c r="Q360" s="27"/>
     </row>
-    <row r="361" spans="1:17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A361" s="2">
         <v>800</v>
       </c>
@@ -21222,7 +21299,7 @@
       <c r="P361" s="38"/>
       <c r="Q361" s="27"/>
     </row>
-    <row r="362" spans="1:17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A362" s="2">
         <v>800</v>
       </c>
@@ -21259,7 +21336,7 @@
       <c r="P362" s="38"/>
       <c r="Q362" s="27"/>
     </row>
-    <row r="363" spans="1:17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A363" s="2">
         <v>800</v>
       </c>
@@ -21296,7 +21373,7 @@
       <c r="P363" s="38"/>
       <c r="Q363" s="27"/>
     </row>
-    <row r="364" spans="1:17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A364" s="2">
         <v>800</v>
       </c>
@@ -21333,7 +21410,7 @@
       <c r="P364" s="38"/>
       <c r="Q364" s="27"/>
     </row>
-    <row r="365" spans="1:17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A365" s="2">
         <v>800</v>
       </c>
@@ -21370,7 +21447,7 @@
       <c r="P365" s="38"/>
       <c r="Q365" s="27"/>
     </row>
-    <row r="366" spans="1:17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A366" s="2">
         <v>800</v>
       </c>
@@ -21407,7 +21484,7 @@
       <c r="P366" s="38"/>
       <c r="Q366" s="27"/>
     </row>
-    <row r="367" spans="1:17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A367" s="2">
         <v>800</v>
       </c>
@@ -21444,7 +21521,7 @@
       <c r="P367" s="38"/>
       <c r="Q367" s="27"/>
     </row>
-    <row r="368" spans="1:17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A368" s="2">
         <v>800</v>
       </c>
@@ -21481,7 +21558,7 @@
       <c r="P368" s="38"/>
       <c r="Q368" s="27"/>
     </row>
-    <row r="369" spans="1:17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A369" s="2">
         <v>800</v>
       </c>
@@ -21518,7 +21595,7 @@
       <c r="P369" s="38"/>
       <c r="Q369" s="27"/>
     </row>
-    <row r="370" spans="1:17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A370" s="2">
         <v>800</v>
       </c>
@@ -21555,7 +21632,7 @@
       <c r="P370" s="38"/>
       <c r="Q370" s="27"/>
     </row>
-    <row r="371" spans="1:17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A371" s="2">
         <v>800</v>
       </c>
@@ -21592,7 +21669,7 @@
       <c r="P371" s="38"/>
       <c r="Q371" s="27"/>
     </row>
-    <row r="372" spans="1:17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A372" s="2">
         <v>800</v>
       </c>
@@ -21629,7 +21706,7 @@
       <c r="P372" s="38"/>
       <c r="Q372" s="27"/>
     </row>
-    <row r="373" spans="1:17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A373" s="2">
         <v>800</v>
       </c>
@@ -21666,7 +21743,7 @@
       <c r="P373" s="38"/>
       <c r="Q373" s="27"/>
     </row>
-    <row r="374" spans="1:17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A374" s="2">
         <v>800</v>
       </c>
@@ -21703,7 +21780,7 @@
       <c r="P374" s="38"/>
       <c r="Q374" s="27"/>
     </row>
-    <row r="375" spans="1:17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A375" s="2">
         <v>800</v>
       </c>
@@ -21740,7 +21817,7 @@
       <c r="P375" s="38"/>
       <c r="Q375" s="27"/>
     </row>
-    <row r="376" spans="1:17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A376" s="2">
         <v>800</v>
       </c>
@@ -21777,7 +21854,7 @@
       <c r="P376" s="38"/>
       <c r="Q376" s="27"/>
     </row>
-    <row r="377" spans="1:17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A377" s="2">
         <v>800</v>
       </c>
@@ -21814,7 +21891,7 @@
       <c r="P377" s="38"/>
       <c r="Q377" s="27"/>
     </row>
-    <row r="378" spans="1:17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A378" s="2">
         <v>800</v>
       </c>
@@ -21853,7 +21930,7 @@
       <c r="P378" s="38"/>
       <c r="Q378" s="27"/>
     </row>
-    <row r="379" spans="1:17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A379" s="2">
         <v>800</v>
       </c>
@@ -21890,7 +21967,7 @@
       <c r="P379" s="38"/>
       <c r="Q379" s="27"/>
     </row>
-    <row r="380" spans="1:17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A380" s="2">
         <v>800</v>
       </c>
@@ -21927,7 +22004,7 @@
       <c r="P380" s="38"/>
       <c r="Q380" s="27"/>
     </row>
-    <row r="381" spans="1:17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A381" s="2">
         <v>800</v>
       </c>
@@ -21962,7 +22039,7 @@
       <c r="P381" s="38"/>
       <c r="Q381" s="27"/>
     </row>
-    <row r="382" spans="1:17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A382" s="2">
         <v>800</v>
       </c>
@@ -21999,7 +22076,7 @@
       <c r="P382" s="38"/>
       <c r="Q382" s="27"/>
     </row>
-    <row r="383" spans="1:17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A383" s="2">
         <v>800</v>
       </c>
@@ -22042,7 +22119,7 @@
       <c r="P383" s="38"/>
       <c r="Q383" s="27"/>
     </row>
-    <row r="384" spans="1:17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A384" s="2">
         <v>800</v>
       </c>
@@ -22085,7 +22162,7 @@
       <c r="P384" s="38"/>
       <c r="Q384" s="27"/>
     </row>
-    <row r="385" spans="1:17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A385" s="2">
         <v>800</v>
       </c>
@@ -22128,7 +22205,7 @@
       <c r="P385" s="38"/>
       <c r="Q385" s="27"/>
     </row>
-    <row r="386" spans="1:17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A386" s="2">
         <v>800</v>
       </c>
@@ -22171,7 +22248,7 @@
       <c r="P386" s="38"/>
       <c r="Q386" s="27"/>
     </row>
-    <row r="387" spans="1:17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A387" s="2">
         <v>800</v>
       </c>
@@ -22210,7 +22287,7 @@
       <c r="P387" s="38"/>
       <c r="Q387" s="27"/>
     </row>
-    <row r="388" spans="1:17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A388" s="2">
         <v>800</v>
       </c>
@@ -22247,7 +22324,7 @@
       <c r="P388" s="38"/>
       <c r="Q388" s="27"/>
     </row>
-    <row r="389" spans="1:17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A389" s="2">
         <v>800</v>
       </c>
@@ -22284,7 +22361,7 @@
       <c r="P389" s="38"/>
       <c r="Q389" s="27"/>
     </row>
-    <row r="390" spans="1:17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A390" s="2">
         <v>800</v>
       </c>
@@ -22321,7 +22398,7 @@
       <c r="P390" s="38"/>
       <c r="Q390" s="27"/>
     </row>
-    <row r="391" spans="1:17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A391" s="2">
         <v>800</v>
       </c>
@@ -22358,7 +22435,7 @@
       <c r="P391" s="38"/>
       <c r="Q391" s="27"/>
     </row>
-    <row r="392" spans="1:17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A392" s="2">
         <v>800</v>
       </c>
@@ -22399,7 +22476,7 @@
       <c r="P392" s="38"/>
       <c r="Q392" s="27"/>
     </row>
-    <row r="393" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A393" s="30">
         <v>900</v>
       </c>
@@ -22446,7 +22523,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="394" spans="1:17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A394" s="2">
         <v>900</v>
       </c>
@@ -22495,7 +22572,7 @@
       <c r="P394" s="38"/>
       <c r="Q394" s="27"/>
     </row>
-    <row r="395" spans="1:17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A395" s="2">
         <v>900</v>
       </c>
@@ -22544,7 +22621,7 @@
       <c r="P395" s="38"/>
       <c r="Q395" s="27"/>
     </row>
-    <row r="396" spans="1:17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A396" s="2">
         <v>900</v>
       </c>
@@ -22585,7 +22662,7 @@
       <c r="P396" s="38"/>
       <c r="Q396" s="27"/>
     </row>
-    <row r="397" spans="1:17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A397" s="2">
         <v>900</v>
       </c>
@@ -22626,7 +22703,7 @@
       <c r="P397" s="38"/>
       <c r="Q397" s="27"/>
     </row>
-    <row r="398" spans="1:17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A398" s="2">
         <v>900</v>
       </c>
@@ -22663,7 +22740,7 @@
       <c r="P398" s="38"/>
       <c r="Q398" s="27"/>
     </row>
-    <row r="399" spans="1:17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A399" s="2">
         <v>900</v>
       </c>
@@ -22704,7 +22781,7 @@
       <c r="P399" s="38"/>
       <c r="Q399" s="27"/>
     </row>
-    <row r="400" spans="1:17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A400" s="2">
         <v>900</v>
       </c>
@@ -22753,7 +22830,7 @@
       <c r="P400" s="38"/>
       <c r="Q400" s="27"/>
     </row>
-    <row r="401" spans="1:17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="401" spans="1:17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A401" s="2">
         <v>900</v>
       </c>
@@ -22802,7 +22879,7 @@
       <c r="P401" s="38"/>
       <c r="Q401" s="27"/>
     </row>
-    <row r="402" spans="1:17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="402" spans="1:17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A402" s="2">
         <v>900</v>
       </c>
@@ -22851,7 +22928,7 @@
       <c r="P402" s="38"/>
       <c r="Q402" s="27"/>
     </row>
-    <row r="403" spans="1:17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="403" spans="1:17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A403" s="2">
         <v>900</v>
       </c>
@@ -22892,7 +22969,7 @@
       <c r="P403" s="38"/>
       <c r="Q403" s="27"/>
     </row>
-    <row r="404" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="404" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A404" s="30">
         <v>900</v>
       </c>
@@ -22926,7 +23003,7 @@
       <c r="N404" s="28"/>
       <c r="O404" s="28"/>
     </row>
-    <row r="405" spans="1:17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="405" spans="1:17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A405" s="2">
         <v>900</v>
       </c>
@@ -22963,7 +23040,7 @@
       <c r="P405" s="38"/>
       <c r="Q405" s="27"/>
     </row>
-    <row r="406" spans="1:17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="406" spans="1:17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A406" s="2">
         <v>900</v>
       </c>
@@ -23012,7 +23089,7 @@
       <c r="P406" s="38"/>
       <c r="Q406" s="27"/>
     </row>
-    <row r="407" spans="1:17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="407" spans="1:17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A407" s="2">
         <v>900</v>
       </c>
@@ -23053,7 +23130,7 @@
       <c r="P407" s="38"/>
       <c r="Q407" s="27"/>
     </row>
-    <row r="408" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="408" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A408" s="30">
         <v>900</v>
       </c>
@@ -23098,7 +23175,7 @@
       <c r="N408" s="28"/>
       <c r="O408" s="28"/>
     </row>
-    <row r="409" spans="1:17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="409" spans="1:17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A409" s="2">
         <v>900</v>
       </c>
@@ -23139,7 +23216,7 @@
       <c r="P409" s="38"/>
       <c r="Q409" s="27"/>
     </row>
-    <row r="410" spans="1:17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="410" spans="1:17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A410" s="2">
         <v>900</v>
       </c>
@@ -23176,7 +23253,7 @@
       <c r="P410" s="38"/>
       <c r="Q410" s="27"/>
     </row>
-    <row r="411" spans="1:17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="411" spans="1:17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A411" s="2">
         <v>900</v>
       </c>
@@ -23215,7 +23292,7 @@
       <c r="P411" s="38"/>
       <c r="Q411" s="27"/>
     </row>
-    <row r="412" spans="1:17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="412" spans="1:17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A412" s="2">
         <v>900</v>
       </c>
@@ -23256,7 +23333,7 @@
       <c r="P412" s="38"/>
       <c r="Q412" s="27"/>
     </row>
-    <row r="413" spans="1:17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="413" spans="1:17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A413" s="2">
         <v>900</v>
       </c>
@@ -23305,7 +23382,7 @@
       <c r="P413" s="38"/>
       <c r="Q413" s="27"/>
     </row>
-    <row r="414" spans="1:17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="414" spans="1:17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A414" s="2">
         <v>900</v>
       </c>
@@ -23354,7 +23431,7 @@
       <c r="P414" s="38"/>
       <c r="Q414" s="27"/>
     </row>
-    <row r="415" spans="1:17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="415" spans="1:17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A415" s="2">
         <v>900</v>
       </c>
@@ -23395,7 +23472,7 @@
       <c r="P415" s="38"/>
       <c r="Q415" s="27"/>
     </row>
-    <row r="416" spans="1:17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="416" spans="1:17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A416" s="2">
         <v>900</v>
       </c>
@@ -23438,11 +23515,13 @@
         <v>1</v>
       </c>
       <c r="N416" s="28"/>
-      <c r="O416" s="28"/>
+      <c r="O416" s="28">
+        <v>1</v>
+      </c>
       <c r="P416" s="38"/>
       <c r="Q416" s="27"/>
     </row>
-    <row r="417" spans="1:17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="417" spans="1:17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A417" s="2">
         <v>900</v>
       </c>
@@ -23479,7 +23558,7 @@
       <c r="P417" s="38"/>
       <c r="Q417" s="27"/>
     </row>
-    <row r="418" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="418" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A418" s="30">
         <v>900</v>
       </c>
@@ -23516,7 +23595,7 @@
       <c r="N418" s="28"/>
       <c r="O418" s="28"/>
     </row>
-    <row r="419" spans="1:17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="419" spans="1:17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A419" s="2">
         <v>900</v>
       </c>
@@ -23555,7 +23634,7 @@
       <c r="P419" s="38"/>
       <c r="Q419" s="27"/>
     </row>
-    <row r="420" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="420" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A420" s="30">
         <v>900</v>
       </c>
@@ -23592,7 +23671,7 @@
       <c r="N420" s="28"/>
       <c r="O420" s="28"/>
     </row>
-    <row r="421" spans="1:17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="421" spans="1:17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A421" s="2">
         <v>900</v>
       </c>
@@ -23635,7 +23714,7 @@
       <c r="P421" s="38"/>
       <c r="Q421" s="27"/>
     </row>
-    <row r="422" spans="1:17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="422" spans="1:17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A422" s="2">
         <v>900</v>
       </c>
@@ -23678,7 +23757,7 @@
       <c r="P422" s="38"/>
       <c r="Q422" s="27"/>
     </row>
-    <row r="423" spans="1:17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="423" spans="1:17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A423" s="2">
         <v>900</v>
       </c>
@@ -23721,7 +23800,7 @@
       <c r="P423" s="38"/>
       <c r="Q423" s="27"/>
     </row>
-    <row r="424" spans="1:17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="424" spans="1:17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A424" s="2">
         <v>900</v>
       </c>
@@ -23764,7 +23843,7 @@
       <c r="P424" s="38"/>
       <c r="Q424" s="27"/>
     </row>
-    <row r="425" spans="1:17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="425" spans="1:17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A425" s="2">
         <v>900</v>
       </c>
@@ -23807,7 +23886,7 @@
       <c r="P425" s="38"/>
       <c r="Q425" s="27"/>
     </row>
-    <row r="426" spans="1:17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="426" spans="1:17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A426" s="2">
         <v>900</v>
       </c>
@@ -23850,7 +23929,7 @@
       <c r="P426" s="38"/>
       <c r="Q426" s="27"/>
     </row>
-    <row r="427" spans="1:17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="427" spans="1:17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A427" s="2">
         <v>900</v>
       </c>
@@ -23893,7 +23972,7 @@
       <c r="P427" s="38"/>
       <c r="Q427" s="27"/>
     </row>
-    <row r="428" spans="1:17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="428" spans="1:17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A428" s="2">
         <v>900</v>
       </c>
@@ -23936,7 +24015,7 @@
       <c r="P428" s="38"/>
       <c r="Q428" s="27"/>
     </row>
-    <row r="429" spans="1:17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="429" spans="1:17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A429" s="2">
         <v>900</v>
       </c>
@@ -23979,7 +24058,7 @@
       <c r="P429" s="38"/>
       <c r="Q429" s="27"/>
     </row>
-    <row r="430" spans="1:17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="430" spans="1:17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A430" s="2">
         <v>900</v>
       </c>
@@ -24022,7 +24101,7 @@
       <c r="P430" s="38"/>
       <c r="Q430" s="27"/>
     </row>
-    <row r="431" spans="1:17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="431" spans="1:17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A431" s="2">
         <v>900</v>
       </c>
@@ -24059,7 +24138,7 @@
       <c r="P431" s="38"/>
       <c r="Q431" s="27"/>
     </row>
-    <row r="432" spans="1:17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="432" spans="1:17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A432" s="2">
         <v>900</v>
       </c>
@@ -24098,7 +24177,7 @@
       <c r="P432" s="38"/>
       <c r="Q432" s="27"/>
     </row>
-    <row r="433" spans="1:17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="433" spans="1:17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A433" s="2">
         <v>900</v>
       </c>
@@ -24137,7 +24216,7 @@
       <c r="P433" s="38"/>
       <c r="Q433" s="27"/>
     </row>
-    <row r="434" spans="1:17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="434" spans="1:17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A434" s="2">
         <v>900</v>
       </c>
@@ -24176,7 +24255,7 @@
       <c r="P434" s="38"/>
       <c r="Q434" s="27"/>
     </row>
-    <row r="435" spans="1:17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="435" spans="1:17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A435" s="2">
         <v>900</v>
       </c>
@@ -24215,7 +24294,7 @@
       <c r="P435" s="38"/>
       <c r="Q435" s="27"/>
     </row>
-    <row r="436" spans="1:17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="436" spans="1:17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A436" s="2">
         <v>900</v>
       </c>
@@ -24254,7 +24333,7 @@
       <c r="P436" s="38"/>
       <c r="Q436" s="27"/>
     </row>
-    <row r="437" spans="1:17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="437" spans="1:17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A437" s="2">
         <v>900</v>
       </c>
@@ -24291,7 +24370,7 @@
       <c r="P437" s="38"/>
       <c r="Q437" s="27"/>
     </row>
-    <row r="438" spans="1:17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="438" spans="1:17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A438" s="2">
         <v>900</v>
       </c>
@@ -24340,7 +24419,7 @@
       <c r="P438" s="38"/>
       <c r="Q438" s="27"/>
     </row>
-    <row r="439" spans="1:17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="439" spans="1:17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A439" s="2">
         <v>900</v>
       </c>
@@ -24389,7 +24468,7 @@
       <c r="P439" s="38"/>
       <c r="Q439" s="27"/>
     </row>
-    <row r="440" spans="1:17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="440" spans="1:17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A440" s="2">
         <v>900</v>
       </c>
@@ -24438,7 +24517,7 @@
       <c r="P440" s="38"/>
       <c r="Q440" s="27"/>
     </row>
-    <row r="441" spans="1:17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="441" spans="1:17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A441" s="2">
         <v>900</v>
       </c>
@@ -24487,7 +24566,7 @@
       <c r="P441" s="38"/>
       <c r="Q441" s="27"/>
     </row>
-    <row r="442" spans="1:17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="442" spans="1:17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A442" s="2">
         <v>900</v>
       </c>
@@ -24536,7 +24615,7 @@
       <c r="P442" s="38"/>
       <c r="Q442" s="27"/>
     </row>
-    <row r="443" spans="1:17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="443" spans="1:17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A443" s="2">
         <v>900</v>
       </c>
@@ -24585,7 +24664,7 @@
       <c r="P443" s="38"/>
       <c r="Q443" s="27"/>
     </row>
-    <row r="444" spans="1:17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="444" spans="1:17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A444" s="2">
         <v>900</v>
       </c>
@@ -24634,7 +24713,7 @@
       <c r="P444" s="38"/>
       <c r="Q444" s="27"/>
     </row>
-    <row r="445" spans="1:17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="445" spans="1:17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A445" s="2">
         <v>900</v>
       </c>
@@ -24683,7 +24762,7 @@
       <c r="P445" s="38"/>
       <c r="Q445" s="27"/>
     </row>
-    <row r="446" spans="1:17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="446" spans="1:17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A446" s="2">
         <v>900</v>
       </c>
@@ -24732,7 +24811,7 @@
       <c r="P446" s="38"/>
       <c r="Q446" s="27"/>
     </row>
-    <row r="447" spans="1:17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="447" spans="1:17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A447" s="2">
         <v>900</v>
       </c>
@@ -24781,7 +24860,7 @@
       <c r="P447" s="38"/>
       <c r="Q447" s="27"/>
     </row>
-    <row r="448" spans="1:17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="448" spans="1:17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A448" s="2">
         <v>900</v>
       </c>
@@ -24830,7 +24909,7 @@
       <c r="P448" s="38"/>
       <c r="Q448" s="27"/>
     </row>
-    <row r="449" spans="1:17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="449" spans="1:17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A449" s="2">
         <v>900</v>
       </c>
@@ -24879,7 +24958,7 @@
       <c r="P449" s="38"/>
       <c r="Q449" s="27"/>
     </row>
-    <row r="450" spans="1:17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="450" spans="1:17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A450" s="2">
         <v>900</v>
       </c>
@@ -24928,7 +25007,7 @@
       <c r="P450" s="38"/>
       <c r="Q450" s="27"/>
     </row>
-    <row r="451" spans="1:17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="451" spans="1:17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A451" s="2">
         <v>900</v>
       </c>
@@ -24977,7 +25056,7 @@
       <c r="P451" s="38"/>
       <c r="Q451" s="27"/>
     </row>
-    <row r="452" spans="1:17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="452" spans="1:17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A452" s="2">
         <v>900</v>
       </c>
@@ -25014,7 +25093,7 @@
       <c r="P452" s="38"/>
       <c r="Q452" s="27"/>
     </row>
-    <row r="453" spans="1:17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="453" spans="1:17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A453" s="2">
         <v>900</v>
       </c>
@@ -25051,7 +25130,7 @@
       <c r="P453" s="38"/>
       <c r="Q453" s="27"/>
     </row>
-    <row r="454" spans="1:17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="454" spans="1:17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A454" s="2">
         <v>900</v>
       </c>
@@ -25088,7 +25167,7 @@
       <c r="P454" s="38"/>
       <c r="Q454" s="27"/>
     </row>
-    <row r="455" spans="1:17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="455" spans="1:17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A455" s="2">
         <v>900</v>
       </c>
@@ -25125,7 +25204,7 @@
       <c r="P455" s="38"/>
       <c r="Q455" s="27"/>
     </row>
-    <row r="456" spans="1:17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="456" spans="1:17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A456" s="2">
         <v>900</v>
       </c>
@@ -25162,7 +25241,7 @@
       <c r="P456" s="38"/>
       <c r="Q456" s="27"/>
     </row>
-    <row r="457" spans="1:17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="457" spans="1:17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A457" s="2">
         <v>900</v>
       </c>
@@ -25199,7 +25278,7 @@
       <c r="P457" s="38"/>
       <c r="Q457" s="27"/>
     </row>
-    <row r="458" spans="1:17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="458" spans="1:17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A458" s="2">
         <v>900</v>
       </c>
@@ -25238,7 +25317,7 @@
       <c r="P458" s="38"/>
       <c r="Q458" s="27"/>
     </row>
-    <row r="459" spans="1:17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="459" spans="1:17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A459" s="2">
         <v>900</v>
       </c>
@@ -25277,7 +25356,7 @@
       <c r="P459" s="38"/>
       <c r="Q459" s="27"/>
     </row>
-    <row r="460" spans="1:17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="460" spans="1:17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A460" s="2">
         <v>900</v>
       </c>
@@ -25316,7 +25395,7 @@
       <c r="P460" s="38"/>
       <c r="Q460" s="27"/>
     </row>
-    <row r="461" spans="1:17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="461" spans="1:17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A461" s="2">
         <v>900</v>
       </c>
@@ -25355,7 +25434,7 @@
       <c r="P461" s="38"/>
       <c r="Q461" s="27"/>
     </row>
-    <row r="462" spans="1:17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="462" spans="1:17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A462" s="2">
         <v>900</v>
       </c>
@@ -25394,7 +25473,7 @@
       <c r="P462" s="38"/>
       <c r="Q462" s="27"/>
     </row>
-    <row r="463" spans="1:17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="463" spans="1:17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A463" s="2">
         <v>900</v>
       </c>
@@ -25433,7 +25512,7 @@
       <c r="P463" s="38"/>
       <c r="Q463" s="27"/>
     </row>
-    <row r="464" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="464" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A464" s="30">
         <v>900</v>
       </c>
@@ -25480,7 +25559,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="465" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="465" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A465" s="30">
         <v>900</v>
       </c>
@@ -25527,7 +25606,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="466" spans="1:17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="466" spans="1:17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A466" s="2">
         <v>900</v>
       </c>
@@ -25564,7 +25643,7 @@
       <c r="P466" s="38"/>
       <c r="Q466" s="27"/>
     </row>
-    <row r="467" spans="1:17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="467" spans="1:17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A467" s="2">
         <v>900</v>
       </c>
@@ -25601,7 +25680,7 @@
       <c r="P467" s="38"/>
       <c r="Q467" s="27"/>
     </row>
-    <row r="468" spans="1:17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="468" spans="1:17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A468" s="2">
         <v>900</v>
       </c>
@@ -25638,7 +25717,7 @@
       <c r="P468" s="38"/>
       <c r="Q468" s="27"/>
     </row>
-    <row r="469" spans="1:17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="469" spans="1:17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A469" s="2">
         <v>900</v>
       </c>
@@ -25675,7 +25754,7 @@
       <c r="P469" s="38"/>
       <c r="Q469" s="27"/>
     </row>
-    <row r="470" spans="1:17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="470" spans="1:17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A470" s="2">
         <v>900</v>
       </c>
@@ -25712,7 +25791,7 @@
       <c r="P470" s="38"/>
       <c r="Q470" s="27"/>
     </row>
-    <row r="471" spans="1:17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="471" spans="1:17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A471" s="2">
         <v>900</v>
       </c>
@@ -25749,7 +25828,7 @@
       <c r="P471" s="38"/>
       <c r="Q471" s="27"/>
     </row>
-    <row r="472" spans="1:17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="472" spans="1:17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A472" s="2">
         <v>900</v>
       </c>
@@ -25786,7 +25865,7 @@
       <c r="P472" s="38"/>
       <c r="Q472" s="27"/>
     </row>
-    <row r="473" spans="1:17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="473" spans="1:17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A473" s="2">
         <v>900</v>
       </c>
@@ -25819,11 +25898,13 @@
         <v>0</v>
       </c>
       <c r="N473" s="28"/>
-      <c r="O473" s="28"/>
+      <c r="O473" s="28">
+        <v>0.9</v>
+      </c>
       <c r="P473" s="38"/>
       <c r="Q473" s="27"/>
     </row>
-    <row r="474" spans="1:17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="474" spans="1:17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A474" s="2">
         <v>900</v>
       </c>
@@ -25866,11 +25947,13 @@
         <v>1</v>
       </c>
       <c r="N474" s="28"/>
-      <c r="O474" s="28"/>
+      <c r="O474" s="28">
+        <v>1</v>
+      </c>
       <c r="P474" s="38"/>
       <c r="Q474" s="27"/>
     </row>
-    <row r="475" spans="1:17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="475" spans="1:17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A475" s="2">
         <v>900</v>
       </c>
@@ -25905,11 +25988,13 @@
         <v>0.45</v>
       </c>
       <c r="N475" s="28"/>
-      <c r="O475" s="28"/>
+      <c r="O475" s="28">
+        <v>1</v>
+      </c>
       <c r="P475" s="38"/>
       <c r="Q475" s="27"/>
     </row>
-    <row r="476" spans="1:17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="476" spans="1:17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A476" s="2">
         <v>900</v>
       </c>
@@ -25952,7 +26037,7 @@
       <c r="P476" s="38"/>
       <c r="Q476" s="27"/>
     </row>
-    <row r="477" spans="1:17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="477" spans="1:17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A477" s="2">
         <v>900</v>
       </c>
@@ -25995,7 +26080,7 @@
       <c r="P477" s="38"/>
       <c r="Q477" s="27"/>
     </row>
-    <row r="478" spans="1:17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="478" spans="1:17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A478" s="2">
         <v>900</v>
       </c>
@@ -26034,7 +26119,7 @@
       <c r="P478" s="38"/>
       <c r="Q478" s="27"/>
     </row>
-    <row r="479" spans="1:17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="479" spans="1:17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A479" s="2">
         <v>900</v>
       </c>
@@ -26073,7 +26158,7 @@
       <c r="P479" s="38"/>
       <c r="Q479" s="27"/>
     </row>
-    <row r="480" spans="1:17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="480" spans="1:17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A480" s="2">
         <v>900</v>
       </c>
@@ -26112,7 +26197,7 @@
       <c r="P480" s="38"/>
       <c r="Q480" s="27"/>
     </row>
-    <row r="481" spans="1:17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="481" spans="1:17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A481" s="2">
         <v>900</v>
       </c>
@@ -26149,7 +26234,7 @@
       <c r="P481" s="38"/>
       <c r="Q481" s="27"/>
     </row>
-    <row r="482" spans="1:17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="482" spans="1:17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A482" s="2">
         <v>900</v>
       </c>
@@ -26198,7 +26283,7 @@
       <c r="P482" s="38"/>
       <c r="Q482" s="27"/>
     </row>
-    <row r="483" spans="1:17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="483" spans="1:17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A483" s="2">
         <v>900</v>
       </c>
@@ -26247,7 +26332,7 @@
       <c r="P483" s="38"/>
       <c r="Q483" s="27"/>
     </row>
-    <row r="484" spans="1:17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="484" spans="1:17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A484" s="2">
         <v>900</v>
       </c>
@@ -26296,7 +26381,7 @@
       <c r="P484" s="38"/>
       <c r="Q484" s="27"/>
     </row>
-    <row r="485" spans="1:17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="485" spans="1:17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A485" s="2">
         <v>900</v>
       </c>
@@ -26345,7 +26430,7 @@
       <c r="P485" s="38"/>
       <c r="Q485" s="27"/>
     </row>
-    <row r="486" spans="1:17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="486" spans="1:17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A486" s="2">
         <v>900</v>
       </c>
@@ -26382,7 +26467,7 @@
       <c r="P486" s="38"/>
       <c r="Q486" s="27"/>
     </row>
-    <row r="487" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="487" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A487" s="30">
         <v>900</v>
       </c>
@@ -26419,7 +26504,7 @@
       <c r="N487" s="28"/>
       <c r="O487" s="28"/>
     </row>
-    <row r="488" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="488" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A488" s="30">
         <v>900</v>
       </c>
@@ -26456,7 +26541,7 @@
       <c r="N488" s="28"/>
       <c r="O488" s="28"/>
     </row>
-    <row r="489" spans="1:17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="489" spans="1:17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A489" s="2">
         <v>900</v>
       </c>
@@ -26495,7 +26580,7 @@
       <c r="P489" s="38"/>
       <c r="Q489" s="27"/>
     </row>
-    <row r="490" spans="1:17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="490" spans="1:17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A490" s="2">
         <v>900</v>
       </c>
@@ -26534,7 +26619,7 @@
       <c r="P490" s="38"/>
       <c r="Q490" s="27"/>
     </row>
-    <row r="491" spans="1:17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="491" spans="1:17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A491" s="2">
         <v>900</v>
       </c>
@@ -26583,7 +26668,7 @@
       <c r="P491" s="38"/>
       <c r="Q491" s="27"/>
     </row>
-    <row r="492" spans="1:17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="492" spans="1:17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A492" s="2">
         <v>900</v>
       </c>
@@ -26632,7 +26717,7 @@
       <c r="P492" s="38"/>
       <c r="Q492" s="27"/>
     </row>
-    <row r="493" spans="1:17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="493" spans="1:17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A493" s="2">
         <v>900</v>
       </c>
@@ -26675,7 +26760,7 @@
       <c r="P493" s="38"/>
       <c r="Q493" s="27"/>
     </row>
-    <row r="494" spans="1:17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="494" spans="1:17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A494" s="2">
         <v>900</v>
       </c>
@@ -26751,7 +26836,9 @@
         <v>0</v>
       </c>
       <c r="N495" s="28"/>
-      <c r="O495" s="28"/>
+      <c r="O495" s="28">
+        <v>0.9</v>
+      </c>
       <c r="P495" s="38"/>
       <c r="Q495" s="27"/>
     </row>
@@ -26788,7 +26875,9 @@
         <v>0</v>
       </c>
       <c r="N496" s="28"/>
-      <c r="O496" s="28"/>
+      <c r="O496" s="28">
+        <v>0.9</v>
+      </c>
       <c r="P496" s="38"/>
       <c r="Q496" s="27"/>
     </row>
@@ -26825,7 +26914,9 @@
         <v>0</v>
       </c>
       <c r="N497" s="28"/>
-      <c r="O497" s="28"/>
+      <c r="O497" s="28">
+        <v>0.9</v>
+      </c>
       <c r="P497" s="38"/>
       <c r="Q497" s="27"/>
     </row>
@@ -26862,7 +26953,9 @@
         <v>0</v>
       </c>
       <c r="N498" s="28"/>
-      <c r="O498" s="28"/>
+      <c r="O498" s="28">
+        <v>0.9</v>
+      </c>
       <c r="P498" s="38"/>
       <c r="Q498" s="27"/>
     </row>
@@ -26899,7 +26992,9 @@
         <v>0</v>
       </c>
       <c r="N499" s="28"/>
-      <c r="O499" s="28"/>
+      <c r="O499" s="28">
+        <v>0.9</v>
+      </c>
       <c r="P499" s="38"/>
       <c r="Q499" s="27"/>
     </row>
@@ -26936,7 +27031,9 @@
         <v>0</v>
       </c>
       <c r="N500" s="28"/>
-      <c r="O500" s="28"/>
+      <c r="O500" s="28">
+        <v>0.9</v>
+      </c>
       <c r="P500" s="38"/>
       <c r="Q500" s="27"/>
     </row>
@@ -26973,7 +27070,9 @@
         <v>0</v>
       </c>
       <c r="N501" s="28"/>
-      <c r="O501" s="28"/>
+      <c r="O501" s="28">
+        <v>0.9</v>
+      </c>
       <c r="P501" s="38"/>
       <c r="Q501" s="27"/>
     </row>
@@ -27010,7 +27109,9 @@
         <v>0</v>
       </c>
       <c r="N502" s="28"/>
-      <c r="O502" s="28"/>
+      <c r="O502" s="28">
+        <v>0.9</v>
+      </c>
       <c r="P502" s="38"/>
       <c r="Q502" s="27"/>
     </row>
@@ -27047,7 +27148,9 @@
         <v>0</v>
       </c>
       <c r="N503" s="28"/>
-      <c r="O503" s="28"/>
+      <c r="O503" s="28">
+        <v>0.9</v>
+      </c>
       <c r="P503" s="38"/>
       <c r="Q503" s="27"/>
     </row>
@@ -27084,7 +27187,9 @@
         <v>0</v>
       </c>
       <c r="N504" s="28"/>
-      <c r="O504" s="28"/>
+      <c r="O504" s="28">
+        <v>0.9</v>
+      </c>
       <c r="P504" s="38"/>
       <c r="Q504" s="27"/>
     </row>
@@ -27121,7 +27226,9 @@
         <v>0</v>
       </c>
       <c r="N505" s="28"/>
-      <c r="O505" s="28"/>
+      <c r="O505" s="28">
+        <v>0.9</v>
+      </c>
       <c r="P505" s="38"/>
       <c r="Q505" s="27"/>
     </row>
@@ -27158,7 +27265,9 @@
         <v>0</v>
       </c>
       <c r="N506" s="28"/>
-      <c r="O506" s="28"/>
+      <c r="O506" s="28">
+        <v>0.9</v>
+      </c>
       <c r="P506" s="38"/>
       <c r="Q506" s="27"/>
     </row>
@@ -27195,11 +27304,13 @@
         <v>0</v>
       </c>
       <c r="N507" s="28"/>
-      <c r="O507" s="28"/>
+      <c r="O507" s="28">
+        <v>0.9</v>
+      </c>
       <c r="P507" s="38"/>
       <c r="Q507" s="27"/>
     </row>
-    <row r="508" spans="1:17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="508" spans="1:17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A508" s="2">
         <v>1000</v>
       </c>
@@ -27232,11 +27343,13 @@
         <v>0</v>
       </c>
       <c r="N508" s="28"/>
-      <c r="O508" s="28"/>
+      <c r="O508" s="28">
+        <v>0.9</v>
+      </c>
       <c r="P508" s="38"/>
       <c r="Q508" s="27"/>
     </row>
-    <row r="509" spans="1:17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="509" spans="1:17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A509" s="2">
         <v>1000</v>
       </c>
@@ -27269,11 +27382,13 @@
         <v>0</v>
       </c>
       <c r="N509" s="28"/>
-      <c r="O509" s="28"/>
+      <c r="O509" s="28">
+        <v>0.9</v>
+      </c>
       <c r="P509" s="38"/>
       <c r="Q509" s="27"/>
     </row>
-    <row r="510" spans="1:17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="510" spans="1:17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A510" s="2">
         <v>1000</v>
       </c>
@@ -27306,11 +27421,13 @@
         <v>0</v>
       </c>
       <c r="N510" s="28"/>
-      <c r="O510" s="28"/>
+      <c r="O510" s="28">
+        <v>0.9</v>
+      </c>
       <c r="P510" s="38"/>
       <c r="Q510" s="27"/>
     </row>
-    <row r="511" spans="1:17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="511" spans="1:17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A511" s="2">
         <v>1000</v>
       </c>
@@ -27343,11 +27460,13 @@
         <v>0</v>
       </c>
       <c r="N511" s="28"/>
-      <c r="O511" s="28"/>
+      <c r="O511" s="28">
+        <v>0.9</v>
+      </c>
       <c r="P511" s="38"/>
       <c r="Q511" s="27"/>
     </row>
-    <row r="512" spans="1:17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="512" spans="1:17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A512" s="2">
         <v>1000</v>
       </c>
@@ -27380,11 +27499,13 @@
         <v>0</v>
       </c>
       <c r="N512" s="28"/>
-      <c r="O512" s="28"/>
+      <c r="O512" s="28">
+        <v>0.9</v>
+      </c>
       <c r="P512" s="38"/>
       <c r="Q512" s="27"/>
     </row>
-    <row r="513" spans="1:17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="513" spans="1:17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A513" s="2">
         <v>1000</v>
       </c>
@@ -27417,11 +27538,13 @@
         <v>0</v>
       </c>
       <c r="N513" s="28"/>
-      <c r="O513" s="28"/>
+      <c r="O513" s="28">
+        <v>0.9</v>
+      </c>
       <c r="P513" s="38"/>
       <c r="Q513" s="27"/>
     </row>
-    <row r="514" spans="1:17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="514" spans="1:17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A514" s="2">
         <v>1000</v>
       </c>
@@ -27454,11 +27577,13 @@
         <v>0</v>
       </c>
       <c r="N514" s="28"/>
-      <c r="O514" s="28"/>
+      <c r="O514" s="28">
+        <v>0.9</v>
+      </c>
       <c r="P514" s="38"/>
       <c r="Q514" s="27"/>
     </row>
-    <row r="515" spans="1:17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="515" spans="1:17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A515" s="2">
         <v>1000</v>
       </c>
@@ -27495,7 +27620,7 @@
       <c r="P515" s="38"/>
       <c r="Q515" s="27"/>
     </row>
-    <row r="516" spans="1:17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="516" spans="1:17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A516" s="2">
         <v>1000</v>
       </c>
@@ -27532,7 +27657,7 @@
       <c r="P516" s="38"/>
       <c r="Q516" s="27"/>
     </row>
-    <row r="517" spans="1:17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="517" spans="1:17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A517" s="2">
         <v>1000</v>
       </c>
@@ -27569,7 +27694,7 @@
       <c r="P517" s="38"/>
       <c r="Q517" s="27"/>
     </row>
-    <row r="518" spans="1:17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="518" spans="1:17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A518" s="4">
         <v>1100</v>
       </c>
@@ -27604,7 +27729,7 @@
       <c r="P518" s="38"/>
       <c r="Q518" s="27"/>
     </row>
-    <row r="519" spans="1:17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="519" spans="1:17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A519" s="4">
         <v>1300</v>
       </c>
@@ -27641,7 +27766,7 @@
       <c r="P519" s="38"/>
       <c r="Q519" s="27"/>
     </row>
-    <row r="520" spans="1:17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="520" spans="1:17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A520" s="4">
         <v>1300</v>
       </c>
@@ -27684,7 +27809,7 @@
       <c r="P520" s="38"/>
       <c r="Q520" s="27"/>
     </row>
-    <row r="521" spans="1:17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="521" spans="1:17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A521" s="4">
         <v>1300</v>
       </c>
@@ -27727,7 +27852,7 @@
       <c r="P521" s="38"/>
       <c r="Q521" s="27"/>
     </row>
-    <row r="522" spans="1:17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="522" spans="1:17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A522" s="4">
         <v>1300</v>
       </c>
@@ -27764,7 +27889,7 @@
       <c r="P522" s="38"/>
       <c r="Q522" s="27"/>
     </row>
-    <row r="523" spans="1:17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="523" spans="1:17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A523" s="4">
         <v>1300</v>
       </c>
@@ -27801,7 +27926,7 @@
       <c r="P523" s="38"/>
       <c r="Q523" s="27"/>
     </row>
-    <row r="524" spans="1:17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="524" spans="1:17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A524" s="4">
         <v>1300</v>
       </c>
@@ -27838,7 +27963,7 @@
       <c r="P524" s="38"/>
       <c r="Q524" s="27"/>
     </row>
-    <row r="525" spans="1:17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="525" spans="1:17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A525" s="4">
         <v>1300</v>
       </c>
@@ -27875,7 +28000,7 @@
       <c r="P525" s="38"/>
       <c r="Q525" s="27"/>
     </row>
-    <row r="526" spans="1:17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="526" spans="1:17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A526" s="4">
         <v>1300</v>
       </c>
@@ -27912,7 +28037,7 @@
       <c r="P526" s="38"/>
       <c r="Q526" s="27"/>
     </row>
-    <row r="527" spans="1:17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="527" spans="1:17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A527" s="4">
         <v>1300</v>
       </c>
@@ -27949,7 +28074,7 @@
       <c r="P527" s="38"/>
       <c r="Q527" s="27"/>
     </row>
-    <row r="528" spans="1:17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="528" spans="1:17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A528" s="4">
         <v>1300</v>
       </c>
@@ -27986,11 +28111,13 @@
         <v>0.43000000000000005</v>
       </c>
       <c r="N528" s="28"/>
-      <c r="O528" s="28"/>
+      <c r="O528" s="28">
+        <v>1</v>
+      </c>
       <c r="P528" s="38"/>
       <c r="Q528" s="27"/>
     </row>
-    <row r="529" spans="1:17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="529" spans="1:17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A529" s="4">
         <v>1300</v>
       </c>
@@ -28027,11 +28154,13 @@
         <v>0.43000000000000005</v>
       </c>
       <c r="N529" s="28"/>
-      <c r="O529" s="28"/>
+      <c r="O529" s="28">
+        <v>1</v>
+      </c>
       <c r="P529" s="38"/>
       <c r="Q529" s="27"/>
     </row>
-    <row r="530" spans="1:17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="530" spans="1:17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A530" s="4">
         <v>1300</v>
       </c>
@@ -28068,7 +28197,7 @@
       <c r="P530" s="38"/>
       <c r="Q530" s="27"/>
     </row>
-    <row r="531" spans="1:17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="531" spans="1:17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A531" s="4">
         <v>1300</v>
       </c>
@@ -28105,7 +28234,7 @@
       <c r="P531" s="38"/>
       <c r="Q531" s="27"/>
     </row>
-    <row r="532" spans="1:17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="532" spans="1:17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A532" s="4">
         <v>1300</v>
       </c>
@@ -28148,7 +28277,7 @@
       <c r="P532" s="38"/>
       <c r="Q532" s="27"/>
     </row>
-    <row r="533" spans="1:17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="533" spans="1:17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A533" s="4">
         <v>1300</v>
       </c>
@@ -28191,7 +28320,7 @@
       <c r="P533" s="38"/>
       <c r="Q533" s="27"/>
     </row>
-    <row r="534" spans="1:17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="534" spans="1:17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A534" s="4">
         <v>1300</v>
       </c>
@@ -28234,7 +28363,7 @@
       <c r="P534" s="38"/>
       <c r="Q534" s="27"/>
     </row>
-    <row r="535" spans="1:17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="535" spans="1:17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A535" s="4">
         <v>1300</v>
       </c>
@@ -28277,7 +28406,7 @@
       <c r="P535" s="38"/>
       <c r="Q535" s="27"/>
     </row>
-    <row r="536" spans="1:17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="536" spans="1:17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A536" s="4">
         <v>1300</v>
       </c>
@@ -28320,7 +28449,7 @@
       <c r="P536" s="38"/>
       <c r="Q536" s="27"/>
     </row>
-    <row r="537" spans="1:17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="537" spans="1:17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A537" s="4">
         <v>1300</v>
       </c>
@@ -28363,7 +28492,7 @@
       <c r="P537" s="38"/>
       <c r="Q537" s="27"/>
     </row>
-    <row r="538" spans="1:17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="538" spans="1:17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A538" s="4">
         <v>1300</v>
       </c>
@@ -28406,7 +28535,7 @@
       <c r="P538" s="38"/>
       <c r="Q538" s="27"/>
     </row>
-    <row r="539" spans="1:17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="539" spans="1:17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A539" s="4">
         <v>1300</v>
       </c>
@@ -28449,7 +28578,7 @@
       <c r="P539" s="38"/>
       <c r="Q539" s="27"/>
     </row>
-    <row r="540" spans="1:17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="540" spans="1:17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A540" s="4">
         <v>1300</v>
       </c>
@@ -28492,7 +28621,7 @@
       <c r="P540" s="38"/>
       <c r="Q540" s="27"/>
     </row>
-    <row r="541" spans="1:17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="541" spans="1:17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A541" s="4">
         <v>1300</v>
       </c>
@@ -28535,7 +28664,7 @@
       <c r="P541" s="38"/>
       <c r="Q541" s="27"/>
     </row>
-    <row r="542" spans="1:17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="542" spans="1:17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A542" s="4">
         <v>1300</v>
       </c>
@@ -28578,7 +28707,7 @@
       <c r="P542" s="38"/>
       <c r="Q542" s="27"/>
     </row>
-    <row r="543" spans="1:17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="543" spans="1:17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A543" s="4">
         <v>1300</v>
       </c>
@@ -28621,7 +28750,7 @@
       <c r="P543" s="38"/>
       <c r="Q543" s="27"/>
     </row>
-    <row r="544" spans="1:17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="544" spans="1:17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A544" s="4">
         <v>1300</v>
       </c>
@@ -28664,7 +28793,7 @@
       <c r="P544" s="38"/>
       <c r="Q544" s="27"/>
     </row>
-    <row r="545" spans="1:17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="545" spans="1:17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A545" s="4">
         <v>1300</v>
       </c>
@@ -28707,7 +28836,7 @@
       <c r="P545" s="38"/>
       <c r="Q545" s="27"/>
     </row>
-    <row r="546" spans="1:17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="546" spans="1:17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A546" s="4">
         <v>1300</v>
       </c>
@@ -28744,7 +28873,7 @@
       <c r="P546" s="38"/>
       <c r="Q546" s="27"/>
     </row>
-    <row r="547" spans="1:17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="547" spans="1:17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A547" s="4">
         <v>1300</v>
       </c>
@@ -28781,7 +28910,7 @@
       <c r="P547" s="38"/>
       <c r="Q547" s="27"/>
     </row>
-    <row r="548" spans="1:17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="548" spans="1:17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A548" s="4">
         <v>1300</v>
       </c>
@@ -28818,7 +28947,7 @@
       <c r="P548" s="38"/>
       <c r="Q548" s="27"/>
     </row>
-    <row r="549" spans="1:17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="549" spans="1:17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A549" s="4">
         <v>1300</v>
       </c>
@@ -28855,7 +28984,7 @@
       <c r="P549" s="38"/>
       <c r="Q549" s="27"/>
     </row>
-    <row r="550" spans="1:17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="550" spans="1:17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A550" s="4">
         <v>1300</v>
       </c>
@@ -28898,7 +29027,7 @@
       <c r="P550" s="38"/>
       <c r="Q550" s="27"/>
     </row>
-    <row r="551" spans="1:17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="551" spans="1:17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A551" s="4">
         <v>1300</v>
       </c>
@@ -28941,7 +29070,7 @@
       <c r="P551" s="38"/>
       <c r="Q551" s="27"/>
     </row>
-    <row r="552" spans="1:17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="552" spans="1:17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A552" s="4">
         <v>1300</v>
       </c>
@@ -28984,7 +29113,7 @@
       <c r="P552" s="38"/>
       <c r="Q552" s="27"/>
     </row>
-    <row r="553" spans="1:17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="553" spans="1:17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A553" s="4">
         <v>1300</v>
       </c>
@@ -29027,7 +29156,7 @@
       <c r="P553" s="38"/>
       <c r="Q553" s="27"/>
     </row>
-    <row r="554" spans="1:17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="554" spans="1:17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A554" s="4">
         <v>1300</v>
       </c>
@@ -29064,7 +29193,7 @@
       <c r="P554" s="38"/>
       <c r="Q554" s="27"/>
     </row>
-    <row r="555" spans="1:17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="555" spans="1:17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A555" s="4">
         <v>1300</v>
       </c>
@@ -29101,7 +29230,7 @@
       <c r="P555" s="38"/>
       <c r="Q555" s="27"/>
     </row>
-    <row r="556" spans="1:17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="556" spans="1:17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A556" s="4">
         <v>1300</v>
       </c>
@@ -29138,7 +29267,7 @@
       <c r="P556" s="38"/>
       <c r="Q556" s="27"/>
     </row>
-    <row r="557" spans="1:17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="557" spans="1:17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A557" s="4">
         <v>1300</v>
       </c>
@@ -29175,7 +29304,7 @@
       <c r="P557" s="38"/>
       <c r="Q557" s="27"/>
     </row>
-    <row r="558" spans="1:17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="558" spans="1:17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A558" s="4">
         <v>1300</v>
       </c>
@@ -29212,7 +29341,7 @@
       <c r="P558" s="38"/>
       <c r="Q558" s="27"/>
     </row>
-    <row r="559" spans="1:17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="559" spans="1:17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A559" s="4">
         <v>1300</v>
       </c>
@@ -29249,7 +29378,7 @@
       <c r="P559" s="38"/>
       <c r="Q559" s="27"/>
     </row>
-    <row r="560" spans="1:17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="560" spans="1:17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A560" s="4">
         <v>1300</v>
       </c>
@@ -29286,7 +29415,7 @@
       <c r="P560" s="38"/>
       <c r="Q560" s="27"/>
     </row>
-    <row r="561" spans="1:17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="561" spans="1:17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A561" s="4">
         <v>1300</v>
       </c>
@@ -29323,11 +29452,13 @@
         <v>0.6</v>
       </c>
       <c r="N561" s="28"/>
-      <c r="O561" s="28"/>
+      <c r="O561" s="28">
+        <v>1</v>
+      </c>
       <c r="P561" s="38"/>
       <c r="Q561" s="27"/>
     </row>
-    <row r="562" spans="1:17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="562" spans="1:17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A562" s="4">
         <v>1300</v>
       </c>
@@ -29364,11 +29495,13 @@
         <v>0.6</v>
       </c>
       <c r="N562" s="28"/>
-      <c r="O562" s="28"/>
+      <c r="O562" s="28">
+        <v>1</v>
+      </c>
       <c r="P562" s="38"/>
       <c r="Q562" s="27"/>
     </row>
-    <row r="563" spans="1:17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="563" spans="1:17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A563" s="4">
         <v>1300</v>
       </c>
@@ -29405,11 +29538,13 @@
         <v>0.6</v>
       </c>
       <c r="N563" s="28"/>
-      <c r="O563" s="28"/>
+      <c r="O563" s="28">
+        <v>1</v>
+      </c>
       <c r="P563" s="38"/>
       <c r="Q563" s="27"/>
     </row>
-    <row r="564" spans="1:17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="564" spans="1:17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A564" s="4">
         <v>1300</v>
       </c>
@@ -29446,11 +29581,13 @@
         <v>0.6</v>
       </c>
       <c r="N564" s="28"/>
-      <c r="O564" s="28"/>
+      <c r="O564" s="28">
+        <v>1</v>
+      </c>
       <c r="P564" s="38"/>
       <c r="Q564" s="27"/>
     </row>
-    <row r="565" spans="1:17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="565" spans="1:17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A565" s="4">
         <v>1300</v>
       </c>
@@ -29487,7 +29624,7 @@
       <c r="P565" s="38"/>
       <c r="Q565" s="27"/>
     </row>
-    <row r="566" spans="1:17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="566" spans="1:17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A566" s="4">
         <v>1300</v>
       </c>
@@ -29524,7 +29661,7 @@
       <c r="P566" s="38"/>
       <c r="Q566" s="27"/>
     </row>
-    <row r="567" spans="1:17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="567" spans="1:17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A567" s="4">
         <v>1300</v>
       </c>
@@ -29561,7 +29698,7 @@
       <c r="P567" s="38"/>
       <c r="Q567" s="27"/>
     </row>
-    <row r="568" spans="1:17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="568" spans="1:17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A568" s="4">
         <v>1300</v>
       </c>
@@ -29598,7 +29735,7 @@
       <c r="P568" s="38"/>
       <c r="Q568" s="27"/>
     </row>
-    <row r="569" spans="1:17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="569" spans="1:17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A569" s="4">
         <v>1300</v>
       </c>
@@ -29635,7 +29772,7 @@
       <c r="P569" s="38"/>
       <c r="Q569" s="27"/>
     </row>
-    <row r="570" spans="1:17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="570" spans="1:17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A570" s="4">
         <v>1300</v>
       </c>
@@ -29672,7 +29809,7 @@
       <c r="P570" s="38"/>
       <c r="Q570" s="27"/>
     </row>
-    <row r="571" spans="1:17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="571" spans="1:17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A571" s="4">
         <v>1300</v>
       </c>
@@ -29709,7 +29846,7 @@
       <c r="P571" s="38"/>
       <c r="Q571" s="27"/>
     </row>
-    <row r="572" spans="1:17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="572" spans="1:17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A572" s="4">
         <v>1300</v>
       </c>
@@ -29746,7 +29883,7 @@
       <c r="P572" s="38"/>
       <c r="Q572" s="27"/>
     </row>
-    <row r="573" spans="1:17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="573" spans="1:17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A573" s="4">
         <v>1300</v>
       </c>
@@ -29783,7 +29920,7 @@
       <c r="P573" s="38"/>
       <c r="Q573" s="27"/>
     </row>
-    <row r="574" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="574" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A574" s="33">
         <v>1300</v>
       </c>
@@ -29820,9 +29957,11 @@
         <v>0.6</v>
       </c>
       <c r="N574" s="28"/>
-      <c r="O574" s="28"/>
-    </row>
-    <row r="575" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="O574" s="28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="575" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A575" s="33">
         <v>1300</v>
       </c>
@@ -29859,9 +29998,11 @@
         <v>0.6</v>
       </c>
       <c r="N575" s="28"/>
-      <c r="O575" s="28"/>
-    </row>
-    <row r="576" spans="1:17" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="O575" s="28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="576" spans="1:17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A576" s="4">
         <v>1300</v>
       </c>
@@ -29898,7 +30039,7 @@
       <c r="P576" s="38"/>
       <c r="Q576" s="27"/>
     </row>
-    <row r="577" spans="1:17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="577" spans="1:17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A577" s="4">
         <v>1300</v>
       </c>
@@ -29935,7 +30076,7 @@
       <c r="P577" s="38"/>
       <c r="Q577" s="27"/>
     </row>
-    <row r="578" spans="1:17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="578" spans="1:17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A578" s="4">
         <v>1300</v>
       </c>
@@ -29972,7 +30113,7 @@
       <c r="P578" s="38"/>
       <c r="Q578" s="27"/>
     </row>
-    <row r="579" spans="1:17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="579" spans="1:17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A579" s="4">
         <v>1300</v>
       </c>
@@ -30009,7 +30150,7 @@
       <c r="P579" s="38"/>
       <c r="Q579" s="27"/>
     </row>
-    <row r="580" spans="1:17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="580" spans="1:17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A580" s="4">
         <v>1300</v>
       </c>
@@ -30046,7 +30187,7 @@
       <c r="P580" s="38"/>
       <c r="Q580" s="27"/>
     </row>
-    <row r="581" spans="1:17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="581" spans="1:17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A581" s="4">
         <v>1300</v>
       </c>
@@ -30083,7 +30224,7 @@
       <c r="P581" s="38"/>
       <c r="Q581" s="27"/>
     </row>
-    <row r="582" spans="1:17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="582" spans="1:17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A582" s="4">
         <v>1300</v>
       </c>
@@ -30120,7 +30261,7 @@
       <c r="P582" s="38"/>
       <c r="Q582" s="27"/>
     </row>
-    <row r="583" spans="1:17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="583" spans="1:17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A583" s="4">
         <v>1300</v>
       </c>
@@ -30157,7 +30298,7 @@
       <c r="P583" s="38"/>
       <c r="Q583" s="27"/>
     </row>
-    <row r="584" spans="1:17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="584" spans="1:17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A584" s="4">
         <v>1300</v>
       </c>
@@ -30194,7 +30335,7 @@
       <c r="P584" s="38"/>
       <c r="Q584" s="27"/>
     </row>
-    <row r="585" spans="1:17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="585" spans="1:17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A585" s="4">
         <v>1300</v>
       </c>
@@ -30231,7 +30372,7 @@
       <c r="P585" s="38"/>
       <c r="Q585" s="27"/>
     </row>
-    <row r="586" spans="1:17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="586" spans="1:17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A586" s="4">
         <v>1300</v>
       </c>
@@ -30266,7 +30407,7 @@
       <c r="P586" s="38"/>
       <c r="Q586" s="27"/>
     </row>
-    <row r="587" spans="1:17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="587" spans="1:17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A587" s="4">
         <v>1300</v>
       </c>
@@ -30303,7 +30444,7 @@
       <c r="P587" s="38"/>
       <c r="Q587" s="27"/>
     </row>
-    <row r="588" spans="1:17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="588" spans="1:17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A588" s="4">
         <v>1300</v>
       </c>
@@ -30342,7 +30483,7 @@
       <c r="P588" s="38"/>
       <c r="Q588" s="27"/>
     </row>
-    <row r="589" spans="1:17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="589" spans="1:17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A589" s="4">
         <v>1300</v>
       </c>
@@ -30379,7 +30520,7 @@
       <c r="P589" s="38"/>
       <c r="Q589" s="27"/>
     </row>
-    <row r="590" spans="1:17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="590" spans="1:17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A590" s="4">
         <v>1300</v>
       </c>
@@ -30416,7 +30557,7 @@
       <c r="P590" s="38"/>
       <c r="Q590" s="27"/>
     </row>
-    <row r="591" spans="1:17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="591" spans="1:17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A591" s="2">
         <v>1400</v>
       </c>
@@ -30451,7 +30592,7 @@
       <c r="P591" s="38"/>
       <c r="Q591" s="27"/>
     </row>
-    <row r="592" spans="1:17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="592" spans="1:17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A592" s="2">
         <v>1400</v>
       </c>
@@ -30488,7 +30629,7 @@
       <c r="P592" s="38"/>
       <c r="Q592" s="27"/>
     </row>
-    <row r="593" spans="1:17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="593" spans="1:17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A593" s="2">
         <v>1400</v>
       </c>
@@ -30527,7 +30668,7 @@
       <c r="P593" s="38"/>
       <c r="Q593" s="27"/>
     </row>
-    <row r="594" spans="1:17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="594" spans="1:17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A594" s="2">
         <v>1400</v>
       </c>
@@ -30566,7 +30707,7 @@
       <c r="P594" s="38"/>
       <c r="Q594" s="27"/>
     </row>
-    <row r="595" spans="1:17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="595" spans="1:17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A595" s="2">
         <v>1400</v>
       </c>
@@ -30613,15 +30754,33 @@
     <protectedRange sqref="D8:D94" name="Range1"/>
     <protectedRange sqref="D591" name="Range1_1"/>
   </protectedRanges>
-  <autoFilter ref="A7:AF595" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+  <autoFilter ref="A7:AF595" xr:uid="{00000000-0009-0000-0000-000000000000}">
+    <filterColumn colId="2">
+      <filters>
+        <filter val="1010CA01"/>
+        <filter val="1010CA02"/>
+        <filter val="1010CA03"/>
+        <filter val="1010CA04"/>
+        <filter val="1010CA05"/>
+        <filter val="1010CA06"/>
+        <filter val="1010CA07"/>
+        <filter val="1010CA08"/>
+        <filter val="1010CA09"/>
+        <filter val="1010CA10"/>
+        <filter val="1010CA11"/>
+        <filter val="1010CA12"/>
+        <filter val="1010CA13"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <mergeCells count="1">
     <mergeCell ref="AA1:AF1"/>
   </mergeCells>
+  <conditionalFormatting sqref="C8:C75 C77:C595">
+    <cfRule type="duplicateValues" dxfId="21" priority="35"/>
+  </conditionalFormatting>
   <conditionalFormatting sqref="C76">
-    <cfRule type="duplicateValues" dxfId="21" priority="1"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C8:C75 C77:C595">
-    <cfRule type="duplicateValues" dxfId="20" priority="35"/>
+    <cfRule type="duplicateValues" dxfId="20" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="74" orientation="portrait" r:id="rId1"/>
@@ -30719,7 +30878,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" s="4">
         <v>1500</v>
       </c>
@@ -30746,7 +30905,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" s="4">
         <v>1500</v>
       </c>
@@ -30773,7 +30932,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" s="4">
         <v>1500</v>
       </c>
@@ -30800,7 +30959,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
         <v>1500</v>
       </c>
@@ -30827,7 +30986,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" s="4">
         <v>1500</v>
       </c>
@@ -30854,7 +31013,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" s="4">
         <v>1500</v>
       </c>
@@ -30881,7 +31040,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" s="4">
         <v>1500</v>
       </c>
@@ -30908,7 +31067,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" s="4">
         <v>1500</v>
       </c>
@@ -30935,7 +31094,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" s="4">
         <v>1500</v>
       </c>
@@ -30962,7 +31121,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12" s="4">
         <v>1500</v>
       </c>
@@ -30989,7 +31148,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13" s="4">
         <v>1500</v>
       </c>
@@ -31016,7 +31175,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14" s="4">
         <v>1500</v>
       </c>
@@ -31043,7 +31202,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15" s="4">
         <v>1500</v>
       </c>
@@ -31070,7 +31229,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A16" s="4">
         <v>1500</v>
       </c>
@@ -31097,7 +31256,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A17" s="4">
         <v>1500</v>
       </c>
@@ -31124,7 +31283,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A18" s="4">
         <v>1500</v>
       </c>
@@ -31151,7 +31310,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A19" s="4">
         <v>1500</v>
       </c>
@@ -31178,7 +31337,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A20" s="4">
         <v>1500</v>
       </c>
@@ -31205,7 +31364,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A21" s="4">
         <v>1500</v>
       </c>
@@ -31232,7 +31391,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A22" s="4">
         <v>1500</v>
       </c>
@@ -31259,7 +31418,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A23" s="4">
         <v>1500</v>
       </c>
@@ -31286,7 +31445,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A24" s="4">
         <v>1500</v>
       </c>
@@ -31313,7 +31472,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A25" s="4">
         <v>1500</v>
       </c>
@@ -31340,7 +31499,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A26" s="4">
         <v>1500</v>
       </c>
@@ -31367,7 +31526,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A27" s="4">
         <v>1500</v>
       </c>
@@ -31394,7 +31553,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A28" s="4">
         <v>1500</v>
       </c>
@@ -31421,7 +31580,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A29" s="4">
         <v>1500</v>
       </c>
@@ -42527,23 +42686,23 @@
     <protectedRange sqref="G204:G205" name="Range1_4"/>
     <protectedRange sqref="G206" name="Range1_5"/>
   </protectedRanges>
+  <conditionalFormatting sqref="F2:F65">
+    <cfRule type="duplicateValues" dxfId="19" priority="14"/>
+  </conditionalFormatting>
   <conditionalFormatting sqref="F66:F92">
-    <cfRule type="duplicateValues" dxfId="19" priority="13"/>
+    <cfRule type="duplicateValues" dxfId="18" priority="13"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F2:F65">
-    <cfRule type="duplicateValues" dxfId="18" priority="14"/>
+  <conditionalFormatting sqref="F107">
+    <cfRule type="duplicateValues" dxfId="17" priority="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F108 F93:F106 F110:F113">
-    <cfRule type="duplicateValues" dxfId="17" priority="11"/>
+    <cfRule type="duplicateValues" dxfId="16" priority="11"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F109">
+    <cfRule type="duplicateValues" dxfId="15" priority="9"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F114:F203">
-    <cfRule type="duplicateValues" dxfId="16" priority="12"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F107">
-    <cfRule type="duplicateValues" dxfId="15" priority="10"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F109">
-    <cfRule type="duplicateValues" dxfId="14" priority="9"/>
+    <cfRule type="duplicateValues" dxfId="14" priority="12"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F204:F222">
     <cfRule type="duplicateValues" dxfId="13" priority="8"/>
@@ -42563,11 +42722,11 @@
   <conditionalFormatting sqref="F243">
     <cfRule type="duplicateValues" dxfId="8" priority="3"/>
   </conditionalFormatting>
+  <conditionalFormatting sqref="F244:F393">
+    <cfRule type="duplicateValues" dxfId="7" priority="2"/>
+  </conditionalFormatting>
   <conditionalFormatting sqref="F394:F474">
-    <cfRule type="duplicateValues" dxfId="7" priority="1"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F244:F393">
-    <cfRule type="duplicateValues" dxfId="6" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="6" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -53526,7 +53685,7 @@
         <v>2.8740000000000001</v>
       </c>
     </row>
-    <row r="782" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="782" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A782" s="3" t="s">
         <v>1109</v>
       </c>
@@ -58432,23 +58591,23 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:D1132" xr:uid="{00000000-0009-0000-0000-000002000000}"/>
-  <conditionalFormatting sqref="A1067:A1132 A2:A691">
-    <cfRule type="duplicateValues" dxfId="5" priority="5"/>
+  <conditionalFormatting sqref="A733">
+    <cfRule type="duplicateValues" dxfId="5" priority="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A734 A692:A732 A736:A739">
     <cfRule type="duplicateValues" dxfId="4" priority="4"/>
   </conditionalFormatting>
+  <conditionalFormatting sqref="A735">
+    <cfRule type="duplicateValues" dxfId="3" priority="2"/>
+  </conditionalFormatting>
   <conditionalFormatting sqref="A740:A981">
-    <cfRule type="duplicateValues" dxfId="3" priority="6"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A733">
-    <cfRule type="duplicateValues" dxfId="2" priority="3"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A735">
-    <cfRule type="duplicateValues" dxfId="1" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="2" priority="6"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A982:A1066">
-    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A1067:A1132 A2:A691">
+    <cfRule type="duplicateValues" dxfId="0" priority="5"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/RCM- پیشرفت کار کارشناسان- تکسونامی تجهیزات گندله سازی.xlsx
+++ b/RCM- پیشرفت کار کارشناسان- تکسونامی تجهیزات گندله سازی.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26501"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25330"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\haddadnia\Documents\GitHub\RCM_data_concatinating\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Pamidco010\Documents\GitHub\RCM_data_concatinating\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D635B21-E3E6-4F62-B2B8-D6D196383DD0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{946D21F4-11EA-467F-8003-18067EAEE243}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,17 +22,27 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'تجهیزات صنعتی گندله سازی'!$A$7:$AF$595</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">'تجهیزات صنعتی گندله سازی'!$6:$7</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6315" uniqueCount="1474">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6316" uniqueCount="1475">
   <si>
     <t>نام تجهیز</t>
   </si>
@@ -4457,6 +4467,9 @@
   </si>
   <si>
     <t>درصد پیشرفت PM</t>
+  </si>
+  <si>
+    <t>برنامه ریزی  PM</t>
   </si>
 </sst>
 </file>
@@ -5617,33 +5630,33 @@
   <dimension ref="A1:AF596"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="F502" sqref="F502"/>
+      <selection activeCell="P61" sqref="P61"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="12.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.625" style="27" customWidth="1"/>
-    <col min="2" max="2" width="15.125" style="27" customWidth="1"/>
-    <col min="3" max="3" width="15.25" style="27" customWidth="1"/>
-    <col min="4" max="4" width="21.375" style="27" customWidth="1"/>
-    <col min="5" max="5" width="12.25" style="27" customWidth="1"/>
-    <col min="6" max="6" width="19.875" style="27" customWidth="1"/>
-    <col min="7" max="7" width="13.75" style="27" customWidth="1"/>
-    <col min="8" max="8" width="9.875" style="27" customWidth="1"/>
-    <col min="9" max="9" width="11.375" style="36" customWidth="1"/>
+    <col min="1" max="1" width="21.5703125" style="27" customWidth="1"/>
+    <col min="2" max="2" width="15.140625" style="27" customWidth="1"/>
+    <col min="3" max="3" width="15.28515625" style="27" customWidth="1"/>
+    <col min="4" max="4" width="21.42578125" style="27" customWidth="1"/>
+    <col min="5" max="5" width="12.28515625" style="27" customWidth="1"/>
+    <col min="6" max="6" width="19.85546875" style="27" customWidth="1"/>
+    <col min="7" max="7" width="13.7109375" style="27" customWidth="1"/>
+    <col min="8" max="8" width="9.85546875" style="27" customWidth="1"/>
+    <col min="9" max="9" width="11.42578125" style="36" customWidth="1"/>
     <col min="10" max="10" width="9" style="36" customWidth="1"/>
-    <col min="11" max="11" width="9.625" style="37" customWidth="1"/>
-    <col min="12" max="12" width="9.25" style="38" customWidth="1"/>
-    <col min="13" max="13" width="8.75" style="38" customWidth="1"/>
-    <col min="14" max="14" width="9.75" style="38" customWidth="1"/>
-    <col min="15" max="15" width="10.625" style="38" customWidth="1"/>
-    <col min="16" max="16" width="8.375" style="38" customWidth="1"/>
-    <col min="17" max="17" width="11.125" style="27" customWidth="1"/>
-    <col min="18" max="18" width="9.375" style="27" customWidth="1"/>
-    <col min="19" max="19" width="7.875" style="27" customWidth="1"/>
-    <col min="20" max="20" width="10.25" style="27" customWidth="1"/>
-    <col min="21" max="21" width="10.5" style="27" customWidth="1"/>
-    <col min="22" max="16384" width="12.125" style="27"/>
+    <col min="11" max="11" width="9.5703125" style="37" customWidth="1"/>
+    <col min="12" max="12" width="9.28515625" style="38" customWidth="1"/>
+    <col min="13" max="13" width="8.7109375" style="38" customWidth="1"/>
+    <col min="14" max="14" width="9.7109375" style="38" customWidth="1"/>
+    <col min="15" max="15" width="10.5703125" style="38" customWidth="1"/>
+    <col min="16" max="16" width="9.7109375" style="38" customWidth="1"/>
+    <col min="17" max="17" width="11.140625" style="27" customWidth="1"/>
+    <col min="18" max="18" width="9.42578125" style="27" customWidth="1"/>
+    <col min="19" max="19" width="7.85546875" style="27" customWidth="1"/>
+    <col min="20" max="20" width="10.28515625" style="27" customWidth="1"/>
+    <col min="21" max="21" width="10.42578125" style="27" customWidth="1"/>
+    <col min="22" max="16384" width="12.140625" style="27"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:32" ht="49.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -6118,6 +6131,9 @@
       <c r="O7" s="71" t="s">
         <v>1472</v>
       </c>
+      <c r="P7" s="71" t="s">
+        <v>1474</v>
+      </c>
     </row>
     <row r="8" spans="1:32" hidden="1" x14ac:dyDescent="0.25">
       <c r="A8" s="30">
@@ -6969,7 +6985,7 @@
       <c r="P25" s="38"/>
       <c r="Q25" s="27"/>
     </row>
-    <row r="26" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:17" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A26" s="30">
         <v>100</v>
       </c>
@@ -8556,7 +8572,7 @@
       <c r="P60" s="38"/>
       <c r="Q60" s="27"/>
     </row>
-    <row r="61" spans="1:17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A61" s="2">
         <v>100</v>
       </c>
@@ -8605,7 +8621,7 @@
       <c r="P61" s="38"/>
       <c r="Q61" s="27"/>
     </row>
-    <row r="62" spans="1:17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A62" s="2">
         <v>100</v>
       </c>
@@ -8654,7 +8670,7 @@
       <c r="P62" s="38"/>
       <c r="Q62" s="27"/>
     </row>
-    <row r="63" spans="1:17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A63" s="2">
         <v>100</v>
       </c>
@@ -22435,7 +22451,7 @@
       <c r="P391" s="38"/>
       <c r="Q391" s="27"/>
     </row>
-    <row r="392" spans="1:17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A392" s="2">
         <v>800</v>
       </c>
@@ -25512,7 +25528,7 @@
       <c r="P463" s="38"/>
       <c r="Q463" s="27"/>
     </row>
-    <row r="464" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="464" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A464" s="30">
         <v>900</v>
       </c>
@@ -25559,7 +25575,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="465" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="465" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A465" s="30">
         <v>900</v>
       </c>
@@ -26619,7 +26635,7 @@
       <c r="P490" s="38"/>
       <c r="Q490" s="27"/>
     </row>
-    <row r="491" spans="1:17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="491" spans="1:17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A491" s="2">
         <v>900</v>
       </c>
@@ -26668,7 +26684,7 @@
       <c r="P491" s="38"/>
       <c r="Q491" s="27"/>
     </row>
-    <row r="492" spans="1:17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="492" spans="1:17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A492" s="2">
         <v>900</v>
       </c>
@@ -26717,7 +26733,7 @@
       <c r="P492" s="38"/>
       <c r="Q492" s="27"/>
     </row>
-    <row r="493" spans="1:17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="493" spans="1:17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A493" s="2">
         <v>900</v>
       </c>
@@ -26760,7 +26776,7 @@
       <c r="P493" s="38"/>
       <c r="Q493" s="27"/>
     </row>
-    <row r="494" spans="1:17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="494" spans="1:17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A494" s="2">
         <v>900</v>
       </c>
@@ -26803,7 +26819,7 @@
       <c r="P494" s="38"/>
       <c r="Q494" s="27"/>
     </row>
-    <row r="495" spans="1:17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="495" spans="1:17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A495" s="2">
         <v>1000</v>
       </c>
@@ -26842,7 +26858,7 @@
       <c r="P495" s="38"/>
       <c r="Q495" s="27"/>
     </row>
-    <row r="496" spans="1:17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="496" spans="1:17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A496" s="2">
         <v>1000</v>
       </c>
@@ -26881,7 +26897,7 @@
       <c r="P496" s="38"/>
       <c r="Q496" s="27"/>
     </row>
-    <row r="497" spans="1:17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="497" spans="1:17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A497" s="2">
         <v>1000</v>
       </c>
@@ -26920,7 +26936,7 @@
       <c r="P497" s="38"/>
       <c r="Q497" s="27"/>
     </row>
-    <row r="498" spans="1:17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="498" spans="1:17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A498" s="2">
         <v>1000</v>
       </c>
@@ -26959,7 +26975,7 @@
       <c r="P498" s="38"/>
       <c r="Q498" s="27"/>
     </row>
-    <row r="499" spans="1:17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="499" spans="1:17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A499" s="2">
         <v>1000</v>
       </c>
@@ -26998,7 +27014,7 @@
       <c r="P499" s="38"/>
       <c r="Q499" s="27"/>
     </row>
-    <row r="500" spans="1:17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="500" spans="1:17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A500" s="2">
         <v>1000</v>
       </c>
@@ -27037,7 +27053,7 @@
       <c r="P500" s="38"/>
       <c r="Q500" s="27"/>
     </row>
-    <row r="501" spans="1:17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="501" spans="1:17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A501" s="2">
         <v>1000</v>
       </c>
@@ -27076,7 +27092,7 @@
       <c r="P501" s="38"/>
       <c r="Q501" s="27"/>
     </row>
-    <row r="502" spans="1:17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="502" spans="1:17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A502" s="2">
         <v>1000</v>
       </c>
@@ -27115,7 +27131,7 @@
       <c r="P502" s="38"/>
       <c r="Q502" s="27"/>
     </row>
-    <row r="503" spans="1:17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="503" spans="1:17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A503" s="2">
         <v>1000</v>
       </c>
@@ -27154,7 +27170,7 @@
       <c r="P503" s="38"/>
       <c r="Q503" s="27"/>
     </row>
-    <row r="504" spans="1:17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="504" spans="1:17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A504" s="2">
         <v>1000</v>
       </c>
@@ -27193,7 +27209,7 @@
       <c r="P504" s="38"/>
       <c r="Q504" s="27"/>
     </row>
-    <row r="505" spans="1:17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="505" spans="1:17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A505" s="2">
         <v>1000</v>
       </c>
@@ -27232,7 +27248,7 @@
       <c r="P505" s="38"/>
       <c r="Q505" s="27"/>
     </row>
-    <row r="506" spans="1:17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="506" spans="1:17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A506" s="2">
         <v>1000</v>
       </c>
@@ -27271,7 +27287,7 @@
       <c r="P506" s="38"/>
       <c r="Q506" s="27"/>
     </row>
-    <row r="507" spans="1:17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="507" spans="1:17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A507" s="2">
         <v>1000</v>
       </c>
@@ -27766,7 +27782,7 @@
       <c r="P519" s="38"/>
       <c r="Q519" s="27"/>
     </row>
-    <row r="520" spans="1:17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="520" spans="1:17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A520" s="4">
         <v>1300</v>
       </c>
@@ -27809,7 +27825,7 @@
       <c r="P520" s="38"/>
       <c r="Q520" s="27"/>
     </row>
-    <row r="521" spans="1:17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="521" spans="1:17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A521" s="4">
         <v>1300</v>
       </c>
@@ -28234,7 +28250,7 @@
       <c r="P531" s="38"/>
       <c r="Q531" s="27"/>
     </row>
-    <row r="532" spans="1:17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="532" spans="1:17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A532" s="4">
         <v>1300</v>
       </c>
@@ -28277,7 +28293,7 @@
       <c r="P532" s="38"/>
       <c r="Q532" s="27"/>
     </row>
-    <row r="533" spans="1:17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="533" spans="1:17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A533" s="4">
         <v>1300</v>
       </c>
@@ -28320,7 +28336,7 @@
       <c r="P533" s="38"/>
       <c r="Q533" s="27"/>
     </row>
-    <row r="534" spans="1:17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="534" spans="1:17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A534" s="4">
         <v>1300</v>
       </c>
@@ -28363,7 +28379,7 @@
       <c r="P534" s="38"/>
       <c r="Q534" s="27"/>
     </row>
-    <row r="535" spans="1:17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="535" spans="1:17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A535" s="4">
         <v>1300</v>
       </c>
@@ -28406,7 +28422,7 @@
       <c r="P535" s="38"/>
       <c r="Q535" s="27"/>
     </row>
-    <row r="536" spans="1:17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="536" spans="1:17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A536" s="4">
         <v>1300</v>
       </c>
@@ -28449,7 +28465,7 @@
       <c r="P536" s="38"/>
       <c r="Q536" s="27"/>
     </row>
-    <row r="537" spans="1:17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="537" spans="1:17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A537" s="4">
         <v>1300</v>
       </c>
@@ -28492,7 +28508,7 @@
       <c r="P537" s="38"/>
       <c r="Q537" s="27"/>
     </row>
-    <row r="538" spans="1:17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="538" spans="1:17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A538" s="4">
         <v>1300</v>
       </c>
@@ -28535,7 +28551,7 @@
       <c r="P538" s="38"/>
       <c r="Q538" s="27"/>
     </row>
-    <row r="539" spans="1:17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="539" spans="1:17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A539" s="4">
         <v>1300</v>
       </c>
@@ -28578,7 +28594,7 @@
       <c r="P539" s="38"/>
       <c r="Q539" s="27"/>
     </row>
-    <row r="540" spans="1:17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="540" spans="1:17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A540" s="4">
         <v>1300</v>
       </c>
@@ -28621,7 +28637,7 @@
       <c r="P540" s="38"/>
       <c r="Q540" s="27"/>
     </row>
-    <row r="541" spans="1:17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="541" spans="1:17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A541" s="4">
         <v>1300</v>
       </c>
@@ -28664,7 +28680,7 @@
       <c r="P541" s="38"/>
       <c r="Q541" s="27"/>
     </row>
-    <row r="542" spans="1:17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="542" spans="1:17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A542" s="4">
         <v>1300</v>
       </c>
@@ -28707,7 +28723,7 @@
       <c r="P542" s="38"/>
       <c r="Q542" s="27"/>
     </row>
-    <row r="543" spans="1:17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="543" spans="1:17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A543" s="4">
         <v>1300</v>
       </c>
@@ -28750,7 +28766,7 @@
       <c r="P543" s="38"/>
       <c r="Q543" s="27"/>
     </row>
-    <row r="544" spans="1:17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="544" spans="1:17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A544" s="4">
         <v>1300</v>
       </c>
@@ -28793,7 +28809,7 @@
       <c r="P544" s="38"/>
       <c r="Q544" s="27"/>
     </row>
-    <row r="545" spans="1:17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="545" spans="1:17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A545" s="4">
         <v>1300</v>
       </c>
@@ -28984,7 +29000,7 @@
       <c r="P549" s="38"/>
       <c r="Q549" s="27"/>
     </row>
-    <row r="550" spans="1:17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="550" spans="1:17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A550" s="4">
         <v>1300</v>
       </c>
@@ -29027,7 +29043,7 @@
       <c r="P550" s="38"/>
       <c r="Q550" s="27"/>
     </row>
-    <row r="551" spans="1:17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="551" spans="1:17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A551" s="4">
         <v>1300</v>
       </c>
@@ -29070,7 +29086,7 @@
       <c r="P551" s="38"/>
       <c r="Q551" s="27"/>
     </row>
-    <row r="552" spans="1:17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="552" spans="1:17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A552" s="4">
         <v>1300</v>
       </c>
@@ -29113,7 +29129,7 @@
       <c r="P552" s="38"/>
       <c r="Q552" s="27"/>
     </row>
-    <row r="553" spans="1:17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="553" spans="1:17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A553" s="4">
         <v>1300</v>
       </c>
@@ -30444,7 +30460,7 @@
       <c r="P587" s="38"/>
       <c r="Q587" s="27"/>
     </row>
-    <row r="588" spans="1:17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="588" spans="1:17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A588" s="4">
         <v>1300</v>
       </c>
@@ -30629,7 +30645,7 @@
       <c r="P592" s="38"/>
       <c r="Q592" s="27"/>
     </row>
-    <row r="593" spans="1:17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="593" spans="1:17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A593" s="2">
         <v>1400</v>
       </c>
@@ -30668,7 +30684,7 @@
       <c r="P593" s="38"/>
       <c r="Q593" s="27"/>
     </row>
-    <row r="594" spans="1:17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="594" spans="1:17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A594" s="2">
         <v>1400</v>
       </c>
@@ -30707,7 +30723,7 @@
       <c r="P594" s="38"/>
       <c r="Q594" s="27"/>
     </row>
-    <row r="595" spans="1:17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="595" spans="1:17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A595" s="2">
         <v>1400</v>
       </c>
@@ -30757,19 +30773,40 @@
   <autoFilter ref="A7:AF595" xr:uid="{00000000-0009-0000-0000-000000000000}">
     <filterColumn colId="2">
       <filters>
-        <filter val="1010CA01"/>
-        <filter val="1010CA02"/>
-        <filter val="1010CA03"/>
-        <filter val="1010CA04"/>
-        <filter val="1010CA05"/>
-        <filter val="1010CA06"/>
-        <filter val="1010CA07"/>
-        <filter val="1010CA08"/>
-        <filter val="1010CA09"/>
-        <filter val="1010CA10"/>
-        <filter val="1010CA11"/>
-        <filter val="1010CA12"/>
-        <filter val="1010CA13"/>
+        <filter val="0150WP01"/>
+        <filter val="0150WP02"/>
+        <filter val="0150WP03"/>
+        <filter val="0830WP01"/>
+        <filter val="0940WP01"/>
+        <filter val="0940WP02"/>
+        <filter val="0950WP01"/>
+        <filter val="0950WP02"/>
+        <filter val="0950WP03"/>
+        <filter val="0950WP04"/>
+        <filter val="1310WP01"/>
+        <filter val="1310WP02"/>
+        <filter val="1320WP01"/>
+        <filter val="1320WP02"/>
+        <filter val="1320WP03"/>
+        <filter val="1320WP04"/>
+        <filter val="1320WP05"/>
+        <filter val="1320WP06"/>
+        <filter val="1320WP07"/>
+        <filter val="1320WP08"/>
+        <filter val="1320WP09"/>
+        <filter val="1320WP10"/>
+        <filter val="1320WP11"/>
+        <filter val="1320WP12"/>
+        <filter val="1320WP13"/>
+        <filter val="1320WP14"/>
+        <filter val="1330WP01"/>
+        <filter val="1330WP02"/>
+        <filter val="1330WP03"/>
+        <filter val="1330WP04"/>
+        <filter val="1390WP01"/>
+        <filter val="1400WP01"/>
+        <filter val="1400WP02"/>
+        <filter val="1400WP03"/>
       </filters>
     </filterColumn>
   </autoFilter>
@@ -30797,13 +30834,13 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.5" customWidth="1"/>
-    <col min="2" max="2" width="13.375" customWidth="1"/>
-    <col min="3" max="3" width="11.125" customWidth="1"/>
-    <col min="4" max="4" width="11.625" customWidth="1"/>
-    <col min="5" max="5" width="11.5" customWidth="1"/>
-    <col min="6" max="6" width="28.125" customWidth="1"/>
-    <col min="7" max="7" width="33.75" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.42578125" customWidth="1"/>
+    <col min="2" max="2" width="13.42578125" customWidth="1"/>
+    <col min="3" max="3" width="11.140625" customWidth="1"/>
+    <col min="4" max="4" width="11.5703125" customWidth="1"/>
+    <col min="5" max="5" width="11.42578125" customWidth="1"/>
+    <col min="6" max="6" width="28.140625" customWidth="1"/>
+    <col min="7" max="7" width="33.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="149.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -42743,12 +42780,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="28.75" style="53" customWidth="1"/>
+    <col min="1" max="1" width="28.7109375" style="53" customWidth="1"/>
     <col min="2" max="2" width="18" style="53" customWidth="1"/>
-    <col min="3" max="3" width="13.75" style="53" customWidth="1"/>
-    <col min="4" max="4" width="13.375" style="53" customWidth="1"/>
-    <col min="5" max="5" width="10.875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.7109375" style="53" customWidth="1"/>
+    <col min="4" max="4" width="13.42578125" style="53" customWidth="1"/>
+    <col min="5" max="5" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">

--- a/RCM- پیشرفت کار کارشناسان- تکسونامی تجهیزات گندله سازی.xlsx
+++ b/RCM- پیشرفت کار کارشناسان- تکسونامی تجهیزات گندله سازی.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Pamidco010\Documents\GitHub\RCM_data_concatinating\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{946D21F4-11EA-467F-8003-18067EAEE243}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5FA4D06E-B4DD-4C5C-BE7C-B1D901A357A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -5626,11 +5626,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <sheetPr filterMode="1"/>
   <dimension ref="A1:AF596"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="P61" sqref="P61"/>
+    <sheetView tabSelected="1" topLeftCell="C4" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6135,7 +6134,7 @@
         <v>1474</v>
       </c>
     </row>
-    <row r="8" spans="1:32" hidden="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A8" s="30">
         <v>100</v>
       </c>
@@ -6180,7 +6179,7 @@
       <c r="N8" s="28"/>
       <c r="O8" s="28"/>
     </row>
-    <row r="9" spans="1:32" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:32" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>100</v>
       </c>
@@ -6229,7 +6228,7 @@
       <c r="P9" s="38"/>
       <c r="Q9" s="27"/>
     </row>
-    <row r="10" spans="1:32" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:32" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <v>100</v>
       </c>
@@ -6278,7 +6277,7 @@
       <c r="P10" s="38"/>
       <c r="Q10" s="27"/>
     </row>
-    <row r="11" spans="1:32" hidden="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A11" s="30">
         <v>100</v>
       </c>
@@ -6323,7 +6322,7 @@
       <c r="N11" s="28"/>
       <c r="O11" s="28"/>
     </row>
-    <row r="12" spans="1:32" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:32" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
         <v>100</v>
       </c>
@@ -6370,7 +6369,7 @@
       <c r="P12" s="38"/>
       <c r="Q12" s="27"/>
     </row>
-    <row r="13" spans="1:32" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:32" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
         <v>100</v>
       </c>
@@ -6419,7 +6418,7 @@
       <c r="P13" s="38"/>
       <c r="Q13" s="27"/>
     </row>
-    <row r="14" spans="1:32" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:32" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
         <v>100</v>
       </c>
@@ -6468,7 +6467,7 @@
       <c r="P14" s="38"/>
       <c r="Q14" s="27"/>
     </row>
-    <row r="15" spans="1:32" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:32" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
         <v>100</v>
       </c>
@@ -6515,7 +6514,7 @@
       <c r="P15" s="38"/>
       <c r="Q15" s="27"/>
     </row>
-    <row r="16" spans="1:32" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:32" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
         <v>100</v>
       </c>
@@ -6562,7 +6561,7 @@
       <c r="P16" s="38"/>
       <c r="Q16" s="27"/>
     </row>
-    <row r="17" spans="1:17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
         <v>100</v>
       </c>
@@ -6609,7 +6608,7 @@
       <c r="P17" s="38"/>
       <c r="Q17" s="27"/>
     </row>
-    <row r="18" spans="1:17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
         <v>100</v>
       </c>
@@ -6656,7 +6655,7 @@
       <c r="P18" s="38"/>
       <c r="Q18" s="27"/>
     </row>
-    <row r="19" spans="1:17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
         <v>100</v>
       </c>
@@ -6703,7 +6702,7 @@
       <c r="P19" s="38"/>
       <c r="Q19" s="27"/>
     </row>
-    <row r="20" spans="1:17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
         <v>100</v>
       </c>
@@ -6750,7 +6749,7 @@
       <c r="P20" s="38"/>
       <c r="Q20" s="27"/>
     </row>
-    <row r="21" spans="1:17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
         <v>100</v>
       </c>
@@ -6797,7 +6796,7 @@
       <c r="P21" s="38"/>
       <c r="Q21" s="27"/>
     </row>
-    <row r="22" spans="1:17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
         <v>100</v>
       </c>
@@ -6844,7 +6843,7 @@
       <c r="P22" s="38"/>
       <c r="Q22" s="27"/>
     </row>
-    <row r="23" spans="1:17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="2">
         <v>100</v>
       </c>
@@ -6891,7 +6890,7 @@
       <c r="P23" s="38"/>
       <c r="Q23" s="27"/>
     </row>
-    <row r="24" spans="1:17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="2">
         <v>100</v>
       </c>
@@ -6938,7 +6937,7 @@
       <c r="P24" s="38"/>
       <c r="Q24" s="27"/>
     </row>
-    <row r="25" spans="1:17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25" s="2">
         <v>100</v>
       </c>
@@ -6985,7 +6984,7 @@
       <c r="P25" s="38"/>
       <c r="Q25" s="27"/>
     </row>
-    <row r="26" spans="1:17" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:17" ht="30" x14ac:dyDescent="0.25">
       <c r="A26" s="30">
         <v>100</v>
       </c>
@@ -7030,7 +7029,7 @@
       <c r="N26" s="28"/>
       <c r="O26" s="28"/>
     </row>
-    <row r="27" spans="1:17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A27" s="2">
         <v>100</v>
       </c>
@@ -7077,7 +7076,7 @@
       <c r="P27" s="38"/>
       <c r="Q27" s="27"/>
     </row>
-    <row r="28" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A28" s="30">
         <v>100</v>
       </c>
@@ -7122,7 +7121,7 @@
       <c r="N28" s="28"/>
       <c r="O28" s="28"/>
     </row>
-    <row r="29" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A29" s="30">
         <v>100</v>
       </c>
@@ -7169,7 +7168,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A30" s="30">
         <v>100</v>
       </c>
@@ -7216,7 +7215,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A31" s="30">
         <v>100</v>
       </c>
@@ -7263,7 +7262,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A32" s="30">
         <v>100</v>
       </c>
@@ -7310,7 +7309,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A33" s="30">
         <v>100</v>
       </c>
@@ -7357,7 +7356,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A34" s="2">
         <v>100</v>
       </c>
@@ -7404,7 +7403,7 @@
       <c r="P34" s="38"/>
       <c r="Q34" s="27"/>
     </row>
-    <row r="35" spans="1:17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A35" s="2">
         <v>100</v>
       </c>
@@ -7451,7 +7450,7 @@
       <c r="P35" s="38"/>
       <c r="Q35" s="27"/>
     </row>
-    <row r="36" spans="1:17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A36" s="2">
         <v>100</v>
       </c>
@@ -7492,7 +7491,7 @@
       <c r="P36" s="38"/>
       <c r="Q36" s="27"/>
     </row>
-    <row r="37" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A37" s="30">
         <v>100</v>
       </c>
@@ -7533,7 +7532,7 @@
       <c r="N37" s="28"/>
       <c r="O37" s="28"/>
     </row>
-    <row r="38" spans="1:17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A38" s="2">
         <v>100</v>
       </c>
@@ -7580,7 +7579,7 @@
       <c r="P38" s="38"/>
       <c r="Q38" s="27"/>
     </row>
-    <row r="39" spans="1:17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A39" s="2">
         <v>100</v>
       </c>
@@ -7627,7 +7626,7 @@
       <c r="P39" s="38"/>
       <c r="Q39" s="27"/>
     </row>
-    <row r="40" spans="1:17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A40" s="2">
         <v>100</v>
       </c>
@@ -7674,7 +7673,7 @@
       <c r="P40" s="38"/>
       <c r="Q40" s="27"/>
     </row>
-    <row r="41" spans="1:17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A41" s="2">
         <v>100</v>
       </c>
@@ -7723,7 +7722,7 @@
       <c r="P41" s="38"/>
       <c r="Q41" s="27"/>
     </row>
-    <row r="42" spans="1:17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A42" s="2">
         <v>100</v>
       </c>
@@ -7770,7 +7769,7 @@
       <c r="P42" s="38"/>
       <c r="Q42" s="27"/>
     </row>
-    <row r="43" spans="1:17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A43" s="2">
         <v>100</v>
       </c>
@@ -7813,7 +7812,7 @@
       <c r="P43" s="38"/>
       <c r="Q43" s="27"/>
     </row>
-    <row r="44" spans="1:17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A44" s="2">
         <v>100</v>
       </c>
@@ -7854,7 +7853,7 @@
       <c r="P44" s="38"/>
       <c r="Q44" s="27"/>
     </row>
-    <row r="45" spans="1:17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A45" s="2">
         <v>100</v>
       </c>
@@ -7895,7 +7894,7 @@
       <c r="P45" s="38"/>
       <c r="Q45" s="27"/>
     </row>
-    <row r="46" spans="1:17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A46" s="2">
         <v>100</v>
       </c>
@@ -7936,7 +7935,7 @@
       <c r="P46" s="38"/>
       <c r="Q46" s="27"/>
     </row>
-    <row r="47" spans="1:17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A47" s="2">
         <v>100</v>
       </c>
@@ -7977,7 +7976,7 @@
       <c r="P47" s="38"/>
       <c r="Q47" s="27"/>
     </row>
-    <row r="48" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A48" s="30">
         <v>100</v>
       </c>
@@ -8024,7 +8023,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A49" s="30">
         <v>100</v>
       </c>
@@ -8071,7 +8070,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A50" s="30">
         <v>100</v>
       </c>
@@ -8118,7 +8117,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A51" s="2">
         <v>100</v>
       </c>
@@ -8165,7 +8164,7 @@
       <c r="P51" s="38"/>
       <c r="Q51" s="27"/>
     </row>
-    <row r="52" spans="1:17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A52" s="2">
         <v>100</v>
       </c>
@@ -8208,7 +8207,7 @@
       <c r="P52" s="38"/>
       <c r="Q52" s="27"/>
     </row>
-    <row r="53" spans="1:17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A53" s="2">
         <v>100</v>
       </c>
@@ -8257,7 +8256,7 @@
       <c r="P53" s="38"/>
       <c r="Q53" s="27"/>
     </row>
-    <row r="54" spans="1:17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A54" s="2">
         <v>100</v>
       </c>
@@ -8298,7 +8297,7 @@
       <c r="P54" s="38"/>
       <c r="Q54" s="27"/>
     </row>
-    <row r="55" spans="1:17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A55" s="2">
         <v>100</v>
       </c>
@@ -8335,7 +8334,7 @@
       <c r="P55" s="38"/>
       <c r="Q55" s="27"/>
     </row>
-    <row r="56" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A56" s="30">
         <v>100</v>
       </c>
@@ -8380,7 +8379,7 @@
       <c r="N56" s="28"/>
       <c r="O56" s="28"/>
     </row>
-    <row r="57" spans="1:17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A57" s="2">
         <v>100</v>
       </c>
@@ -8429,7 +8428,7 @@
       <c r="P57" s="38"/>
       <c r="Q57" s="27"/>
     </row>
-    <row r="58" spans="1:17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A58" s="2">
         <v>100</v>
       </c>
@@ -8476,7 +8475,7 @@
       <c r="P58" s="38"/>
       <c r="Q58" s="27"/>
     </row>
-    <row r="59" spans="1:17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A59" s="2">
         <v>100</v>
       </c>
@@ -8523,7 +8522,7 @@
       <c r="P59" s="38"/>
       <c r="Q59" s="27"/>
     </row>
-    <row r="60" spans="1:17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A60" s="2">
         <v>100</v>
       </c>
@@ -8719,7 +8718,7 @@
       <c r="P63" s="38"/>
       <c r="Q63" s="27"/>
     </row>
-    <row r="64" spans="1:17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A64" s="2">
         <v>100</v>
       </c>
@@ -8768,7 +8767,7 @@
       <c r="P64" s="38"/>
       <c r="Q64" s="27"/>
     </row>
-    <row r="65" spans="1:17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A65" s="2">
         <v>100</v>
       </c>
@@ -8817,7 +8816,7 @@
       <c r="P65" s="38"/>
       <c r="Q65" s="27"/>
     </row>
-    <row r="66" spans="1:17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A66" s="2">
         <v>100</v>
       </c>
@@ -8864,7 +8863,7 @@
       <c r="P66" s="38"/>
       <c r="Q66" s="27"/>
     </row>
-    <row r="67" spans="1:17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A67" s="2">
         <v>100</v>
       </c>
@@ -8911,7 +8910,7 @@
       <c r="P67" s="38"/>
       <c r="Q67" s="27"/>
     </row>
-    <row r="68" spans="1:17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A68" s="2">
         <v>100</v>
       </c>
@@ -8958,7 +8957,7 @@
       <c r="P68" s="38"/>
       <c r="Q68" s="27"/>
     </row>
-    <row r="69" spans="1:17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A69" s="2">
         <v>100</v>
       </c>
@@ -8995,7 +8994,7 @@
       <c r="P69" s="38"/>
       <c r="Q69" s="27"/>
     </row>
-    <row r="70" spans="1:17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A70" s="2">
         <v>100</v>
       </c>
@@ -9034,7 +9033,7 @@
       <c r="P70" s="38"/>
       <c r="Q70" s="27"/>
     </row>
-    <row r="71" spans="1:17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A71" s="2">
         <v>100</v>
       </c>
@@ -9073,7 +9072,7 @@
       <c r="P71" s="38"/>
       <c r="Q71" s="27"/>
     </row>
-    <row r="72" spans="1:17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A72" s="2">
         <v>100</v>
       </c>
@@ -9114,7 +9113,7 @@
       <c r="P72" s="38"/>
       <c r="Q72" s="27"/>
     </row>
-    <row r="73" spans="1:17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A73" s="2">
         <v>100</v>
       </c>
@@ -9155,7 +9154,7 @@
       <c r="P73" s="38"/>
       <c r="Q73" s="27"/>
     </row>
-    <row r="74" spans="1:17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A74" s="2">
         <v>100</v>
       </c>
@@ -9202,7 +9201,7 @@
       <c r="P74" s="38"/>
       <c r="Q74" s="27"/>
     </row>
-    <row r="75" spans="1:17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A75" s="2">
         <v>200</v>
       </c>
@@ -9239,7 +9238,7 @@
       <c r="P75" s="38"/>
       <c r="Q75" s="27"/>
     </row>
-    <row r="76" spans="1:17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A76" s="2">
         <v>200</v>
       </c>
@@ -9276,7 +9275,7 @@
       <c r="P76" s="38"/>
       <c r="Q76" s="27"/>
     </row>
-    <row r="77" spans="1:17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A77" s="2">
         <v>200</v>
       </c>
@@ -9317,7 +9316,7 @@
       <c r="P77" s="38"/>
       <c r="Q77" s="27"/>
     </row>
-    <row r="78" spans="1:17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A78" s="2">
         <v>200</v>
       </c>
@@ -9354,7 +9353,7 @@
       <c r="P78" s="38"/>
       <c r="Q78" s="27"/>
     </row>
-    <row r="79" spans="1:17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A79" s="2">
         <v>200</v>
       </c>
@@ -9393,7 +9392,7 @@
       <c r="P79" s="38"/>
       <c r="Q79" s="27"/>
     </row>
-    <row r="80" spans="1:17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A80" s="2">
         <v>200</v>
       </c>
@@ -9430,7 +9429,7 @@
       <c r="P80" s="38"/>
       <c r="Q80" s="27"/>
     </row>
-    <row r="81" spans="1:17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A81" s="2">
         <v>200</v>
       </c>
@@ -9471,7 +9470,7 @@
       <c r="P81" s="38"/>
       <c r="Q81" s="27"/>
     </row>
-    <row r="82" spans="1:17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A82" s="2">
         <v>200</v>
       </c>
@@ -9508,7 +9507,7 @@
       <c r="P82" s="38"/>
       <c r="Q82" s="27"/>
     </row>
-    <row r="83" spans="1:17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A83" s="2">
         <v>200</v>
       </c>
@@ -9549,7 +9548,7 @@
       <c r="P83" s="38"/>
       <c r="Q83" s="27"/>
     </row>
-    <row r="84" spans="1:17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A84" s="2">
         <v>200</v>
       </c>
@@ -9590,7 +9589,7 @@
       <c r="P84" s="38"/>
       <c r="Q84" s="27"/>
     </row>
-    <row r="85" spans="1:17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A85" s="2">
         <v>200</v>
       </c>
@@ -9631,7 +9630,7 @@
       <c r="P85" s="38"/>
       <c r="Q85" s="27"/>
     </row>
-    <row r="86" spans="1:17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A86" s="2">
         <v>200</v>
       </c>
@@ -9672,7 +9671,7 @@
       <c r="P86" s="38"/>
       <c r="Q86" s="27"/>
     </row>
-    <row r="87" spans="1:17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A87" s="2">
         <v>200</v>
       </c>
@@ -9713,7 +9712,7 @@
       <c r="P87" s="38"/>
       <c r="Q87" s="27"/>
     </row>
-    <row r="88" spans="1:17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A88" s="2">
         <v>200</v>
       </c>
@@ -9750,7 +9749,7 @@
       <c r="P88" s="38"/>
       <c r="Q88" s="27"/>
     </row>
-    <row r="89" spans="1:17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A89" s="2">
         <v>200</v>
       </c>
@@ -9787,7 +9786,7 @@
       <c r="P89" s="38"/>
       <c r="Q89" s="27"/>
     </row>
-    <row r="90" spans="1:17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A90" s="2">
         <v>200</v>
       </c>
@@ -9824,7 +9823,7 @@
       <c r="P90" s="38"/>
       <c r="Q90" s="27"/>
     </row>
-    <row r="91" spans="1:17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A91" s="2">
         <v>200</v>
       </c>
@@ -9861,7 +9860,7 @@
       <c r="P91" s="38"/>
       <c r="Q91" s="27"/>
     </row>
-    <row r="92" spans="1:17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A92" s="2">
         <v>200</v>
       </c>
@@ -9904,7 +9903,7 @@
       <c r="P92" s="38"/>
       <c r="Q92" s="27"/>
     </row>
-    <row r="93" spans="1:17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A93" s="2">
         <v>300</v>
       </c>
@@ -9943,7 +9942,7 @@
       <c r="P93" s="38"/>
       <c r="Q93" s="27"/>
     </row>
-    <row r="94" spans="1:17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A94" s="2">
         <v>300</v>
       </c>
@@ -9982,7 +9981,7 @@
       <c r="P94" s="38"/>
       <c r="Q94" s="27"/>
     </row>
-    <row r="95" spans="1:17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A95" s="2">
         <v>300</v>
       </c>
@@ -10021,7 +10020,7 @@
       <c r="P95" s="38"/>
       <c r="Q95" s="27"/>
     </row>
-    <row r="96" spans="1:17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A96" s="2">
         <v>300</v>
       </c>
@@ -10060,7 +10059,7 @@
       <c r="P96" s="38"/>
       <c r="Q96" s="27"/>
     </row>
-    <row r="97" spans="1:17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A97" s="2">
         <v>300</v>
       </c>
@@ -10097,7 +10096,7 @@
       <c r="P97" s="38"/>
       <c r="Q97" s="27"/>
     </row>
-    <row r="98" spans="1:17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A98" s="2">
         <v>300</v>
       </c>
@@ -10134,7 +10133,7 @@
       <c r="P98" s="38"/>
       <c r="Q98" s="27"/>
     </row>
-    <row r="99" spans="1:17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A99" s="2">
         <v>300</v>
       </c>
@@ -10173,7 +10172,7 @@
       <c r="P99" s="38"/>
       <c r="Q99" s="27"/>
     </row>
-    <row r="100" spans="1:17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A100" s="2">
         <v>300</v>
       </c>
@@ -10212,7 +10211,7 @@
       <c r="P100" s="38"/>
       <c r="Q100" s="27"/>
     </row>
-    <row r="101" spans="1:17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A101" s="2">
         <v>300</v>
       </c>
@@ -10253,7 +10252,7 @@
       <c r="P101" s="38"/>
       <c r="Q101" s="27"/>
     </row>
-    <row r="102" spans="1:17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A102" s="2">
         <v>300</v>
       </c>
@@ -10292,7 +10291,7 @@
       <c r="P102" s="38"/>
       <c r="Q102" s="27"/>
     </row>
-    <row r="103" spans="1:17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A103" s="2">
         <v>300</v>
       </c>
@@ -10331,7 +10330,7 @@
       <c r="P103" s="38"/>
       <c r="Q103" s="27"/>
     </row>
-    <row r="104" spans="1:17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A104" s="2">
         <v>300</v>
       </c>
@@ -10370,7 +10369,7 @@
       <c r="P104" s="38"/>
       <c r="Q104" s="27"/>
     </row>
-    <row r="105" spans="1:17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A105" s="2">
         <v>300</v>
       </c>
@@ -10409,7 +10408,7 @@
       <c r="P105" s="38"/>
       <c r="Q105" s="27"/>
     </row>
-    <row r="106" spans="1:17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A106" s="2">
         <v>300</v>
       </c>
@@ -10446,7 +10445,7 @@
       <c r="P106" s="38"/>
       <c r="Q106" s="27"/>
     </row>
-    <row r="107" spans="1:17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A107" s="2">
         <v>300</v>
       </c>
@@ -10483,7 +10482,7 @@
       <c r="P107" s="38"/>
       <c r="Q107" s="27"/>
     </row>
-    <row r="108" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A108" s="30">
         <v>500</v>
       </c>
@@ -10530,7 +10529,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="109" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A109" s="30">
         <v>500</v>
       </c>
@@ -10577,7 +10576,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="110" spans="1:17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A110" s="2">
         <v>500</v>
       </c>
@@ -10618,7 +10617,7 @@
       <c r="P110" s="38"/>
       <c r="Q110" s="27"/>
     </row>
-    <row r="111" spans="1:17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A111" s="2">
         <v>500</v>
       </c>
@@ -10659,7 +10658,7 @@
       <c r="P111" s="38"/>
       <c r="Q111" s="27"/>
     </row>
-    <row r="112" spans="1:17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A112" s="2">
         <v>500</v>
       </c>
@@ -10706,7 +10705,7 @@
       <c r="P112" s="38"/>
       <c r="Q112" s="27"/>
     </row>
-    <row r="113" spans="1:17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A113" s="2">
         <v>500</v>
       </c>
@@ -10753,7 +10752,7 @@
       <c r="P113" s="38"/>
       <c r="Q113" s="27"/>
     </row>
-    <row r="114" spans="1:17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A114" s="2">
         <v>500</v>
       </c>
@@ -10800,7 +10799,7 @@
       <c r="P114" s="38"/>
       <c r="Q114" s="27"/>
     </row>
-    <row r="115" spans="1:17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A115" s="2">
         <v>500</v>
       </c>
@@ -10847,7 +10846,7 @@
       <c r="P115" s="38"/>
       <c r="Q115" s="27"/>
     </row>
-    <row r="116" spans="1:17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A116" s="2">
         <v>500</v>
       </c>
@@ -10884,7 +10883,7 @@
       <c r="P116" s="38"/>
       <c r="Q116" s="27"/>
     </row>
-    <row r="117" spans="1:17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A117" s="2">
         <v>500</v>
       </c>
@@ -10921,7 +10920,7 @@
       <c r="P117" s="38"/>
       <c r="Q117" s="27"/>
     </row>
-    <row r="118" spans="1:17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A118" s="2">
         <v>500</v>
       </c>
@@ -10958,7 +10957,7 @@
       <c r="P118" s="38"/>
       <c r="Q118" s="27"/>
     </row>
-    <row r="119" spans="1:17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A119" s="2">
         <v>500</v>
       </c>
@@ -10995,7 +10994,7 @@
       <c r="P119" s="38"/>
       <c r="Q119" s="27"/>
     </row>
-    <row r="120" spans="1:17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A120" s="2">
         <v>500</v>
       </c>
@@ -11032,7 +11031,7 @@
       <c r="P120" s="38"/>
       <c r="Q120" s="27"/>
     </row>
-    <row r="121" spans="1:17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A121" s="2">
         <v>500</v>
       </c>
@@ -11069,7 +11068,7 @@
       <c r="P121" s="38"/>
       <c r="Q121" s="27"/>
     </row>
-    <row r="122" spans="1:17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A122" s="2">
         <v>500</v>
       </c>
@@ -11106,7 +11105,7 @@
       <c r="P122" s="38"/>
       <c r="Q122" s="27"/>
     </row>
-    <row r="123" spans="1:17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A123" s="2">
         <v>500</v>
       </c>
@@ -11143,7 +11142,7 @@
       <c r="P123" s="38"/>
       <c r="Q123" s="27"/>
     </row>
-    <row r="124" spans="1:17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A124" s="2">
         <v>500</v>
       </c>
@@ -11192,7 +11191,7 @@
       <c r="P124" s="38"/>
       <c r="Q124" s="27"/>
     </row>
-    <row r="125" spans="1:17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A125" s="2">
         <v>500</v>
       </c>
@@ -11241,7 +11240,7 @@
       <c r="P125" s="38"/>
       <c r="Q125" s="27"/>
     </row>
-    <row r="126" spans="1:17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A126" s="2">
         <v>500</v>
       </c>
@@ -11290,7 +11289,7 @@
       <c r="P126" s="38"/>
       <c r="Q126" s="27"/>
     </row>
-    <row r="127" spans="1:17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A127" s="2">
         <v>500</v>
       </c>
@@ -11339,7 +11338,7 @@
       <c r="P127" s="38"/>
       <c r="Q127" s="27"/>
     </row>
-    <row r="128" spans="1:17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A128" s="2">
         <v>500</v>
       </c>
@@ -11388,7 +11387,7 @@
       <c r="P128" s="38"/>
       <c r="Q128" s="27"/>
     </row>
-    <row r="129" spans="1:17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A129" s="2">
         <v>500</v>
       </c>
@@ -11437,7 +11436,7 @@
       <c r="P129" s="38"/>
       <c r="Q129" s="27"/>
     </row>
-    <row r="130" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A130" s="30">
         <v>500</v>
       </c>
@@ -11478,7 +11477,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="131" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A131" s="30">
         <v>500</v>
       </c>
@@ -11519,7 +11518,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="132" spans="1:17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A132" s="2">
         <v>500</v>
       </c>
@@ -11558,7 +11557,7 @@
       <c r="P132" s="38"/>
       <c r="Q132" s="27"/>
     </row>
-    <row r="133" spans="1:17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A133" s="2">
         <v>500</v>
       </c>
@@ -11597,7 +11596,7 @@
       <c r="P133" s="38"/>
       <c r="Q133" s="27"/>
     </row>
-    <row r="134" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A134" s="30">
         <v>500</v>
       </c>
@@ -11644,7 +11643,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="135" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A135" s="30">
         <v>500</v>
       </c>
@@ -11691,7 +11690,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="136" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A136" s="30">
         <v>500</v>
       </c>
@@ -11738,7 +11737,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="137" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A137" s="30">
         <v>500</v>
       </c>
@@ -11785,7 +11784,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="138" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A138" s="30">
         <v>500</v>
       </c>
@@ -11832,7 +11831,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="139" spans="1:17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A139" s="2">
         <v>500</v>
       </c>
@@ -11871,7 +11870,7 @@
       <c r="P139" s="38"/>
       <c r="Q139" s="27"/>
     </row>
-    <row r="140" spans="1:17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A140" s="2">
         <v>500</v>
       </c>
@@ -11918,7 +11917,7 @@
       <c r="P140" s="38"/>
       <c r="Q140" s="27"/>
     </row>
-    <row r="141" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A141" s="30">
         <v>500</v>
       </c>
@@ -11963,7 +11962,7 @@
       <c r="N141" s="28"/>
       <c r="O141" s="28"/>
     </row>
-    <row r="142" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A142" s="30">
         <v>500</v>
       </c>
@@ -12008,7 +12007,7 @@
       <c r="N142" s="28"/>
       <c r="O142" s="28"/>
     </row>
-    <row r="143" spans="1:17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A143" s="2">
         <v>500</v>
       </c>
@@ -12045,7 +12044,7 @@
       <c r="P143" s="38"/>
       <c r="Q143" s="27"/>
     </row>
-    <row r="144" spans="1:17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A144" s="2">
         <v>500</v>
       </c>
@@ -12084,7 +12083,7 @@
       <c r="P144" s="38"/>
       <c r="Q144" s="27"/>
     </row>
-    <row r="145" spans="1:17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A145" s="2">
         <v>500</v>
       </c>
@@ -12123,7 +12122,7 @@
       <c r="P145" s="38"/>
       <c r="Q145" s="27"/>
     </row>
-    <row r="146" spans="1:17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A146" s="2">
         <v>500</v>
       </c>
@@ -12162,7 +12161,7 @@
       <c r="P146" s="38"/>
       <c r="Q146" s="27"/>
     </row>
-    <row r="147" spans="1:17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A147" s="2">
         <v>500</v>
       </c>
@@ -12201,7 +12200,7 @@
       <c r="P147" s="38"/>
       <c r="Q147" s="27"/>
     </row>
-    <row r="148" spans="1:17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A148" s="2">
         <v>500</v>
       </c>
@@ -12240,7 +12239,7 @@
       <c r="P148" s="38"/>
       <c r="Q148" s="27"/>
     </row>
-    <row r="149" spans="1:17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A149" s="2">
         <v>500</v>
       </c>
@@ -12279,7 +12278,7 @@
       <c r="P149" s="38"/>
       <c r="Q149" s="27"/>
     </row>
-    <row r="150" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A150" s="30">
         <v>500</v>
       </c>
@@ -12318,7 +12317,7 @@
       <c r="N150" s="28"/>
       <c r="O150" s="28"/>
     </row>
-    <row r="151" spans="1:17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A151" s="2">
         <v>600</v>
       </c>
@@ -12367,7 +12366,7 @@
       <c r="P151" s="38"/>
       <c r="Q151" s="27"/>
     </row>
-    <row r="152" spans="1:17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A152" s="2">
         <v>600</v>
       </c>
@@ -12416,7 +12415,7 @@
       <c r="P152" s="38"/>
       <c r="Q152" s="27"/>
     </row>
-    <row r="153" spans="1:17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A153" s="2">
         <v>600</v>
       </c>
@@ -12465,7 +12464,7 @@
       <c r="P153" s="38"/>
       <c r="Q153" s="27"/>
     </row>
-    <row r="154" spans="1:17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A154" s="2">
         <v>600</v>
       </c>
@@ -12514,7 +12513,7 @@
       <c r="P154" s="38"/>
       <c r="Q154" s="27"/>
     </row>
-    <row r="155" spans="1:17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A155" s="2">
         <v>600</v>
       </c>
@@ -12563,7 +12562,7 @@
       <c r="P155" s="38"/>
       <c r="Q155" s="27"/>
     </row>
-    <row r="156" spans="1:17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A156" s="2">
         <v>600</v>
       </c>
@@ -12612,7 +12611,7 @@
       <c r="P156" s="38"/>
       <c r="Q156" s="27"/>
     </row>
-    <row r="157" spans="1:17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A157" s="2">
         <v>600</v>
       </c>
@@ -12661,7 +12660,7 @@
       <c r="P157" s="38"/>
       <c r="Q157" s="27"/>
     </row>
-    <row r="158" spans="1:17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A158" s="2">
         <v>600</v>
       </c>
@@ -12710,7 +12709,7 @@
       <c r="P158" s="38"/>
       <c r="Q158" s="27"/>
     </row>
-    <row r="159" spans="1:17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A159" s="2">
         <v>600</v>
       </c>
@@ -12759,7 +12758,7 @@
       <c r="P159" s="38"/>
       <c r="Q159" s="27"/>
     </row>
-    <row r="160" spans="1:17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A160" s="2">
         <v>600</v>
       </c>
@@ -12808,7 +12807,7 @@
       <c r="P160" s="38"/>
       <c r="Q160" s="27"/>
     </row>
-    <row r="161" spans="1:17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A161" s="2">
         <v>600</v>
       </c>
@@ -12857,7 +12856,7 @@
       <c r="P161" s="38"/>
       <c r="Q161" s="27"/>
     </row>
-    <row r="162" spans="1:17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A162" s="2">
         <v>600</v>
       </c>
@@ -12906,7 +12905,7 @@
       <c r="P162" s="38"/>
       <c r="Q162" s="27"/>
     </row>
-    <row r="163" spans="1:17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A163" s="2">
         <v>600</v>
       </c>
@@ -12955,7 +12954,7 @@
       <c r="P163" s="38"/>
       <c r="Q163" s="27"/>
     </row>
-    <row r="164" spans="1:17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A164" s="2">
         <v>600</v>
       </c>
@@ -13004,7 +13003,7 @@
       <c r="P164" s="38"/>
       <c r="Q164" s="27"/>
     </row>
-    <row r="165" spans="1:17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A165" s="2">
         <v>600</v>
       </c>
@@ -13045,7 +13044,7 @@
       <c r="P165" s="38"/>
       <c r="Q165" s="27"/>
     </row>
-    <row r="166" spans="1:17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A166" s="2">
         <v>600</v>
       </c>
@@ -13086,7 +13085,7 @@
       <c r="P166" s="38"/>
       <c r="Q166" s="27"/>
     </row>
-    <row r="167" spans="1:17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A167" s="2">
         <v>600</v>
       </c>
@@ -13127,7 +13126,7 @@
       <c r="P167" s="38"/>
       <c r="Q167" s="27"/>
     </row>
-    <row r="168" spans="1:17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A168" s="2">
         <v>600</v>
       </c>
@@ -13168,7 +13167,7 @@
       <c r="P168" s="38"/>
       <c r="Q168" s="27"/>
     </row>
-    <row r="169" spans="1:17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A169" s="2">
         <v>600</v>
       </c>
@@ -13209,7 +13208,7 @@
       <c r="P169" s="38"/>
       <c r="Q169" s="27"/>
     </row>
-    <row r="170" spans="1:17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A170" s="2">
         <v>600</v>
       </c>
@@ -13250,7 +13249,7 @@
       <c r="P170" s="38"/>
       <c r="Q170" s="27"/>
     </row>
-    <row r="171" spans="1:17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A171" s="2">
         <v>600</v>
       </c>
@@ -13297,7 +13296,7 @@
       <c r="P171" s="38"/>
       <c r="Q171" s="27"/>
     </row>
-    <row r="172" spans="1:17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A172" s="2">
         <v>600</v>
       </c>
@@ -13344,7 +13343,7 @@
       <c r="P172" s="38"/>
       <c r="Q172" s="27"/>
     </row>
-    <row r="173" spans="1:17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A173" s="2">
         <v>600</v>
       </c>
@@ -13391,7 +13390,7 @@
       <c r="P173" s="38"/>
       <c r="Q173" s="27"/>
     </row>
-    <row r="174" spans="1:17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A174" s="2">
         <v>600</v>
       </c>
@@ -13438,7 +13437,7 @@
       <c r="P174" s="38"/>
       <c r="Q174" s="27"/>
     </row>
-    <row r="175" spans="1:17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A175" s="2">
         <v>600</v>
       </c>
@@ -13485,7 +13484,7 @@
       <c r="P175" s="38"/>
       <c r="Q175" s="27"/>
     </row>
-    <row r="176" spans="1:17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A176" s="2">
         <v>600</v>
       </c>
@@ -13532,7 +13531,7 @@
       <c r="P176" s="38"/>
       <c r="Q176" s="27"/>
     </row>
-    <row r="177" spans="1:17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A177" s="2">
         <v>600</v>
       </c>
@@ -13579,7 +13578,7 @@
       <c r="P177" s="38"/>
       <c r="Q177" s="27"/>
     </row>
-    <row r="178" spans="1:17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A178" s="2">
         <v>600</v>
       </c>
@@ -13626,7 +13625,7 @@
       <c r="P178" s="38"/>
       <c r="Q178" s="27"/>
     </row>
-    <row r="179" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A179" s="30">
         <v>600</v>
       </c>
@@ -13673,7 +13672,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="180" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A180" s="30">
         <v>600</v>
       </c>
@@ -13720,7 +13719,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="181" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A181" s="30">
         <v>600</v>
       </c>
@@ -13767,7 +13766,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="182" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A182" s="30">
         <v>600</v>
       </c>
@@ -13814,7 +13813,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="183" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A183" s="30">
         <v>600</v>
       </c>
@@ -13861,7 +13860,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="184" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A184" s="30">
         <v>600</v>
       </c>
@@ -13908,7 +13907,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="185" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A185" s="30">
         <v>600</v>
       </c>
@@ -13953,7 +13952,7 @@
       <c r="N185" s="28"/>
       <c r="O185" s="28"/>
     </row>
-    <row r="186" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A186" s="30">
         <v>600</v>
       </c>
@@ -13998,7 +13997,7 @@
       <c r="N186" s="28"/>
       <c r="O186" s="28"/>
     </row>
-    <row r="187" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A187" s="30">
         <v>600</v>
       </c>
@@ -14045,7 +14044,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="188" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A188" s="30">
         <v>600</v>
       </c>
@@ -14092,7 +14091,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="189" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A189" s="30">
         <v>600</v>
       </c>
@@ -14139,7 +14138,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="190" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A190" s="30">
         <v>600</v>
       </c>
@@ -14186,7 +14185,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="191" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A191" s="30">
         <v>600</v>
       </c>
@@ -14233,7 +14232,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="192" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A192" s="30">
         <v>600</v>
       </c>
@@ -14280,7 +14279,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="193" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A193" s="30">
         <v>600</v>
       </c>
@@ -14325,7 +14324,7 @@
       <c r="N193" s="28"/>
       <c r="O193" s="28"/>
     </row>
-    <row r="194" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A194" s="30">
         <v>600</v>
       </c>
@@ -14372,7 +14371,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="195" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A195" s="30">
         <v>600</v>
       </c>
@@ -14419,7 +14418,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="196" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A196" s="30">
         <v>600</v>
       </c>
@@ -14466,7 +14465,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="197" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A197" s="30">
         <v>600</v>
       </c>
@@ -14513,7 +14512,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="198" spans="1:17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A198" s="2">
         <v>600</v>
       </c>
@@ -14560,7 +14559,7 @@
       <c r="P198" s="38"/>
       <c r="Q198" s="27"/>
     </row>
-    <row r="199" spans="1:17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A199" s="2">
         <v>600</v>
       </c>
@@ -14599,7 +14598,7 @@
       <c r="P199" s="38"/>
       <c r="Q199" s="27"/>
     </row>
-    <row r="200" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A200" s="30">
         <v>700</v>
       </c>
@@ -14644,7 +14643,7 @@
       <c r="N200" s="28"/>
       <c r="O200" s="28"/>
     </row>
-    <row r="201" spans="1:17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A201" s="2">
         <v>700</v>
       </c>
@@ -14683,7 +14682,7 @@
       <c r="P201" s="38"/>
       <c r="Q201" s="27"/>
     </row>
-    <row r="202" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A202" s="30">
         <v>700</v>
       </c>
@@ -14728,7 +14727,7 @@
       <c r="N202" s="28"/>
       <c r="O202" s="28"/>
     </row>
-    <row r="203" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A203" s="30">
         <v>700</v>
       </c>
@@ -14773,7 +14772,7 @@
       <c r="N203" s="28"/>
       <c r="O203" s="28"/>
     </row>
-    <row r="204" spans="1:17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A204" s="2">
         <v>700</v>
       </c>
@@ -14820,7 +14819,7 @@
       <c r="P204" s="38"/>
       <c r="Q204" s="27"/>
     </row>
-    <row r="205" spans="1:17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A205" s="2">
         <v>700</v>
       </c>
@@ -14867,7 +14866,7 @@
       <c r="P205" s="38"/>
       <c r="Q205" s="27"/>
     </row>
-    <row r="206" spans="1:17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A206" s="2">
         <v>700</v>
       </c>
@@ -14914,7 +14913,7 @@
       <c r="P206" s="38"/>
       <c r="Q206" s="27"/>
     </row>
-    <row r="207" spans="1:17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A207" s="2">
         <v>700</v>
       </c>
@@ -14961,7 +14960,7 @@
       <c r="P207" s="38"/>
       <c r="Q207" s="27"/>
     </row>
-    <row r="208" spans="1:17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A208" s="2">
         <v>700</v>
       </c>
@@ -15008,7 +15007,7 @@
       <c r="P208" s="38"/>
       <c r="Q208" s="27"/>
     </row>
-    <row r="209" spans="1:17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A209" s="2">
         <v>700</v>
       </c>
@@ -15055,7 +15054,7 @@
       <c r="P209" s="38"/>
       <c r="Q209" s="27"/>
     </row>
-    <row r="210" spans="1:17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A210" s="2">
         <v>700</v>
       </c>
@@ -15102,7 +15101,7 @@
       <c r="P210" s="38"/>
       <c r="Q210" s="27"/>
     </row>
-    <row r="211" spans="1:17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A211" s="2">
         <v>700</v>
       </c>
@@ -15149,7 +15148,7 @@
       <c r="P211" s="38"/>
       <c r="Q211" s="27"/>
     </row>
-    <row r="212" spans="1:17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A212" s="2">
         <v>700</v>
       </c>
@@ -15196,7 +15195,7 @@
       <c r="P212" s="38"/>
       <c r="Q212" s="27"/>
     </row>
-    <row r="213" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A213" s="30">
         <v>700</v>
       </c>
@@ -15241,7 +15240,7 @@
       <c r="N213" s="28"/>
       <c r="O213" s="28"/>
     </row>
-    <row r="214" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A214" s="30">
         <v>700</v>
       </c>
@@ -15286,7 +15285,7 @@
       <c r="N214" s="28"/>
       <c r="O214" s="28"/>
     </row>
-    <row r="215" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A215" s="30">
         <v>700</v>
       </c>
@@ -15331,7 +15330,7 @@
       <c r="N215" s="28"/>
       <c r="O215" s="28"/>
     </row>
-    <row r="216" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A216" s="30">
         <v>700</v>
       </c>
@@ -15376,7 +15375,7 @@
       <c r="N216" s="28"/>
       <c r="O216" s="28"/>
     </row>
-    <row r="217" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A217" s="30">
         <v>700</v>
       </c>
@@ -15421,7 +15420,7 @@
       <c r="N217" s="28"/>
       <c r="O217" s="28"/>
     </row>
-    <row r="218" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A218" s="30">
         <v>700</v>
       </c>
@@ -15466,7 +15465,7 @@
       <c r="N218" s="28"/>
       <c r="O218" s="28"/>
     </row>
-    <row r="219" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A219" s="30">
         <v>700</v>
       </c>
@@ -15511,7 +15510,7 @@
       <c r="N219" s="28"/>
       <c r="O219" s="28"/>
     </row>
-    <row r="220" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A220" s="30">
         <v>700</v>
       </c>
@@ -15556,7 +15555,7 @@
       <c r="N220" s="28"/>
       <c r="O220" s="28"/>
     </row>
-    <row r="221" spans="1:17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A221" s="2">
         <v>700</v>
       </c>
@@ -15603,7 +15602,7 @@
       <c r="P221" s="38"/>
       <c r="Q221" s="27"/>
     </row>
-    <row r="222" spans="1:17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A222" s="2">
         <v>700</v>
       </c>
@@ -15650,7 +15649,7 @@
       <c r="P222" s="38"/>
       <c r="Q222" s="27"/>
     </row>
-    <row r="223" spans="1:17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A223" s="2">
         <v>700</v>
       </c>
@@ -15697,7 +15696,7 @@
       <c r="P223" s="38"/>
       <c r="Q223" s="27"/>
     </row>
-    <row r="224" spans="1:17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A224" s="2">
         <v>700</v>
       </c>
@@ -15738,7 +15737,7 @@
       <c r="P224" s="38"/>
       <c r="Q224" s="27"/>
     </row>
-    <row r="225" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A225" s="30">
         <v>700</v>
       </c>
@@ -15783,7 +15782,7 @@
       <c r="N225" s="28"/>
       <c r="O225" s="28"/>
     </row>
-    <row r="226" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A226" s="30">
         <v>700</v>
       </c>
@@ -15828,7 +15827,7 @@
       <c r="N226" s="28"/>
       <c r="O226" s="28"/>
     </row>
-    <row r="227" spans="1:17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A227" s="2">
         <v>700</v>
       </c>
@@ -15875,7 +15874,7 @@
       <c r="P227" s="38"/>
       <c r="Q227" s="27"/>
     </row>
-    <row r="228" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A228" s="30">
         <v>700</v>
       </c>
@@ -15922,7 +15921,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="229" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A229" s="30">
         <v>700</v>
       </c>
@@ -15967,7 +15966,7 @@
       <c r="N229" s="28"/>
       <c r="O229" s="28"/>
     </row>
-    <row r="230" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A230" s="30">
         <v>700</v>
       </c>
@@ -16012,7 +16011,7 @@
       <c r="N230" s="28"/>
       <c r="O230" s="28"/>
     </row>
-    <row r="231" spans="1:17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A231" s="2">
         <v>700</v>
       </c>
@@ -16059,7 +16058,7 @@
       <c r="P231" s="38"/>
       <c r="Q231" s="27"/>
     </row>
-    <row r="232" spans="1:17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A232" s="2">
         <v>700</v>
       </c>
@@ -16106,7 +16105,7 @@
       <c r="P232" s="38"/>
       <c r="Q232" s="27"/>
     </row>
-    <row r="233" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A233" s="30">
         <v>700</v>
       </c>
@@ -16151,7 +16150,7 @@
       <c r="N233" s="28"/>
       <c r="O233" s="28"/>
     </row>
-    <row r="234" spans="1:17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A234" s="2">
         <v>700</v>
       </c>
@@ -16198,7 +16197,7 @@
       <c r="P234" s="38"/>
       <c r="Q234" s="27"/>
     </row>
-    <row r="235" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A235" s="30">
         <v>700</v>
       </c>
@@ -16243,7 +16242,7 @@
       <c r="N235" s="28"/>
       <c r="O235" s="28"/>
     </row>
-    <row r="236" spans="1:17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A236" s="2">
         <v>700</v>
       </c>
@@ -16290,7 +16289,7 @@
       <c r="P236" s="38"/>
       <c r="Q236" s="27"/>
     </row>
-    <row r="237" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A237" s="30">
         <v>700</v>
       </c>
@@ -16337,7 +16336,7 @@
         <v>0.95</v>
       </c>
     </row>
-    <row r="238" spans="1:17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A238" s="2">
         <v>700</v>
       </c>
@@ -16384,7 +16383,7 @@
       <c r="P238" s="38"/>
       <c r="Q238" s="27"/>
     </row>
-    <row r="239" spans="1:17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A239" s="2">
         <v>700</v>
       </c>
@@ -16431,7 +16430,7 @@
       <c r="P239" s="38"/>
       <c r="Q239" s="27"/>
     </row>
-    <row r="240" spans="1:17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A240" s="2">
         <v>700</v>
       </c>
@@ -16478,7 +16477,7 @@
       <c r="P240" s="38"/>
       <c r="Q240" s="27"/>
     </row>
-    <row r="241" spans="1:17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A241" s="2">
         <v>700</v>
       </c>
@@ -16525,7 +16524,7 @@
       <c r="P241" s="38"/>
       <c r="Q241" s="27"/>
     </row>
-    <row r="242" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A242" s="30">
         <v>700</v>
       </c>
@@ -16570,7 +16569,7 @@
       <c r="N242" s="28"/>
       <c r="O242" s="28"/>
     </row>
-    <row r="243" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A243" s="30">
         <v>700</v>
       </c>
@@ -16615,7 +16614,7 @@
       <c r="N243" s="28"/>
       <c r="O243" s="28"/>
     </row>
-    <row r="244" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A244" s="30">
         <v>700</v>
       </c>
@@ -16660,7 +16659,7 @@
       <c r="N244" s="28"/>
       <c r="O244" s="28"/>
     </row>
-    <row r="245" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A245" s="30">
         <v>700</v>
       </c>
@@ -16705,7 +16704,7 @@
       <c r="N245" s="28"/>
       <c r="O245" s="28"/>
     </row>
-    <row r="246" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A246" s="30">
         <v>700</v>
       </c>
@@ -16750,7 +16749,7 @@
       <c r="N246" s="28"/>
       <c r="O246" s="28"/>
     </row>
-    <row r="247" spans="1:17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A247" s="2">
         <v>700</v>
       </c>
@@ -16797,7 +16796,7 @@
       <c r="P247" s="38"/>
       <c r="Q247" s="27"/>
     </row>
-    <row r="248" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A248" s="30">
         <v>700</v>
       </c>
@@ -16842,7 +16841,7 @@
       <c r="N248" s="28"/>
       <c r="O248" s="28"/>
     </row>
-    <row r="249" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A249" s="30">
         <v>700</v>
       </c>
@@ -16887,7 +16886,7 @@
       <c r="N249" s="28"/>
       <c r="O249" s="28"/>
     </row>
-    <row r="250" spans="1:17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A250" s="2">
         <v>700</v>
       </c>
@@ -16934,7 +16933,7 @@
       <c r="P250" s="38"/>
       <c r="Q250" s="27"/>
     </row>
-    <row r="251" spans="1:17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A251" s="2">
         <v>700</v>
       </c>
@@ -16981,7 +16980,7 @@
       <c r="P251" s="38"/>
       <c r="Q251" s="27"/>
     </row>
-    <row r="252" spans="1:17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A252" s="2">
         <v>700</v>
       </c>
@@ -17022,7 +17021,7 @@
       <c r="P252" s="38"/>
       <c r="Q252" s="27"/>
     </row>
-    <row r="253" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A253" s="30">
         <v>700</v>
       </c>
@@ -17067,7 +17066,7 @@
       <c r="N253" s="28"/>
       <c r="O253" s="28"/>
     </row>
-    <row r="254" spans="1:17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A254" s="2">
         <v>700</v>
       </c>
@@ -17116,7 +17115,7 @@
       <c r="P254" s="38"/>
       <c r="Q254" s="27"/>
     </row>
-    <row r="255" spans="1:17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A255" s="2">
         <v>700</v>
       </c>
@@ -17165,7 +17164,7 @@
       <c r="P255" s="38"/>
       <c r="Q255" s="27"/>
     </row>
-    <row r="256" spans="1:17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A256" s="13">
         <v>700</v>
       </c>
@@ -17210,7 +17209,7 @@
       <c r="P256" s="38"/>
       <c r="Q256" s="27"/>
     </row>
-    <row r="257" spans="1:17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A257" s="2">
         <v>700</v>
       </c>
@@ -17257,7 +17256,7 @@
       <c r="P257" s="38"/>
       <c r="Q257" s="27"/>
     </row>
-    <row r="258" spans="1:17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A258" s="2">
         <v>700</v>
       </c>
@@ -17296,7 +17295,7 @@
       <c r="P258" s="38"/>
       <c r="Q258" s="27"/>
     </row>
-    <row r="259" spans="1:17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A259" s="2">
         <v>700</v>
       </c>
@@ -17343,7 +17342,7 @@
       <c r="P259" s="38"/>
       <c r="Q259" s="27"/>
     </row>
-    <row r="260" spans="1:17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A260" s="2">
         <v>700</v>
       </c>
@@ -17380,7 +17379,7 @@
       <c r="P260" s="38"/>
       <c r="Q260" s="27"/>
     </row>
-    <row r="261" spans="1:17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A261" s="2">
         <v>700</v>
       </c>
@@ -17427,7 +17426,7 @@
       <c r="P261" s="38"/>
       <c r="Q261" s="27"/>
     </row>
-    <row r="262" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A262" s="30">
         <v>700</v>
       </c>
@@ -17472,7 +17471,7 @@
       <c r="N262" s="28"/>
       <c r="O262" s="28"/>
     </row>
-    <row r="263" spans="1:17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A263" s="2">
         <v>700</v>
       </c>
@@ -17517,7 +17516,7 @@
       <c r="P263" s="38"/>
       <c r="Q263" s="27"/>
     </row>
-    <row r="264" spans="1:17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A264" s="2">
         <v>700</v>
       </c>
@@ -17562,7 +17561,7 @@
       <c r="P264" s="38"/>
       <c r="Q264" s="27"/>
     </row>
-    <row r="265" spans="1:17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A265" s="2">
         <v>700</v>
       </c>
@@ -17607,7 +17606,7 @@
       <c r="P265" s="38"/>
       <c r="Q265" s="27"/>
     </row>
-    <row r="266" spans="1:17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A266" s="2">
         <v>700</v>
       </c>
@@ -17652,7 +17651,7 @@
       <c r="P266" s="38"/>
       <c r="Q266" s="27"/>
     </row>
-    <row r="267" spans="1:17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A267" s="2">
         <v>700</v>
       </c>
@@ -17699,7 +17698,7 @@
       <c r="P267" s="38"/>
       <c r="Q267" s="27"/>
     </row>
-    <row r="268" spans="1:17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A268" s="2">
         <v>700</v>
       </c>
@@ -17746,7 +17745,7 @@
       <c r="P268" s="38"/>
       <c r="Q268" s="27"/>
     </row>
-    <row r="269" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A269" s="30">
         <v>700</v>
       </c>
@@ -17791,7 +17790,7 @@
       <c r="N269" s="28"/>
       <c r="O269" s="28"/>
     </row>
-    <row r="270" spans="1:17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A270" s="2">
         <v>700</v>
       </c>
@@ -17838,7 +17837,7 @@
       <c r="P270" s="38"/>
       <c r="Q270" s="27"/>
     </row>
-    <row r="271" spans="1:17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A271" s="2">
         <v>700</v>
       </c>
@@ -17885,7 +17884,7 @@
       <c r="P271" s="38"/>
       <c r="Q271" s="27"/>
     </row>
-    <row r="272" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A272" s="30">
         <v>700</v>
       </c>
@@ -17930,7 +17929,7 @@
       <c r="N272" s="28"/>
       <c r="O272" s="28"/>
     </row>
-    <row r="273" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A273" s="30">
         <v>700</v>
       </c>
@@ -17975,7 +17974,7 @@
       <c r="N273" s="28"/>
       <c r="O273" s="28"/>
     </row>
-    <row r="274" spans="1:17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A274" s="2">
         <v>800</v>
       </c>
@@ -18018,7 +18017,7 @@
       <c r="P274" s="38"/>
       <c r="Q274" s="27"/>
     </row>
-    <row r="275" spans="1:17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A275" s="2">
         <v>800</v>
       </c>
@@ -18061,7 +18060,7 @@
       <c r="P275" s="38"/>
       <c r="Q275" s="27"/>
     </row>
-    <row r="276" spans="1:17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A276" s="2">
         <v>800</v>
       </c>
@@ -18100,7 +18099,7 @@
       <c r="P276" s="38"/>
       <c r="Q276" s="27"/>
     </row>
-    <row r="277" spans="1:17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A277" s="2">
         <v>800</v>
       </c>
@@ -18137,7 +18136,7 @@
       <c r="P277" s="38"/>
       <c r="Q277" s="27"/>
     </row>
-    <row r="278" spans="1:17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A278" s="2">
         <v>800</v>
       </c>
@@ -18176,7 +18175,7 @@
       <c r="P278" s="38"/>
       <c r="Q278" s="27"/>
     </row>
-    <row r="279" spans="1:17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A279" s="2">
         <v>800</v>
       </c>
@@ -18217,7 +18216,7 @@
       <c r="P279" s="38"/>
       <c r="Q279" s="27"/>
     </row>
-    <row r="280" spans="1:17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A280" s="2">
         <v>800</v>
       </c>
@@ -18254,7 +18253,7 @@
       <c r="P280" s="38"/>
       <c r="Q280" s="27"/>
     </row>
-    <row r="281" spans="1:17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A281" s="2">
         <v>800</v>
       </c>
@@ -18291,7 +18290,7 @@
       <c r="P281" s="38"/>
       <c r="Q281" s="27"/>
     </row>
-    <row r="282" spans="1:17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A282" s="2">
         <v>800</v>
       </c>
@@ -18334,7 +18333,7 @@
       <c r="P282" s="38"/>
       <c r="Q282" s="27"/>
     </row>
-    <row r="283" spans="1:17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A283" s="2">
         <v>800</v>
       </c>
@@ -18377,7 +18376,7 @@
       <c r="P283" s="38"/>
       <c r="Q283" s="27"/>
     </row>
-    <row r="284" spans="1:17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A284" s="2">
         <v>800</v>
       </c>
@@ -18420,7 +18419,7 @@
       <c r="P284" s="38"/>
       <c r="Q284" s="27"/>
     </row>
-    <row r="285" spans="1:17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A285" s="2">
         <v>800</v>
       </c>
@@ -18463,7 +18462,7 @@
       <c r="P285" s="38"/>
       <c r="Q285" s="27"/>
     </row>
-    <row r="286" spans="1:17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A286" s="2">
         <v>800</v>
       </c>
@@ -18506,7 +18505,7 @@
       <c r="P286" s="38"/>
       <c r="Q286" s="27"/>
     </row>
-    <row r="287" spans="1:17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A287" s="2">
         <v>800</v>
       </c>
@@ -18549,7 +18548,7 @@
       <c r="P287" s="38"/>
       <c r="Q287" s="27"/>
     </row>
-    <row r="288" spans="1:17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A288" s="2">
         <v>800</v>
       </c>
@@ -18592,7 +18591,7 @@
       <c r="P288" s="38"/>
       <c r="Q288" s="27"/>
     </row>
-    <row r="289" spans="1:17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A289" s="2">
         <v>800</v>
       </c>
@@ -18629,7 +18628,7 @@
       <c r="P289" s="38"/>
       <c r="Q289" s="27"/>
     </row>
-    <row r="290" spans="1:17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A290" s="2">
         <v>800</v>
       </c>
@@ -18666,7 +18665,7 @@
       <c r="P290" s="38"/>
       <c r="Q290" s="27"/>
     </row>
-    <row r="291" spans="1:17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A291" s="2">
         <v>800</v>
       </c>
@@ -18703,7 +18702,7 @@
       <c r="P291" s="38"/>
       <c r="Q291" s="27"/>
     </row>
-    <row r="292" spans="1:17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A292" s="2">
         <v>800</v>
       </c>
@@ -18742,7 +18741,7 @@
       <c r="P292" s="38"/>
       <c r="Q292" s="27"/>
     </row>
-    <row r="293" spans="1:17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A293" s="2">
         <v>800</v>
       </c>
@@ -18781,7 +18780,7 @@
       <c r="P293" s="38"/>
       <c r="Q293" s="27"/>
     </row>
-    <row r="294" spans="1:17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A294" s="2">
         <v>800</v>
       </c>
@@ -18820,7 +18819,7 @@
       <c r="P294" s="38"/>
       <c r="Q294" s="27"/>
     </row>
-    <row r="295" spans="1:17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A295" s="2">
         <v>800</v>
       </c>
@@ -18859,7 +18858,7 @@
       <c r="P295" s="38"/>
       <c r="Q295" s="27"/>
     </row>
-    <row r="296" spans="1:17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A296" s="2">
         <v>800</v>
       </c>
@@ -18898,7 +18897,7 @@
       <c r="P296" s="38"/>
       <c r="Q296" s="27"/>
     </row>
-    <row r="297" spans="1:17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A297" s="2">
         <v>800</v>
       </c>
@@ -18937,7 +18936,7 @@
       <c r="P297" s="38"/>
       <c r="Q297" s="27"/>
     </row>
-    <row r="298" spans="1:17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A298" s="2">
         <v>800</v>
       </c>
@@ -18976,7 +18975,7 @@
       <c r="P298" s="38"/>
       <c r="Q298" s="27"/>
     </row>
-    <row r="299" spans="1:17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A299" s="2">
         <v>800</v>
       </c>
@@ -19015,7 +19014,7 @@
       <c r="P299" s="38"/>
       <c r="Q299" s="27"/>
     </row>
-    <row r="300" spans="1:17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A300" s="2">
         <v>800</v>
       </c>
@@ -19054,7 +19053,7 @@
       <c r="P300" s="38"/>
       <c r="Q300" s="27"/>
     </row>
-    <row r="301" spans="1:17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A301" s="2">
         <v>800</v>
       </c>
@@ -19093,7 +19092,7 @@
       <c r="P301" s="38"/>
       <c r="Q301" s="27"/>
     </row>
-    <row r="302" spans="1:17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A302" s="2">
         <v>800</v>
       </c>
@@ -19130,7 +19129,7 @@
       <c r="P302" s="38"/>
       <c r="Q302" s="27"/>
     </row>
-    <row r="303" spans="1:17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A303" s="2">
         <v>800</v>
       </c>
@@ -19167,7 +19166,7 @@
       <c r="P303" s="38"/>
       <c r="Q303" s="27"/>
     </row>
-    <row r="304" spans="1:17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A304" s="2">
         <v>800</v>
       </c>
@@ -19206,7 +19205,7 @@
       <c r="P304" s="38"/>
       <c r="Q304" s="27"/>
     </row>
-    <row r="305" spans="1:17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A305" s="2">
         <v>800</v>
       </c>
@@ -19243,7 +19242,7 @@
       <c r="P305" s="38"/>
       <c r="Q305" s="27"/>
     </row>
-    <row r="306" spans="1:17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A306" s="2">
         <v>800</v>
       </c>
@@ -19280,7 +19279,7 @@
       <c r="P306" s="38"/>
       <c r="Q306" s="27"/>
     </row>
-    <row r="307" spans="1:17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A307" s="2">
         <v>800</v>
       </c>
@@ -19317,7 +19316,7 @@
       <c r="P307" s="38"/>
       <c r="Q307" s="27"/>
     </row>
-    <row r="308" spans="1:17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A308" s="2">
         <v>800</v>
       </c>
@@ -19354,7 +19353,7 @@
       <c r="P308" s="38"/>
       <c r="Q308" s="27"/>
     </row>
-    <row r="309" spans="1:17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A309" s="2">
         <v>800</v>
       </c>
@@ -19391,7 +19390,7 @@
       <c r="P309" s="38"/>
       <c r="Q309" s="27"/>
     </row>
-    <row r="310" spans="1:17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A310" s="2">
         <v>800</v>
       </c>
@@ -19428,7 +19427,7 @@
       <c r="P310" s="38"/>
       <c r="Q310" s="27"/>
     </row>
-    <row r="311" spans="1:17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A311" s="2">
         <v>800</v>
       </c>
@@ -19465,7 +19464,7 @@
       <c r="P311" s="38"/>
       <c r="Q311" s="27"/>
     </row>
-    <row r="312" spans="1:17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A312" s="2">
         <v>800</v>
       </c>
@@ -19502,7 +19501,7 @@
       <c r="P312" s="38"/>
       <c r="Q312" s="27"/>
     </row>
-    <row r="313" spans="1:17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A313" s="2">
         <v>800</v>
       </c>
@@ -19539,7 +19538,7 @@
       <c r="P313" s="38"/>
       <c r="Q313" s="27"/>
     </row>
-    <row r="314" spans="1:17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A314" s="2">
         <v>800</v>
       </c>
@@ -19576,7 +19575,7 @@
       <c r="P314" s="38"/>
       <c r="Q314" s="27"/>
     </row>
-    <row r="315" spans="1:17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A315" s="2">
         <v>800</v>
       </c>
@@ -19613,7 +19612,7 @@
       <c r="P315" s="38"/>
       <c r="Q315" s="27"/>
     </row>
-    <row r="316" spans="1:17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A316" s="2">
         <v>800</v>
       </c>
@@ -19650,7 +19649,7 @@
       <c r="P316" s="38"/>
       <c r="Q316" s="27"/>
     </row>
-    <row r="317" spans="1:17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A317" s="2">
         <v>800</v>
       </c>
@@ -19687,7 +19686,7 @@
       <c r="P317" s="38"/>
       <c r="Q317" s="27"/>
     </row>
-    <row r="318" spans="1:17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A318" s="2">
         <v>800</v>
       </c>
@@ -19724,7 +19723,7 @@
       <c r="P318" s="38"/>
       <c r="Q318" s="27"/>
     </row>
-    <row r="319" spans="1:17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A319" s="2">
         <v>800</v>
       </c>
@@ -19761,7 +19760,7 @@
       <c r="P319" s="38"/>
       <c r="Q319" s="27"/>
     </row>
-    <row r="320" spans="1:17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A320" s="2">
         <v>800</v>
       </c>
@@ -19798,7 +19797,7 @@
       <c r="P320" s="38"/>
       <c r="Q320" s="27"/>
     </row>
-    <row r="321" spans="1:17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A321" s="2">
         <v>800</v>
       </c>
@@ -19835,7 +19834,7 @@
       <c r="P321" s="38"/>
       <c r="Q321" s="27"/>
     </row>
-    <row r="322" spans="1:17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A322" s="2">
         <v>800</v>
       </c>
@@ -19872,7 +19871,7 @@
       <c r="P322" s="38"/>
       <c r="Q322" s="27"/>
     </row>
-    <row r="323" spans="1:17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A323" s="2">
         <v>800</v>
       </c>
@@ -19909,7 +19908,7 @@
       <c r="P323" s="38"/>
       <c r="Q323" s="27"/>
     </row>
-    <row r="324" spans="1:17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A324" s="2">
         <v>800</v>
       </c>
@@ -19946,7 +19945,7 @@
       <c r="P324" s="38"/>
       <c r="Q324" s="27"/>
     </row>
-    <row r="325" spans="1:17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A325" s="2">
         <v>800</v>
       </c>
@@ -19983,7 +19982,7 @@
       <c r="P325" s="38"/>
       <c r="Q325" s="27"/>
     </row>
-    <row r="326" spans="1:17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A326" s="2">
         <v>800</v>
       </c>
@@ -20020,7 +20019,7 @@
       <c r="P326" s="38"/>
       <c r="Q326" s="27"/>
     </row>
-    <row r="327" spans="1:17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A327" s="2">
         <v>800</v>
       </c>
@@ -20057,7 +20056,7 @@
       <c r="P327" s="38"/>
       <c r="Q327" s="27"/>
     </row>
-    <row r="328" spans="1:17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A328" s="2">
         <v>800</v>
       </c>
@@ -20094,7 +20093,7 @@
       <c r="P328" s="38"/>
       <c r="Q328" s="27"/>
     </row>
-    <row r="329" spans="1:17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A329" s="2">
         <v>800</v>
       </c>
@@ -20131,7 +20130,7 @@
       <c r="P329" s="38"/>
       <c r="Q329" s="27"/>
     </row>
-    <row r="330" spans="1:17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A330" s="2">
         <v>800</v>
       </c>
@@ -20168,7 +20167,7 @@
       <c r="P330" s="38"/>
       <c r="Q330" s="27"/>
     </row>
-    <row r="331" spans="1:17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A331" s="2">
         <v>800</v>
       </c>
@@ -20205,7 +20204,7 @@
       <c r="P331" s="38"/>
       <c r="Q331" s="27"/>
     </row>
-    <row r="332" spans="1:17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A332" s="2">
         <v>800</v>
       </c>
@@ -20242,7 +20241,7 @@
       <c r="P332" s="38"/>
       <c r="Q332" s="27"/>
     </row>
-    <row r="333" spans="1:17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A333" s="2">
         <v>800</v>
       </c>
@@ -20279,7 +20278,7 @@
       <c r="P333" s="38"/>
       <c r="Q333" s="27"/>
     </row>
-    <row r="334" spans="1:17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A334" s="2">
         <v>800</v>
       </c>
@@ -20316,7 +20315,7 @@
       <c r="P334" s="38"/>
       <c r="Q334" s="27"/>
     </row>
-    <row r="335" spans="1:17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A335" s="2">
         <v>800</v>
       </c>
@@ -20353,7 +20352,7 @@
       <c r="P335" s="38"/>
       <c r="Q335" s="27"/>
     </row>
-    <row r="336" spans="1:17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A336" s="2">
         <v>800</v>
       </c>
@@ -20390,7 +20389,7 @@
       <c r="P336" s="38"/>
       <c r="Q336" s="27"/>
     </row>
-    <row r="337" spans="1:17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A337" s="2">
         <v>800</v>
       </c>
@@ -20427,7 +20426,7 @@
       <c r="P337" s="38"/>
       <c r="Q337" s="27"/>
     </row>
-    <row r="338" spans="1:17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A338" s="2">
         <v>800</v>
       </c>
@@ -20464,7 +20463,7 @@
       <c r="P338" s="38"/>
       <c r="Q338" s="27"/>
     </row>
-    <row r="339" spans="1:17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A339" s="2">
         <v>800</v>
       </c>
@@ -20501,7 +20500,7 @@
       <c r="P339" s="38"/>
       <c r="Q339" s="27"/>
     </row>
-    <row r="340" spans="1:17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A340" s="2">
         <v>800</v>
       </c>
@@ -20538,7 +20537,7 @@
       <c r="P340" s="38"/>
       <c r="Q340" s="27"/>
     </row>
-    <row r="341" spans="1:17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A341" s="2">
         <v>800</v>
       </c>
@@ -20575,7 +20574,7 @@
       <c r="P341" s="38"/>
       <c r="Q341" s="27"/>
     </row>
-    <row r="342" spans="1:17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A342" s="2">
         <v>800</v>
       </c>
@@ -20612,7 +20611,7 @@
       <c r="P342" s="38"/>
       <c r="Q342" s="27"/>
     </row>
-    <row r="343" spans="1:17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A343" s="2">
         <v>800</v>
       </c>
@@ -20649,7 +20648,7 @@
       <c r="P343" s="38"/>
       <c r="Q343" s="27"/>
     </row>
-    <row r="344" spans="1:17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A344" s="2">
         <v>800</v>
       </c>
@@ -20686,7 +20685,7 @@
       <c r="P344" s="38"/>
       <c r="Q344" s="27"/>
     </row>
-    <row r="345" spans="1:17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A345" s="2">
         <v>800</v>
       </c>
@@ -20723,7 +20722,7 @@
       <c r="P345" s="38"/>
       <c r="Q345" s="27"/>
     </row>
-    <row r="346" spans="1:17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A346" s="2">
         <v>800</v>
       </c>
@@ -20760,7 +20759,7 @@
       <c r="P346" s="38"/>
       <c r="Q346" s="27"/>
     </row>
-    <row r="347" spans="1:17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A347" s="2">
         <v>800</v>
       </c>
@@ -20797,7 +20796,7 @@
       <c r="P347" s="38"/>
       <c r="Q347" s="27"/>
     </row>
-    <row r="348" spans="1:17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A348" s="2">
         <v>800</v>
       </c>
@@ -20834,7 +20833,7 @@
       <c r="P348" s="38"/>
       <c r="Q348" s="27"/>
     </row>
-    <row r="349" spans="1:17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A349" s="2">
         <v>800</v>
       </c>
@@ -20871,7 +20870,7 @@
       <c r="P349" s="38"/>
       <c r="Q349" s="27"/>
     </row>
-    <row r="350" spans="1:17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A350" s="2">
         <v>800</v>
       </c>
@@ -20908,7 +20907,7 @@
       <c r="P350" s="38"/>
       <c r="Q350" s="27"/>
     </row>
-    <row r="351" spans="1:17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A351" s="2">
         <v>800</v>
       </c>
@@ -20945,7 +20944,7 @@
       <c r="P351" s="38"/>
       <c r="Q351" s="27"/>
     </row>
-    <row r="352" spans="1:17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A352" s="2">
         <v>800</v>
       </c>
@@ -20982,7 +20981,7 @@
       <c r="P352" s="38"/>
       <c r="Q352" s="27"/>
     </row>
-    <row r="353" spans="1:17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A353" s="2">
         <v>800</v>
       </c>
@@ -21019,7 +21018,7 @@
       <c r="P353" s="38"/>
       <c r="Q353" s="27"/>
     </row>
-    <row r="354" spans="1:17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A354" s="2">
         <v>800</v>
       </c>
@@ -21056,7 +21055,7 @@
       <c r="P354" s="38"/>
       <c r="Q354" s="27"/>
     </row>
-    <row r="355" spans="1:17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A355" s="2">
         <v>800</v>
       </c>
@@ -21093,7 +21092,7 @@
       <c r="P355" s="38"/>
       <c r="Q355" s="27"/>
     </row>
-    <row r="356" spans="1:17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A356" s="2">
         <v>800</v>
       </c>
@@ -21130,7 +21129,7 @@
       <c r="P356" s="38"/>
       <c r="Q356" s="27"/>
     </row>
-    <row r="357" spans="1:17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A357" s="2">
         <v>800</v>
       </c>
@@ -21167,7 +21166,7 @@
       <c r="P357" s="38"/>
       <c r="Q357" s="27"/>
     </row>
-    <row r="358" spans="1:17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A358" s="2">
         <v>800</v>
       </c>
@@ -21204,7 +21203,7 @@
       <c r="P358" s="38"/>
       <c r="Q358" s="27"/>
     </row>
-    <row r="359" spans="1:17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A359" s="2">
         <v>800</v>
       </c>
@@ -21241,7 +21240,7 @@
       <c r="P359" s="38"/>
       <c r="Q359" s="27"/>
     </row>
-    <row r="360" spans="1:17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A360" s="2">
         <v>800</v>
       </c>
@@ -21278,7 +21277,7 @@
       <c r="P360" s="38"/>
       <c r="Q360" s="27"/>
     </row>
-    <row r="361" spans="1:17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A361" s="2">
         <v>800</v>
       </c>
@@ -21315,7 +21314,7 @@
       <c r="P361" s="38"/>
       <c r="Q361" s="27"/>
     </row>
-    <row r="362" spans="1:17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A362" s="2">
         <v>800</v>
       </c>
@@ -21352,7 +21351,7 @@
       <c r="P362" s="38"/>
       <c r="Q362" s="27"/>
     </row>
-    <row r="363" spans="1:17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A363" s="2">
         <v>800</v>
       </c>
@@ -21389,7 +21388,7 @@
       <c r="P363" s="38"/>
       <c r="Q363" s="27"/>
     </row>
-    <row r="364" spans="1:17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A364" s="2">
         <v>800</v>
       </c>
@@ -21426,7 +21425,7 @@
       <c r="P364" s="38"/>
       <c r="Q364" s="27"/>
     </row>
-    <row r="365" spans="1:17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A365" s="2">
         <v>800</v>
       </c>
@@ -21463,7 +21462,7 @@
       <c r="P365" s="38"/>
       <c r="Q365" s="27"/>
     </row>
-    <row r="366" spans="1:17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A366" s="2">
         <v>800</v>
       </c>
@@ -21500,7 +21499,7 @@
       <c r="P366" s="38"/>
       <c r="Q366" s="27"/>
     </row>
-    <row r="367" spans="1:17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A367" s="2">
         <v>800</v>
       </c>
@@ -21537,7 +21536,7 @@
       <c r="P367" s="38"/>
       <c r="Q367" s="27"/>
     </row>
-    <row r="368" spans="1:17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A368" s="2">
         <v>800</v>
       </c>
@@ -21574,7 +21573,7 @@
       <c r="P368" s="38"/>
       <c r="Q368" s="27"/>
     </row>
-    <row r="369" spans="1:17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A369" s="2">
         <v>800</v>
       </c>
@@ -21611,7 +21610,7 @@
       <c r="P369" s="38"/>
       <c r="Q369" s="27"/>
     </row>
-    <row r="370" spans="1:17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A370" s="2">
         <v>800</v>
       </c>
@@ -21648,7 +21647,7 @@
       <c r="P370" s="38"/>
       <c r="Q370" s="27"/>
     </row>
-    <row r="371" spans="1:17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A371" s="2">
         <v>800</v>
       </c>
@@ -21685,7 +21684,7 @@
       <c r="P371" s="38"/>
       <c r="Q371" s="27"/>
     </row>
-    <row r="372" spans="1:17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A372" s="2">
         <v>800</v>
       </c>
@@ -21722,7 +21721,7 @@
       <c r="P372" s="38"/>
       <c r="Q372" s="27"/>
     </row>
-    <row r="373" spans="1:17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A373" s="2">
         <v>800</v>
       </c>
@@ -21759,7 +21758,7 @@
       <c r="P373" s="38"/>
       <c r="Q373" s="27"/>
     </row>
-    <row r="374" spans="1:17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A374" s="2">
         <v>800</v>
       </c>
@@ -21796,7 +21795,7 @@
       <c r="P374" s="38"/>
       <c r="Q374" s="27"/>
     </row>
-    <row r="375" spans="1:17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A375" s="2">
         <v>800</v>
       </c>
@@ -21833,7 +21832,7 @@
       <c r="P375" s="38"/>
       <c r="Q375" s="27"/>
     </row>
-    <row r="376" spans="1:17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A376" s="2">
         <v>800</v>
       </c>
@@ -21870,7 +21869,7 @@
       <c r="P376" s="38"/>
       <c r="Q376" s="27"/>
     </row>
-    <row r="377" spans="1:17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A377" s="2">
         <v>800</v>
       </c>
@@ -21907,7 +21906,7 @@
       <c r="P377" s="38"/>
       <c r="Q377" s="27"/>
     </row>
-    <row r="378" spans="1:17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A378" s="2">
         <v>800</v>
       </c>
@@ -21946,7 +21945,7 @@
       <c r="P378" s="38"/>
       <c r="Q378" s="27"/>
     </row>
-    <row r="379" spans="1:17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A379" s="2">
         <v>800</v>
       </c>
@@ -21983,7 +21982,7 @@
       <c r="P379" s="38"/>
       <c r="Q379" s="27"/>
     </row>
-    <row r="380" spans="1:17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A380" s="2">
         <v>800</v>
       </c>
@@ -22020,7 +22019,7 @@
       <c r="P380" s="38"/>
       <c r="Q380" s="27"/>
     </row>
-    <row r="381" spans="1:17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A381" s="2">
         <v>800</v>
       </c>
@@ -22055,7 +22054,7 @@
       <c r="P381" s="38"/>
       <c r="Q381" s="27"/>
     </row>
-    <row r="382" spans="1:17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A382" s="2">
         <v>800</v>
       </c>
@@ -22092,7 +22091,7 @@
       <c r="P382" s="38"/>
       <c r="Q382" s="27"/>
     </row>
-    <row r="383" spans="1:17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A383" s="2">
         <v>800</v>
       </c>
@@ -22135,7 +22134,7 @@
       <c r="P383" s="38"/>
       <c r="Q383" s="27"/>
     </row>
-    <row r="384" spans="1:17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A384" s="2">
         <v>800</v>
       </c>
@@ -22178,7 +22177,7 @@
       <c r="P384" s="38"/>
       <c r="Q384" s="27"/>
     </row>
-    <row r="385" spans="1:17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A385" s="2">
         <v>800</v>
       </c>
@@ -22221,7 +22220,7 @@
       <c r="P385" s="38"/>
       <c r="Q385" s="27"/>
     </row>
-    <row r="386" spans="1:17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A386" s="2">
         <v>800</v>
       </c>
@@ -22264,7 +22263,7 @@
       <c r="P386" s="38"/>
       <c r="Q386" s="27"/>
     </row>
-    <row r="387" spans="1:17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A387" s="2">
         <v>800</v>
       </c>
@@ -22303,7 +22302,7 @@
       <c r="P387" s="38"/>
       <c r="Q387" s="27"/>
     </row>
-    <row r="388" spans="1:17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A388" s="2">
         <v>800</v>
       </c>
@@ -22340,7 +22339,7 @@
       <c r="P388" s="38"/>
       <c r="Q388" s="27"/>
     </row>
-    <row r="389" spans="1:17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A389" s="2">
         <v>800</v>
       </c>
@@ -22377,7 +22376,7 @@
       <c r="P389" s="38"/>
       <c r="Q389" s="27"/>
     </row>
-    <row r="390" spans="1:17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A390" s="2">
         <v>800</v>
       </c>
@@ -22414,7 +22413,7 @@
       <c r="P390" s="38"/>
       <c r="Q390" s="27"/>
     </row>
-    <row r="391" spans="1:17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A391" s="2">
         <v>800</v>
       </c>
@@ -22492,7 +22491,7 @@
       <c r="P392" s="38"/>
       <c r="Q392" s="27"/>
     </row>
-    <row r="393" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A393" s="30">
         <v>900</v>
       </c>
@@ -22539,7 +22538,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="394" spans="1:17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A394" s="2">
         <v>900</v>
       </c>
@@ -22588,7 +22587,7 @@
       <c r="P394" s="38"/>
       <c r="Q394" s="27"/>
     </row>
-    <row r="395" spans="1:17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A395" s="2">
         <v>900</v>
       </c>
@@ -22637,7 +22636,7 @@
       <c r="P395" s="38"/>
       <c r="Q395" s="27"/>
     </row>
-    <row r="396" spans="1:17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A396" s="2">
         <v>900</v>
       </c>
@@ -22678,7 +22677,7 @@
       <c r="P396" s="38"/>
       <c r="Q396" s="27"/>
     </row>
-    <row r="397" spans="1:17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A397" s="2">
         <v>900</v>
       </c>
@@ -22719,7 +22718,7 @@
       <c r="P397" s="38"/>
       <c r="Q397" s="27"/>
     </row>
-    <row r="398" spans="1:17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A398" s="2">
         <v>900</v>
       </c>
@@ -22756,7 +22755,7 @@
       <c r="P398" s="38"/>
       <c r="Q398" s="27"/>
     </row>
-    <row r="399" spans="1:17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A399" s="2">
         <v>900</v>
       </c>
@@ -22797,7 +22796,7 @@
       <c r="P399" s="38"/>
       <c r="Q399" s="27"/>
     </row>
-    <row r="400" spans="1:17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A400" s="2">
         <v>900</v>
       </c>
@@ -22846,7 +22845,7 @@
       <c r="P400" s="38"/>
       <c r="Q400" s="27"/>
     </row>
-    <row r="401" spans="1:17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="401" spans="1:17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A401" s="2">
         <v>900</v>
       </c>
@@ -22895,7 +22894,7 @@
       <c r="P401" s="38"/>
       <c r="Q401" s="27"/>
     </row>
-    <row r="402" spans="1:17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="402" spans="1:17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A402" s="2">
         <v>900</v>
       </c>
@@ -22944,7 +22943,7 @@
       <c r="P402" s="38"/>
       <c r="Q402" s="27"/>
     </row>
-    <row r="403" spans="1:17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="403" spans="1:17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A403" s="2">
         <v>900</v>
       </c>
@@ -22985,7 +22984,7 @@
       <c r="P403" s="38"/>
       <c r="Q403" s="27"/>
     </row>
-    <row r="404" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="404" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A404" s="30">
         <v>900</v>
       </c>
@@ -23019,7 +23018,7 @@
       <c r="N404" s="28"/>
       <c r="O404" s="28"/>
     </row>
-    <row r="405" spans="1:17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="405" spans="1:17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A405" s="2">
         <v>900</v>
       </c>
@@ -23056,7 +23055,7 @@
       <c r="P405" s="38"/>
       <c r="Q405" s="27"/>
     </row>
-    <row r="406" spans="1:17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="406" spans="1:17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A406" s="2">
         <v>900</v>
       </c>
@@ -23105,7 +23104,7 @@
       <c r="P406" s="38"/>
       <c r="Q406" s="27"/>
     </row>
-    <row r="407" spans="1:17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="407" spans="1:17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A407" s="2">
         <v>900</v>
       </c>
@@ -23146,7 +23145,7 @@
       <c r="P407" s="38"/>
       <c r="Q407" s="27"/>
     </row>
-    <row r="408" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="408" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A408" s="30">
         <v>900</v>
       </c>
@@ -23191,7 +23190,7 @@
       <c r="N408" s="28"/>
       <c r="O408" s="28"/>
     </row>
-    <row r="409" spans="1:17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="409" spans="1:17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A409" s="2">
         <v>900</v>
       </c>
@@ -23232,7 +23231,7 @@
       <c r="P409" s="38"/>
       <c r="Q409" s="27"/>
     </row>
-    <row r="410" spans="1:17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="410" spans="1:17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A410" s="2">
         <v>900</v>
       </c>
@@ -23269,7 +23268,7 @@
       <c r="P410" s="38"/>
       <c r="Q410" s="27"/>
     </row>
-    <row r="411" spans="1:17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="411" spans="1:17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A411" s="2">
         <v>900</v>
       </c>
@@ -23308,7 +23307,7 @@
       <c r="P411" s="38"/>
       <c r="Q411" s="27"/>
     </row>
-    <row r="412" spans="1:17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="412" spans="1:17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A412" s="2">
         <v>900</v>
       </c>
@@ -23349,7 +23348,7 @@
       <c r="P412" s="38"/>
       <c r="Q412" s="27"/>
     </row>
-    <row r="413" spans="1:17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="413" spans="1:17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A413" s="2">
         <v>900</v>
       </c>
@@ -23398,7 +23397,7 @@
       <c r="P413" s="38"/>
       <c r="Q413" s="27"/>
     </row>
-    <row r="414" spans="1:17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="414" spans="1:17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A414" s="2">
         <v>900</v>
       </c>
@@ -23447,7 +23446,7 @@
       <c r="P414" s="38"/>
       <c r="Q414" s="27"/>
     </row>
-    <row r="415" spans="1:17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="415" spans="1:17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A415" s="2">
         <v>900</v>
       </c>
@@ -23488,7 +23487,7 @@
       <c r="P415" s="38"/>
       <c r="Q415" s="27"/>
     </row>
-    <row r="416" spans="1:17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="416" spans="1:17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A416" s="2">
         <v>900</v>
       </c>
@@ -23537,7 +23536,7 @@
       <c r="P416" s="38"/>
       <c r="Q416" s="27"/>
     </row>
-    <row r="417" spans="1:17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="417" spans="1:17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A417" s="2">
         <v>900</v>
       </c>
@@ -23574,7 +23573,7 @@
       <c r="P417" s="38"/>
       <c r="Q417" s="27"/>
     </row>
-    <row r="418" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="418" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A418" s="30">
         <v>900</v>
       </c>
@@ -23611,7 +23610,7 @@
       <c r="N418" s="28"/>
       <c r="O418" s="28"/>
     </row>
-    <row r="419" spans="1:17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="419" spans="1:17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A419" s="2">
         <v>900</v>
       </c>
@@ -23650,7 +23649,7 @@
       <c r="P419" s="38"/>
       <c r="Q419" s="27"/>
     </row>
-    <row r="420" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="420" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A420" s="30">
         <v>900</v>
       </c>
@@ -23687,7 +23686,7 @@
       <c r="N420" s="28"/>
       <c r="O420" s="28"/>
     </row>
-    <row r="421" spans="1:17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="421" spans="1:17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A421" s="2">
         <v>900</v>
       </c>
@@ -23730,7 +23729,7 @@
       <c r="P421" s="38"/>
       <c r="Q421" s="27"/>
     </row>
-    <row r="422" spans="1:17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="422" spans="1:17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A422" s="2">
         <v>900</v>
       </c>
@@ -23773,7 +23772,7 @@
       <c r="P422" s="38"/>
       <c r="Q422" s="27"/>
     </row>
-    <row r="423" spans="1:17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="423" spans="1:17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A423" s="2">
         <v>900</v>
       </c>
@@ -23816,7 +23815,7 @@
       <c r="P423" s="38"/>
       <c r="Q423" s="27"/>
     </row>
-    <row r="424" spans="1:17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="424" spans="1:17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A424" s="2">
         <v>900</v>
       </c>
@@ -23859,7 +23858,7 @@
       <c r="P424" s="38"/>
       <c r="Q424" s="27"/>
     </row>
-    <row r="425" spans="1:17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="425" spans="1:17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A425" s="2">
         <v>900</v>
       </c>
@@ -23902,7 +23901,7 @@
       <c r="P425" s="38"/>
       <c r="Q425" s="27"/>
     </row>
-    <row r="426" spans="1:17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="426" spans="1:17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A426" s="2">
         <v>900</v>
       </c>
@@ -23945,7 +23944,7 @@
       <c r="P426" s="38"/>
       <c r="Q426" s="27"/>
     </row>
-    <row r="427" spans="1:17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="427" spans="1:17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A427" s="2">
         <v>900</v>
       </c>
@@ -23988,7 +23987,7 @@
       <c r="P427" s="38"/>
       <c r="Q427" s="27"/>
     </row>
-    <row r="428" spans="1:17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="428" spans="1:17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A428" s="2">
         <v>900</v>
       </c>
@@ -24031,7 +24030,7 @@
       <c r="P428" s="38"/>
       <c r="Q428" s="27"/>
     </row>
-    <row r="429" spans="1:17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="429" spans="1:17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A429" s="2">
         <v>900</v>
       </c>
@@ -24074,7 +24073,7 @@
       <c r="P429" s="38"/>
       <c r="Q429" s="27"/>
     </row>
-    <row r="430" spans="1:17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="430" spans="1:17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A430" s="2">
         <v>900</v>
       </c>
@@ -24117,7 +24116,7 @@
       <c r="P430" s="38"/>
       <c r="Q430" s="27"/>
     </row>
-    <row r="431" spans="1:17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="431" spans="1:17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A431" s="2">
         <v>900</v>
       </c>
@@ -24154,7 +24153,7 @@
       <c r="P431" s="38"/>
       <c r="Q431" s="27"/>
     </row>
-    <row r="432" spans="1:17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="432" spans="1:17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A432" s="2">
         <v>900</v>
       </c>
@@ -24193,7 +24192,7 @@
       <c r="P432" s="38"/>
       <c r="Q432" s="27"/>
     </row>
-    <row r="433" spans="1:17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="433" spans="1:17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A433" s="2">
         <v>900</v>
       </c>
@@ -24232,7 +24231,7 @@
       <c r="P433" s="38"/>
       <c r="Q433" s="27"/>
     </row>
-    <row r="434" spans="1:17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="434" spans="1:17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A434" s="2">
         <v>900</v>
       </c>
@@ -24271,7 +24270,7 @@
       <c r="P434" s="38"/>
       <c r="Q434" s="27"/>
     </row>
-    <row r="435" spans="1:17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="435" spans="1:17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A435" s="2">
         <v>900</v>
       </c>
@@ -24310,7 +24309,7 @@
       <c r="P435" s="38"/>
       <c r="Q435" s="27"/>
     </row>
-    <row r="436" spans="1:17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="436" spans="1:17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A436" s="2">
         <v>900</v>
       </c>
@@ -24349,7 +24348,7 @@
       <c r="P436" s="38"/>
       <c r="Q436" s="27"/>
     </row>
-    <row r="437" spans="1:17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="437" spans="1:17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A437" s="2">
         <v>900</v>
       </c>
@@ -24386,7 +24385,7 @@
       <c r="P437" s="38"/>
       <c r="Q437" s="27"/>
     </row>
-    <row r="438" spans="1:17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="438" spans="1:17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A438" s="2">
         <v>900</v>
       </c>
@@ -24435,7 +24434,7 @@
       <c r="P438" s="38"/>
       <c r="Q438" s="27"/>
     </row>
-    <row r="439" spans="1:17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="439" spans="1:17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A439" s="2">
         <v>900</v>
       </c>
@@ -24484,7 +24483,7 @@
       <c r="P439" s="38"/>
       <c r="Q439" s="27"/>
     </row>
-    <row r="440" spans="1:17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="440" spans="1:17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A440" s="2">
         <v>900</v>
       </c>
@@ -24533,7 +24532,7 @@
       <c r="P440" s="38"/>
       <c r="Q440" s="27"/>
     </row>
-    <row r="441" spans="1:17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="441" spans="1:17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A441" s="2">
         <v>900</v>
       </c>
@@ -24582,7 +24581,7 @@
       <c r="P441" s="38"/>
       <c r="Q441" s="27"/>
     </row>
-    <row r="442" spans="1:17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="442" spans="1:17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A442" s="2">
         <v>900</v>
       </c>
@@ -24631,7 +24630,7 @@
       <c r="P442" s="38"/>
       <c r="Q442" s="27"/>
     </row>
-    <row r="443" spans="1:17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="443" spans="1:17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A443" s="2">
         <v>900</v>
       </c>
@@ -24680,7 +24679,7 @@
       <c r="P443" s="38"/>
       <c r="Q443" s="27"/>
     </row>
-    <row r="444" spans="1:17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="444" spans="1:17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A444" s="2">
         <v>900</v>
       </c>
@@ -24729,7 +24728,7 @@
       <c r="P444" s="38"/>
       <c r="Q444" s="27"/>
     </row>
-    <row r="445" spans="1:17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="445" spans="1:17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A445" s="2">
         <v>900</v>
       </c>
@@ -24778,7 +24777,7 @@
       <c r="P445" s="38"/>
       <c r="Q445" s="27"/>
     </row>
-    <row r="446" spans="1:17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="446" spans="1:17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A446" s="2">
         <v>900</v>
       </c>
@@ -24827,7 +24826,7 @@
       <c r="P446" s="38"/>
       <c r="Q446" s="27"/>
     </row>
-    <row r="447" spans="1:17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="447" spans="1:17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A447" s="2">
         <v>900</v>
       </c>
@@ -24876,7 +24875,7 @@
       <c r="P447" s="38"/>
       <c r="Q447" s="27"/>
     </row>
-    <row r="448" spans="1:17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="448" spans="1:17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A448" s="2">
         <v>900</v>
       </c>
@@ -24925,7 +24924,7 @@
       <c r="P448" s="38"/>
       <c r="Q448" s="27"/>
     </row>
-    <row r="449" spans="1:17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="449" spans="1:17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A449" s="2">
         <v>900</v>
       </c>
@@ -24974,7 +24973,7 @@
       <c r="P449" s="38"/>
       <c r="Q449" s="27"/>
     </row>
-    <row r="450" spans="1:17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="450" spans="1:17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A450" s="2">
         <v>900</v>
       </c>
@@ -25023,7 +25022,7 @@
       <c r="P450" s="38"/>
       <c r="Q450" s="27"/>
     </row>
-    <row r="451" spans="1:17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="451" spans="1:17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A451" s="2">
         <v>900</v>
       </c>
@@ -25072,7 +25071,7 @@
       <c r="P451" s="38"/>
       <c r="Q451" s="27"/>
     </row>
-    <row r="452" spans="1:17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="452" spans="1:17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A452" s="2">
         <v>900</v>
       </c>
@@ -25109,7 +25108,7 @@
       <c r="P452" s="38"/>
       <c r="Q452" s="27"/>
     </row>
-    <row r="453" spans="1:17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="453" spans="1:17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A453" s="2">
         <v>900</v>
       </c>
@@ -25146,7 +25145,7 @@
       <c r="P453" s="38"/>
       <c r="Q453" s="27"/>
     </row>
-    <row r="454" spans="1:17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="454" spans="1:17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A454" s="2">
         <v>900</v>
       </c>
@@ -25183,7 +25182,7 @@
       <c r="P454" s="38"/>
       <c r="Q454" s="27"/>
     </row>
-    <row r="455" spans="1:17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="455" spans="1:17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A455" s="2">
         <v>900</v>
       </c>
@@ -25220,7 +25219,7 @@
       <c r="P455" s="38"/>
       <c r="Q455" s="27"/>
     </row>
-    <row r="456" spans="1:17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="456" spans="1:17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A456" s="2">
         <v>900</v>
       </c>
@@ -25257,7 +25256,7 @@
       <c r="P456" s="38"/>
       <c r="Q456" s="27"/>
     </row>
-    <row r="457" spans="1:17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="457" spans="1:17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A457" s="2">
         <v>900</v>
       </c>
@@ -25294,7 +25293,7 @@
       <c r="P457" s="38"/>
       <c r="Q457" s="27"/>
     </row>
-    <row r="458" spans="1:17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="458" spans="1:17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A458" s="2">
         <v>900</v>
       </c>
@@ -25333,7 +25332,7 @@
       <c r="P458" s="38"/>
       <c r="Q458" s="27"/>
     </row>
-    <row r="459" spans="1:17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="459" spans="1:17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A459" s="2">
         <v>900</v>
       </c>
@@ -25372,7 +25371,7 @@
       <c r="P459" s="38"/>
       <c r="Q459" s="27"/>
     </row>
-    <row r="460" spans="1:17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="460" spans="1:17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A460" s="2">
         <v>900</v>
       </c>
@@ -25411,7 +25410,7 @@
       <c r="P460" s="38"/>
       <c r="Q460" s="27"/>
     </row>
-    <row r="461" spans="1:17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="461" spans="1:17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A461" s="2">
         <v>900</v>
       </c>
@@ -25450,7 +25449,7 @@
       <c r="P461" s="38"/>
       <c r="Q461" s="27"/>
     </row>
-    <row r="462" spans="1:17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="462" spans="1:17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A462" s="2">
         <v>900</v>
       </c>
@@ -25489,7 +25488,7 @@
       <c r="P462" s="38"/>
       <c r="Q462" s="27"/>
     </row>
-    <row r="463" spans="1:17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="463" spans="1:17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A463" s="2">
         <v>900</v>
       </c>
@@ -25622,7 +25621,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="466" spans="1:17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="466" spans="1:17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A466" s="2">
         <v>900</v>
       </c>
@@ -25659,7 +25658,7 @@
       <c r="P466" s="38"/>
       <c r="Q466" s="27"/>
     </row>
-    <row r="467" spans="1:17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="467" spans="1:17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A467" s="2">
         <v>900</v>
       </c>
@@ -25696,7 +25695,7 @@
       <c r="P467" s="38"/>
       <c r="Q467" s="27"/>
     </row>
-    <row r="468" spans="1:17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="468" spans="1:17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A468" s="2">
         <v>900</v>
       </c>
@@ -25733,7 +25732,7 @@
       <c r="P468" s="38"/>
       <c r="Q468" s="27"/>
     </row>
-    <row r="469" spans="1:17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="469" spans="1:17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A469" s="2">
         <v>900</v>
       </c>
@@ -25770,7 +25769,7 @@
       <c r="P469" s="38"/>
       <c r="Q469" s="27"/>
     </row>
-    <row r="470" spans="1:17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="470" spans="1:17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A470" s="2">
         <v>900</v>
       </c>
@@ -25807,7 +25806,7 @@
       <c r="P470" s="38"/>
       <c r="Q470" s="27"/>
     </row>
-    <row r="471" spans="1:17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="471" spans="1:17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A471" s="2">
         <v>900</v>
       </c>
@@ -25844,7 +25843,7 @@
       <c r="P471" s="38"/>
       <c r="Q471" s="27"/>
     </row>
-    <row r="472" spans="1:17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="472" spans="1:17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A472" s="2">
         <v>900</v>
       </c>
@@ -25881,7 +25880,7 @@
       <c r="P472" s="38"/>
       <c r="Q472" s="27"/>
     </row>
-    <row r="473" spans="1:17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="473" spans="1:17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A473" s="2">
         <v>900</v>
       </c>
@@ -25920,7 +25919,7 @@
       <c r="P473" s="38"/>
       <c r="Q473" s="27"/>
     </row>
-    <row r="474" spans="1:17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="474" spans="1:17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A474" s="2">
         <v>900</v>
       </c>
@@ -25969,7 +25968,7 @@
       <c r="P474" s="38"/>
       <c r="Q474" s="27"/>
     </row>
-    <row r="475" spans="1:17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="475" spans="1:17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A475" s="2">
         <v>900</v>
       </c>
@@ -26010,7 +26009,7 @@
       <c r="P475" s="38"/>
       <c r="Q475" s="27"/>
     </row>
-    <row r="476" spans="1:17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="476" spans="1:17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A476" s="2">
         <v>900</v>
       </c>
@@ -26053,7 +26052,7 @@
       <c r="P476" s="38"/>
       <c r="Q476" s="27"/>
     </row>
-    <row r="477" spans="1:17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="477" spans="1:17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A477" s="2">
         <v>900</v>
       </c>
@@ -26096,7 +26095,7 @@
       <c r="P477" s="38"/>
       <c r="Q477" s="27"/>
     </row>
-    <row r="478" spans="1:17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="478" spans="1:17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A478" s="2">
         <v>900</v>
       </c>
@@ -26135,7 +26134,7 @@
       <c r="P478" s="38"/>
       <c r="Q478" s="27"/>
     </row>
-    <row r="479" spans="1:17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="479" spans="1:17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A479" s="2">
         <v>900</v>
       </c>
@@ -26174,7 +26173,7 @@
       <c r="P479" s="38"/>
       <c r="Q479" s="27"/>
     </row>
-    <row r="480" spans="1:17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="480" spans="1:17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A480" s="2">
         <v>900</v>
       </c>
@@ -26213,7 +26212,7 @@
       <c r="P480" s="38"/>
       <c r="Q480" s="27"/>
     </row>
-    <row r="481" spans="1:17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="481" spans="1:17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A481" s="2">
         <v>900</v>
       </c>
@@ -26250,7 +26249,7 @@
       <c r="P481" s="38"/>
       <c r="Q481" s="27"/>
     </row>
-    <row r="482" spans="1:17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="482" spans="1:17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A482" s="2">
         <v>900</v>
       </c>
@@ -26299,7 +26298,7 @@
       <c r="P482" s="38"/>
       <c r="Q482" s="27"/>
     </row>
-    <row r="483" spans="1:17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="483" spans="1:17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A483" s="2">
         <v>900</v>
       </c>
@@ -26348,7 +26347,7 @@
       <c r="P483" s="38"/>
       <c r="Q483" s="27"/>
     </row>
-    <row r="484" spans="1:17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="484" spans="1:17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A484" s="2">
         <v>900</v>
       </c>
@@ -26397,7 +26396,7 @@
       <c r="P484" s="38"/>
       <c r="Q484" s="27"/>
     </row>
-    <row r="485" spans="1:17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="485" spans="1:17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A485" s="2">
         <v>900</v>
       </c>
@@ -26446,7 +26445,7 @@
       <c r="P485" s="38"/>
       <c r="Q485" s="27"/>
     </row>
-    <row r="486" spans="1:17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="486" spans="1:17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A486" s="2">
         <v>900</v>
       </c>
@@ -26483,7 +26482,7 @@
       <c r="P486" s="38"/>
       <c r="Q486" s="27"/>
     </row>
-    <row r="487" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="487" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A487" s="30">
         <v>900</v>
       </c>
@@ -26520,7 +26519,7 @@
       <c r="N487" s="28"/>
       <c r="O487" s="28"/>
     </row>
-    <row r="488" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="488" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A488" s="30">
         <v>900</v>
       </c>
@@ -26557,7 +26556,7 @@
       <c r="N488" s="28"/>
       <c r="O488" s="28"/>
     </row>
-    <row r="489" spans="1:17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="489" spans="1:17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A489" s="2">
         <v>900</v>
       </c>
@@ -26596,7 +26595,7 @@
       <c r="P489" s="38"/>
       <c r="Q489" s="27"/>
     </row>
-    <row r="490" spans="1:17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="490" spans="1:17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A490" s="2">
         <v>900</v>
       </c>
@@ -26819,7 +26818,7 @@
       <c r="P494" s="38"/>
       <c r="Q494" s="27"/>
     </row>
-    <row r="495" spans="1:17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="495" spans="1:17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A495" s="2">
         <v>1000</v>
       </c>
@@ -26858,7 +26857,7 @@
       <c r="P495" s="38"/>
       <c r="Q495" s="27"/>
     </row>
-    <row r="496" spans="1:17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="496" spans="1:17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A496" s="2">
         <v>1000</v>
       </c>
@@ -26897,7 +26896,7 @@
       <c r="P496" s="38"/>
       <c r="Q496" s="27"/>
     </row>
-    <row r="497" spans="1:17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="497" spans="1:17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A497" s="2">
         <v>1000</v>
       </c>
@@ -26936,7 +26935,7 @@
       <c r="P497" s="38"/>
       <c r="Q497" s="27"/>
     </row>
-    <row r="498" spans="1:17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="498" spans="1:17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A498" s="2">
         <v>1000</v>
       </c>
@@ -26975,7 +26974,7 @@
       <c r="P498" s="38"/>
       <c r="Q498" s="27"/>
     </row>
-    <row r="499" spans="1:17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="499" spans="1:17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A499" s="2">
         <v>1000</v>
       </c>
@@ -27014,7 +27013,7 @@
       <c r="P499" s="38"/>
       <c r="Q499" s="27"/>
     </row>
-    <row r="500" spans="1:17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="500" spans="1:17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A500" s="2">
         <v>1000</v>
       </c>
@@ -27053,7 +27052,7 @@
       <c r="P500" s="38"/>
       <c r="Q500" s="27"/>
     </row>
-    <row r="501" spans="1:17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="501" spans="1:17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A501" s="2">
         <v>1000</v>
       </c>
@@ -27092,7 +27091,7 @@
       <c r="P501" s="38"/>
       <c r="Q501" s="27"/>
     </row>
-    <row r="502" spans="1:17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="502" spans="1:17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A502" s="2">
         <v>1000</v>
       </c>
@@ -27131,7 +27130,7 @@
       <c r="P502" s="38"/>
       <c r="Q502" s="27"/>
     </row>
-    <row r="503" spans="1:17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="503" spans="1:17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A503" s="2">
         <v>1000</v>
       </c>
@@ -27170,7 +27169,7 @@
       <c r="P503" s="38"/>
       <c r="Q503" s="27"/>
     </row>
-    <row r="504" spans="1:17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="504" spans="1:17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A504" s="2">
         <v>1000</v>
       </c>
@@ -27209,7 +27208,7 @@
       <c r="P504" s="38"/>
       <c r="Q504" s="27"/>
     </row>
-    <row r="505" spans="1:17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="505" spans="1:17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A505" s="2">
         <v>1000</v>
       </c>
@@ -27248,7 +27247,7 @@
       <c r="P505" s="38"/>
       <c r="Q505" s="27"/>
     </row>
-    <row r="506" spans="1:17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="506" spans="1:17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A506" s="2">
         <v>1000</v>
       </c>
@@ -27287,7 +27286,7 @@
       <c r="P506" s="38"/>
       <c r="Q506" s="27"/>
     </row>
-    <row r="507" spans="1:17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="507" spans="1:17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A507" s="2">
         <v>1000</v>
       </c>
@@ -27326,7 +27325,7 @@
       <c r="P507" s="38"/>
       <c r="Q507" s="27"/>
     </row>
-    <row r="508" spans="1:17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="508" spans="1:17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A508" s="2">
         <v>1000</v>
       </c>
@@ -27365,7 +27364,7 @@
       <c r="P508" s="38"/>
       <c r="Q508" s="27"/>
     </row>
-    <row r="509" spans="1:17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="509" spans="1:17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A509" s="2">
         <v>1000</v>
       </c>
@@ -27404,7 +27403,7 @@
       <c r="P509" s="38"/>
       <c r="Q509" s="27"/>
     </row>
-    <row r="510" spans="1:17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="510" spans="1:17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A510" s="2">
         <v>1000</v>
       </c>
@@ -27443,7 +27442,7 @@
       <c r="P510" s="38"/>
       <c r="Q510" s="27"/>
     </row>
-    <row r="511" spans="1:17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="511" spans="1:17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A511" s="2">
         <v>1000</v>
       </c>
@@ -27482,7 +27481,7 @@
       <c r="P511" s="38"/>
       <c r="Q511" s="27"/>
     </row>
-    <row r="512" spans="1:17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="512" spans="1:17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A512" s="2">
         <v>1000</v>
       </c>
@@ -27521,7 +27520,7 @@
       <c r="P512" s="38"/>
       <c r="Q512" s="27"/>
     </row>
-    <row r="513" spans="1:17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="513" spans="1:17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A513" s="2">
         <v>1000</v>
       </c>
@@ -27560,7 +27559,7 @@
       <c r="P513" s="38"/>
       <c r="Q513" s="27"/>
     </row>
-    <row r="514" spans="1:17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="514" spans="1:17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A514" s="2">
         <v>1000</v>
       </c>
@@ -27599,7 +27598,7 @@
       <c r="P514" s="38"/>
       <c r="Q514" s="27"/>
     </row>
-    <row r="515" spans="1:17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="515" spans="1:17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A515" s="2">
         <v>1000</v>
       </c>
@@ -27636,7 +27635,7 @@
       <c r="P515" s="38"/>
       <c r="Q515" s="27"/>
     </row>
-    <row r="516" spans="1:17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="516" spans="1:17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A516" s="2">
         <v>1000</v>
       </c>
@@ -27673,7 +27672,7 @@
       <c r="P516" s="38"/>
       <c r="Q516" s="27"/>
     </row>
-    <row r="517" spans="1:17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="517" spans="1:17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A517" s="2">
         <v>1000</v>
       </c>
@@ -27710,7 +27709,7 @@
       <c r="P517" s="38"/>
       <c r="Q517" s="27"/>
     </row>
-    <row r="518" spans="1:17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="518" spans="1:17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A518" s="4">
         <v>1100</v>
       </c>
@@ -27745,7 +27744,7 @@
       <c r="P518" s="38"/>
       <c r="Q518" s="27"/>
     </row>
-    <row r="519" spans="1:17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="519" spans="1:17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A519" s="4">
         <v>1300</v>
       </c>
@@ -27868,7 +27867,7 @@
       <c r="P521" s="38"/>
       <c r="Q521" s="27"/>
     </row>
-    <row r="522" spans="1:17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="522" spans="1:17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A522" s="4">
         <v>1300</v>
       </c>
@@ -27905,7 +27904,7 @@
       <c r="P522" s="38"/>
       <c r="Q522" s="27"/>
     </row>
-    <row r="523" spans="1:17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="523" spans="1:17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A523" s="4">
         <v>1300</v>
       </c>
@@ -27942,7 +27941,7 @@
       <c r="P523" s="38"/>
       <c r="Q523" s="27"/>
     </row>
-    <row r="524" spans="1:17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="524" spans="1:17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A524" s="4">
         <v>1300</v>
       </c>
@@ -27979,7 +27978,7 @@
       <c r="P524" s="38"/>
       <c r="Q524" s="27"/>
     </row>
-    <row r="525" spans="1:17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="525" spans="1:17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A525" s="4">
         <v>1300</v>
       </c>
@@ -28016,7 +28015,7 @@
       <c r="P525" s="38"/>
       <c r="Q525" s="27"/>
     </row>
-    <row r="526" spans="1:17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="526" spans="1:17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A526" s="4">
         <v>1300</v>
       </c>
@@ -28053,7 +28052,7 @@
       <c r="P526" s="38"/>
       <c r="Q526" s="27"/>
     </row>
-    <row r="527" spans="1:17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="527" spans="1:17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A527" s="4">
         <v>1300</v>
       </c>
@@ -28090,7 +28089,7 @@
       <c r="P527" s="38"/>
       <c r="Q527" s="27"/>
     </row>
-    <row r="528" spans="1:17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="528" spans="1:17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A528" s="4">
         <v>1300</v>
       </c>
@@ -28133,7 +28132,7 @@
       <c r="P528" s="38"/>
       <c r="Q528" s="27"/>
     </row>
-    <row r="529" spans="1:17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="529" spans="1:17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A529" s="4">
         <v>1300</v>
       </c>
@@ -28176,7 +28175,7 @@
       <c r="P529" s="38"/>
       <c r="Q529" s="27"/>
     </row>
-    <row r="530" spans="1:17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="530" spans="1:17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A530" s="4">
         <v>1300</v>
       </c>
@@ -28213,7 +28212,7 @@
       <c r="P530" s="38"/>
       <c r="Q530" s="27"/>
     </row>
-    <row r="531" spans="1:17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="531" spans="1:17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A531" s="4">
         <v>1300</v>
       </c>
@@ -28852,7 +28851,7 @@
       <c r="P545" s="38"/>
       <c r="Q545" s="27"/>
     </row>
-    <row r="546" spans="1:17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="546" spans="1:17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A546" s="4">
         <v>1300</v>
       </c>
@@ -28889,7 +28888,7 @@
       <c r="P546" s="38"/>
       <c r="Q546" s="27"/>
     </row>
-    <row r="547" spans="1:17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="547" spans="1:17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A547" s="4">
         <v>1300</v>
       </c>
@@ -28926,7 +28925,7 @@
       <c r="P547" s="38"/>
       <c r="Q547" s="27"/>
     </row>
-    <row r="548" spans="1:17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="548" spans="1:17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A548" s="4">
         <v>1300</v>
       </c>
@@ -28963,7 +28962,7 @@
       <c r="P548" s="38"/>
       <c r="Q548" s="27"/>
     </row>
-    <row r="549" spans="1:17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="549" spans="1:17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A549" s="4">
         <v>1300</v>
       </c>
@@ -29172,7 +29171,7 @@
       <c r="P553" s="38"/>
       <c r="Q553" s="27"/>
     </row>
-    <row r="554" spans="1:17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="554" spans="1:17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A554" s="4">
         <v>1300</v>
       </c>
@@ -29209,7 +29208,7 @@
       <c r="P554" s="38"/>
       <c r="Q554" s="27"/>
     </row>
-    <row r="555" spans="1:17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="555" spans="1:17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A555" s="4">
         <v>1300</v>
       </c>
@@ -29246,7 +29245,7 @@
       <c r="P555" s="38"/>
       <c r="Q555" s="27"/>
     </row>
-    <row r="556" spans="1:17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="556" spans="1:17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A556" s="4">
         <v>1300</v>
       </c>
@@ -29283,7 +29282,7 @@
       <c r="P556" s="38"/>
       <c r="Q556" s="27"/>
     </row>
-    <row r="557" spans="1:17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="557" spans="1:17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A557" s="4">
         <v>1300</v>
       </c>
@@ -29320,7 +29319,7 @@
       <c r="P557" s="38"/>
       <c r="Q557" s="27"/>
     </row>
-    <row r="558" spans="1:17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="558" spans="1:17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A558" s="4">
         <v>1300</v>
       </c>
@@ -29357,7 +29356,7 @@
       <c r="P558" s="38"/>
       <c r="Q558" s="27"/>
     </row>
-    <row r="559" spans="1:17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="559" spans="1:17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A559" s="4">
         <v>1300</v>
       </c>
@@ -29394,7 +29393,7 @@
       <c r="P559" s="38"/>
       <c r="Q559" s="27"/>
     </row>
-    <row r="560" spans="1:17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="560" spans="1:17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A560" s="4">
         <v>1300</v>
       </c>
@@ -29431,7 +29430,7 @@
       <c r="P560" s="38"/>
       <c r="Q560" s="27"/>
     </row>
-    <row r="561" spans="1:17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="561" spans="1:17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A561" s="4">
         <v>1300</v>
       </c>
@@ -29474,7 +29473,7 @@
       <c r="P561" s="38"/>
       <c r="Q561" s="27"/>
     </row>
-    <row r="562" spans="1:17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="562" spans="1:17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A562" s="4">
         <v>1300</v>
       </c>
@@ -29517,7 +29516,7 @@
       <c r="P562" s="38"/>
       <c r="Q562" s="27"/>
     </row>
-    <row r="563" spans="1:17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="563" spans="1:17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A563" s="4">
         <v>1300</v>
       </c>
@@ -29560,7 +29559,7 @@
       <c r="P563" s="38"/>
       <c r="Q563" s="27"/>
     </row>
-    <row r="564" spans="1:17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="564" spans="1:17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A564" s="4">
         <v>1300</v>
       </c>
@@ -29603,7 +29602,7 @@
       <c r="P564" s="38"/>
       <c r="Q564" s="27"/>
     </row>
-    <row r="565" spans="1:17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="565" spans="1:17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A565" s="4">
         <v>1300</v>
       </c>
@@ -29640,7 +29639,7 @@
       <c r="P565" s="38"/>
       <c r="Q565" s="27"/>
     </row>
-    <row r="566" spans="1:17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="566" spans="1:17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A566" s="4">
         <v>1300</v>
       </c>
@@ -29677,7 +29676,7 @@
       <c r="P566" s="38"/>
       <c r="Q566" s="27"/>
     </row>
-    <row r="567" spans="1:17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="567" spans="1:17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A567" s="4">
         <v>1300</v>
       </c>
@@ -29714,7 +29713,7 @@
       <c r="P567" s="38"/>
       <c r="Q567" s="27"/>
     </row>
-    <row r="568" spans="1:17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="568" spans="1:17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A568" s="4">
         <v>1300</v>
       </c>
@@ -29751,7 +29750,7 @@
       <c r="P568" s="38"/>
       <c r="Q568" s="27"/>
     </row>
-    <row r="569" spans="1:17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="569" spans="1:17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A569" s="4">
         <v>1300</v>
       </c>
@@ -29788,7 +29787,7 @@
       <c r="P569" s="38"/>
       <c r="Q569" s="27"/>
     </row>
-    <row r="570" spans="1:17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="570" spans="1:17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A570" s="4">
         <v>1300</v>
       </c>
@@ -29825,7 +29824,7 @@
       <c r="P570" s="38"/>
       <c r="Q570" s="27"/>
     </row>
-    <row r="571" spans="1:17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="571" spans="1:17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A571" s="4">
         <v>1300</v>
       </c>
@@ -29862,7 +29861,7 @@
       <c r="P571" s="38"/>
       <c r="Q571" s="27"/>
     </row>
-    <row r="572" spans="1:17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="572" spans="1:17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A572" s="4">
         <v>1300</v>
       </c>
@@ -29899,7 +29898,7 @@
       <c r="P572" s="38"/>
       <c r="Q572" s="27"/>
     </row>
-    <row r="573" spans="1:17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="573" spans="1:17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A573" s="4">
         <v>1300</v>
       </c>
@@ -29936,7 +29935,7 @@
       <c r="P573" s="38"/>
       <c r="Q573" s="27"/>
     </row>
-    <row r="574" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="574" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A574" s="33">
         <v>1300</v>
       </c>
@@ -29977,7 +29976,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="575" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="575" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A575" s="33">
         <v>1300</v>
       </c>
@@ -30018,7 +30017,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="576" spans="1:17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="576" spans="1:17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A576" s="4">
         <v>1300</v>
       </c>
@@ -30055,7 +30054,7 @@
       <c r="P576" s="38"/>
       <c r="Q576" s="27"/>
     </row>
-    <row r="577" spans="1:17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="577" spans="1:17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A577" s="4">
         <v>1300</v>
       </c>
@@ -30092,7 +30091,7 @@
       <c r="P577" s="38"/>
       <c r="Q577" s="27"/>
     </row>
-    <row r="578" spans="1:17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="578" spans="1:17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A578" s="4">
         <v>1300</v>
       </c>
@@ -30129,7 +30128,7 @@
       <c r="P578" s="38"/>
       <c r="Q578" s="27"/>
     </row>
-    <row r="579" spans="1:17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="579" spans="1:17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A579" s="4">
         <v>1300</v>
       </c>
@@ -30166,7 +30165,7 @@
       <c r="P579" s="38"/>
       <c r="Q579" s="27"/>
     </row>
-    <row r="580" spans="1:17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="580" spans="1:17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A580" s="4">
         <v>1300</v>
       </c>
@@ -30203,7 +30202,7 @@
       <c r="P580" s="38"/>
       <c r="Q580" s="27"/>
     </row>
-    <row r="581" spans="1:17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="581" spans="1:17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A581" s="4">
         <v>1300</v>
       </c>
@@ -30240,7 +30239,7 @@
       <c r="P581" s="38"/>
       <c r="Q581" s="27"/>
     </row>
-    <row r="582" spans="1:17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="582" spans="1:17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A582" s="4">
         <v>1300</v>
       </c>
@@ -30277,7 +30276,7 @@
       <c r="P582" s="38"/>
       <c r="Q582" s="27"/>
     </row>
-    <row r="583" spans="1:17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="583" spans="1:17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A583" s="4">
         <v>1300</v>
       </c>
@@ -30314,7 +30313,7 @@
       <c r="P583" s="38"/>
       <c r="Q583" s="27"/>
     </row>
-    <row r="584" spans="1:17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="584" spans="1:17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A584" s="4">
         <v>1300</v>
       </c>
@@ -30351,7 +30350,7 @@
       <c r="P584" s="38"/>
       <c r="Q584" s="27"/>
     </row>
-    <row r="585" spans="1:17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="585" spans="1:17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A585" s="4">
         <v>1300</v>
       </c>
@@ -30388,7 +30387,7 @@
       <c r="P585" s="38"/>
       <c r="Q585" s="27"/>
     </row>
-    <row r="586" spans="1:17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="586" spans="1:17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A586" s="4">
         <v>1300</v>
       </c>
@@ -30423,7 +30422,7 @@
       <c r="P586" s="38"/>
       <c r="Q586" s="27"/>
     </row>
-    <row r="587" spans="1:17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="587" spans="1:17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A587" s="4">
         <v>1300</v>
       </c>
@@ -30499,7 +30498,7 @@
       <c r="P588" s="38"/>
       <c r="Q588" s="27"/>
     </row>
-    <row r="589" spans="1:17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="589" spans="1:17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A589" s="4">
         <v>1300</v>
       </c>
@@ -30536,7 +30535,7 @@
       <c r="P589" s="38"/>
       <c r="Q589" s="27"/>
     </row>
-    <row r="590" spans="1:17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="590" spans="1:17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A590" s="4">
         <v>1300</v>
       </c>
@@ -30573,7 +30572,7 @@
       <c r="P590" s="38"/>
       <c r="Q590" s="27"/>
     </row>
-    <row r="591" spans="1:17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="591" spans="1:17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A591" s="2">
         <v>1400</v>
       </c>
@@ -30608,7 +30607,7 @@
       <c r="P591" s="38"/>
       <c r="Q591" s="27"/>
     </row>
-    <row r="592" spans="1:17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="592" spans="1:17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A592" s="2">
         <v>1400</v>
       </c>
@@ -30770,46 +30769,7 @@
     <protectedRange sqref="D8:D94" name="Range1"/>
     <protectedRange sqref="D591" name="Range1_1"/>
   </protectedRanges>
-  <autoFilter ref="A7:AF595" xr:uid="{00000000-0009-0000-0000-000000000000}">
-    <filterColumn colId="2">
-      <filters>
-        <filter val="0150WP01"/>
-        <filter val="0150WP02"/>
-        <filter val="0150WP03"/>
-        <filter val="0830WP01"/>
-        <filter val="0940WP01"/>
-        <filter val="0940WP02"/>
-        <filter val="0950WP01"/>
-        <filter val="0950WP02"/>
-        <filter val="0950WP03"/>
-        <filter val="0950WP04"/>
-        <filter val="1310WP01"/>
-        <filter val="1310WP02"/>
-        <filter val="1320WP01"/>
-        <filter val="1320WP02"/>
-        <filter val="1320WP03"/>
-        <filter val="1320WP04"/>
-        <filter val="1320WP05"/>
-        <filter val="1320WP06"/>
-        <filter val="1320WP07"/>
-        <filter val="1320WP08"/>
-        <filter val="1320WP09"/>
-        <filter val="1320WP10"/>
-        <filter val="1320WP11"/>
-        <filter val="1320WP12"/>
-        <filter val="1320WP13"/>
-        <filter val="1320WP14"/>
-        <filter val="1330WP01"/>
-        <filter val="1330WP02"/>
-        <filter val="1330WP03"/>
-        <filter val="1330WP04"/>
-        <filter val="1390WP01"/>
-        <filter val="1400WP01"/>
-        <filter val="1400WP02"/>
-        <filter val="1400WP03"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A7:AF595" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <mergeCells count="1">
     <mergeCell ref="AA1:AF1"/>
   </mergeCells>
@@ -56214,7 +56174,7 @@
         <v>1.8600000000000003</v>
       </c>
     </row>
-    <row r="960" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="960" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A960" s="3" t="s">
         <v>1317</v>
       </c>
@@ -56228,7 +56188,7 @@
         <v>1.8600000000000003</v>
       </c>
     </row>
-    <row r="961" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="961" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A961" s="5" t="s">
         <v>1318</v>
       </c>
@@ -56242,7 +56202,7 @@
         <v>1.8600000000000003</v>
       </c>
     </row>
-    <row r="962" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="962" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A962" s="3" t="s">
         <v>1325</v>
       </c>
@@ -56256,7 +56216,7 @@
         <v>1.8600000000000003</v>
       </c>
     </row>
-    <row r="963" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="963" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A963" s="5" t="s">
         <v>1326</v>
       </c>
